--- a/tests/ExcelProcesser.Tests/resources/testData.xlsx
+++ b/tests/ExcelProcesser.Tests/resources/testData.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6232486-3095-4DF5-B072-6850A993D615}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5682E7-AD2D-4022-9024-7924A18E626B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matrix" sheetId="1" r:id="rId1"/>
     <sheet name="Math" sheetId="2" r:id="rId2"/>
+    <sheet name="Sematics" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="80">
   <si>
     <t>Input</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -135,138 +136,191 @@
     <t>Cross_1A</t>
   </si>
   <si>
+    <t>Cross_1E</t>
+  </si>
+  <si>
+    <t>Cross_1C</t>
+  </si>
+  <si>
+    <t>Cross_1D</t>
+  </si>
+  <si>
+    <t>cross area 1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cross area 2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cross_2A</t>
+  </si>
+  <si>
+    <t>Cross_2B</t>
+  </si>
+  <si>
+    <t>Cross_2E</t>
+  </si>
+  <si>
+    <t>Cross_2C</t>
+  </si>
+  <si>
+    <t>Cross_2D</t>
+  </si>
+  <si>
+    <t>compose c2 and r2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2_R2A</t>
+  </si>
+  <si>
+    <t>C2_R2B</t>
+  </si>
+  <si>
+    <t>C2_R2C</t>
+  </si>
+  <si>
+    <t>column many</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>row many</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cm_skip_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cm_skip_2</t>
+  </si>
+  <si>
+    <t>cm_skip_3</t>
+  </si>
+  <si>
+    <t>cm_skip_4</t>
+  </si>
+  <si>
+    <t>column many with skip</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mxOR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mxOR_A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mxOR_B</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cm_n1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cm_n2</t>
+  </si>
+  <si>
+    <t>cm_n3</t>
+  </si>
+  <si>
+    <t>cm_n4</t>
+  </si>
+  <si>
+    <t>rm_n1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rm_n2</t>
+  </si>
+  <si>
+    <t>rm_n3</t>
+  </si>
+  <si>
+    <t>rm_n4</t>
+  </si>
+  <si>
+    <t>mx until</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mx_until1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mx_until2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mx_until3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mx_until4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mx sum</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Size</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mx grouping columns header</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mx grouping columns</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>compose c2 and c2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2_C2A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2_C2B</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2_C2C</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>Cross_1B</t>
-  </si>
-  <si>
-    <t>Cross_1E</t>
-  </si>
-  <si>
-    <t>Cross_1C</t>
-  </si>
-  <si>
-    <t>Cross_1D</t>
-  </si>
-  <si>
-    <t>cross area 1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>cross area 2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cross_2A</t>
-  </si>
-  <si>
-    <t>Cross_2B</t>
-  </si>
-  <si>
-    <t>Cross_2E</t>
-  </si>
-  <si>
-    <t>Cross_2C</t>
-  </si>
-  <si>
-    <t>Cross_2D</t>
-  </si>
-  <si>
-    <t>compose c2 and r2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C2_R2A</t>
-  </si>
-  <si>
-    <t>C2_R2B</t>
-  </si>
-  <si>
-    <t>C2_R2C</t>
-  </si>
-  <si>
-    <t>column many</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>row many</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>cm_skip_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>cm_skip_2</t>
-  </si>
-  <si>
-    <t>cm_skip_3</t>
-  </si>
-  <si>
-    <t>cm_skip_4</t>
-  </si>
-  <si>
-    <t>column many with skip</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>mxOR</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>mxOR_A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>mxOR_B</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>cm_n1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>cm_n2</t>
-  </si>
-  <si>
-    <t>cm_n3</t>
-  </si>
-  <si>
-    <t>cm_n4</t>
-  </si>
-  <si>
-    <t>rm_n1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>rm_n2</t>
-  </si>
-  <si>
-    <t>rm_n3</t>
-  </si>
-  <si>
-    <t>rm_n4</t>
-  </si>
-  <si>
-    <t>mx until</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>mx_until1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>mx_until2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>mx_until3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>mx_until4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>mx sum</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mxMergeStarter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Merge1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Merge2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>column many with skip backtrack</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cm_skip_backTrack1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cm_skip_backTrack2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -274,7 +328,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,8 +359,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -323,10 +395,99 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -342,14 +503,44 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -633,10 +824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H76"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73:A76"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -645,12 +836,12 @@
     <col min="2" max="5" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -658,372 +849,441 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="E6" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="12"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C12" t="s">
         <v>51</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="C38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+      <c r="B43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
+      <c r="B44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="7"/>
+      <c r="B49" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
+      <c r="B50" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" t="s">
+        <v>73</v>
+      </c>
+      <c r="D53" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="7"/>
+      <c r="C54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="7"/>
+      <c r="C55" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>33</v>
+      </c>
+      <c r="C59" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="7"/>
+      <c r="C60" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="7"/>
+      <c r="C61" t="s">
+        <v>37</v>
+      </c>
+      <c r="D61" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="C26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" t="s">
-        <v>27</v>
-      </c>
-      <c r="C41" t="s">
-        <v>28</v>
-      </c>
-      <c r="D41" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="C42" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="C43" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" t="s">
-        <v>34</v>
-      </c>
-      <c r="C47" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="C48" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="C49" t="s">
-        <v>38</v>
-      </c>
-      <c r="D49" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="C65" t="s">
+        <v>53</v>
+      </c>
+      <c r="D65" t="s">
+        <v>54</v>
+      </c>
+      <c r="E65" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="7"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="7"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" t="s">
-        <v>53</v>
-      </c>
-      <c r="C53" t="s">
-        <v>54</v>
-      </c>
-      <c r="D53" t="s">
-        <v>55</v>
-      </c>
-      <c r="E53" t="s">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="7"/>
+      <c r="B73" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="7"/>
+      <c r="B74" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="7"/>
+      <c r="B75" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B60" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
-      <c r="B61" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
-      <c r="B62" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
-      <c r="B63" t="s">
+      <c r="D80" t="s">
+        <v>45</v>
+      </c>
+      <c r="E80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="7"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="7"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" t="s">
+        <v>78</v>
+      </c>
+      <c r="C86" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="7"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="7"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B68" t="s">
-        <v>45</v>
-      </c>
-      <c r="D68" t="s">
-        <v>46</v>
-      </c>
-      <c r="E68" t="s">
-        <v>47</v>
-      </c>
-      <c r="H68" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="3"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B74" t="s">
+      <c r="D94" t="s">
         <v>62</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E94" t="s">
         <v>63</v>
       </c>
-      <c r="E74" t="s">
+      <c r="H94" t="s">
         <v>64</v>
       </c>
-      <c r="H74" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="3"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="7"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A74:A76"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A36:A38"/>
+  <mergeCells count="15">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="A80:A82"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A37:A39"/>
     <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A32:A34"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1035,19 +1295,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{171B277E-1E9C-4949-8C4C-5EFD188DCF86}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B2">
@@ -1055,13 +1313,13 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="A3" s="7"/>
       <c r="B3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
+      <c r="A4" s="7"/>
       <c r="B4">
         <f>SUM(B2:B3)</f>
         <v>3</v>
@@ -1074,4 +1332,242 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47900B11-AE46-4148-92BB-2515463F524D}">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="13"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="3">
+        <v>28</v>
+      </c>
+      <c r="C3" s="3">
+        <v>29</v>
+      </c>
+      <c r="D3" s="3">
+        <v>30</v>
+      </c>
+      <c r="E3" s="3">
+        <v>31</v>
+      </c>
+      <c r="F3" s="3">
+        <v>32</v>
+      </c>
+      <c r="G3" s="3">
+        <v>33</v>
+      </c>
+      <c r="H3" s="3">
+        <v>34</v>
+      </c>
+      <c r="I3" s="3">
+        <v>35</v>
+      </c>
+      <c r="J3" s="13"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="3">
+        <v>28</v>
+      </c>
+      <c r="C9" s="3">
+        <v>29</v>
+      </c>
+      <c r="D9" s="3">
+        <v>30</v>
+      </c>
+      <c r="E9" s="3">
+        <v>31</v>
+      </c>
+      <c r="F9" s="3">
+        <v>32</v>
+      </c>
+      <c r="G9" s="3">
+        <v>33</v>
+      </c>
+      <c r="H9" s="3">
+        <v>34</v>
+      </c>
+      <c r="I9" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2</v>
+      </c>
+      <c r="D10" s="5">
+        <v>2</v>
+      </c>
+      <c r="E10" s="5">
+        <v>2</v>
+      </c>
+      <c r="F10" s="5">
+        <v>2</v>
+      </c>
+      <c r="G10" s="5">
+        <v>2</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
+        <v>2</v>
+      </c>
+      <c r="F11" s="5">
+        <v>2</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5">
+        <v>1</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="6">
+        <v>1</v>
+      </c>
+      <c r="I16" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="J2:J3"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tests/ExcelProcesser.Tests/resources/testData.xlsx
+++ b/tests/ExcelProcesser.Tests/resources/testData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5682E7-AD2D-4022-9024-7924A18E626B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D220ABD-2599-4870-87BB-50C0272AC928}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="115">
   <si>
     <t>Input</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -321,6 +321,248 @@
   </si>
   <si>
     <t>cm_skip_backTrack2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mx twoRowHeaderPivotTable</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Cust. REF</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+客人货号</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>REF ORDER</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  客人型号</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Fact. S/N</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+公司货号</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Colour</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>颜色</t>
+    </r>
+  </si>
+  <si>
+    <t>法文颜色</t>
+  </si>
+  <si>
+    <r>
+      <t>PICTURE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>图片</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+鞋面材料和颜色</t>
+  </si>
+  <si>
+    <r>
+      <t>Descrt</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+货品描述</t>
+    </r>
+  </si>
+  <si>
+    <t>ASST</t>
+  </si>
+  <si>
+    <t>Size run （配码）</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pack
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>箱</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cartons</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+箱数</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Details       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>箱号</t>
+    </r>
+  </si>
+  <si>
+    <t>内盒规格外径</t>
+  </si>
+  <si>
+    <t>外箱规格</t>
+  </si>
+  <si>
+    <t>交期</t>
+  </si>
+  <si>
+    <t>毛重</t>
+  </si>
+  <si>
+    <t>净重</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>MARINE</t>
+  </si>
+  <si>
+    <t>蓝色布同确认样</t>
+  </si>
+  <si>
+    <t>童鞋</t>
+  </si>
+  <si>
+    <t>1-170</t>
+  </si>
+  <si>
+    <t>25*12.5*10</t>
+  </si>
+  <si>
+    <t>41.5*39*26.5</t>
+  </si>
+  <si>
+    <t>1-98</t>
+  </si>
+  <si>
+    <t>51.5*26.5*26.5</t>
+  </si>
+  <si>
+    <t>1--6</t>
+  </si>
+  <si>
+    <t>51.5*41.5*26.5</t>
+  </si>
+  <si>
+    <t>合计：</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>ORDER NO.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pairs</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Volume</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -328,7 +570,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="177" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,8 +623,97 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -401,8 +736,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -493,8 +840,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -502,8 +915,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyBorder="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyBorder="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
@@ -521,6 +940,9 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -536,17 +958,175 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="3">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="4">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="3" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="3" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="4" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="3" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
+    <cellStyle name="Border" xfId="3" xr:uid="{A8EA7BFC-615F-4690-820A-2F9D349AA9C9}"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Number" xfId="4" xr:uid="{2D041BF4-1455-4CE8-B095-13490AFABE14}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -559,6 +1139,85 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>960120</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>373380</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F6BBB00-BD7D-477D-8C34-0C3772230EE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3756660" y="3375660"/>
+          <a:ext cx="510540" cy="198120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -858,14 +1517,14 @@
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="E6" s="12" t="s">
+      <c r="C6" s="7"/>
+      <c r="E6" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F6" s="12"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -924,7 +1583,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B22" t="s">
@@ -932,7 +1591,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
+      <c r="A23" s="8"/>
       <c r="B23" t="s">
         <v>8</v>
       </c>
@@ -943,7 +1602,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B27" t="s">
@@ -951,13 +1610,13 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
+      <c r="A28" s="8"/>
       <c r="B28" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
+      <c r="A29" s="8"/>
       <c r="B29" t="s">
         <v>16</v>
       </c>
@@ -968,7 +1627,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B32" t="s">
@@ -982,10 +1641,10 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
+      <c r="A33" s="8"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
+      <c r="A34" s="8"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -993,7 +1652,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B37" t="s">
@@ -1004,13 +1663,13 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
+      <c r="A38" s="8"/>
       <c r="C38" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
+      <c r="A39" s="8"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
@@ -1018,7 +1677,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B42" t="s">
@@ -1029,13 +1688,13 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
+      <c r="A43" s="8"/>
       <c r="B43" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
+      <c r="A44" s="8"/>
       <c r="B44" t="s">
         <v>20</v>
       </c>
@@ -1046,7 +1705,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B48" t="s">
@@ -1057,13 +1716,13 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
+      <c r="A49" s="8"/>
       <c r="B49" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
+      <c r="A50" s="8"/>
       <c r="B50" t="s">
         <v>25</v>
       </c>
@@ -1074,7 +1733,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B53" t="s">
@@ -1088,13 +1747,13 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="7"/>
+      <c r="A54" s="8"/>
       <c r="C54" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
+      <c r="A55" s="8"/>
       <c r="C55" t="s">
         <v>30</v>
       </c>
@@ -1105,7 +1764,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B59" t="s">
@@ -1116,13 +1775,13 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="7"/>
+      <c r="A60" s="8"/>
       <c r="C60" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="7"/>
+      <c r="A61" s="8"/>
       <c r="C61" t="s">
         <v>37</v>
       </c>
@@ -1136,7 +1795,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B65" t="s">
@@ -1153,10 +1812,10 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="7"/>
+      <c r="A66" s="8"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="7"/>
+      <c r="A67" s="8"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
@@ -1164,7 +1823,7 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
+      <c r="A72" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B72" t="s">
@@ -1172,19 +1831,19 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="7"/>
+      <c r="A73" s="8"/>
       <c r="B73" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="7"/>
+      <c r="A74" s="8"/>
       <c r="B74" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="7"/>
+      <c r="A75" s="8"/>
       <c r="B75" t="s">
         <v>59</v>
       </c>
@@ -1195,7 +1854,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="7" t="s">
+      <c r="A80" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B80" t="s">
@@ -1212,10 +1871,10 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="7"/>
+      <c r="A81" s="8"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="7"/>
+      <c r="A82" s="8"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
@@ -1223,7 +1882,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="7" t="s">
+      <c r="A86" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B86" t="s">
@@ -1234,10 +1893,10 @@
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="7"/>
+      <c r="A87" s="8"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="7"/>
+      <c r="A88" s="8"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
@@ -1245,7 +1904,7 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="7" t="s">
+      <c r="A94" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B94" t="s">
@@ -1262,10 +1921,10 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="7"/>
+      <c r="A95" s="8"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="7"/>
+      <c r="A96" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -1305,7 +1964,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2">
@@ -1313,13 +1972,13 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
+      <c r="A3" s="8"/>
       <c r="B3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+      <c r="A4" s="8"/>
       <c r="B4">
         <f>SUM(B2:B3)</f>
         <v>3</v>
@@ -1336,10 +1995,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47900B11-AE46-4148-92BB-2515463F524D}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:AC33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="I16" workbookViewId="0">
+      <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1350,23 +2009,23 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="11"/>
       <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="3">
         <v>28</v>
       </c>
@@ -1399,22 +2058,22 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="3">
         <v>28</v>
       </c>
@@ -1441,7 +2100,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="4">
         <v>1</v>
       </c>
@@ -1468,7 +2127,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="4">
         <v>1</v>
       </c>
@@ -1495,7 +2154,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4">
@@ -1508,7 +2167,7 @@
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="4"/>
@@ -1521,7 +2180,7 @@
       <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -1534,7 +2193,7 @@
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -1547,7 +2206,7 @@
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -1559,8 +2218,639 @@
       </c>
       <c r="I16" s="6"/>
     </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="U23" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="V23" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="W23" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="X23" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y23" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z23" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA23" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB23" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC23" s="66" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="3">
+        <v>28</v>
+      </c>
+      <c r="M24" s="3">
+        <v>29</v>
+      </c>
+      <c r="N24" s="3">
+        <v>30</v>
+      </c>
+      <c r="O24" s="3">
+        <v>31</v>
+      </c>
+      <c r="P24" s="3">
+        <v>32</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>33</v>
+      </c>
+      <c r="R24" s="3">
+        <v>34</v>
+      </c>
+      <c r="S24" s="3">
+        <v>35</v>
+      </c>
+      <c r="T24" s="26"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="28"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="30"/>
+      <c r="Y24" s="31"/>
+      <c r="Z24" s="22"/>
+      <c r="AA24" s="23"/>
+      <c r="AB24" s="23"/>
+      <c r="AC24" s="24"/>
+    </row>
+    <row r="25" spans="1:29" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="32">
+        <v>16501</v>
+      </c>
+      <c r="C25" s="32">
+        <v>91338035</v>
+      </c>
+      <c r="D25" s="33">
+        <v>532325</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="F25" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="G25" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="H25" s="32"/>
+      <c r="I25" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="J25" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="K25" s="35"/>
+      <c r="L25" s="4">
+        <v>1</v>
+      </c>
+      <c r="M25" s="5">
+        <v>1</v>
+      </c>
+      <c r="N25" s="5">
+        <v>2</v>
+      </c>
+      <c r="O25" s="5">
+        <v>2</v>
+      </c>
+      <c r="P25" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="5">
+        <v>2</v>
+      </c>
+      <c r="R25" s="5">
+        <v>1</v>
+      </c>
+      <c r="S25" s="5">
+        <v>1</v>
+      </c>
+      <c r="T25" s="36">
+        <v>12</v>
+      </c>
+      <c r="U25" s="37">
+        <v>170</v>
+      </c>
+      <c r="V25" s="33">
+        <f>T25*U25</f>
+        <v>2040</v>
+      </c>
+      <c r="W25" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="X25" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y25" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z25" s="41">
+        <v>43171</v>
+      </c>
+      <c r="AA25" s="42"/>
+      <c r="AB25" s="42"/>
+      <c r="AC25" s="43">
+        <f>0.415*0.39*0.265*U25</f>
+        <v>7.2913424999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="33">
+        <v>532326</v>
+      </c>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="4">
+        <v>1</v>
+      </c>
+      <c r="M26" s="5">
+        <v>1</v>
+      </c>
+      <c r="N26" s="5">
+        <v>1</v>
+      </c>
+      <c r="O26" s="5">
+        <v>2</v>
+      </c>
+      <c r="P26" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="5">
+        <v>1</v>
+      </c>
+      <c r="R26" s="5">
+        <v>1</v>
+      </c>
+      <c r="S26" s="5">
+        <v>1</v>
+      </c>
+      <c r="T26" s="36">
+        <v>10</v>
+      </c>
+      <c r="U26" s="37">
+        <v>98</v>
+      </c>
+      <c r="V26" s="33">
+        <f t="shared" ref="V26:V31" si="0">T26*U26</f>
+        <v>980</v>
+      </c>
+      <c r="W26" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="X26" s="39"/>
+      <c r="Y26" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z26" s="45"/>
+      <c r="AA26" s="42"/>
+      <c r="AB26" s="42"/>
+      <c r="AC26" s="43">
+        <f>0.515*0.265*0.265*U26</f>
+        <v>3.5442557500000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="33">
+        <v>533180</v>
+      </c>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="4">
+        <v>1</v>
+      </c>
+      <c r="O27" s="5"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="36">
+        <v>16</v>
+      </c>
+      <c r="U27" s="37">
+        <v>6</v>
+      </c>
+      <c r="V27" s="33">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="W27" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="X27" s="39"/>
+      <c r="Y27" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z27" s="45"/>
+      <c r="AA27" s="42"/>
+      <c r="AB27" s="42"/>
+      <c r="AC27" s="43">
+        <f>0.515*0.415*0.265*U27</f>
+        <v>0.33982275000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="33">
+        <v>533181</v>
+      </c>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="5">
+        <v>1</v>
+      </c>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="36">
+        <v>16</v>
+      </c>
+      <c r="U28" s="37">
+        <v>6</v>
+      </c>
+      <c r="V28" s="33">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="W28" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="X28" s="39"/>
+      <c r="Y28" s="49"/>
+      <c r="Z28" s="45"/>
+      <c r="AA28" s="42"/>
+      <c r="AB28" s="42"/>
+      <c r="AC28" s="43">
+        <f>0.515*0.415*0.265*U28</f>
+        <v>0.33982275000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="33">
+        <v>533182</v>
+      </c>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="36">
+        <v>16</v>
+      </c>
+      <c r="U29" s="37">
+        <v>6</v>
+      </c>
+      <c r="V29" s="33">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="W29" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="X29" s="39"/>
+      <c r="Y29" s="49"/>
+      <c r="Z29" s="22"/>
+      <c r="AA29" s="42"/>
+      <c r="AB29" s="42"/>
+      <c r="AC29" s="43">
+        <f>0.515*0.415*0.265*U29</f>
+        <v>0.33982275000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="33">
+        <v>533183</v>
+      </c>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5">
+        <v>1</v>
+      </c>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="36">
+        <v>16</v>
+      </c>
+      <c r="U30" s="37">
+        <v>6</v>
+      </c>
+      <c r="V30" s="33">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="W30" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="X30" s="39"/>
+      <c r="Y30" s="49"/>
+      <c r="Z30" s="22"/>
+      <c r="AA30" s="42"/>
+      <c r="AB30" s="42"/>
+      <c r="AC30" s="43">
+        <f>0.515*0.415*0.265*U30</f>
+        <v>0.33982275000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A31" s="12"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="33">
+        <v>533184</v>
+      </c>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="6">
+        <v>1</v>
+      </c>
+      <c r="S31" s="6"/>
+      <c r="T31" s="36">
+        <v>16</v>
+      </c>
+      <c r="U31" s="37">
+        <v>6</v>
+      </c>
+      <c r="V31" s="33">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="W31" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="X31" s="39"/>
+      <c r="Y31" s="49"/>
+      <c r="Z31" s="22"/>
+      <c r="AA31" s="42"/>
+      <c r="AB31" s="42"/>
+      <c r="AC31" s="43">
+        <f>0.515*0.415*0.265*U31</f>
+        <v>0.33982275000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A32" s="12"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="32"/>
+      <c r="R32" s="32"/>
+      <c r="S32" s="32"/>
+      <c r="T32" s="32"/>
+      <c r="U32" s="50">
+        <f>SUM(U25:U31)</f>
+        <v>298</v>
+      </c>
+      <c r="V32" s="50">
+        <f>SUM(V25:V31)</f>
+        <v>3500</v>
+      </c>
+      <c r="W32" s="46"/>
+      <c r="X32" s="51"/>
+      <c r="Y32" s="52"/>
+      <c r="Z32" s="42"/>
+      <c r="AA32" s="53">
+        <f>SUM(AA25:AA31)</f>
+        <v>0</v>
+      </c>
+      <c r="AB32" s="53">
+        <f>SUM(AB25:AB31)</f>
+        <v>0</v>
+      </c>
+      <c r="AC32" s="54">
+        <f>SUM(AC25:AC31)</f>
+        <v>12.534711999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
+      <c r="B33" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="56"/>
+      <c r="N33" s="56"/>
+      <c r="O33" s="57"/>
+      <c r="P33" s="58"/>
+      <c r="Q33" s="58"/>
+      <c r="R33" s="59"/>
+      <c r="S33" s="56"/>
+      <c r="T33" s="56"/>
+      <c r="U33" s="56">
+        <f>U32</f>
+        <v>298</v>
+      </c>
+      <c r="V33" s="56">
+        <f>V32</f>
+        <v>3500</v>
+      </c>
+      <c r="W33" s="61"/>
+      <c r="X33" s="62"/>
+      <c r="Y33" s="62"/>
+      <c r="Z33" s="63"/>
+      <c r="AA33" s="64"/>
+      <c r="AB33" s="64"/>
+      <c r="AC33" s="65" t="s">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="41">
+    <mergeCell ref="B32:T32"/>
+    <mergeCell ref="A23:A33"/>
+    <mergeCell ref="AA23:AA24"/>
+    <mergeCell ref="AB23:AB24"/>
+    <mergeCell ref="AC23:AC24"/>
+    <mergeCell ref="B25:B31"/>
+    <mergeCell ref="C25:C31"/>
+    <mergeCell ref="E25:E31"/>
+    <mergeCell ref="F25:F31"/>
+    <mergeCell ref="G25:G31"/>
+    <mergeCell ref="H25:H31"/>
+    <mergeCell ref="I25:I31"/>
+    <mergeCell ref="J25:J31"/>
+    <mergeCell ref="K25:K28"/>
+    <mergeCell ref="X25:X31"/>
+    <mergeCell ref="Z25:Z31"/>
+    <mergeCell ref="Y27:Y31"/>
+    <mergeCell ref="K29:K31"/>
+    <mergeCell ref="V23:V24"/>
+    <mergeCell ref="W23:W24"/>
+    <mergeCell ref="X23:X24"/>
+    <mergeCell ref="Y23:Y24"/>
+    <mergeCell ref="Z23:Z24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:S23"/>
+    <mergeCell ref="T23:T24"/>
+    <mergeCell ref="U23:U24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B8:I8"/>
@@ -1569,5 +2859,6 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/tests/ExcelProcesser.Tests/resources/testData.xlsx
+++ b/tests/ExcelProcesser.Tests/resources/testData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D220ABD-2599-4870-87BB-50C0272AC928}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC222CD-F2D2-4CC2-8B47-1288F46A0E62}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matrix" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="126">
   <si>
     <t>Input</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -565,6 +565,49 @@
     <t>Volume</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>Cross_1F</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cross_1G</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cross_1H</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cross_1I</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cross area 3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cross_3A</t>
+  </si>
+  <si>
+    <t>Cross_3B</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cross_3C</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cross_3D</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cross_3E</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cross_3F</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -574,7 +617,7 @@
     <numFmt numFmtId="176" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
     <numFmt numFmtId="177" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -712,8 +755,24 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -746,6 +805,29 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -907,7 +989,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -921,8 +1003,20 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyBorder="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
@@ -940,188 +1034,197 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="8" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="5" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="3" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="3" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="4">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="4" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="3">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="3" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="3">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="4">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="3" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="3" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="4" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="3" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="9">
+    <cellStyle name="20% - Accent1" xfId="6" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="7" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="8" builtinId="32"/>
+    <cellStyle name="Accent1" xfId="5" builtinId="29"/>
     <cellStyle name="Border" xfId="3" xr:uid="{A8EA7BFC-615F-4690-820A-2F9D349AA9C9}"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
@@ -1483,10 +1586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H96"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1517,14 +1620,14 @@
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="E6" s="7" t="s">
+      <c r="C6" s="36"/>
+      <c r="E6" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="36"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -1583,7 +1686,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B22" t="s">
@@ -1591,7 +1694,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
+      <c r="A23" s="37"/>
       <c r="B23" t="s">
         <v>8</v>
       </c>
@@ -1602,7 +1705,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B27" t="s">
@@ -1610,13 +1713,13 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
+      <c r="A28" s="37"/>
       <c r="B28" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
+      <c r="A29" s="37"/>
       <c r="B29" t="s">
         <v>16</v>
       </c>
@@ -1627,7 +1730,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B32" t="s">
@@ -1641,10 +1744,10 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
+      <c r="A33" s="37"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
+      <c r="A34" s="37"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -1652,7 +1755,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B37" t="s">
@@ -1663,13 +1766,13 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
+      <c r="A38" s="37"/>
       <c r="C38" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
+      <c r="A39" s="37"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
@@ -1677,7 +1780,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B42" t="s">
@@ -1688,13 +1791,13 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
+      <c r="A43" s="37"/>
       <c r="B43" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
+      <c r="A44" s="37"/>
       <c r="B44" t="s">
         <v>20</v>
       </c>
@@ -1705,7 +1808,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B48" t="s">
@@ -1716,13 +1819,13 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
+      <c r="A49" s="37"/>
       <c r="B49" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
+      <c r="A50" s="37"/>
       <c r="B50" t="s">
         <v>25</v>
       </c>
@@ -1733,29 +1836,44 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="32" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
-      <c r="C54" t="s">
+      <c r="A54" s="37"/>
+      <c r="B54" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="31" t="s">
         <v>29</v>
       </c>
+      <c r="D54" s="31" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="8"/>
-      <c r="C55" t="s">
-        <v>30</v>
+      <c r="A55" s="37"/>
+      <c r="B55" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" s="33" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="37"/>
+      <c r="B56" s="34" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1764,7 +1882,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B59" t="s">
@@ -1775,13 +1893,13 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="8"/>
+      <c r="A60" s="37"/>
       <c r="C60" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="8"/>
+      <c r="A61" s="37"/>
       <c r="C61" t="s">
         <v>37</v>
       </c>
@@ -1791,158 +1909,195 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="2"/>
+      <c r="B66" t="s">
+        <v>121</v>
+      </c>
+      <c r="C66" t="s">
+        <v>122</v>
+      </c>
+      <c r="D66" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="2"/>
+      <c r="C67" t="s">
+        <v>123</v>
+      </c>
+      <c r="D67" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="35"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="8" t="s">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B72" t="s">
         <v>52</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C72" t="s">
         <v>53</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D72" t="s">
         <v>54</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E72" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="8"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="8"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="37"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="37"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="8" t="s">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B79" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="8"/>
-      <c r="B73" t="s">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="37"/>
+      <c r="B80" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="8"/>
-      <c r="B74" t="s">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="37"/>
+      <c r="B81" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="8"/>
-      <c r="B75" t="s">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="37"/>
+      <c r="B82" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="8" t="s">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B87" t="s">
         <v>44</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D87" t="s">
         <v>45</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E87" t="s">
         <v>46</v>
       </c>
-      <c r="H80" t="s">
+      <c r="H87" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="8"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="8"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="37"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="37"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="8" t="s">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B93" t="s">
         <v>78</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C93" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="8"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="8"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="37"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="37"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="8" t="s">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B101" t="s">
         <v>61</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D101" t="s">
         <v>62</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E101" t="s">
         <v>63</v>
       </c>
-      <c r="H94" t="s">
+      <c r="H101" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="8"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="8"/>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="37"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="A93:A95"/>
+    <mergeCell ref="A101:A103"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A42:A44"/>
     <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="A80:A82"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="A87:A89"/>
     <mergeCell ref="A59:A61"/>
     <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A53:A55"/>
     <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A53:A56"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1964,7 +2119,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B2">
@@ -1972,13 +2127,13 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
+      <c r="A3" s="37"/>
       <c r="B3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
+      <c r="A4" s="37"/>
       <c r="B4">
         <f>SUM(B2:B3)</f>
         <v>3</v>
@@ -1997,8 +2152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47900B11-AE46-4148-92BB-2515463F524D}">
   <dimension ref="A1:AC33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I16" workbookViewId="0">
-      <selection activeCell="U25" sqref="U25"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2009,23 +2164,23 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="13"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="70"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
+      <c r="A3" s="39"/>
       <c r="B3" s="3">
         <v>28</v>
       </c>
@@ -2050,7 +2205,7 @@
       <c r="I3" s="3">
         <v>35</v>
       </c>
-      <c r="J3" s="13"/>
+      <c r="J3" s="70"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -2058,22 +2213,22 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="65"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="3">
         <v>28</v>
       </c>
@@ -2100,7 +2255,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="4">
         <v>1</v>
       </c>
@@ -2127,7 +2282,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="4">
         <v>1</v>
       </c>
@@ -2154,7 +2309,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4">
@@ -2167,7 +2322,7 @@
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="4"/>
@@ -2180,7 +2335,7 @@
       <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -2193,7 +2348,7 @@
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -2206,7 +2361,7 @@
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -2224,92 +2379,92 @@
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="G23" s="17" t="s">
+      <c r="G23" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="H23" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="I23" s="17" t="s">
+      <c r="I23" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="J23" s="15" t="s">
+      <c r="J23" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="K23" s="15" t="s">
+      <c r="K23" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="L23" s="9" t="s">
+      <c r="L23" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="15" t="s">
+      <c r="M23" s="64"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="64"/>
+      <c r="P23" s="64"/>
+      <c r="Q23" s="64"/>
+      <c r="R23" s="64"/>
+      <c r="S23" s="65"/>
+      <c r="T23" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="U23" s="15" t="s">
+      <c r="U23" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="V23" s="18" t="s">
+      <c r="V23" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="W23" s="19" t="s">
+      <c r="W23" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="X23" s="20" t="s">
+      <c r="X23" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="Y23" s="21" t="s">
+      <c r="Y23" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="Z23" s="22" t="s">
+      <c r="Z23" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="AA23" s="23" t="s">
+      <c r="AA23" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="AB23" s="23" t="s">
+      <c r="AB23" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="AC23" s="66" t="s">
+      <c r="AC23" s="41" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
       <c r="L24" s="3">
         <v>28</v>
       </c>
@@ -2334,45 +2489,45 @@
       <c r="S24" s="3">
         <v>35</v>
       </c>
-      <c r="T24" s="26"/>
-      <c r="U24" s="26"/>
-      <c r="V24" s="28"/>
-      <c r="W24" s="29"/>
-      <c r="X24" s="30"/>
-      <c r="Y24" s="31"/>
-      <c r="Z24" s="22"/>
-      <c r="AA24" s="23"/>
-      <c r="AB24" s="23"/>
-      <c r="AC24" s="24"/>
+      <c r="T24" s="62"/>
+      <c r="U24" s="62"/>
+      <c r="V24" s="54"/>
+      <c r="W24" s="56"/>
+      <c r="X24" s="58"/>
+      <c r="Y24" s="60"/>
+      <c r="Z24" s="50"/>
+      <c r="AA24" s="40"/>
+      <c r="AB24" s="40"/>
+      <c r="AC24" s="42"/>
     </row>
     <row r="25" spans="1:29" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="32">
+      <c r="A25" s="39"/>
+      <c r="B25" s="38">
         <v>16501</v>
       </c>
-      <c r="C25" s="32">
+      <c r="C25" s="38">
         <v>91338035</v>
       </c>
-      <c r="D25" s="33">
+      <c r="D25" s="7">
         <v>532325</v>
       </c>
-      <c r="E25" s="32" t="s">
+      <c r="E25" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="F25" s="34" t="s">
+      <c r="F25" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="G25" s="32" t="s">
+      <c r="G25" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="H25" s="32"/>
-      <c r="I25" s="34" t="s">
+      <c r="H25" s="38"/>
+      <c r="I25" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="J25" s="34" t="s">
+      <c r="J25" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="K25" s="35"/>
+      <c r="K25" s="44"/>
       <c r="L25" s="4">
         <v>1</v>
       </c>
@@ -2397,49 +2552,49 @@
       <c r="S25" s="5">
         <v>1</v>
       </c>
-      <c r="T25" s="36">
+      <c r="T25" s="8">
         <v>12</v>
       </c>
-      <c r="U25" s="37">
+      <c r="U25" s="9">
         <v>170</v>
       </c>
-      <c r="V25" s="33">
+      <c r="V25" s="7">
         <f>T25*U25</f>
         <v>2040</v>
       </c>
-      <c r="W25" s="38" t="s">
+      <c r="W25" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="X25" s="39" t="s">
+      <c r="X25" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="Y25" s="40" t="s">
+      <c r="Y25" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="Z25" s="41">
+      <c r="Z25" s="48">
         <v>43171</v>
       </c>
-      <c r="AA25" s="42"/>
-      <c r="AB25" s="42"/>
-      <c r="AC25" s="43">
+      <c r="AA25" s="12"/>
+      <c r="AB25" s="12"/>
+      <c r="AC25" s="13">
         <f>0.415*0.39*0.265*U25</f>
         <v>7.2913424999999998</v>
       </c>
     </row>
     <row r="26" spans="1:29" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="33">
+      <c r="A26" s="39"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="7">
         <v>532326</v>
       </c>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="44"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="45"/>
       <c r="L26" s="4">
         <v>1</v>
       </c>
@@ -2464,45 +2619,45 @@
       <c r="S26" s="5">
         <v>1</v>
       </c>
-      <c r="T26" s="36">
+      <c r="T26" s="8">
         <v>10</v>
       </c>
-      <c r="U26" s="37">
+      <c r="U26" s="9">
         <v>98</v>
       </c>
-      <c r="V26" s="33">
+      <c r="V26" s="7">
         <f t="shared" ref="V26:V31" si="0">T26*U26</f>
         <v>980</v>
       </c>
-      <c r="W26" s="38" t="s">
+      <c r="W26" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="X26" s="39"/>
-      <c r="Y26" s="40" t="s">
+      <c r="X26" s="47"/>
+      <c r="Y26" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="Z26" s="45"/>
-      <c r="AA26" s="42"/>
-      <c r="AB26" s="42"/>
-      <c r="AC26" s="43">
+      <c r="Z26" s="49"/>
+      <c r="AA26" s="12"/>
+      <c r="AB26" s="12"/>
+      <c r="AC26" s="13">
         <f>0.515*0.265*0.265*U26</f>
         <v>3.5442557500000005</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="33">
+      <c r="A27" s="39"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="7">
         <v>533180</v>
       </c>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="44"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="45"/>
       <c r="L27" s="4"/>
       <c r="M27" s="5"/>
       <c r="N27" s="4">
@@ -2513,45 +2668,45 @@
       <c r="Q27" s="5"/>
       <c r="R27" s="4"/>
       <c r="S27" s="5"/>
-      <c r="T27" s="36">
+      <c r="T27" s="8">
         <v>16</v>
       </c>
-      <c r="U27" s="37">
+      <c r="U27" s="9">
         <v>6</v>
       </c>
-      <c r="V27" s="33">
+      <c r="V27" s="7">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="W27" s="46" t="s">
+      <c r="W27" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="X27" s="39"/>
-      <c r="Y27" s="47" t="s">
+      <c r="X27" s="47"/>
+      <c r="Y27" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="Z27" s="45"/>
-      <c r="AA27" s="42"/>
-      <c r="AB27" s="42"/>
-      <c r="AC27" s="43">
+      <c r="Z27" s="49"/>
+      <c r="AA27" s="12"/>
+      <c r="AB27" s="12"/>
+      <c r="AC27" s="13">
         <f>0.515*0.415*0.265*U27</f>
         <v>0.33982275000000001</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="33">
+      <c r="A28" s="39"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="7">
         <v>533181</v>
       </c>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="48"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="46"/>
       <c r="L28" s="4"/>
       <c r="M28" s="5"/>
       <c r="N28" s="4"/>
@@ -2562,43 +2717,43 @@
       <c r="Q28" s="5"/>
       <c r="R28" s="4"/>
       <c r="S28" s="5"/>
-      <c r="T28" s="36">
+      <c r="T28" s="8">
         <v>16</v>
       </c>
-      <c r="U28" s="37">
+      <c r="U28" s="9">
         <v>6</v>
       </c>
-      <c r="V28" s="33">
+      <c r="V28" s="7">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="W28" s="46" t="s">
+      <c r="W28" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="X28" s="39"/>
-      <c r="Y28" s="49"/>
-      <c r="Z28" s="45"/>
-      <c r="AA28" s="42"/>
-      <c r="AB28" s="42"/>
-      <c r="AC28" s="43">
+      <c r="X28" s="47"/>
+      <c r="Y28" s="52"/>
+      <c r="Z28" s="49"/>
+      <c r="AA28" s="12"/>
+      <c r="AB28" s="12"/>
+      <c r="AC28" s="13">
         <f>0.515*0.415*0.265*U28</f>
         <v>0.33982275000000001</v>
       </c>
     </row>
     <row r="29" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="33">
+      <c r="A29" s="39"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="7">
         <v>533182</v>
       </c>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="44"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="45"/>
       <c r="L29" s="4"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
@@ -2609,43 +2764,43 @@
       <c r="Q29" s="5"/>
       <c r="R29" s="6"/>
       <c r="S29" s="6"/>
-      <c r="T29" s="36">
+      <c r="T29" s="8">
         <v>16</v>
       </c>
-      <c r="U29" s="37">
+      <c r="U29" s="9">
         <v>6</v>
       </c>
-      <c r="V29" s="33">
+      <c r="V29" s="7">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="W29" s="46" t="s">
+      <c r="W29" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="X29" s="39"/>
-      <c r="Y29" s="49"/>
-      <c r="Z29" s="22"/>
-      <c r="AA29" s="42"/>
-      <c r="AB29" s="42"/>
-      <c r="AC29" s="43">
+      <c r="X29" s="47"/>
+      <c r="Y29" s="52"/>
+      <c r="Z29" s="50"/>
+      <c r="AA29" s="12"/>
+      <c r="AB29" s="12"/>
+      <c r="AC29" s="13">
         <f>0.515*0.415*0.265*U29</f>
         <v>0.33982275000000001</v>
       </c>
     </row>
     <row r="30" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="33">
+      <c r="A30" s="39"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="7">
         <v>533183</v>
       </c>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="44"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="45"/>
       <c r="L30" s="4"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
@@ -2656,43 +2811,43 @@
       </c>
       <c r="R30" s="6"/>
       <c r="S30" s="6"/>
-      <c r="T30" s="36">
+      <c r="T30" s="8">
         <v>16</v>
       </c>
-      <c r="U30" s="37">
+      <c r="U30" s="9">
         <v>6</v>
       </c>
-      <c r="V30" s="33">
+      <c r="V30" s="7">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="W30" s="46" t="s">
+      <c r="W30" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="X30" s="39"/>
-      <c r="Y30" s="49"/>
-      <c r="Z30" s="22"/>
-      <c r="AA30" s="42"/>
-      <c r="AB30" s="42"/>
-      <c r="AC30" s="43">
+      <c r="X30" s="47"/>
+      <c r="Y30" s="52"/>
+      <c r="Z30" s="50"/>
+      <c r="AA30" s="12"/>
+      <c r="AB30" s="12"/>
+      <c r="AC30" s="13">
         <f>0.515*0.415*0.265*U30</f>
         <v>0.33982275000000001</v>
       </c>
     </row>
     <row r="31" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="33">
+      <c r="A31" s="39"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="7">
         <v>533184</v>
       </c>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="44"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="45"/>
       <c r="L31" s="4"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
@@ -2703,118 +2858,143 @@
         <v>1</v>
       </c>
       <c r="S31" s="6"/>
-      <c r="T31" s="36">
+      <c r="T31" s="8">
         <v>16</v>
       </c>
-      <c r="U31" s="37">
+      <c r="U31" s="9">
         <v>6</v>
       </c>
-      <c r="V31" s="33">
+      <c r="V31" s="7">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="W31" s="46" t="s">
+      <c r="W31" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="X31" s="39"/>
-      <c r="Y31" s="49"/>
-      <c r="Z31" s="22"/>
-      <c r="AA31" s="42"/>
-      <c r="AB31" s="42"/>
-      <c r="AC31" s="43">
+      <c r="X31" s="47"/>
+      <c r="Y31" s="52"/>
+      <c r="Z31" s="50"/>
+      <c r="AA31" s="12"/>
+      <c r="AB31" s="12"/>
+      <c r="AC31" s="13">
         <f>0.515*0.415*0.265*U31</f>
         <v>0.33982275000000001</v>
       </c>
     </row>
     <row r="32" spans="1:29" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="32"/>
-      <c r="P32" s="32"/>
-      <c r="Q32" s="32"/>
-      <c r="R32" s="32"/>
-      <c r="S32" s="32"/>
-      <c r="T32" s="32"/>
-      <c r="U32" s="50">
+      <c r="A32" s="39"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="38"/>
+      <c r="Q32" s="38"/>
+      <c r="R32" s="38"/>
+      <c r="S32" s="38"/>
+      <c r="T32" s="38"/>
+      <c r="U32" s="15">
         <f>SUM(U25:U31)</f>
         <v>298</v>
       </c>
-      <c r="V32" s="50">
+      <c r="V32" s="15">
         <f>SUM(V25:V31)</f>
         <v>3500</v>
       </c>
-      <c r="W32" s="46"/>
-      <c r="X32" s="51"/>
-      <c r="Y32" s="52"/>
-      <c r="Z32" s="42"/>
-      <c r="AA32" s="53">
+      <c r="W32" s="14"/>
+      <c r="X32" s="16"/>
+      <c r="Y32" s="17"/>
+      <c r="Z32" s="12"/>
+      <c r="AA32" s="18">
         <f>SUM(AA25:AA31)</f>
         <v>0</v>
       </c>
-      <c r="AB32" s="53">
+      <c r="AB32" s="18">
         <f>SUM(AB25:AB31)</f>
         <v>0</v>
       </c>
-      <c r="AC32" s="54">
+      <c r="AC32" s="19">
         <f>SUM(AC25:AC31)</f>
         <v>12.534711999999999</v>
       </c>
     </row>
     <row r="33" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="55" t="s">
+      <c r="A33" s="39"/>
+      <c r="B33" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="60"/>
-      <c r="J33" s="56"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="56"/>
-      <c r="M33" s="56"/>
-      <c r="N33" s="56"/>
-      <c r="O33" s="57"/>
-      <c r="P33" s="58"/>
-      <c r="Q33" s="58"/>
-      <c r="R33" s="59"/>
-      <c r="S33" s="56"/>
-      <c r="T33" s="56"/>
-      <c r="U33" s="56">
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="24"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="21">
         <f>U32</f>
         <v>298</v>
       </c>
-      <c r="V33" s="56">
+      <c r="V33" s="21">
         <f>V32</f>
         <v>3500</v>
       </c>
-      <c r="W33" s="61"/>
-      <c r="X33" s="62"/>
-      <c r="Y33" s="62"/>
-      <c r="Z33" s="63"/>
-      <c r="AA33" s="64"/>
-      <c r="AB33" s="64"/>
-      <c r="AC33" s="65" t="s">
+      <c r="W33" s="26"/>
+      <c r="X33" s="27"/>
+      <c r="Y33" s="27"/>
+      <c r="Z33" s="28"/>
+      <c r="AA33" s="29"/>
+      <c r="AB33" s="29"/>
+      <c r="AC33" s="30" t="s">
         <v>111</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="Z23:Z24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:S23"/>
+    <mergeCell ref="T23:T24"/>
+    <mergeCell ref="U23:U24"/>
+    <mergeCell ref="Y27:Y31"/>
+    <mergeCell ref="K29:K31"/>
+    <mergeCell ref="V23:V24"/>
+    <mergeCell ref="W23:W24"/>
+    <mergeCell ref="X23:X24"/>
+    <mergeCell ref="Y23:Y24"/>
     <mergeCell ref="B32:T32"/>
     <mergeCell ref="A23:A33"/>
     <mergeCell ref="AA23:AA24"/>
@@ -2831,34 +3011,10 @@
     <mergeCell ref="K25:K28"/>
     <mergeCell ref="X25:X31"/>
     <mergeCell ref="Z25:Z31"/>
-    <mergeCell ref="Y27:Y31"/>
-    <mergeCell ref="K29:K31"/>
-    <mergeCell ref="V23:V24"/>
-    <mergeCell ref="W23:W24"/>
-    <mergeCell ref="X23:X24"/>
-    <mergeCell ref="Y23:Y24"/>
-    <mergeCell ref="Z23:Z24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:S23"/>
-    <mergeCell ref="T23:T24"/>
-    <mergeCell ref="U23:U24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="A8:A16"/>
-    <mergeCell ref="J2:J3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="136" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/tests/ExcelProcesser.Tests/resources/testData.xlsx
+++ b/tests/ExcelProcesser.Tests/resources/testData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC222CD-F2D2-4CC2-8B47-1288F46A0E62}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F560F3C1-50D9-410B-98F8-E541C3A8481A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matrix" sheetId="1" r:id="rId1"/>
@@ -1117,12 +1117,81 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="3">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="3" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="4">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="4" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1138,9 +1207,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1152,72 +1218,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="4">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="4" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="3">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="3" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1588,8 +1588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2152,8 +2152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47900B11-AE46-4148-92BB-2515463F524D}">
   <dimension ref="A1:AC33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="V22" sqref="B22:V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2164,23 +2164,23 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="70"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="38"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="39"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="3">
         <v>28</v>
       </c>
@@ -2205,7 +2205,7 @@
       <c r="I3" s="3">
         <v>35</v>
       </c>
-      <c r="J3" s="70"/>
+      <c r="J3" s="38"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -2213,22 +2213,22 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="65"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="44"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="3">
         <v>28</v>
       </c>
@@ -2255,7 +2255,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="4">
         <v>1</v>
       </c>
@@ -2282,7 +2282,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="4">
         <v>1</v>
       </c>
@@ -2309,7 +2309,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4">
@@ -2322,7 +2322,7 @@
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="4"/>
@@ -2335,7 +2335,7 @@
       <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -2348,7 +2348,7 @@
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -2361,7 +2361,7 @@
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -2379,92 +2379,92 @@
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="66" t="s">
+      <c r="B23" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="61" t="s">
+      <c r="C23" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="68" t="s">
+      <c r="D23" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="61" t="s">
+      <c r="E23" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="F23" s="61" t="s">
+      <c r="F23" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="G23" s="71" t="s">
+      <c r="G23" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="H23" s="61" t="s">
+      <c r="H23" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="I23" s="71" t="s">
+      <c r="I23" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="J23" s="61" t="s">
+      <c r="J23" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="K23" s="61" t="s">
+      <c r="K23" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="L23" s="63" t="s">
+      <c r="L23" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="M23" s="64"/>
-      <c r="N23" s="64"/>
-      <c r="O23" s="64"/>
-      <c r="P23" s="64"/>
-      <c r="Q23" s="64"/>
-      <c r="R23" s="64"/>
-      <c r="S23" s="65"/>
-      <c r="T23" s="61" t="s">
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="43"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="U23" s="61" t="s">
+      <c r="U23" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="V23" s="53" t="s">
+      <c r="V23" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="W23" s="55" t="s">
+      <c r="W23" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="X23" s="57" t="s">
+      <c r="X23" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="Y23" s="59" t="s">
+      <c r="Y23" s="60" t="s">
         <v>95</v>
       </c>
       <c r="Z23" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="AA23" s="40" t="s">
+      <c r="AA23" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="AB23" s="40" t="s">
+      <c r="AB23" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="AC23" s="41" t="s">
+      <c r="AC23" s="64" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
       <c r="L24" s="3">
         <v>28</v>
       </c>
@@ -2489,45 +2489,45 @@
       <c r="S24" s="3">
         <v>35</v>
       </c>
-      <c r="T24" s="62"/>
-      <c r="U24" s="62"/>
-      <c r="V24" s="54"/>
-      <c r="W24" s="56"/>
-      <c r="X24" s="58"/>
-      <c r="Y24" s="60"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="55"/>
+      <c r="W24" s="57"/>
+      <c r="X24" s="59"/>
+      <c r="Y24" s="61"/>
       <c r="Z24" s="50"/>
-      <c r="AA24" s="40"/>
-      <c r="AB24" s="40"/>
-      <c r="AC24" s="42"/>
+      <c r="AA24" s="63"/>
+      <c r="AB24" s="63"/>
+      <c r="AC24" s="65"/>
     </row>
     <row r="25" spans="1:29" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="39"/>
-      <c r="B25" s="38">
+      <c r="A25" s="45"/>
+      <c r="B25" s="62">
         <v>16501</v>
       </c>
-      <c r="C25" s="38">
+      <c r="C25" s="62">
         <v>91338035</v>
       </c>
       <c r="D25" s="7">
         <v>532325</v>
       </c>
-      <c r="E25" s="38" t="s">
+      <c r="E25" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="F25" s="43" t="s">
+      <c r="F25" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="G25" s="38" t="s">
+      <c r="G25" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="H25" s="38"/>
-      <c r="I25" s="43" t="s">
+      <c r="H25" s="62"/>
+      <c r="I25" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="J25" s="43" t="s">
+      <c r="J25" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="K25" s="44"/>
+      <c r="K25" s="67"/>
       <c r="L25" s="4">
         <v>1</v>
       </c>
@@ -2565,13 +2565,13 @@
       <c r="W25" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="X25" s="47" t="s">
+      <c r="X25" s="69" t="s">
         <v>104</v>
       </c>
       <c r="Y25" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="Z25" s="48">
+      <c r="Z25" s="70">
         <v>43171</v>
       </c>
       <c r="AA25" s="12"/>
@@ -2582,19 +2582,19 @@
       </c>
     </row>
     <row r="26" spans="1:29" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
       <c r="D26" s="7">
         <v>532326</v>
       </c>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="45"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="53"/>
       <c r="L26" s="4">
         <v>1</v>
       </c>
@@ -2632,11 +2632,11 @@
       <c r="W26" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="X26" s="47"/>
+      <c r="X26" s="69"/>
       <c r="Y26" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="Z26" s="49"/>
+      <c r="Z26" s="71"/>
       <c r="AA26" s="12"/>
       <c r="AB26" s="12"/>
       <c r="AC26" s="13">
@@ -2645,19 +2645,19 @@
       </c>
     </row>
     <row r="27" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="39"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
       <c r="D27" s="7">
         <v>533180</v>
       </c>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="45"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="53"/>
       <c r="L27" s="4"/>
       <c r="M27" s="5"/>
       <c r="N27" s="4">
@@ -2681,11 +2681,11 @@
       <c r="W27" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="X27" s="47"/>
+      <c r="X27" s="69"/>
       <c r="Y27" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="Z27" s="49"/>
+      <c r="Z27" s="71"/>
       <c r="AA27" s="12"/>
       <c r="AB27" s="12"/>
       <c r="AC27" s="13">
@@ -2694,19 +2694,19 @@
       </c>
     </row>
     <row r="28" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="39"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
       <c r="D28" s="7">
         <v>533181</v>
       </c>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="46"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="68"/>
       <c r="L28" s="4"/>
       <c r="M28" s="5"/>
       <c r="N28" s="4"/>
@@ -2730,9 +2730,9 @@
       <c r="W28" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="X28" s="47"/>
+      <c r="X28" s="69"/>
       <c r="Y28" s="52"/>
-      <c r="Z28" s="49"/>
+      <c r="Z28" s="71"/>
       <c r="AA28" s="12"/>
       <c r="AB28" s="12"/>
       <c r="AC28" s="13">
@@ -2741,19 +2741,19 @@
       </c>
     </row>
     <row r="29" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="39"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
       <c r="D29" s="7">
         <v>533182</v>
       </c>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="45"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="53"/>
       <c r="L29" s="4"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
@@ -2777,7 +2777,7 @@
       <c r="W29" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="X29" s="47"/>
+      <c r="X29" s="69"/>
       <c r="Y29" s="52"/>
       <c r="Z29" s="50"/>
       <c r="AA29" s="12"/>
@@ -2788,19 +2788,19 @@
       </c>
     </row>
     <row r="30" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
       <c r="D30" s="7">
         <v>533183</v>
       </c>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="45"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="53"/>
       <c r="L30" s="4"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
@@ -2824,7 +2824,7 @@
       <c r="W30" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="X30" s="47"/>
+      <c r="X30" s="69"/>
       <c r="Y30" s="52"/>
       <c r="Z30" s="50"/>
       <c r="AA30" s="12"/>
@@ -2835,19 +2835,19 @@
       </c>
     </row>
     <row r="31" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A31" s="39"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
       <c r="D31" s="7">
         <v>533184</v>
       </c>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="45"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="53"/>
       <c r="L31" s="4"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
@@ -2871,7 +2871,7 @@
       <c r="W31" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="X31" s="47"/>
+      <c r="X31" s="69"/>
       <c r="Y31" s="52"/>
       <c r="Z31" s="50"/>
       <c r="AA31" s="12"/>
@@ -2882,26 +2882,26 @@
       </c>
     </row>
     <row r="32" spans="1:29" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="38"/>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="38"/>
-      <c r="R32" s="38"/>
-      <c r="S32" s="38"/>
-      <c r="T32" s="38"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="62"/>
+      <c r="M32" s="62"/>
+      <c r="N32" s="62"/>
+      <c r="O32" s="62"/>
+      <c r="P32" s="62"/>
+      <c r="Q32" s="62"/>
+      <c r="R32" s="62"/>
+      <c r="S32" s="62"/>
+      <c r="T32" s="62"/>
       <c r="U32" s="15">
         <f>SUM(U25:U31)</f>
         <v>298</v>
@@ -2928,7 +2928,7 @@
       </c>
     </row>
     <row r="33" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="20" t="s">
         <v>110</v>
       </c>
@@ -2970,31 +2970,6 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="A8:A16"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="Z23:Z24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:S23"/>
-    <mergeCell ref="T23:T24"/>
-    <mergeCell ref="U23:U24"/>
-    <mergeCell ref="Y27:Y31"/>
-    <mergeCell ref="K29:K31"/>
-    <mergeCell ref="V23:V24"/>
-    <mergeCell ref="W23:W24"/>
-    <mergeCell ref="X23:X24"/>
-    <mergeCell ref="Y23:Y24"/>
     <mergeCell ref="B32:T32"/>
     <mergeCell ref="A23:A33"/>
     <mergeCell ref="AA23:AA24"/>
@@ -3011,6 +2986,31 @@
     <mergeCell ref="K25:K28"/>
     <mergeCell ref="X25:X31"/>
     <mergeCell ref="Z25:Z31"/>
+    <mergeCell ref="Y27:Y31"/>
+    <mergeCell ref="K29:K31"/>
+    <mergeCell ref="V23:V24"/>
+    <mergeCell ref="W23:W24"/>
+    <mergeCell ref="X23:X24"/>
+    <mergeCell ref="Y23:Y24"/>
+    <mergeCell ref="Z23:Z24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:S23"/>
+    <mergeCell ref="T23:T24"/>
+    <mergeCell ref="U23:U24"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="B2:I2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/ExcelProcesser.Tests/resources/testData.xlsx
+++ b/tests/ExcelProcesser.Tests/resources/testData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22829"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F560F3C1-50D9-410B-98F8-E541C3A8481A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27143C64-2A86-4A13-97B0-E4A7DF4E755E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matrix" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="127">
   <si>
     <t>Input</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -606,6 +610,10 @@
   </si>
   <si>
     <t>Cross_3F</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cm_skip_backTrack3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -772,7 +780,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -828,6 +836,18 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1107,117 +1127,117 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="6" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="7" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="8" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="5" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="7" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" xfId="8" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="3" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="3" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="4">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="4" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="3">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="3" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="3">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="3" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="4">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="4" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="3" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="3" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1588,8 +1608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1845,13 +1865,13 @@
       <c r="C53" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="D53" s="32" t="s">
+      <c r="D53" s="34" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="37"/>
-      <c r="B54" s="33" t="s">
+      <c r="B54" s="35" t="s">
         <v>115</v>
       </c>
       <c r="C54" s="31" t="s">
@@ -1863,16 +1883,16 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="37"/>
-      <c r="B55" s="33" t="s">
+      <c r="B55" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="C55" s="33" t="s">
+      <c r="C55" s="35" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="37"/>
-      <c r="B56" s="34" t="s">
+      <c r="B56" s="32" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1942,7 +1962,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="35"/>
+      <c r="A68" s="33"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
@@ -2045,6 +2065,9 @@
       </c>
       <c r="C93" t="s">
         <v>79</v>
+      </c>
+      <c r="D93" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -2152,7 +2175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47900B11-AE46-4148-92BB-2515463F524D}">
   <dimension ref="A1:AC33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="V22" sqref="B22:V22"/>
     </sheetView>
   </sheetViews>
@@ -2164,23 +2187,23 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="38"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="70"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
+      <c r="A3" s="39"/>
       <c r="B3" s="3">
         <v>28</v>
       </c>
@@ -2205,7 +2228,7 @@
       <c r="I3" s="3">
         <v>35</v>
       </c>
-      <c r="J3" s="38"/>
+      <c r="J3" s="70"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -2213,22 +2236,22 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="44"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="65"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="3">
         <v>28</v>
       </c>
@@ -2255,7 +2278,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="4">
         <v>1</v>
       </c>
@@ -2282,7 +2305,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="4">
         <v>1</v>
       </c>
@@ -2309,7 +2332,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4">
@@ -2322,7 +2345,7 @@
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="4"/>
@@ -2335,7 +2358,7 @@
       <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -2348,7 +2371,7 @@
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -2361,7 +2384,7 @@
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -2379,92 +2402,92 @@
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="48" t="s">
+      <c r="D23" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="41" t="s">
+      <c r="E23" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="F23" s="41" t="s">
+      <c r="F23" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="G23" s="39" t="s">
+      <c r="G23" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="H23" s="41" t="s">
+      <c r="H23" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="I23" s="39" t="s">
+      <c r="I23" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="J23" s="41" t="s">
+      <c r="J23" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="K23" s="41" t="s">
+      <c r="K23" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="L23" s="42" t="s">
+      <c r="L23" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="M23" s="43"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="43"/>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="43"/>
-      <c r="R23" s="43"/>
-      <c r="S23" s="44"/>
-      <c r="T23" s="41" t="s">
+      <c r="M23" s="64"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="64"/>
+      <c r="P23" s="64"/>
+      <c r="Q23" s="64"/>
+      <c r="R23" s="64"/>
+      <c r="S23" s="65"/>
+      <c r="T23" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="U23" s="41" t="s">
+      <c r="U23" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="V23" s="54" t="s">
+      <c r="V23" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="W23" s="56" t="s">
+      <c r="W23" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="X23" s="58" t="s">
+      <c r="X23" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="Y23" s="60" t="s">
+      <c r="Y23" s="59" t="s">
         <v>95</v>
       </c>
       <c r="Z23" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="AA23" s="63" t="s">
+      <c r="AA23" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="AB23" s="63" t="s">
+      <c r="AB23" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="AC23" s="64" t="s">
+      <c r="AC23" s="41" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
       <c r="L24" s="3">
         <v>28</v>
       </c>
@@ -2489,45 +2512,45 @@
       <c r="S24" s="3">
         <v>35</v>
       </c>
-      <c r="T24" s="40"/>
-      <c r="U24" s="40"/>
-      <c r="V24" s="55"/>
-      <c r="W24" s="57"/>
-      <c r="X24" s="59"/>
-      <c r="Y24" s="61"/>
+      <c r="T24" s="62"/>
+      <c r="U24" s="62"/>
+      <c r="V24" s="54"/>
+      <c r="W24" s="56"/>
+      <c r="X24" s="58"/>
+      <c r="Y24" s="60"/>
       <c r="Z24" s="50"/>
-      <c r="AA24" s="63"/>
-      <c r="AB24" s="63"/>
-      <c r="AC24" s="65"/>
+      <c r="AA24" s="40"/>
+      <c r="AB24" s="40"/>
+      <c r="AC24" s="42"/>
     </row>
     <row r="25" spans="1:29" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="45"/>
-      <c r="B25" s="62">
+      <c r="A25" s="39"/>
+      <c r="B25" s="38">
         <v>16501</v>
       </c>
-      <c r="C25" s="62">
+      <c r="C25" s="38">
         <v>91338035</v>
       </c>
       <c r="D25" s="7">
         <v>532325</v>
       </c>
-      <c r="E25" s="62" t="s">
+      <c r="E25" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="F25" s="66" t="s">
+      <c r="F25" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="G25" s="62" t="s">
+      <c r="G25" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="H25" s="62"/>
-      <c r="I25" s="66" t="s">
+      <c r="H25" s="38"/>
+      <c r="I25" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="J25" s="66" t="s">
+      <c r="J25" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="K25" s="67"/>
+      <c r="K25" s="44"/>
       <c r="L25" s="4">
         <v>1</v>
       </c>
@@ -2565,13 +2588,13 @@
       <c r="W25" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="X25" s="69" t="s">
+      <c r="X25" s="47" t="s">
         <v>104</v>
       </c>
       <c r="Y25" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="Z25" s="70">
+      <c r="Z25" s="48">
         <v>43171</v>
       </c>
       <c r="AA25" s="12"/>
@@ -2582,19 +2605,19 @@
       </c>
     </row>
     <row r="26" spans="1:29" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="45"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
       <c r="D26" s="7">
         <v>532326</v>
       </c>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="53"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="45"/>
       <c r="L26" s="4">
         <v>1</v>
       </c>
@@ -2632,11 +2655,11 @@
       <c r="W26" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="X26" s="69"/>
+      <c r="X26" s="47"/>
       <c r="Y26" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="Z26" s="71"/>
+      <c r="Z26" s="49"/>
       <c r="AA26" s="12"/>
       <c r="AB26" s="12"/>
       <c r="AC26" s="13">
@@ -2645,19 +2668,19 @@
       </c>
     </row>
     <row r="27" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="45"/>
-      <c r="B27" s="62"/>
-      <c r="C27" s="62"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
       <c r="D27" s="7">
         <v>533180</v>
       </c>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="53"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="45"/>
       <c r="L27" s="4"/>
       <c r="M27" s="5"/>
       <c r="N27" s="4">
@@ -2681,11 +2704,11 @@
       <c r="W27" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="X27" s="69"/>
+      <c r="X27" s="47"/>
       <c r="Y27" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="Z27" s="71"/>
+      <c r="Z27" s="49"/>
       <c r="AA27" s="12"/>
       <c r="AB27" s="12"/>
       <c r="AC27" s="13">
@@ -2694,19 +2717,19 @@
       </c>
     </row>
     <row r="28" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="45"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="62"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
       <c r="D28" s="7">
         <v>533181</v>
       </c>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="62"/>
-      <c r="K28" s="68"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="46"/>
       <c r="L28" s="4"/>
       <c r="M28" s="5"/>
       <c r="N28" s="4"/>
@@ -2730,9 +2753,9 @@
       <c r="W28" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="X28" s="69"/>
+      <c r="X28" s="47"/>
       <c r="Y28" s="52"/>
-      <c r="Z28" s="71"/>
+      <c r="Z28" s="49"/>
       <c r="AA28" s="12"/>
       <c r="AB28" s="12"/>
       <c r="AC28" s="13">
@@ -2741,19 +2764,19 @@
       </c>
     </row>
     <row r="29" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="45"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="62"/>
+      <c r="A29" s="39"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
       <c r="D29" s="7">
         <v>533182</v>
       </c>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="62"/>
-      <c r="K29" s="53"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="45"/>
       <c r="L29" s="4"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
@@ -2777,7 +2800,7 @@
       <c r="W29" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="X29" s="69"/>
+      <c r="X29" s="47"/>
       <c r="Y29" s="52"/>
       <c r="Z29" s="50"/>
       <c r="AA29" s="12"/>
@@ -2788,19 +2811,19 @@
       </c>
     </row>
     <row r="30" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="45"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
       <c r="D30" s="7">
         <v>533183</v>
       </c>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="53"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="45"/>
       <c r="L30" s="4"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
@@ -2824,7 +2847,7 @@
       <c r="W30" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="X30" s="69"/>
+      <c r="X30" s="47"/>
       <c r="Y30" s="52"/>
       <c r="Z30" s="50"/>
       <c r="AA30" s="12"/>
@@ -2835,19 +2858,19 @@
       </c>
     </row>
     <row r="31" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A31" s="45"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
+      <c r="A31" s="39"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
       <c r="D31" s="7">
         <v>533184</v>
       </c>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="53"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="45"/>
       <c r="L31" s="4"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
@@ -2871,7 +2894,7 @@
       <c r="W31" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="X31" s="69"/>
+      <c r="X31" s="47"/>
       <c r="Y31" s="52"/>
       <c r="Z31" s="50"/>
       <c r="AA31" s="12"/>
@@ -2882,26 +2905,26 @@
       </c>
     </row>
     <row r="32" spans="1:29" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="62"/>
-      <c r="M32" s="62"/>
-      <c r="N32" s="62"/>
-      <c r="O32" s="62"/>
-      <c r="P32" s="62"/>
-      <c r="Q32" s="62"/>
-      <c r="R32" s="62"/>
-      <c r="S32" s="62"/>
-      <c r="T32" s="62"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="38"/>
+      <c r="Q32" s="38"/>
+      <c r="R32" s="38"/>
+      <c r="S32" s="38"/>
+      <c r="T32" s="38"/>
       <c r="U32" s="15">
         <f>SUM(U25:U31)</f>
         <v>298</v>
@@ -2928,7 +2951,7 @@
       </c>
     </row>
     <row r="33" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A33" s="45"/>
+      <c r="A33" s="39"/>
       <c r="B33" s="20" t="s">
         <v>110</v>
       </c>
@@ -2970,6 +2993,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="Z23:Z24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:S23"/>
+    <mergeCell ref="T23:T24"/>
+    <mergeCell ref="U23:U24"/>
+    <mergeCell ref="Y27:Y31"/>
+    <mergeCell ref="K29:K31"/>
+    <mergeCell ref="V23:V24"/>
+    <mergeCell ref="W23:W24"/>
+    <mergeCell ref="X23:X24"/>
+    <mergeCell ref="Y23:Y24"/>
     <mergeCell ref="B32:T32"/>
     <mergeCell ref="A23:A33"/>
     <mergeCell ref="AA23:AA24"/>
@@ -2986,31 +3034,6 @@
     <mergeCell ref="K25:K28"/>
     <mergeCell ref="X25:X31"/>
     <mergeCell ref="Z25:Z31"/>
-    <mergeCell ref="Y27:Y31"/>
-    <mergeCell ref="K29:K31"/>
-    <mergeCell ref="V23:V24"/>
-    <mergeCell ref="W23:W24"/>
-    <mergeCell ref="X23:X24"/>
-    <mergeCell ref="Y23:Y24"/>
-    <mergeCell ref="Z23:Z24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:S23"/>
-    <mergeCell ref="T23:T24"/>
-    <mergeCell ref="U23:U24"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="A8:A16"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="B2:I2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/ExcelProcesser.Tests/resources/testData.xlsx
+++ b/tests/ExcelProcesser.Tests/resources/testData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22829"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23006"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27143C64-2A86-4A13-97B0-E4A7DF4E755E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC44B78A-9BF4-4A44-A461-EA7BA3C40477}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matrix" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="128">
   <si>
     <t>Input</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -433,9 +433,6 @@
   </si>
   <si>
     <t>ASST</t>
-  </si>
-  <si>
-    <t>Size run （配码）</t>
   </si>
   <si>
     <r>
@@ -614,6 +611,14 @@
   </si>
   <si>
     <t>cm_skip_backTrack3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>混码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单码</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1608,7 +1613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
@@ -1872,7 +1877,7 @@
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="37"/>
       <c r="B54" s="35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C54" s="31" t="s">
         <v>29</v>
@@ -1884,16 +1889,16 @@
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="37"/>
       <c r="B55" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C55" s="35" t="s">
         <v>116</v>
-      </c>
-      <c r="C55" s="35" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="37"/>
       <c r="B56" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1929,7 +1934,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -1937,28 +1942,28 @@
         <v>0</v>
       </c>
       <c r="B65" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" t="s">
+        <v>120</v>
+      </c>
+      <c r="C66" t="s">
         <v>121</v>
       </c>
-      <c r="C66" t="s">
-        <v>122</v>
-      </c>
       <c r="D66" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="C67" t="s">
+        <v>122</v>
+      </c>
+      <c r="D67" t="s">
         <v>123</v>
-      </c>
-      <c r="D67" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2067,7 +2072,7 @@
         <v>79</v>
       </c>
       <c r="D93" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -2175,8 +2180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47900B11-AE46-4148-92BB-2515463F524D}">
   <dimension ref="A1:AC33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="V22" sqref="B22:V22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27:K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2406,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="B23" s="66" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C23" s="61" t="s">
         <v>81</v>
@@ -2435,9 +2440,7 @@
       <c r="K23" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="L23" s="63" t="s">
-        <v>90</v>
-      </c>
+      <c r="L23" s="63"/>
       <c r="M23" s="64"/>
       <c r="N23" s="64"/>
       <c r="O23" s="64"/>
@@ -2446,34 +2449,34 @@
       <c r="R23" s="64"/>
       <c r="S23" s="65"/>
       <c r="T23" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="U23" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="U23" s="61" t="s">
+      <c r="V23" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="W23" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="V23" s="53" t="s">
+      <c r="X23" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y23" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z23" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA23" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB23" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC23" s="41" t="s">
         <v>113</v>
-      </c>
-      <c r="W23" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="X23" s="57" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y23" s="59" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z23" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA23" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB23" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC23" s="41" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
@@ -2535,22 +2538,24 @@
         <v>532325</v>
       </c>
       <c r="E25" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="F25" s="43" t="s">
-        <v>100</v>
-      </c>
       <c r="G25" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H25" s="38"/>
       <c r="I25" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="J25" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="J25" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="K25" s="44"/>
+      <c r="K25" s="44" t="s">
+        <v>126</v>
+      </c>
       <c r="L25" s="4">
         <v>1</v>
       </c>
@@ -2586,13 +2591,13 @@
         <v>2040</v>
       </c>
       <c r="W25" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="X25" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="X25" s="47" t="s">
+      <c r="Y25" s="11" t="s">
         <v>104</v>
-      </c>
-      <c r="Y25" s="11" t="s">
-        <v>105</v>
       </c>
       <c r="Z25" s="48">
         <v>43171</v>
@@ -2653,11 +2658,11 @@
         <v>980</v>
       </c>
       <c r="W26" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="X26" s="47"/>
       <c r="Y26" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Z26" s="49"/>
       <c r="AA26" s="12"/>
@@ -2680,7 +2685,9 @@
       <c r="H27" s="38"/>
       <c r="I27" s="38"/>
       <c r="J27" s="38"/>
-      <c r="K27" s="45"/>
+      <c r="K27" s="45" t="s">
+        <v>127</v>
+      </c>
       <c r="L27" s="4"/>
       <c r="M27" s="5"/>
       <c r="N27" s="4">
@@ -2702,11 +2709,11 @@
         <v>96</v>
       </c>
       <c r="W27" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X27" s="47"/>
       <c r="Y27" s="51" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z27" s="49"/>
       <c r="AA27" s="12"/>
@@ -2729,7 +2736,7 @@
       <c r="H28" s="38"/>
       <c r="I28" s="38"/>
       <c r="J28" s="38"/>
-      <c r="K28" s="46"/>
+      <c r="K28" s="45"/>
       <c r="L28" s="4"/>
       <c r="M28" s="5"/>
       <c r="N28" s="4"/>
@@ -2751,7 +2758,7 @@
         <v>96</v>
       </c>
       <c r="W28" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X28" s="47"/>
       <c r="Y28" s="52"/>
@@ -2798,7 +2805,7 @@
         <v>96</v>
       </c>
       <c r="W29" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X29" s="47"/>
       <c r="Y29" s="52"/>
@@ -2845,7 +2852,7 @@
         <v>96</v>
       </c>
       <c r="W30" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X30" s="47"/>
       <c r="Y30" s="52"/>
@@ -2870,7 +2877,7 @@
       <c r="H31" s="38"/>
       <c r="I31" s="38"/>
       <c r="J31" s="38"/>
-      <c r="K31" s="45"/>
+      <c r="K31" s="46"/>
       <c r="L31" s="4"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
@@ -2892,7 +2899,7 @@
         <v>96</v>
       </c>
       <c r="W31" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X31" s="47"/>
       <c r="Y31" s="52"/>
@@ -2953,7 +2960,7 @@
     <row r="33" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="39"/>
       <c r="B33" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C33" s="21"/>
       <c r="D33" s="21"/>
@@ -2988,7 +2995,7 @@
       <c r="AA33" s="29"/>
       <c r="AB33" s="29"/>
       <c r="AC33" s="30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3013,11 +3020,12 @@
     <mergeCell ref="T23:T24"/>
     <mergeCell ref="U23:U24"/>
     <mergeCell ref="Y27:Y31"/>
-    <mergeCell ref="K29:K31"/>
     <mergeCell ref="V23:V24"/>
     <mergeCell ref="W23:W24"/>
     <mergeCell ref="X23:X24"/>
     <mergeCell ref="Y23:Y24"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="K27:K31"/>
     <mergeCell ref="B32:T32"/>
     <mergeCell ref="A23:A33"/>
     <mergeCell ref="AA23:AA24"/>
@@ -3031,7 +3039,6 @@
     <mergeCell ref="H25:H31"/>
     <mergeCell ref="I25:I31"/>
     <mergeCell ref="J25:J31"/>
-    <mergeCell ref="K25:K28"/>
     <mergeCell ref="X25:X31"/>
     <mergeCell ref="Z25:Z31"/>
   </mergeCells>

--- a/tests/ExcelProcesser.Tests/resources/testData.xlsx
+++ b/tests/ExcelProcesser.Tests/resources/testData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23006"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23714"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC44B78A-9BF4-4A44-A461-EA7BA3C40477}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428F561B-14C4-40F3-AA63-37FF01A7021A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matrix" sheetId="1" r:id="rId1"/>
@@ -1142,12 +1142,87 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="3">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="3" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="4">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="4" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1160,15 +1235,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1177,72 +1243,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="4">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="4" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="3">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="3" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -2137,7 +2137,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{171B277E-1E9C-4949-8C4C-5EFD188DCF86}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2180,7 +2182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47900B11-AE46-4148-92BB-2515463F524D}">
   <dimension ref="A1:AC33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="K27" sqref="K27:K31"/>
     </sheetView>
   </sheetViews>
@@ -2192,23 +2194,23 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="70"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="38"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="39"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="3">
         <v>28</v>
       </c>
@@ -2233,7 +2235,7 @@
       <c r="I3" s="3">
         <v>35</v>
       </c>
-      <c r="J3" s="70"/>
+      <c r="J3" s="38"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -2241,22 +2243,22 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="65"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="44"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="3">
         <v>28</v>
       </c>
@@ -2283,7 +2285,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="4">
         <v>1</v>
       </c>
@@ -2310,7 +2312,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="4">
         <v>1</v>
       </c>
@@ -2337,7 +2339,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4">
@@ -2350,7 +2352,7 @@
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="4"/>
@@ -2363,7 +2365,7 @@
       <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -2376,7 +2378,7 @@
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -2389,7 +2391,7 @@
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -2407,51 +2409,51 @@
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="66" t="s">
+      <c r="B23" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="C23" s="61" t="s">
+      <c r="C23" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="68" t="s">
+      <c r="D23" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="61" t="s">
+      <c r="E23" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="F23" s="61" t="s">
+      <c r="F23" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="G23" s="71" t="s">
+      <c r="G23" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="H23" s="61" t="s">
+      <c r="H23" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="I23" s="71" t="s">
+      <c r="I23" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="J23" s="61" t="s">
+      <c r="J23" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="K23" s="61" t="s">
+      <c r="K23" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="L23" s="63"/>
-      <c r="M23" s="64"/>
-      <c r="N23" s="64"/>
-      <c r="O23" s="64"/>
-      <c r="P23" s="64"/>
-      <c r="Q23" s="64"/>
-      <c r="R23" s="64"/>
-      <c r="S23" s="65"/>
-      <c r="T23" s="61" t="s">
+      <c r="L23" s="42"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="43"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="U23" s="61" t="s">
+      <c r="U23" s="41" t="s">
         <v>91</v>
       </c>
       <c r="V23" s="53" t="s">
@@ -2469,28 +2471,28 @@
       <c r="Z23" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="AA23" s="40" t="s">
+      <c r="AA23" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="AB23" s="40" t="s">
+      <c r="AB23" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="AC23" s="41" t="s">
+      <c r="AC23" s="66" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
       <c r="L24" s="3">
         <v>28</v>
       </c>
@@ -2515,45 +2517,45 @@
       <c r="S24" s="3">
         <v>35</v>
       </c>
-      <c r="T24" s="62"/>
-      <c r="U24" s="62"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="40"/>
       <c r="V24" s="54"/>
       <c r="W24" s="56"/>
       <c r="X24" s="58"/>
       <c r="Y24" s="60"/>
       <c r="Z24" s="50"/>
-      <c r="AA24" s="40"/>
-      <c r="AB24" s="40"/>
-      <c r="AC24" s="42"/>
+      <c r="AA24" s="65"/>
+      <c r="AB24" s="65"/>
+      <c r="AC24" s="67"/>
     </row>
     <row r="25" spans="1:29" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="39"/>
-      <c r="B25" s="38">
+      <c r="A25" s="45"/>
+      <c r="B25" s="64">
         <v>16501</v>
       </c>
-      <c r="C25" s="38">
+      <c r="C25" s="64">
         <v>91338035</v>
       </c>
       <c r="D25" s="7">
         <v>532325</v>
       </c>
-      <c r="E25" s="38" t="s">
+      <c r="E25" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="F25" s="43" t="s">
+      <c r="F25" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="G25" s="38" t="s">
+      <c r="G25" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="H25" s="38"/>
-      <c r="I25" s="43" t="s">
+      <c r="H25" s="64"/>
+      <c r="I25" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="J25" s="43" t="s">
+      <c r="J25" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="K25" s="44" t="s">
+      <c r="K25" s="61" t="s">
         <v>126</v>
       </c>
       <c r="L25" s="4">
@@ -2593,13 +2595,13 @@
       <c r="W25" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="X25" s="47" t="s">
+      <c r="X25" s="69" t="s">
         <v>103</v>
       </c>
       <c r="Y25" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="Z25" s="48">
+      <c r="Z25" s="70">
         <v>43171</v>
       </c>
       <c r="AA25" s="12"/>
@@ -2610,19 +2612,19 @@
       </c>
     </row>
     <row r="26" spans="1:29" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="64"/>
       <c r="D26" s="7">
         <v>532326</v>
       </c>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="45"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="62"/>
       <c r="L26" s="4">
         <v>1</v>
       </c>
@@ -2660,11 +2662,11 @@
       <c r="W26" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="X26" s="47"/>
+      <c r="X26" s="69"/>
       <c r="Y26" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="Z26" s="49"/>
+      <c r="Z26" s="71"/>
       <c r="AA26" s="12"/>
       <c r="AB26" s="12"/>
       <c r="AC26" s="13">
@@ -2673,19 +2675,19 @@
       </c>
     </row>
     <row r="27" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="39"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="64"/>
       <c r="D27" s="7">
         <v>533180</v>
       </c>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="45" t="s">
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="62" t="s">
         <v>127</v>
       </c>
       <c r="L27" s="4"/>
@@ -2711,11 +2713,11 @@
       <c r="W27" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="X27" s="47"/>
+      <c r="X27" s="69"/>
       <c r="Y27" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="Z27" s="49"/>
+      <c r="Z27" s="71"/>
       <c r="AA27" s="12"/>
       <c r="AB27" s="12"/>
       <c r="AC27" s="13">
@@ -2724,19 +2726,19 @@
       </c>
     </row>
     <row r="28" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="39"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="64"/>
       <c r="D28" s="7">
         <v>533181</v>
       </c>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="45"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="62"/>
       <c r="L28" s="4"/>
       <c r="M28" s="5"/>
       <c r="N28" s="4"/>
@@ -2760,9 +2762,9 @@
       <c r="W28" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="X28" s="47"/>
+      <c r="X28" s="69"/>
       <c r="Y28" s="52"/>
-      <c r="Z28" s="49"/>
+      <c r="Z28" s="71"/>
       <c r="AA28" s="12"/>
       <c r="AB28" s="12"/>
       <c r="AC28" s="13">
@@ -2771,19 +2773,19 @@
       </c>
     </row>
     <row r="29" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="39"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="64"/>
       <c r="D29" s="7">
         <v>533182</v>
       </c>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="45"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="62"/>
       <c r="L29" s="4"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
@@ -2807,7 +2809,7 @@
       <c r="W29" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="X29" s="47"/>
+      <c r="X29" s="69"/>
       <c r="Y29" s="52"/>
       <c r="Z29" s="50"/>
       <c r="AA29" s="12"/>
@@ -2818,19 +2820,19 @@
       </c>
     </row>
     <row r="30" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
       <c r="D30" s="7">
         <v>533183</v>
       </c>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="45"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="62"/>
       <c r="L30" s="4"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
@@ -2854,7 +2856,7 @@
       <c r="W30" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="X30" s="47"/>
+      <c r="X30" s="69"/>
       <c r="Y30" s="52"/>
       <c r="Z30" s="50"/>
       <c r="AA30" s="12"/>
@@ -2865,19 +2867,19 @@
       </c>
     </row>
     <row r="31" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A31" s="39"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
       <c r="D31" s="7">
         <v>533184</v>
       </c>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="46"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="63"/>
       <c r="L31" s="4"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
@@ -2901,7 +2903,7 @@
       <c r="W31" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="X31" s="47"/>
+      <c r="X31" s="69"/>
       <c r="Y31" s="52"/>
       <c r="Z31" s="50"/>
       <c r="AA31" s="12"/>
@@ -2912,26 +2914,26 @@
       </c>
     </row>
     <row r="32" spans="1:29" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="38"/>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="38"/>
-      <c r="R32" s="38"/>
-      <c r="S32" s="38"/>
-      <c r="T32" s="38"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="64"/>
+      <c r="M32" s="64"/>
+      <c r="N32" s="64"/>
+      <c r="O32" s="64"/>
+      <c r="P32" s="64"/>
+      <c r="Q32" s="64"/>
+      <c r="R32" s="64"/>
+      <c r="S32" s="64"/>
+      <c r="T32" s="64"/>
       <c r="U32" s="15">
         <f>SUM(U25:U31)</f>
         <v>298</v>
@@ -2958,7 +2960,7 @@
       </c>
     </row>
     <row r="33" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="20" t="s">
         <v>109</v>
       </c>
@@ -3000,35 +3002,6 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="A8:A16"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="Z23:Z24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:S23"/>
-    <mergeCell ref="T23:T24"/>
-    <mergeCell ref="U23:U24"/>
-    <mergeCell ref="Y27:Y31"/>
-    <mergeCell ref="V23:V24"/>
-    <mergeCell ref="W23:W24"/>
-    <mergeCell ref="X23:X24"/>
-    <mergeCell ref="Y23:Y24"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="K27:K31"/>
-    <mergeCell ref="B32:T32"/>
-    <mergeCell ref="A23:A33"/>
-    <mergeCell ref="AA23:AA24"/>
     <mergeCell ref="AB23:AB24"/>
     <mergeCell ref="AC23:AC24"/>
     <mergeCell ref="B25:B31"/>
@@ -3041,6 +3014,35 @@
     <mergeCell ref="J25:J31"/>
     <mergeCell ref="X25:X31"/>
     <mergeCell ref="Z25:Z31"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="K27:K31"/>
+    <mergeCell ref="B32:T32"/>
+    <mergeCell ref="A23:A33"/>
+    <mergeCell ref="AA23:AA24"/>
+    <mergeCell ref="Y27:Y31"/>
+    <mergeCell ref="V23:V24"/>
+    <mergeCell ref="W23:W24"/>
+    <mergeCell ref="X23:X24"/>
+    <mergeCell ref="Y23:Y24"/>
+    <mergeCell ref="Z23:Z24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:S23"/>
+    <mergeCell ref="T23:T24"/>
+    <mergeCell ref="U23:U24"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="B2:I2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/ExcelProcesser.Tests/resources/testData.xlsx
+++ b/tests/ExcelProcesser.Tests/resources/testData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23714"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428F561B-14C4-40F3-AA63-37FF01A7021A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FF6C4A-C023-4EE1-AF9B-F682C0AE30D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matrix" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="140">
   <si>
     <t>Input</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -619,6 +619,51 @@
   </si>
   <si>
     <t>单码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cross area 4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cross_4A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cross_4B</t>
+  </si>
+  <si>
+    <t>Cross_4C</t>
+  </si>
+  <si>
+    <t>Cross_4D</t>
+  </si>
+  <si>
+    <t>Cross_4F</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cross_4G</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cross_4H</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cross_4J</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cross_4I</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cross_4K</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cross_4E</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1142,107 +1187,107 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="3" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="3" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="4">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="4" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="3">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="3" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="3">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="3" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="4">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="4" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="3" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="3" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1611,10 +1656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H103"/>
+  <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1937,7 +1982,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>0</v>
       </c>
@@ -1945,7 +1990,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" t="s">
         <v>120</v>
@@ -1957,7 +2002,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="C67" t="s">
         <v>122</v>
@@ -1966,71 +2011,95 @@
         <v>123</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="33"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" t="s">
+        <v>129</v>
+      </c>
+      <c r="C72" t="s">
+        <v>130</v>
+      </c>
+      <c r="D72" t="s">
+        <v>133</v>
+      </c>
+      <c r="E72" t="s">
+        <v>134</v>
+      </c>
+      <c r="F72" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="2"/>
+      <c r="C73" t="s">
+        <v>131</v>
+      </c>
+      <c r="D73" t="s">
+        <v>137</v>
+      </c>
+      <c r="E73" t="s">
+        <v>136</v>
+      </c>
+      <c r="F73" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="2"/>
+      <c r="C74" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="33"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="33"/>
+      <c r="C76" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="37" t="s">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B80" t="s">
         <v>52</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C80" t="s">
         <v>53</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D80" t="s">
         <v>54</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E80" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="37"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="37"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B79" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="37"/>
-      <c r="B80" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="37"/>
-      <c r="B81" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="37"/>
-      <c r="B82" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -2038,52 +2107,58 @@
         <v>0</v>
       </c>
       <c r="B87" t="s">
-        <v>44</v>
-      </c>
-      <c r="D87" t="s">
-        <v>45</v>
-      </c>
-      <c r="E87" t="s">
-        <v>46</v>
-      </c>
-      <c r="H87" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="37"/>
+      <c r="B88" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="37"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="37" t="s">
+      <c r="B89" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="37"/>
+      <c r="B90" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B93" t="s">
-        <v>78</v>
-      </c>
-      <c r="C93" t="s">
-        <v>79</v>
-      </c>
-      <c r="D93" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="37"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="37"/>
+      <c r="B95" t="s">
+        <v>44</v>
+      </c>
+      <c r="D95" t="s">
+        <v>45</v>
+      </c>
+      <c r="E95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="37"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="37"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -2091,16 +2166,13 @@
         <v>0</v>
       </c>
       <c r="B101" t="s">
-        <v>61</v>
+        <v>78</v>
+      </c>
+      <c r="C101" t="s">
+        <v>79</v>
       </c>
       <c r="D101" t="s">
-        <v>62</v>
-      </c>
-      <c r="E101" t="s">
-        <v>63</v>
-      </c>
-      <c r="H101" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -2108,20 +2180,48 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="37"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109" t="s">
+        <v>61</v>
+      </c>
+      <c r="D109" t="s">
+        <v>62</v>
+      </c>
+      <c r="E109" t="s">
+        <v>63</v>
+      </c>
+      <c r="H109" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="37"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A93:A95"/>
     <mergeCell ref="A101:A103"/>
+    <mergeCell ref="A109:A111"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A42:A44"/>
     <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="A80:A82"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="A95:A97"/>
     <mergeCell ref="A59:A61"/>
     <mergeCell ref="A37:A39"/>
     <mergeCell ref="A32:A34"/>
@@ -2137,8 +2237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{171B277E-1E9C-4949-8C4C-5EFD188DCF86}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2194,23 +2294,23 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="38"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="70"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
+      <c r="A3" s="50"/>
       <c r="B3" s="3">
         <v>28</v>
       </c>
@@ -2235,7 +2335,7 @@
       <c r="I3" s="3">
         <v>35</v>
       </c>
-      <c r="J3" s="38"/>
+      <c r="J3" s="70"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -2243,22 +2343,22 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="44"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="65"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="3">
         <v>28</v>
       </c>
@@ -2285,7 +2385,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="4">
         <v>1</v>
       </c>
@@ -2312,7 +2412,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="4">
         <v>1</v>
       </c>
@@ -2339,7 +2439,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4">
@@ -2352,7 +2452,7 @@
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="4"/>
@@ -2365,7 +2465,7 @@
       <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
+      <c r="A14" s="50"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -2378,7 +2478,7 @@
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
+      <c r="A15" s="50"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -2391,7 +2491,7 @@
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -2409,51 +2509,51 @@
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="48" t="s">
+      <c r="D23" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="41" t="s">
+      <c r="E23" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="F23" s="41" t="s">
+      <c r="F23" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="G23" s="39" t="s">
+      <c r="G23" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="H23" s="41" t="s">
+      <c r="H23" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="I23" s="39" t="s">
+      <c r="I23" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="J23" s="41" t="s">
+      <c r="J23" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="K23" s="41" t="s">
+      <c r="K23" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="L23" s="42"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="43"/>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="43"/>
-      <c r="R23" s="43"/>
-      <c r="S23" s="44"/>
-      <c r="T23" s="41" t="s">
+      <c r="L23" s="63"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="64"/>
+      <c r="P23" s="64"/>
+      <c r="Q23" s="64"/>
+      <c r="R23" s="64"/>
+      <c r="S23" s="65"/>
+      <c r="T23" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="U23" s="41" t="s">
+      <c r="U23" s="61" t="s">
         <v>91</v>
       </c>
       <c r="V23" s="53" t="s">
@@ -2468,31 +2568,31 @@
       <c r="Y23" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="Z23" s="50" t="s">
+      <c r="Z23" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="AA23" s="65" t="s">
+      <c r="AA23" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="AB23" s="65" t="s">
+      <c r="AB23" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="AC23" s="66" t="s">
+      <c r="AC23" s="39" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
       <c r="L24" s="3">
         <v>28</v>
       </c>
@@ -2517,45 +2617,45 @@
       <c r="S24" s="3">
         <v>35</v>
       </c>
-      <c r="T24" s="40"/>
-      <c r="U24" s="40"/>
+      <c r="T24" s="62"/>
+      <c r="U24" s="62"/>
       <c r="V24" s="54"/>
       <c r="W24" s="56"/>
       <c r="X24" s="58"/>
       <c r="Y24" s="60"/>
-      <c r="Z24" s="50"/>
-      <c r="AA24" s="65"/>
-      <c r="AB24" s="65"/>
-      <c r="AC24" s="67"/>
+      <c r="Z24" s="46"/>
+      <c r="AA24" s="38"/>
+      <c r="AB24" s="38"/>
+      <c r="AC24" s="40"/>
     </row>
     <row r="25" spans="1:29" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="45"/>
-      <c r="B25" s="64">
+      <c r="A25" s="50"/>
+      <c r="B25" s="41">
         <v>16501</v>
       </c>
-      <c r="C25" s="64">
+      <c r="C25" s="41">
         <v>91338035</v>
       </c>
       <c r="D25" s="7">
         <v>532325</v>
       </c>
-      <c r="E25" s="64" t="s">
+      <c r="E25" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="F25" s="68" t="s">
+      <c r="F25" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="G25" s="64" t="s">
+      <c r="G25" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="H25" s="64"/>
-      <c r="I25" s="68" t="s">
+      <c r="H25" s="41"/>
+      <c r="I25" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="J25" s="68" t="s">
+      <c r="J25" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="K25" s="61" t="s">
+      <c r="K25" s="47" t="s">
         <v>126</v>
       </c>
       <c r="L25" s="4">
@@ -2595,13 +2695,13 @@
       <c r="W25" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="X25" s="69" t="s">
+      <c r="X25" s="43" t="s">
         <v>103</v>
       </c>
       <c r="Y25" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="Z25" s="70">
+      <c r="Z25" s="44">
         <v>43171</v>
       </c>
       <c r="AA25" s="12"/>
@@ -2612,19 +2712,19 @@
       </c>
     </row>
     <row r="26" spans="1:29" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="45"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="64"/>
+      <c r="A26" s="50"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
       <c r="D26" s="7">
         <v>532326</v>
       </c>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="62"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="48"/>
       <c r="L26" s="4">
         <v>1</v>
       </c>
@@ -2662,11 +2762,11 @@
       <c r="W26" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="X26" s="69"/>
+      <c r="X26" s="43"/>
       <c r="Y26" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="Z26" s="71"/>
+      <c r="Z26" s="45"/>
       <c r="AA26" s="12"/>
       <c r="AB26" s="12"/>
       <c r="AC26" s="13">
@@ -2675,19 +2775,19 @@
       </c>
     </row>
     <row r="27" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="45"/>
-      <c r="B27" s="64"/>
-      <c r="C27" s="64"/>
+      <c r="A27" s="50"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
       <c r="D27" s="7">
         <v>533180</v>
       </c>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="62" t="s">
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="48" t="s">
         <v>127</v>
       </c>
       <c r="L27" s="4"/>
@@ -2713,11 +2813,11 @@
       <c r="W27" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="X27" s="69"/>
+      <c r="X27" s="43"/>
       <c r="Y27" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="Z27" s="71"/>
+      <c r="Z27" s="45"/>
       <c r="AA27" s="12"/>
       <c r="AB27" s="12"/>
       <c r="AC27" s="13">
@@ -2726,19 +2826,19 @@
       </c>
     </row>
     <row r="28" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="45"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="64"/>
+      <c r="A28" s="50"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
       <c r="D28" s="7">
         <v>533181</v>
       </c>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="62"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="48"/>
       <c r="L28" s="4"/>
       <c r="M28" s="5"/>
       <c r="N28" s="4"/>
@@ -2762,9 +2862,9 @@
       <c r="W28" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="X28" s="69"/>
+      <c r="X28" s="43"/>
       <c r="Y28" s="52"/>
-      <c r="Z28" s="71"/>
+      <c r="Z28" s="45"/>
       <c r="AA28" s="12"/>
       <c r="AB28" s="12"/>
       <c r="AC28" s="13">
@@ -2773,19 +2873,19 @@
       </c>
     </row>
     <row r="29" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="45"/>
-      <c r="B29" s="64"/>
-      <c r="C29" s="64"/>
+      <c r="A29" s="50"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
       <c r="D29" s="7">
         <v>533182</v>
       </c>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="64"/>
-      <c r="K29" s="62"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="48"/>
       <c r="L29" s="4"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
@@ -2809,9 +2909,9 @@
       <c r="W29" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="X29" s="69"/>
+      <c r="X29" s="43"/>
       <c r="Y29" s="52"/>
-      <c r="Z29" s="50"/>
+      <c r="Z29" s="46"/>
       <c r="AA29" s="12"/>
       <c r="AB29" s="12"/>
       <c r="AC29" s="13">
@@ -2820,19 +2920,19 @@
       </c>
     </row>
     <row r="30" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="45"/>
-      <c r="B30" s="64"/>
-      <c r="C30" s="64"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
       <c r="D30" s="7">
         <v>533183</v>
       </c>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="64"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="64"/>
-      <c r="K30" s="62"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="48"/>
       <c r="L30" s="4"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
@@ -2856,9 +2956,9 @@
       <c r="W30" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="X30" s="69"/>
+      <c r="X30" s="43"/>
       <c r="Y30" s="52"/>
-      <c r="Z30" s="50"/>
+      <c r="Z30" s="46"/>
       <c r="AA30" s="12"/>
       <c r="AB30" s="12"/>
       <c r="AC30" s="13">
@@ -2867,19 +2967,19 @@
       </c>
     </row>
     <row r="31" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A31" s="45"/>
-      <c r="B31" s="64"/>
-      <c r="C31" s="64"/>
+      <c r="A31" s="50"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
       <c r="D31" s="7">
         <v>533184</v>
       </c>
-      <c r="E31" s="64"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="64"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="64"/>
-      <c r="K31" s="63"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="49"/>
       <c r="L31" s="4"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
@@ -2903,9 +3003,9 @@
       <c r="W31" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="X31" s="69"/>
+      <c r="X31" s="43"/>
       <c r="Y31" s="52"/>
-      <c r="Z31" s="50"/>
+      <c r="Z31" s="46"/>
       <c r="AA31" s="12"/>
       <c r="AB31" s="12"/>
       <c r="AC31" s="13">
@@ -2914,26 +3014,26 @@
       </c>
     </row>
     <row r="32" spans="1:29" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
-      <c r="B32" s="64"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="64"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="64"/>
-      <c r="K32" s="64"/>
-      <c r="L32" s="64"/>
-      <c r="M32" s="64"/>
-      <c r="N32" s="64"/>
-      <c r="O32" s="64"/>
-      <c r="P32" s="64"/>
-      <c r="Q32" s="64"/>
-      <c r="R32" s="64"/>
-      <c r="S32" s="64"/>
-      <c r="T32" s="64"/>
+      <c r="A32" s="50"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="41"/>
+      <c r="S32" s="41"/>
+      <c r="T32" s="41"/>
       <c r="U32" s="15">
         <f>SUM(U25:U31)</f>
         <v>298</v>
@@ -2960,7 +3060,7 @@
       </c>
     </row>
     <row r="33" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A33" s="45"/>
+      <c r="A33" s="50"/>
       <c r="B33" s="20" t="s">
         <v>109</v>
       </c>
@@ -3002,6 +3102,33 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="B32:T32"/>
+    <mergeCell ref="A23:A33"/>
+    <mergeCell ref="AA23:AA24"/>
+    <mergeCell ref="Y27:Y31"/>
+    <mergeCell ref="V23:V24"/>
+    <mergeCell ref="W23:W24"/>
+    <mergeCell ref="X23:X24"/>
+    <mergeCell ref="Y23:Y24"/>
+    <mergeCell ref="Z23:Z24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:S23"/>
+    <mergeCell ref="T23:T24"/>
+    <mergeCell ref="U23:U24"/>
     <mergeCell ref="AB23:AB24"/>
     <mergeCell ref="AC23:AC24"/>
     <mergeCell ref="B25:B31"/>
@@ -3016,33 +3143,6 @@
     <mergeCell ref="Z25:Z31"/>
     <mergeCell ref="K25:K26"/>
     <mergeCell ref="K27:K31"/>
-    <mergeCell ref="B32:T32"/>
-    <mergeCell ref="A23:A33"/>
-    <mergeCell ref="AA23:AA24"/>
-    <mergeCell ref="Y27:Y31"/>
-    <mergeCell ref="V23:V24"/>
-    <mergeCell ref="W23:W24"/>
-    <mergeCell ref="X23:X24"/>
-    <mergeCell ref="Y23:Y24"/>
-    <mergeCell ref="Z23:Z24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:S23"/>
-    <mergeCell ref="T23:T24"/>
-    <mergeCell ref="U23:U24"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="A8:A16"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="B2:I2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/ExcelProcesser.Tests/resources/testData.xlsx
+++ b/tests/ExcelProcesser.Tests/resources/testData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23714"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FF6C4A-C023-4EE1-AF9B-F682C0AE30D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86C72F6-FED4-4F5C-882C-A8AD4B19DD62}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1187,16 +1187,85 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="3">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="3" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="4">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="4" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="3" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="3" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1211,9 +1280,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1221,72 +1287,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="4">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="4" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="3">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="3" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1658,8 +1658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2294,23 +2294,23 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="70"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="38"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="50"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="3">
         <v>28</v>
       </c>
@@ -2335,7 +2335,7 @@
       <c r="I3" s="3">
         <v>35</v>
       </c>
-      <c r="J3" s="70"/>
+      <c r="J3" s="38"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -2343,22 +2343,22 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="65"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="44"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="3">
         <v>28</v>
       </c>
@@ -2385,7 +2385,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="4">
         <v>1</v>
       </c>
@@ -2412,7 +2412,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="4">
         <v>1</v>
       </c>
@@ -2439,7 +2439,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4">
@@ -2452,7 +2452,7 @@
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="4"/>
@@ -2465,7 +2465,7 @@
       <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="50"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -2478,7 +2478,7 @@
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="50"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -2491,7 +2491,7 @@
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -2509,90 +2509,90 @@
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="66" t="s">
+      <c r="B23" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="C23" s="61" t="s">
+      <c r="C23" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="68" t="s">
+      <c r="D23" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="61" t="s">
+      <c r="E23" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="F23" s="61" t="s">
+      <c r="F23" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="G23" s="71" t="s">
+      <c r="G23" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="H23" s="61" t="s">
+      <c r="H23" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="I23" s="71" t="s">
+      <c r="I23" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="J23" s="61" t="s">
+      <c r="J23" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="K23" s="61" t="s">
+      <c r="K23" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="L23" s="63"/>
-      <c r="M23" s="64"/>
-      <c r="N23" s="64"/>
-      <c r="O23" s="64"/>
-      <c r="P23" s="64"/>
-      <c r="Q23" s="64"/>
-      <c r="R23" s="64"/>
-      <c r="S23" s="65"/>
-      <c r="T23" s="61" t="s">
+      <c r="L23" s="42"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="43"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="U23" s="61" t="s">
+      <c r="U23" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="V23" s="53" t="s">
+      <c r="V23" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="W23" s="55" t="s">
+      <c r="W23" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="X23" s="57" t="s">
+      <c r="X23" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="Y23" s="59" t="s">
+      <c r="Y23" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="Z23" s="46" t="s">
+      <c r="Z23" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="AA23" s="38" t="s">
+      <c r="AA23" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="AB23" s="38" t="s">
+      <c r="AB23" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="AC23" s="39" t="s">
+      <c r="AC23" s="63" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A24" s="50"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
       <c r="L24" s="3">
         <v>28</v>
       </c>
@@ -2617,45 +2617,45 @@
       <c r="S24" s="3">
         <v>35</v>
       </c>
-      <c r="T24" s="62"/>
-      <c r="U24" s="62"/>
-      <c r="V24" s="54"/>
-      <c r="W24" s="56"/>
-      <c r="X24" s="58"/>
-      <c r="Y24" s="60"/>
-      <c r="Z24" s="46"/>
-      <c r="AA24" s="38"/>
-      <c r="AB24" s="38"/>
-      <c r="AC24" s="40"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="55"/>
+      <c r="W24" s="57"/>
+      <c r="X24" s="59"/>
+      <c r="Y24" s="61"/>
+      <c r="Z24" s="62"/>
+      <c r="AA24" s="51"/>
+      <c r="AB24" s="51"/>
+      <c r="AC24" s="64"/>
     </row>
     <row r="25" spans="1:29" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
-      <c r="B25" s="41">
+      <c r="A25" s="45"/>
+      <c r="B25" s="50">
         <v>16501</v>
       </c>
-      <c r="C25" s="41">
+      <c r="C25" s="50">
         <v>91338035</v>
       </c>
       <c r="D25" s="7">
         <v>532325</v>
       </c>
-      <c r="E25" s="41" t="s">
+      <c r="E25" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="F25" s="42" t="s">
+      <c r="F25" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="G25" s="41" t="s">
+      <c r="G25" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="H25" s="41"/>
-      <c r="I25" s="42" t="s">
+      <c r="H25" s="50"/>
+      <c r="I25" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="J25" s="42" t="s">
+      <c r="J25" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="K25" s="47" t="s">
+      <c r="K25" s="69" t="s">
         <v>126</v>
       </c>
       <c r="L25" s="4">
@@ -2695,13 +2695,13 @@
       <c r="W25" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="X25" s="43" t="s">
+      <c r="X25" s="66" t="s">
         <v>103</v>
       </c>
       <c r="Y25" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="Z25" s="44">
+      <c r="Z25" s="67">
         <v>43171</v>
       </c>
       <c r="AA25" s="12"/>
@@ -2712,19 +2712,19 @@
       </c>
     </row>
     <row r="26" spans="1:29" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="50"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
       <c r="D26" s="7">
         <v>532326</v>
       </c>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="48"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="70"/>
       <c r="L26" s="4">
         <v>1</v>
       </c>
@@ -2762,11 +2762,11 @@
       <c r="W26" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="X26" s="43"/>
+      <c r="X26" s="66"/>
       <c r="Y26" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="Z26" s="45"/>
+      <c r="Z26" s="68"/>
       <c r="AA26" s="12"/>
       <c r="AB26" s="12"/>
       <c r="AC26" s="13">
@@ -2775,19 +2775,19 @@
       </c>
     </row>
     <row r="27" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="50"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
       <c r="D27" s="7">
         <v>533180</v>
       </c>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="48" t="s">
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="70" t="s">
         <v>127</v>
       </c>
       <c r="L27" s="4"/>
@@ -2813,11 +2813,11 @@
       <c r="W27" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="X27" s="43"/>
-      <c r="Y27" s="51" t="s">
+      <c r="X27" s="66"/>
+      <c r="Y27" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="Z27" s="45"/>
+      <c r="Z27" s="68"/>
       <c r="AA27" s="12"/>
       <c r="AB27" s="12"/>
       <c r="AC27" s="13">
@@ -2826,19 +2826,19 @@
       </c>
     </row>
     <row r="28" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="50"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
       <c r="D28" s="7">
         <v>533181</v>
       </c>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="48"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="70"/>
       <c r="L28" s="4"/>
       <c r="M28" s="5"/>
       <c r="N28" s="4"/>
@@ -2862,9 +2862,9 @@
       <c r="W28" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="X28" s="43"/>
-      <c r="Y28" s="52"/>
-      <c r="Z28" s="45"/>
+      <c r="X28" s="66"/>
+      <c r="Y28" s="53"/>
+      <c r="Z28" s="68"/>
       <c r="AA28" s="12"/>
       <c r="AB28" s="12"/>
       <c r="AC28" s="13">
@@ -2873,19 +2873,19 @@
       </c>
     </row>
     <row r="29" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="50"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
       <c r="D29" s="7">
         <v>533182</v>
       </c>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="48"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="70"/>
       <c r="L29" s="4"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
@@ -2909,9 +2909,9 @@
       <c r="W29" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="X29" s="43"/>
-      <c r="Y29" s="52"/>
-      <c r="Z29" s="46"/>
+      <c r="X29" s="66"/>
+      <c r="Y29" s="53"/>
+      <c r="Z29" s="62"/>
       <c r="AA29" s="12"/>
       <c r="AB29" s="12"/>
       <c r="AC29" s="13">
@@ -2920,19 +2920,19 @@
       </c>
     </row>
     <row r="30" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="50"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
       <c r="D30" s="7">
         <v>533183</v>
       </c>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="48"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="70"/>
       <c r="L30" s="4"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
@@ -2956,9 +2956,9 @@
       <c r="W30" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="X30" s="43"/>
-      <c r="Y30" s="52"/>
-      <c r="Z30" s="46"/>
+      <c r="X30" s="66"/>
+      <c r="Y30" s="53"/>
+      <c r="Z30" s="62"/>
       <c r="AA30" s="12"/>
       <c r="AB30" s="12"/>
       <c r="AC30" s="13">
@@ -2967,19 +2967,19 @@
       </c>
     </row>
     <row r="31" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A31" s="50"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
       <c r="D31" s="7">
         <v>533184</v>
       </c>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="49"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="71"/>
       <c r="L31" s="4"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
@@ -3003,9 +3003,9 @@
       <c r="W31" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="X31" s="43"/>
-      <c r="Y31" s="52"/>
-      <c r="Z31" s="46"/>
+      <c r="X31" s="66"/>
+      <c r="Y31" s="53"/>
+      <c r="Z31" s="62"/>
       <c r="AA31" s="12"/>
       <c r="AB31" s="12"/>
       <c r="AC31" s="13">
@@ -3014,26 +3014,26 @@
       </c>
     </row>
     <row r="32" spans="1:29" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A32" s="50"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="41"/>
-      <c r="S32" s="41"/>
-      <c r="T32" s="41"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="50"/>
+      <c r="P32" s="50"/>
+      <c r="Q32" s="50"/>
+      <c r="R32" s="50"/>
+      <c r="S32" s="50"/>
+      <c r="T32" s="50"/>
       <c r="U32" s="15">
         <f>SUM(U25:U31)</f>
         <v>298</v>
@@ -3060,7 +3060,7 @@
       </c>
     </row>
     <row r="33" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A33" s="50"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="20" t="s">
         <v>109</v>
       </c>
@@ -3102,19 +3102,20 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="A8:A16"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="AB23:AB24"/>
+    <mergeCell ref="AC23:AC24"/>
+    <mergeCell ref="B25:B31"/>
+    <mergeCell ref="C25:C31"/>
+    <mergeCell ref="E25:E31"/>
+    <mergeCell ref="F25:F31"/>
+    <mergeCell ref="G25:G31"/>
+    <mergeCell ref="H25:H31"/>
+    <mergeCell ref="I25:I31"/>
+    <mergeCell ref="J25:J31"/>
+    <mergeCell ref="X25:X31"/>
+    <mergeCell ref="Z25:Z31"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="K27:K31"/>
     <mergeCell ref="B32:T32"/>
     <mergeCell ref="A23:A33"/>
     <mergeCell ref="AA23:AA24"/>
@@ -3129,20 +3130,19 @@
     <mergeCell ref="L23:S23"/>
     <mergeCell ref="T23:T24"/>
     <mergeCell ref="U23:U24"/>
-    <mergeCell ref="AB23:AB24"/>
-    <mergeCell ref="AC23:AC24"/>
-    <mergeCell ref="B25:B31"/>
-    <mergeCell ref="C25:C31"/>
-    <mergeCell ref="E25:E31"/>
-    <mergeCell ref="F25:F31"/>
-    <mergeCell ref="G25:G31"/>
-    <mergeCell ref="H25:H31"/>
-    <mergeCell ref="I25:I31"/>
-    <mergeCell ref="J25:J31"/>
-    <mergeCell ref="X25:X31"/>
-    <mergeCell ref="Z25:Z31"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="K27:K31"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="B2:I2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/ExcelProcesser.Tests/resources/testData.xlsx
+++ b/tests/ExcelProcesser.Tests/resources/testData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86C72F6-FED4-4F5C-882C-A8AD4B19DD62}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9317C225-8BAC-4D2E-8A9D-46E7B7EDFBDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matrix" sheetId="1" r:id="rId1"/>
@@ -1187,106 +1187,106 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="3" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="3" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="4">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="4" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="3">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="3" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="3">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="3" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="4">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="4" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="3" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="3" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1658,7 +1658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
@@ -2282,8 +2282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47900B11-AE46-4148-92BB-2515463F524D}">
   <dimension ref="A1:AC33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27:K31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2294,23 +2294,23 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="38"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="70"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
+      <c r="A3" s="50"/>
       <c r="B3" s="3">
         <v>28</v>
       </c>
@@ -2335,7 +2335,7 @@
       <c r="I3" s="3">
         <v>35</v>
       </c>
-      <c r="J3" s="38"/>
+      <c r="J3" s="70"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -2343,22 +2343,22 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="44"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="65"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="3">
         <v>28</v>
       </c>
@@ -2385,7 +2385,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="4">
         <v>1</v>
       </c>
@@ -2412,7 +2412,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="4">
         <v>1</v>
       </c>
@@ -2439,7 +2439,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4">
@@ -2452,7 +2452,7 @@
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="4"/>
@@ -2465,7 +2465,7 @@
       <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
+      <c r="A14" s="50"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -2478,7 +2478,7 @@
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
+      <c r="A15" s="50"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -2491,7 +2491,7 @@
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -2509,90 +2509,90 @@
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="48" t="s">
+      <c r="D23" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="41" t="s">
+      <c r="E23" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="F23" s="41" t="s">
+      <c r="F23" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="G23" s="39" t="s">
+      <c r="G23" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="H23" s="41" t="s">
+      <c r="H23" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="I23" s="39" t="s">
+      <c r="I23" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="J23" s="41" t="s">
+      <c r="J23" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="K23" s="41" t="s">
+      <c r="K23" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="L23" s="42"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="43"/>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="43"/>
-      <c r="R23" s="43"/>
-      <c r="S23" s="44"/>
-      <c r="T23" s="41" t="s">
+      <c r="L23" s="63"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="64"/>
+      <c r="P23" s="64"/>
+      <c r="Q23" s="64"/>
+      <c r="R23" s="64"/>
+      <c r="S23" s="65"/>
+      <c r="T23" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="U23" s="41" t="s">
+      <c r="U23" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="V23" s="54" t="s">
+      <c r="V23" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="W23" s="56" t="s">
+      <c r="W23" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="X23" s="58" t="s">
+      <c r="X23" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="Y23" s="60" t="s">
+      <c r="Y23" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="Z23" s="62" t="s">
+      <c r="Z23" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="AA23" s="51" t="s">
+      <c r="AA23" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="AB23" s="51" t="s">
+      <c r="AB23" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="AC23" s="63" t="s">
+      <c r="AC23" s="39" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
       <c r="L24" s="3">
         <v>28</v>
       </c>
@@ -2617,45 +2617,45 @@
       <c r="S24" s="3">
         <v>35</v>
       </c>
-      <c r="T24" s="40"/>
-      <c r="U24" s="40"/>
-      <c r="V24" s="55"/>
-      <c r="W24" s="57"/>
-      <c r="X24" s="59"/>
-      <c r="Y24" s="61"/>
-      <c r="Z24" s="62"/>
-      <c r="AA24" s="51"/>
-      <c r="AB24" s="51"/>
-      <c r="AC24" s="64"/>
+      <c r="T24" s="62"/>
+      <c r="U24" s="62"/>
+      <c r="V24" s="54"/>
+      <c r="W24" s="56"/>
+      <c r="X24" s="58"/>
+      <c r="Y24" s="60"/>
+      <c r="Z24" s="46"/>
+      <c r="AA24" s="38"/>
+      <c r="AB24" s="38"/>
+      <c r="AC24" s="40"/>
     </row>
     <row r="25" spans="1:29" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="45"/>
-      <c r="B25" s="50">
+      <c r="A25" s="50"/>
+      <c r="B25" s="41">
         <v>16501</v>
       </c>
-      <c r="C25" s="50">
+      <c r="C25" s="41">
         <v>91338035</v>
       </c>
       <c r="D25" s="7">
         <v>532325</v>
       </c>
-      <c r="E25" s="50" t="s">
+      <c r="E25" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="F25" s="65" t="s">
+      <c r="F25" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="G25" s="50" t="s">
+      <c r="G25" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="H25" s="50"/>
-      <c r="I25" s="65" t="s">
+      <c r="H25" s="41"/>
+      <c r="I25" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="J25" s="65" t="s">
+      <c r="J25" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="K25" s="69" t="s">
+      <c r="K25" s="47" t="s">
         <v>126</v>
       </c>
       <c r="L25" s="4">
@@ -2695,13 +2695,13 @@
       <c r="W25" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="X25" s="66" t="s">
+      <c r="X25" s="43" t="s">
         <v>103</v>
       </c>
       <c r="Y25" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="Z25" s="67">
+      <c r="Z25" s="44">
         <v>43171</v>
       </c>
       <c r="AA25" s="12"/>
@@ -2712,19 +2712,19 @@
       </c>
     </row>
     <row r="26" spans="1:29" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="45"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
+      <c r="A26" s="50"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
       <c r="D26" s="7">
         <v>532326</v>
       </c>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="70"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="48"/>
       <c r="L26" s="4">
         <v>1</v>
       </c>
@@ -2762,11 +2762,11 @@
       <c r="W26" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="X26" s="66"/>
+      <c r="X26" s="43"/>
       <c r="Y26" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="Z26" s="68"/>
+      <c r="Z26" s="45"/>
       <c r="AA26" s="12"/>
       <c r="AB26" s="12"/>
       <c r="AC26" s="13">
@@ -2775,19 +2775,19 @@
       </c>
     </row>
     <row r="27" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="45"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
+      <c r="A27" s="50"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
       <c r="D27" s="7">
         <v>533180</v>
       </c>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="70" t="s">
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="48" t="s">
         <v>127</v>
       </c>
       <c r="L27" s="4"/>
@@ -2813,11 +2813,11 @@
       <c r="W27" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="X27" s="66"/>
-      <c r="Y27" s="52" t="s">
+      <c r="X27" s="43"/>
+      <c r="Y27" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="Z27" s="68"/>
+      <c r="Z27" s="45"/>
       <c r="AA27" s="12"/>
       <c r="AB27" s="12"/>
       <c r="AC27" s="13">
@@ -2826,19 +2826,19 @@
       </c>
     </row>
     <row r="28" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="45"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="50"/>
+      <c r="A28" s="50"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
       <c r="D28" s="7">
         <v>533181</v>
       </c>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="70"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="48"/>
       <c r="L28" s="4"/>
       <c r="M28" s="5"/>
       <c r="N28" s="4"/>
@@ -2862,9 +2862,9 @@
       <c r="W28" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="X28" s="66"/>
-      <c r="Y28" s="53"/>
-      <c r="Z28" s="68"/>
+      <c r="X28" s="43"/>
+      <c r="Y28" s="52"/>
+      <c r="Z28" s="45"/>
       <c r="AA28" s="12"/>
       <c r="AB28" s="12"/>
       <c r="AC28" s="13">
@@ -2873,19 +2873,19 @@
       </c>
     </row>
     <row r="29" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="45"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
+      <c r="A29" s="50"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
       <c r="D29" s="7">
         <v>533182</v>
       </c>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="70"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="48"/>
       <c r="L29" s="4"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
@@ -2909,9 +2909,9 @@
       <c r="W29" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="X29" s="66"/>
-      <c r="Y29" s="53"/>
-      <c r="Z29" s="62"/>
+      <c r="X29" s="43"/>
+      <c r="Y29" s="52"/>
+      <c r="Z29" s="46"/>
       <c r="AA29" s="12"/>
       <c r="AB29" s="12"/>
       <c r="AC29" s="13">
@@ -2920,19 +2920,19 @@
       </c>
     </row>
     <row r="30" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="45"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
       <c r="D30" s="7">
         <v>533183</v>
       </c>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="70"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="48"/>
       <c r="L30" s="4"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
@@ -2956,9 +2956,9 @@
       <c r="W30" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="X30" s="66"/>
-      <c r="Y30" s="53"/>
-      <c r="Z30" s="62"/>
+      <c r="X30" s="43"/>
+      <c r="Y30" s="52"/>
+      <c r="Z30" s="46"/>
       <c r="AA30" s="12"/>
       <c r="AB30" s="12"/>
       <c r="AC30" s="13">
@@ -2967,19 +2967,19 @@
       </c>
     </row>
     <row r="31" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A31" s="45"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
+      <c r="A31" s="50"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
       <c r="D31" s="7">
         <v>533184</v>
       </c>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="71"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="49"/>
       <c r="L31" s="4"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
@@ -3003,9 +3003,9 @@
       <c r="W31" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="X31" s="66"/>
-      <c r="Y31" s="53"/>
-      <c r="Z31" s="62"/>
+      <c r="X31" s="43"/>
+      <c r="Y31" s="52"/>
+      <c r="Z31" s="46"/>
       <c r="AA31" s="12"/>
       <c r="AB31" s="12"/>
       <c r="AC31" s="13">
@@ -3014,26 +3014,26 @@
       </c>
     </row>
     <row r="32" spans="1:29" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="50"/>
-      <c r="N32" s="50"/>
-      <c r="O32" s="50"/>
-      <c r="P32" s="50"/>
-      <c r="Q32" s="50"/>
-      <c r="R32" s="50"/>
-      <c r="S32" s="50"/>
-      <c r="T32" s="50"/>
+      <c r="A32" s="50"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="41"/>
+      <c r="S32" s="41"/>
+      <c r="T32" s="41"/>
       <c r="U32" s="15">
         <f>SUM(U25:U31)</f>
         <v>298</v>
@@ -3060,7 +3060,7 @@
       </c>
     </row>
     <row r="33" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A33" s="45"/>
+      <c r="A33" s="50"/>
       <c r="B33" s="20" t="s">
         <v>109</v>
       </c>
@@ -3102,6 +3102,33 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="B32:T32"/>
+    <mergeCell ref="A23:A33"/>
+    <mergeCell ref="AA23:AA24"/>
+    <mergeCell ref="Y27:Y31"/>
+    <mergeCell ref="V23:V24"/>
+    <mergeCell ref="W23:W24"/>
+    <mergeCell ref="X23:X24"/>
+    <mergeCell ref="Y23:Y24"/>
+    <mergeCell ref="Z23:Z24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:S23"/>
+    <mergeCell ref="T23:T24"/>
+    <mergeCell ref="U23:U24"/>
     <mergeCell ref="AB23:AB24"/>
     <mergeCell ref="AC23:AC24"/>
     <mergeCell ref="B25:B31"/>
@@ -3116,33 +3143,6 @@
     <mergeCell ref="Z25:Z31"/>
     <mergeCell ref="K25:K26"/>
     <mergeCell ref="K27:K31"/>
-    <mergeCell ref="B32:T32"/>
-    <mergeCell ref="A23:A33"/>
-    <mergeCell ref="AA23:AA24"/>
-    <mergeCell ref="Y27:Y31"/>
-    <mergeCell ref="V23:V24"/>
-    <mergeCell ref="W23:W24"/>
-    <mergeCell ref="X23:X24"/>
-    <mergeCell ref="Y23:Y24"/>
-    <mergeCell ref="Z23:Z24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:S23"/>
-    <mergeCell ref="T23:T24"/>
-    <mergeCell ref="U23:U24"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="A8:A16"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="B2:I2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/ExcelProcesser.Tests/resources/testData.xlsx
+++ b/tests/ExcelProcesser.Tests/resources/testData.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24117"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9317C225-8BAC-4D2E-8A9D-46E7B7EDFBDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62624AC9-B04D-4A44-9B10-D12B317C5711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="Math" sheetId="2" r:id="rId2"/>
     <sheet name="Sematics" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="167">
   <si>
     <t>Input</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -666,6 +666,94 @@
     <t>Cross_4E</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>订单号</t>
+  </si>
+  <si>
+    <t>ART.N</t>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>2021-832</t>
+  </si>
+  <si>
+    <t>589-1309</t>
+  </si>
+  <si>
+    <t>数量（个）</t>
+  </si>
+  <si>
+    <t>589-6309</t>
+  </si>
+  <si>
+    <t>2021-833</t>
+  </si>
+  <si>
+    <t>509-6303</t>
+  </si>
+  <si>
+    <t>2021-834</t>
+  </si>
+  <si>
+    <t>509-0303</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pipe 2 in direction</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Starter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mx rightAnglePivotTable</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mx twoRowHeaderPivotTable2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORDER NO.2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">35  36   37    38    39  40  </t>
+  </si>
+  <si>
+    <t>ROSADO</t>
+  </si>
+  <si>
+    <t>1   2    3     3     2   1</t>
+  </si>
+  <si>
+    <t>GRIS</t>
+  </si>
+  <si>
+    <t>MOSTAZA</t>
+  </si>
+  <si>
+    <t>1   2    3     3     2   1=36PRS/CTN</t>
+  </si>
+  <si>
+    <t>simple 2d Table</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -675,7 +763,7 @@
     <numFmt numFmtId="176" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
     <numFmt numFmtId="177" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -776,12 +864,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -828,6 +910,20 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1073,20 +1169,20 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyBorder="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
@@ -1104,7 +1200,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1113,10 +1209,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1125,10 +1221,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1136,132 +1232,127 @@
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="5" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="7" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="8" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="6" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="5" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="7" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" xfId="8" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="12" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="3" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="3" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="4">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="4" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1269,25 +1360,142 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="3">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="3" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="3" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="3" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="4">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="4" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="3">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="3" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1320,13 +1528,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>266700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>373380</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1358,6 +1566,80 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="3756660" y="3375660"/>
+          <a:ext cx="510540" cy="198120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>960120</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>373380</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{141937F7-54EB-4BE9-A2A5-962C7930190E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4366260" y="5661660"/>
           <a:ext cx="510540" cy="198120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1656,10 +1938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H111"/>
+  <dimension ref="A1:H117"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1668,12 +1950,12 @@
     <col min="2" max="5" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1681,30 +1963,33 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="C6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="60"/>
+      <c r="G6" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="F6" s="36"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H6" s="60"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
@@ -1715,12 +2000,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>0</v>
       </c>
@@ -1756,7 +2041,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="59" t="s">
         <v>0</v>
       </c>
       <c r="B22" t="s">
@@ -1764,7 +2049,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
+      <c r="A23" s="59"/>
       <c r="B23" t="s">
         <v>8</v>
       </c>
@@ -1775,7 +2060,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="59" t="s">
         <v>0</v>
       </c>
       <c r="B27" t="s">
@@ -1783,13 +2068,13 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
+      <c r="A28" s="59"/>
       <c r="B28" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
+      <c r="A29" s="59"/>
       <c r="B29" t="s">
         <v>16</v>
       </c>
@@ -1800,7 +2085,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="59" t="s">
         <v>0</v>
       </c>
       <c r="B32" t="s">
@@ -1814,10 +2099,10 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="37"/>
+      <c r="A33" s="59"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="37"/>
+      <c r="A34" s="59"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -1825,7 +2110,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="37" t="s">
+      <c r="A37" s="59" t="s">
         <v>0</v>
       </c>
       <c r="B37" t="s">
@@ -1836,13 +2121,13 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="37"/>
+      <c r="A38" s="59"/>
       <c r="C38" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="37"/>
+      <c r="A39" s="59"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
@@ -1850,7 +2135,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="37" t="s">
+      <c r="A42" s="59" t="s">
         <v>0</v>
       </c>
       <c r="B42" t="s">
@@ -1861,13 +2146,13 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="37"/>
+      <c r="A43" s="59"/>
       <c r="B43" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="37"/>
+      <c r="A44" s="59"/>
       <c r="B44" t="s">
         <v>20</v>
       </c>
@@ -1878,7 +2163,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="37" t="s">
+      <c r="A48" s="59" t="s">
         <v>0</v>
       </c>
       <c r="B48" t="s">
@@ -1889,13 +2174,13 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="37"/>
+      <c r="A49" s="59"/>
       <c r="B49" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="37"/>
+      <c r="A50" s="59"/>
       <c r="B50" t="s">
         <v>25</v>
       </c>
@@ -1906,7 +2191,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="37" t="s">
+      <c r="A53" s="59" t="s">
         <v>0</v>
       </c>
       <c r="B53" s="31" t="s">
@@ -1920,7 +2205,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="37"/>
+      <c r="A54" s="59"/>
       <c r="B54" s="35" t="s">
         <v>114</v>
       </c>
@@ -1932,7 +2217,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="37"/>
+      <c r="A55" s="59"/>
       <c r="B55" s="35" t="s">
         <v>115</v>
       </c>
@@ -1941,7 +2226,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="37"/>
+      <c r="A56" s="59"/>
       <c r="B56" s="32" t="s">
         <v>117</v>
       </c>
@@ -1952,7 +2237,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="37" t="s">
+      <c r="A59" s="59" t="s">
         <v>0</v>
       </c>
       <c r="B59" t="s">
@@ -1963,13 +2248,13 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="37"/>
+      <c r="A60" s="59"/>
       <c r="C60" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="37"/>
+      <c r="A61" s="59"/>
       <c r="C61" t="s">
         <v>37</v>
       </c>
@@ -2075,7 +2360,7 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="37" t="s">
+      <c r="A80" s="59" t="s">
         <v>0</v>
       </c>
       <c r="B80" t="s">
@@ -2092,10 +2377,10 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="37"/>
+      <c r="A81" s="59"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="37"/>
+      <c r="A82" s="59"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
@@ -2103,7 +2388,7 @@
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="37" t="s">
+      <c r="A87" s="59" t="s">
         <v>0</v>
       </c>
       <c r="B87" t="s">
@@ -2111,19 +2396,19 @@
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="37"/>
+      <c r="A88" s="59"/>
       <c r="B88" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="37"/>
+      <c r="A89" s="59"/>
       <c r="B89" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="37"/>
+      <c r="A90" s="59"/>
       <c r="B90" t="s">
         <v>59</v>
       </c>
@@ -2134,7 +2419,7 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="37" t="s">
+      <c r="A95" s="59" t="s">
         <v>0</v>
       </c>
       <c r="B95" t="s">
@@ -2151,10 +2436,10 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="37"/>
+      <c r="A96" s="59"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="37"/>
+      <c r="A97" s="59"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
@@ -2162,7 +2447,7 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="37" t="s">
+      <c r="A101" s="59" t="s">
         <v>0</v>
       </c>
       <c r="B101" t="s">
@@ -2176,10 +2461,10 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="37"/>
+      <c r="A102" s="59"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="37"/>
+      <c r="A103" s="59"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
@@ -2187,7 +2472,7 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="37" t="s">
+      <c r="A109" s="59" t="s">
         <v>0</v>
       </c>
       <c r="B109" t="s">
@@ -2204,15 +2489,44 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="37"/>
+      <c r="A110" s="59"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="37"/>
+      <c r="A111" s="59"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115" t="s">
+        <v>61</v>
+      </c>
+      <c r="D115" t="s">
+        <v>62</v>
+      </c>
+      <c r="E115" t="s">
+        <v>63</v>
+      </c>
+      <c r="H115" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="59"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="59"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E6:F6"/>
+  <mergeCells count="16">
+    <mergeCell ref="A115:A117"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="A101:A103"/>
     <mergeCell ref="A109:A111"/>
     <mergeCell ref="A22:A23"/>
@@ -2235,10 +2549,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{171B277E-1E9C-4949-8C4C-5EFD188DCF86}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2249,7 +2563,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="59" t="s">
         <v>0</v>
       </c>
       <c r="B2">
@@ -2257,21 +2571,24 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
+      <c r="A3" s="59"/>
       <c r="B3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4">
+      <c r="A4" s="59"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="59"/>
+      <c r="B5">
         <f>SUM(B2:B3)</f>
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A2:A5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2280,10 +2597,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47900B11-AE46-4148-92BB-2515463F524D}">
-  <dimension ref="A1:AC33"/>
+  <dimension ref="A1:AC93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25:G31"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2294,23 +2611,23 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="70"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="65"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="50"/>
+      <c r="A3" s="61"/>
       <c r="B3" s="3">
         <v>28</v>
       </c>
@@ -2335,7 +2652,7 @@
       <c r="I3" s="3">
         <v>35</v>
       </c>
-      <c r="J3" s="70"/>
+      <c r="J3" s="65"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -2343,22 +2660,22 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="65"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="64"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="3">
         <v>28</v>
       </c>
@@ -2385,7 +2702,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="4">
         <v>1</v>
       </c>
@@ -2412,7 +2729,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
+      <c r="A11" s="61"/>
       <c r="B11" s="4">
         <v>1</v>
       </c>
@@ -2439,7 +2756,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
+      <c r="A12" s="61"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4">
@@ -2452,7 +2769,7 @@
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
+      <c r="A13" s="61"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="4"/>
@@ -2465,7 +2782,7 @@
       <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="50"/>
+      <c r="A14" s="61"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -2478,7 +2795,7 @@
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="50"/>
+      <c r="A15" s="61"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -2491,7 +2808,7 @@
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
+      <c r="A16" s="61"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -2503,646 +2820,1851 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A22" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="103" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="93" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22" s="78" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" s="56"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="58"/>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A23" s="61"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="3">
+        <v>28</v>
+      </c>
+      <c r="F23" s="3">
+        <v>29</v>
+      </c>
+      <c r="G23" s="3">
+        <v>30</v>
+      </c>
+      <c r="H23" s="3">
+        <v>31</v>
+      </c>
+      <c r="I23" s="3">
+        <v>32</v>
+      </c>
+      <c r="J23" s="3">
+        <v>33</v>
+      </c>
+      <c r="K23" s="3">
+        <v>34</v>
+      </c>
+      <c r="L23" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A24" s="61"/>
+      <c r="C24" s="36">
+        <v>2040</v>
+      </c>
+      <c r="D24" s="13">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1</v>
+      </c>
+      <c r="F24" s="5">
+        <v>1</v>
+      </c>
+      <c r="G24" s="5">
+        <v>2</v>
+      </c>
+      <c r="H24" s="5">
+        <v>2</v>
+      </c>
+      <c r="I24" s="5">
+        <v>2</v>
+      </c>
+      <c r="J24" s="5">
+        <v>2</v>
+      </c>
+      <c r="K24" s="5">
+        <v>1</v>
+      </c>
+      <c r="L24" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A25" s="61"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="48">
+        <v>980</v>
+      </c>
+      <c r="D25" s="13">
+        <v>1</v>
+      </c>
+      <c r="E25" s="49">
+        <v>1</v>
+      </c>
+      <c r="F25" s="50">
+        <v>1</v>
+      </c>
+      <c r="G25" s="50">
+        <v>1</v>
+      </c>
+      <c r="H25" s="50">
+        <v>2</v>
+      </c>
+      <c r="I25" s="50">
+        <v>2</v>
+      </c>
+      <c r="J25" s="50">
+        <v>1</v>
+      </c>
+      <c r="K25" s="50">
+        <v>1</v>
+      </c>
+      <c r="L25" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A26" s="61"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="36">
+        <v>96</v>
+      </c>
+      <c r="D26" s="13">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="4">
+        <v>1</v>
+      </c>
+      <c r="H26" s="5"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="5"/>
+    </row>
+    <row r="27" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A27" s="61"/>
+      <c r="B27" s="46">
+        <v>16501</v>
+      </c>
+      <c r="C27" s="36">
+        <v>96</v>
+      </c>
+      <c r="D27" s="13">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="5">
+        <v>1</v>
+      </c>
+      <c r="I27" s="4"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="5"/>
+    </row>
+    <row r="28" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A28" s="61"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="36">
+        <v>96</v>
+      </c>
+      <c r="D28" s="13">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5">
+        <v>1</v>
+      </c>
+      <c r="J28" s="5"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+    </row>
+    <row r="29" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A29" s="61"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="36">
+        <v>96</v>
+      </c>
+      <c r="D29" s="13">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5">
+        <v>1</v>
+      </c>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+    </row>
+    <row r="30" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A30" s="61"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="36">
+        <v>96</v>
+      </c>
+      <c r="D30" s="13">
+        <v>1</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="6">
+        <v>1</v>
+      </c>
+      <c r="L30" s="6"/>
+    </row>
+    <row r="31" spans="1:29" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A31" s="61"/>
+      <c r="C31">
+        <f>SUM(C24:C30)</f>
+        <v>3500</v>
+      </c>
+      <c r="W31" s="14"/>
+      <c r="X31" s="16"/>
+      <c r="Y31" s="37"/>
+      <c r="Z31" s="12"/>
+      <c r="AA31" s="18"/>
+      <c r="AB31" s="18"/>
+      <c r="AC31" s="19">
+        <f>SUM(D24:D30)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A32" s="61"/>
+      <c r="B32" s="100"/>
+      <c r="C32" s="101"/>
+      <c r="D32" s="101"/>
+      <c r="E32" s="101"/>
+      <c r="F32" s="101"/>
+      <c r="G32" s="101"/>
+      <c r="H32" s="101"/>
+      <c r="I32" s="101"/>
+      <c r="J32" s="101"/>
+      <c r="K32" s="101"/>
+      <c r="L32" s="101"/>
+      <c r="M32" s="101"/>
+      <c r="N32" s="101"/>
+      <c r="O32" s="101"/>
+      <c r="P32" s="101"/>
+      <c r="Q32" s="101"/>
+      <c r="R32" s="101"/>
+      <c r="S32" s="101"/>
+      <c r="T32" s="102"/>
+      <c r="U32" s="15"/>
+      <c r="V32" s="15"/>
+      <c r="W32" s="26"/>
+      <c r="X32" s="27"/>
+      <c r="Y32" s="27"/>
+      <c r="Z32" s="28"/>
+      <c r="AA32" s="29"/>
+      <c r="AB32" s="29"/>
+      <c r="AC32" s="30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A23" s="50" t="s">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A39" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="66" t="s">
+      <c r="B39" s="103" t="s">
         <v>111</v>
       </c>
-      <c r="C23" s="61" t="s">
+      <c r="C39" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="68" t="s">
+      <c r="D39" s="105" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="61" t="s">
+      <c r="E39" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="F23" s="61" t="s">
+      <c r="F39" s="74" t="s">
         <v>84</v>
       </c>
-      <c r="G23" s="71" t="s">
+      <c r="G39" s="107" t="s">
         <v>85</v>
       </c>
-      <c r="H23" s="61" t="s">
+      <c r="H39" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="I23" s="71" t="s">
+      <c r="I39" s="107" t="s">
         <v>87</v>
       </c>
-      <c r="J23" s="61" t="s">
+      <c r="J39" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="K23" s="61" t="s">
+      <c r="K39" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="L23" s="63"/>
-      <c r="M23" s="64"/>
-      <c r="N23" s="64"/>
-      <c r="O23" s="64"/>
-      <c r="P23" s="64"/>
-      <c r="Q23" s="64"/>
-      <c r="R23" s="64"/>
-      <c r="S23" s="65"/>
-      <c r="T23" s="61" t="s">
+      <c r="L39" s="56"/>
+      <c r="M39" s="57"/>
+      <c r="N39" s="57"/>
+      <c r="O39" s="57"/>
+      <c r="P39" s="57"/>
+      <c r="Q39" s="57"/>
+      <c r="R39" s="57"/>
+      <c r="S39" s="58"/>
+      <c r="T39" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="U23" s="61" t="s">
+      <c r="U39" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="V23" s="53" t="s">
+      <c r="V39" s="93" t="s">
         <v>112</v>
       </c>
-      <c r="W23" s="55" t="s">
+      <c r="W39" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="X23" s="57" t="s">
+      <c r="X39" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="Y23" s="59" t="s">
+      <c r="Y39" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="Z23" s="46" t="s">
+      <c r="Z39" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="AA23" s="38" t="s">
+      <c r="AA39" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="AB23" s="38" t="s">
+      <c r="AB39" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="AC23" s="39" t="s">
+      <c r="AC39" s="78" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A24" s="50"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="3">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A40" s="61"/>
+      <c r="B40" s="104"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="106"/>
+      <c r="E40" s="75"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="108"/>
+      <c r="H40" s="75"/>
+      <c r="I40" s="108"/>
+      <c r="J40" s="75"/>
+      <c r="K40" s="75"/>
+      <c r="L40" s="3">
         <v>28</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M40" s="3">
         <v>29</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N40" s="3">
         <v>30</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O40" s="3">
         <v>31</v>
       </c>
-      <c r="P24" s="3">
+      <c r="P40" s="3">
         <v>32</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="Q40" s="3">
         <v>33</v>
       </c>
-      <c r="R24" s="3">
+      <c r="R40" s="3">
         <v>34</v>
       </c>
-      <c r="S24" s="3">
+      <c r="S40" s="3">
         <v>35</v>
       </c>
-      <c r="T24" s="62"/>
-      <c r="U24" s="62"/>
-      <c r="V24" s="54"/>
-      <c r="W24" s="56"/>
-      <c r="X24" s="58"/>
-      <c r="Y24" s="60"/>
-      <c r="Z24" s="46"/>
-      <c r="AA24" s="38"/>
-      <c r="AB24" s="38"/>
-      <c r="AC24" s="40"/>
-    </row>
-    <row r="25" spans="1:29" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
-      <c r="B25" s="41">
-        <v>16501</v>
-      </c>
-      <c r="C25" s="41">
+      <c r="T40" s="75"/>
+      <c r="U40" s="75"/>
+      <c r="V40" s="94"/>
+      <c r="W40" s="67"/>
+      <c r="X40" s="69"/>
+      <c r="Y40" s="71"/>
+      <c r="Z40" s="73"/>
+      <c r="AA40" s="77"/>
+      <c r="AB40" s="77"/>
+      <c r="AC40" s="79"/>
+    </row>
+    <row r="41" spans="1:29" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A41" s="61"/>
+      <c r="C41" s="80">
         <v>91338035</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D41" s="7">
         <v>532325</v>
       </c>
-      <c r="E25" s="41" t="s">
+      <c r="E41" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="F25" s="42" t="s">
+      <c r="F41" s="83" t="s">
         <v>99</v>
       </c>
-      <c r="G25" s="41" t="s">
+      <c r="G41" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="H25" s="41"/>
-      <c r="I25" s="42" t="s">
+      <c r="H41" s="80"/>
+      <c r="I41" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="J25" s="42" t="s">
+      <c r="J41" s="83" t="s">
         <v>101</v>
       </c>
-      <c r="K25" s="47" t="s">
+      <c r="K41" s="83" t="s">
         <v>126</v>
       </c>
-      <c r="L25" s="4">
-        <v>1</v>
-      </c>
-      <c r="M25" s="5">
-        <v>1</v>
-      </c>
-      <c r="N25" s="5">
+      <c r="L41" s="4">
+        <v>1</v>
+      </c>
+      <c r="M41" s="5">
+        <v>1</v>
+      </c>
+      <c r="N41" s="5">
         <v>2</v>
       </c>
-      <c r="O25" s="5">
+      <c r="O41" s="5">
         <v>2</v>
       </c>
-      <c r="P25" s="5">
+      <c r="P41" s="5">
         <v>2</v>
       </c>
-      <c r="Q25" s="5">
+      <c r="Q41" s="5">
         <v>2</v>
       </c>
-      <c r="R25" s="5">
-        <v>1</v>
-      </c>
-      <c r="S25" s="5">
-        <v>1</v>
-      </c>
-      <c r="T25" s="8">
+      <c r="R41" s="5">
+        <v>1</v>
+      </c>
+      <c r="S41" s="5">
+        <v>1</v>
+      </c>
+      <c r="T41" s="8">
         <v>12</v>
       </c>
-      <c r="U25" s="9">
+      <c r="U41" s="9">
         <v>170</v>
       </c>
-      <c r="V25" s="7">
-        <f>T25*U25</f>
+      <c r="V41" s="7">
+        <f>T41*U41</f>
         <v>2040</v>
       </c>
-      <c r="W25" s="10" t="s">
+      <c r="W41" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="X25" s="43" t="s">
+      <c r="X41" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="Y25" s="11" t="s">
+      <c r="Y41" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="Z25" s="44">
+      <c r="Z41" s="88">
         <v>43171</v>
       </c>
-      <c r="AA25" s="12"/>
-      <c r="AB25" s="12"/>
-      <c r="AC25" s="13">
-        <f>0.415*0.39*0.265*U25</f>
+      <c r="AA41" s="12"/>
+      <c r="AB41" s="12"/>
+      <c r="AC41" s="13">
+        <f>0.415*0.39*0.265*U41</f>
         <v>7.2913424999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="50"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="7">
+    <row r="42" spans="1:29" s="45" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A42" s="61"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="81"/>
+      <c r="D42" s="48">
         <v>532326</v>
       </c>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="4">
-        <v>1</v>
-      </c>
-      <c r="M26" s="5">
-        <v>1</v>
-      </c>
-      <c r="N26" s="5">
-        <v>1</v>
-      </c>
-      <c r="O26" s="5">
+      <c r="E42" s="81"/>
+      <c r="F42" s="84"/>
+      <c r="G42" s="81"/>
+      <c r="H42" s="81"/>
+      <c r="I42" s="84"/>
+      <c r="J42" s="84"/>
+      <c r="K42" s="84"/>
+      <c r="L42" s="49">
+        <v>1</v>
+      </c>
+      <c r="M42" s="50">
+        <v>1</v>
+      </c>
+      <c r="N42" s="50">
+        <v>1</v>
+      </c>
+      <c r="O42" s="50">
         <v>2</v>
       </c>
-      <c r="P26" s="5">
+      <c r="P42" s="50">
         <v>2</v>
       </c>
-      <c r="Q26" s="5">
-        <v>1</v>
-      </c>
-      <c r="R26" s="5">
-        <v>1</v>
-      </c>
-      <c r="S26" s="5">
-        <v>1</v>
-      </c>
-      <c r="T26" s="8">
+      <c r="Q42" s="50">
+        <v>1</v>
+      </c>
+      <c r="R42" s="50">
+        <v>1</v>
+      </c>
+      <c r="S42" s="50">
+        <v>1</v>
+      </c>
+      <c r="T42" s="50">
         <v>10</v>
       </c>
-      <c r="U26" s="9">
+      <c r="U42" s="51">
         <v>98</v>
       </c>
-      <c r="V26" s="7">
-        <f t="shared" ref="V26:V31" si="0">T26*U26</f>
+      <c r="V42" s="48">
+        <f t="shared" ref="V42:V47" si="0">T42*U42</f>
         <v>980</v>
       </c>
-      <c r="W26" s="10" t="s">
+      <c r="W42" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="X26" s="43"/>
-      <c r="Y26" s="11" t="s">
+      <c r="X42" s="87"/>
+      <c r="Y42" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="Z26" s="45"/>
-      <c r="AA26" s="12"/>
-      <c r="AB26" s="12"/>
-      <c r="AC26" s="13">
-        <f>0.515*0.265*0.265*U26</f>
+      <c r="Z42" s="89"/>
+      <c r="AA42" s="54"/>
+      <c r="AB42" s="54"/>
+      <c r="AC42" s="55">
+        <f>0.515*0.265*0.265*U42</f>
         <v>3.5442557500000005</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="50"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="7">
+    <row r="43" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A43" s="61"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="81"/>
+      <c r="D43" s="7">
         <v>533180</v>
       </c>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="48" t="s">
+      <c r="E43" s="81"/>
+      <c r="F43" s="84"/>
+      <c r="G43" s="81"/>
+      <c r="H43" s="81"/>
+      <c r="I43" s="84"/>
+      <c r="J43" s="84"/>
+      <c r="K43" s="84" t="s">
         <v>127</v>
       </c>
-      <c r="L27" s="4"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="4">
-        <v>1</v>
-      </c>
-      <c r="O27" s="5"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="8">
+      <c r="L43" s="4"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="4">
+        <v>1</v>
+      </c>
+      <c r="O43" s="5"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="8">
         <v>16</v>
       </c>
-      <c r="U27" s="9">
+      <c r="U43" s="9">
         <v>6</v>
       </c>
-      <c r="V27" s="7">
+      <c r="V43" s="7">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="W27" s="14" t="s">
+      <c r="W43" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="X27" s="43"/>
-      <c r="Y27" s="51" t="s">
+      <c r="X43" s="87"/>
+      <c r="Y43" s="91" t="s">
         <v>108</v>
       </c>
-      <c r="Z27" s="45"/>
-      <c r="AA27" s="12"/>
-      <c r="AB27" s="12"/>
-      <c r="AC27" s="13">
-        <f>0.515*0.415*0.265*U27</f>
+      <c r="Z43" s="89"/>
+      <c r="AA43" s="12"/>
+      <c r="AB43" s="12"/>
+      <c r="AC43" s="13">
+        <f>0.515*0.415*0.265*U43</f>
         <v>0.33982275000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="50"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="7">
+    <row r="44" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A44" s="61"/>
+      <c r="B44" s="46">
+        <v>16501</v>
+      </c>
+      <c r="C44" s="81"/>
+      <c r="D44" s="7">
         <v>533181</v>
       </c>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="5">
-        <v>1</v>
-      </c>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="8">
+      <c r="E44" s="81"/>
+      <c r="F44" s="84"/>
+      <c r="G44" s="81"/>
+      <c r="H44" s="81"/>
+      <c r="I44" s="84"/>
+      <c r="J44" s="84"/>
+      <c r="K44" s="84"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="5">
+        <v>1</v>
+      </c>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="8">
         <v>16</v>
       </c>
-      <c r="U28" s="9">
+      <c r="U44" s="9">
         <v>6</v>
       </c>
-      <c r="V28" s="7">
+      <c r="V44" s="7">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="W28" s="14" t="s">
+      <c r="W44" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="X28" s="43"/>
-      <c r="Y28" s="52"/>
-      <c r="Z28" s="45"/>
-      <c r="AA28" s="12"/>
-      <c r="AB28" s="12"/>
-      <c r="AC28" s="13">
-        <f>0.515*0.415*0.265*U28</f>
+      <c r="X44" s="87"/>
+      <c r="Y44" s="92"/>
+      <c r="Z44" s="89"/>
+      <c r="AA44" s="12"/>
+      <c r="AB44" s="12"/>
+      <c r="AC44" s="13">
+        <f>0.515*0.415*0.265*U44</f>
         <v>0.33982275000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="50"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="7">
+    <row r="45" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A45" s="61"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="81"/>
+      <c r="D45" s="7">
         <v>533182</v>
       </c>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="8">
+      <c r="E45" s="81"/>
+      <c r="F45" s="84"/>
+      <c r="G45" s="81"/>
+      <c r="H45" s="81"/>
+      <c r="I45" s="84"/>
+      <c r="J45" s="84"/>
+      <c r="K45" s="84"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6"/>
+      <c r="T45" s="8">
         <v>16</v>
       </c>
-      <c r="U29" s="9">
+      <c r="U45" s="9">
         <v>6</v>
       </c>
-      <c r="V29" s="7">
+      <c r="V45" s="7">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="W29" s="14" t="s">
+      <c r="W45" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="X29" s="43"/>
-      <c r="Y29" s="52"/>
-      <c r="Z29" s="46"/>
-      <c r="AA29" s="12"/>
-      <c r="AB29" s="12"/>
-      <c r="AC29" s="13">
-        <f>0.515*0.415*0.265*U29</f>
+      <c r="X45" s="87"/>
+      <c r="Y45" s="92"/>
+      <c r="Z45" s="89"/>
+      <c r="AA45" s="12"/>
+      <c r="AB45" s="12"/>
+      <c r="AC45" s="13">
+        <f>0.515*0.415*0.265*U45</f>
         <v>0.33982275000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="50"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="7">
+    <row r="46" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A46" s="61"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="81"/>
+      <c r="D46" s="36">
         <v>533183</v>
       </c>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5">
-        <v>1</v>
-      </c>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-      <c r="T30" s="8">
+      <c r="E46" s="81"/>
+      <c r="F46" s="84"/>
+      <c r="G46" s="81"/>
+      <c r="H46" s="81"/>
+      <c r="I46" s="84"/>
+      <c r="J46" s="84"/>
+      <c r="K46" s="84"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5">
+        <v>1</v>
+      </c>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6"/>
+      <c r="T46" s="8">
         <v>16</v>
       </c>
-      <c r="U30" s="9">
+      <c r="U46" s="9">
         <v>6</v>
       </c>
-      <c r="V30" s="7">
+      <c r="V46" s="7">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="W30" s="14" t="s">
+      <c r="W46" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="X30" s="43"/>
-      <c r="Y30" s="52"/>
-      <c r="Z30" s="46"/>
-      <c r="AA30" s="12"/>
-      <c r="AB30" s="12"/>
-      <c r="AC30" s="13">
-        <f>0.515*0.415*0.265*U30</f>
+      <c r="X46" s="87"/>
+      <c r="Y46" s="92"/>
+      <c r="Z46" s="89"/>
+      <c r="AA46" s="12"/>
+      <c r="AB46" s="12"/>
+      <c r="AC46" s="13">
+        <f>0.515*0.415*0.265*U46</f>
         <v>0.33982275000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A31" s="50"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="7">
+    <row r="47" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A47" s="61"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="82"/>
+      <c r="D47" s="36">
         <v>533184</v>
       </c>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="6">
-        <v>1</v>
-      </c>
-      <c r="S31" s="6"/>
-      <c r="T31" s="8">
+      <c r="E47" s="82"/>
+      <c r="F47" s="85"/>
+      <c r="G47" s="82"/>
+      <c r="H47" s="82"/>
+      <c r="I47" s="85"/>
+      <c r="J47" s="85"/>
+      <c r="K47" s="85"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="6">
+        <v>1</v>
+      </c>
+      <c r="S47" s="6"/>
+      <c r="T47" s="8">
         <v>16</v>
       </c>
-      <c r="U31" s="9">
+      <c r="U47" s="9">
         <v>6</v>
       </c>
-      <c r="V31" s="7">
+      <c r="V47" s="7">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="W31" s="14" t="s">
+      <c r="W47" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="X31" s="43"/>
-      <c r="Y31" s="52"/>
-      <c r="Z31" s="46"/>
-      <c r="AA31" s="12"/>
-      <c r="AB31" s="12"/>
-      <c r="AC31" s="13">
-        <f>0.515*0.415*0.265*U31</f>
+      <c r="X47" s="87"/>
+      <c r="Y47" s="92"/>
+      <c r="Z47" s="90"/>
+      <c r="AA47" s="12"/>
+      <c r="AB47" s="12"/>
+      <c r="AC47" s="13">
+        <f>0.515*0.415*0.265*U47</f>
         <v>0.33982275000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:29" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A32" s="50"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="41"/>
-      <c r="S32" s="41"/>
-      <c r="T32" s="41"/>
-      <c r="U32" s="15">
-        <f>SUM(U25:U31)</f>
-        <v>298</v>
-      </c>
-      <c r="V32" s="15">
-        <f>SUM(V25:V31)</f>
+    <row r="48" spans="1:29" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A48" s="61"/>
+      <c r="W48" s="14"/>
+      <c r="X48" s="16"/>
+      <c r="Y48" s="17"/>
+      <c r="Z48" s="12"/>
+      <c r="AA48" s="18">
+        <f>SUM(AA41:AA47)</f>
+        <v>0</v>
+      </c>
+      <c r="AB48" s="18">
+        <f>SUM(AB41:AB47)</f>
+        <v>0</v>
+      </c>
+      <c r="AC48" s="19">
+        <f>SUM(AC41:AC47)</f>
+        <v>12.534711999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A49" s="61"/>
+      <c r="B49" s="100"/>
+      <c r="C49" s="101"/>
+      <c r="D49" s="101"/>
+      <c r="E49" s="101"/>
+      <c r="F49" s="101"/>
+      <c r="G49" s="101"/>
+      <c r="H49" s="101"/>
+      <c r="I49" s="101"/>
+      <c r="J49" s="101"/>
+      <c r="K49" s="101"/>
+      <c r="L49" s="101"/>
+      <c r="M49" s="101"/>
+      <c r="N49" s="101"/>
+      <c r="O49" s="101"/>
+      <c r="P49" s="101"/>
+      <c r="Q49" s="101"/>
+      <c r="R49" s="101"/>
+      <c r="S49" s="101"/>
+      <c r="T49" s="102"/>
+      <c r="U49" s="15"/>
+      <c r="V49" s="15">
+        <f>SUM(V41:V47)</f>
         <v>3500</v>
       </c>
-      <c r="W32" s="14"/>
-      <c r="X32" s="16"/>
-      <c r="Y32" s="17"/>
-      <c r="Z32" s="12"/>
-      <c r="AA32" s="18">
-        <f>SUM(AA25:AA31)</f>
+      <c r="W49" s="26"/>
+      <c r="X49" s="27"/>
+      <c r="Y49" s="27"/>
+      <c r="Z49" s="28"/>
+      <c r="AA49" s="29"/>
+      <c r="AB49" s="29"/>
+      <c r="AC49" s="30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B50" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="22"/>
+      <c r="P50" s="23"/>
+      <c r="Q50" s="23"/>
+      <c r="R50" s="24"/>
+      <c r="S50" s="21"/>
+      <c r="T50" s="21"/>
+      <c r="U50" s="21"/>
+      <c r="V50" s="21"/>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A57" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="AB32" s="18">
-        <f>SUM(AB25:AB31)</f>
+      <c r="B57" s="103" t="s">
+        <v>159</v>
+      </c>
+      <c r="C57" s="74" t="s">
+        <v>81</v>
+      </c>
+      <c r="D57" s="105" t="s">
+        <v>82</v>
+      </c>
+      <c r="E57" s="74" t="s">
+        <v>83</v>
+      </c>
+      <c r="F57" s="74" t="s">
+        <v>84</v>
+      </c>
+      <c r="G57" s="107" t="s">
+        <v>85</v>
+      </c>
+      <c r="H57" s="74" t="s">
+        <v>86</v>
+      </c>
+      <c r="I57" s="107" t="s">
+        <v>87</v>
+      </c>
+      <c r="J57" s="74" t="s">
+        <v>88</v>
+      </c>
+      <c r="K57" s="74" t="s">
+        <v>89</v>
+      </c>
+      <c r="L57" s="74" t="s">
+        <v>90</v>
+      </c>
+      <c r="M57" s="74" t="s">
+        <v>91</v>
+      </c>
+      <c r="N57" s="93" t="s">
+        <v>112</v>
+      </c>
+      <c r="O57" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="P57" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q57" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="R57" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="S57" s="76" t="s">
+        <v>96</v>
+      </c>
+      <c r="T57" s="76" t="s">
+        <v>97</v>
+      </c>
+      <c r="U57" s="78" t="s">
+        <v>113</v>
+      </c>
+      <c r="V57" s="56"/>
+      <c r="W57" s="57"/>
+      <c r="X57" s="57"/>
+      <c r="Y57" s="57"/>
+      <c r="Z57" s="57"/>
+      <c r="AA57" s="57"/>
+      <c r="AB57" s="57"/>
+      <c r="AC57" s="58"/>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A58" s="61"/>
+      <c r="B58" s="104"/>
+      <c r="C58" s="75"/>
+      <c r="D58" s="106"/>
+      <c r="E58" s="75"/>
+      <c r="F58" s="75"/>
+      <c r="G58" s="108"/>
+      <c r="H58" s="75"/>
+      <c r="I58" s="108"/>
+      <c r="J58" s="75"/>
+      <c r="K58" s="75"/>
+      <c r="L58" s="75"/>
+      <c r="M58" s="75"/>
+      <c r="N58" s="94"/>
+      <c r="O58" s="67"/>
+      <c r="P58" s="69"/>
+      <c r="Q58" s="71"/>
+      <c r="R58" s="73"/>
+      <c r="S58" s="77"/>
+      <c r="T58" s="77"/>
+      <c r="U58" s="79"/>
+      <c r="V58" s="3">
+        <v>28</v>
+      </c>
+      <c r="W58" s="3">
+        <v>29</v>
+      </c>
+      <c r="X58" s="3">
+        <v>30</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>31</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>32</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>33</v>
+      </c>
+      <c r="AB58" s="3">
+        <v>34</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A59" s="61"/>
+      <c r="C59" s="80">
+        <v>91338035</v>
+      </c>
+      <c r="D59" s="36">
+        <v>532325</v>
+      </c>
+      <c r="E59" s="80" t="s">
+        <v>98</v>
+      </c>
+      <c r="F59" s="83" t="s">
+        <v>99</v>
+      </c>
+      <c r="G59" s="80" t="s">
+        <v>99</v>
+      </c>
+      <c r="H59" s="80"/>
+      <c r="I59" s="83" t="s">
+        <v>100</v>
+      </c>
+      <c r="J59" s="83" t="s">
+        <v>101</v>
+      </c>
+      <c r="K59" s="83" t="s">
+        <v>126</v>
+      </c>
+      <c r="L59" s="8">
+        <v>12</v>
+      </c>
+      <c r="M59" s="9">
+        <v>170</v>
+      </c>
+      <c r="N59" s="36">
+        <f>L59*M59</f>
+        <v>2040</v>
+      </c>
+      <c r="O59" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="P59" s="86" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q59" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="R59" s="88">
+        <v>43171</v>
+      </c>
+      <c r="S59" s="12"/>
+      <c r="T59" s="12"/>
+      <c r="U59" s="13">
+        <f>0.415*0.39*0.265*M59</f>
+        <v>7.2913424999999998</v>
+      </c>
+      <c r="V59" s="4">
+        <v>1</v>
+      </c>
+      <c r="W59" s="5">
+        <v>1</v>
+      </c>
+      <c r="X59" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y59" s="5">
+        <v>2</v>
+      </c>
+      <c r="Z59" s="5">
+        <v>2</v>
+      </c>
+      <c r="AA59" s="5">
+        <v>2</v>
+      </c>
+      <c r="AB59" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC59" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A60" s="61"/>
+      <c r="B60" s="47"/>
+      <c r="C60" s="81"/>
+      <c r="D60" s="48">
+        <v>532326</v>
+      </c>
+      <c r="E60" s="81"/>
+      <c r="F60" s="84"/>
+      <c r="G60" s="81"/>
+      <c r="H60" s="81"/>
+      <c r="I60" s="84"/>
+      <c r="J60" s="84"/>
+      <c r="K60" s="84"/>
+      <c r="L60" s="50">
+        <v>10</v>
+      </c>
+      <c r="M60" s="51">
+        <v>98</v>
+      </c>
+      <c r="N60" s="48">
+        <f t="shared" ref="N60:N65" si="1">L60*M60</f>
+        <v>980</v>
+      </c>
+      <c r="O60" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="P60" s="87"/>
+      <c r="Q60" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="R60" s="89"/>
+      <c r="S60" s="54"/>
+      <c r="T60" s="54"/>
+      <c r="U60" s="55">
+        <f>0.515*0.265*0.265*M60</f>
+        <v>3.5442557500000005</v>
+      </c>
+      <c r="V60" s="49">
+        <v>1</v>
+      </c>
+      <c r="W60" s="50">
+        <v>1</v>
+      </c>
+      <c r="X60" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y60" s="50">
+        <v>2</v>
+      </c>
+      <c r="Z60" s="50">
+        <v>2</v>
+      </c>
+      <c r="AA60" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB60" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC60" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A61" s="61"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="81"/>
+      <c r="D61" s="36">
+        <v>533180</v>
+      </c>
+      <c r="E61" s="81"/>
+      <c r="F61" s="84"/>
+      <c r="G61" s="81"/>
+      <c r="H61" s="81"/>
+      <c r="I61" s="84"/>
+      <c r="J61" s="84"/>
+      <c r="K61" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="L61" s="8">
+        <v>16</v>
+      </c>
+      <c r="M61" s="9">
+        <v>6</v>
+      </c>
+      <c r="N61" s="36">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="O61" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="P61" s="87"/>
+      <c r="Q61" s="91" t="s">
+        <v>108</v>
+      </c>
+      <c r="R61" s="89"/>
+      <c r="S61" s="12"/>
+      <c r="T61" s="12"/>
+      <c r="U61" s="13">
+        <f>0.515*0.415*0.265*M61</f>
+        <v>0.33982275000000001</v>
+      </c>
+      <c r="V61" s="4"/>
+      <c r="W61" s="5"/>
+      <c r="X61" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y61" s="5"/>
+      <c r="Z61" s="4"/>
+      <c r="AA61" s="5"/>
+      <c r="AB61" s="4"/>
+      <c r="AC61" s="5"/>
+    </row>
+    <row r="62" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A62" s="61"/>
+      <c r="B62" s="46">
+        <v>16501</v>
+      </c>
+      <c r="C62" s="81"/>
+      <c r="D62" s="36">
+        <v>533181</v>
+      </c>
+      <c r="E62" s="81"/>
+      <c r="F62" s="84"/>
+      <c r="G62" s="81"/>
+      <c r="H62" s="81"/>
+      <c r="I62" s="84"/>
+      <c r="J62" s="84"/>
+      <c r="K62" s="84"/>
+      <c r="L62" s="8">
+        <v>16</v>
+      </c>
+      <c r="M62" s="9">
+        <v>6</v>
+      </c>
+      <c r="N62" s="36">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="O62" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="P62" s="87"/>
+      <c r="Q62" s="92"/>
+      <c r="R62" s="89"/>
+      <c r="S62" s="12"/>
+      <c r="T62" s="12"/>
+      <c r="U62" s="13">
+        <f>0.515*0.415*0.265*M62</f>
+        <v>0.33982275000000001</v>
+      </c>
+      <c r="V62" s="4"/>
+      <c r="W62" s="5"/>
+      <c r="X62" s="4"/>
+      <c r="Y62" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z62" s="4"/>
+      <c r="AA62" s="5"/>
+      <c r="AB62" s="4"/>
+      <c r="AC62" s="5"/>
+    </row>
+    <row r="63" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A63" s="61"/>
+      <c r="B63" s="46"/>
+      <c r="C63" s="81"/>
+      <c r="D63" s="36">
+        <v>533182</v>
+      </c>
+      <c r="E63" s="81"/>
+      <c r="F63" s="84"/>
+      <c r="G63" s="81"/>
+      <c r="H63" s="81"/>
+      <c r="I63" s="84"/>
+      <c r="J63" s="84"/>
+      <c r="K63" s="84"/>
+      <c r="L63" s="8">
+        <v>16</v>
+      </c>
+      <c r="M63" s="9">
+        <v>6</v>
+      </c>
+      <c r="N63" s="36">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="O63" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="P63" s="87"/>
+      <c r="Q63" s="92"/>
+      <c r="R63" s="89"/>
+      <c r="S63" s="12"/>
+      <c r="T63" s="12"/>
+      <c r="U63" s="13">
+        <f>0.515*0.415*0.265*M63</f>
+        <v>0.33982275000000001</v>
+      </c>
+      <c r="V63" s="4"/>
+      <c r="W63" s="5"/>
+      <c r="X63" s="5"/>
+      <c r="Y63" s="5"/>
+      <c r="Z63" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA63" s="5"/>
+      <c r="AB63" s="6"/>
+      <c r="AC63" s="6"/>
+    </row>
+    <row r="64" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A64" s="61"/>
+      <c r="B64" s="46"/>
+      <c r="C64" s="81"/>
+      <c r="D64" s="36">
+        <v>533183</v>
+      </c>
+      <c r="E64" s="81"/>
+      <c r="F64" s="84"/>
+      <c r="G64" s="81"/>
+      <c r="H64" s="81"/>
+      <c r="I64" s="84"/>
+      <c r="J64" s="84"/>
+      <c r="K64" s="84"/>
+      <c r="L64" s="8">
+        <v>16</v>
+      </c>
+      <c r="M64" s="9">
+        <v>6</v>
+      </c>
+      <c r="N64" s="36">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="O64" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="P64" s="87"/>
+      <c r="Q64" s="92"/>
+      <c r="R64" s="89"/>
+      <c r="S64" s="12"/>
+      <c r="T64" s="12"/>
+      <c r="U64" s="13">
+        <f>0.515*0.415*0.265*M64</f>
+        <v>0.33982275000000001</v>
+      </c>
+      <c r="V64" s="4"/>
+      <c r="W64" s="5"/>
+      <c r="X64" s="5"/>
+      <c r="Y64" s="5"/>
+      <c r="Z64" s="5"/>
+      <c r="AA64" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB64" s="6"/>
+      <c r="AC64" s="6"/>
+    </row>
+    <row r="65" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A65" s="61"/>
+      <c r="B65" s="46"/>
+      <c r="C65" s="82"/>
+      <c r="D65" s="36">
+        <v>533184</v>
+      </c>
+      <c r="E65" s="82"/>
+      <c r="F65" s="85"/>
+      <c r="G65" s="82"/>
+      <c r="H65" s="82"/>
+      <c r="I65" s="85"/>
+      <c r="J65" s="85"/>
+      <c r="K65" s="85"/>
+      <c r="L65" s="8">
+        <v>16</v>
+      </c>
+      <c r="M65" s="9">
+        <v>6</v>
+      </c>
+      <c r="N65" s="36">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="O65" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="P65" s="87"/>
+      <c r="Q65" s="92"/>
+      <c r="R65" s="90"/>
+      <c r="S65" s="12"/>
+      <c r="T65" s="12"/>
+      <c r="U65" s="13">
+        <f>0.515*0.415*0.265*M65</f>
+        <v>0.33982275000000001</v>
+      </c>
+      <c r="V65" s="4"/>
+      <c r="W65" s="5"/>
+      <c r="X65" s="5"/>
+      <c r="Y65" s="5"/>
+      <c r="Z65" s="5"/>
+      <c r="AA65" s="5"/>
+      <c r="AB65" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC65" s="6"/>
+    </row>
+    <row r="66" spans="1:29" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A66" s="61"/>
+      <c r="S66" s="18">
+        <f>SUM(S59:S65)</f>
         <v>0</v>
       </c>
-      <c r="AC32" s="19">
-        <f>SUM(AC25:AC31)</f>
+      <c r="T66" s="18">
+        <f>SUM(T59:T65)</f>
+        <v>0</v>
+      </c>
+      <c r="U66" s="19">
+        <f>SUM(U59:U65)</f>
         <v>12.534711999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A33" s="50"/>
-      <c r="B33" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="22"/>
-      <c r="P33" s="23"/>
-      <c r="Q33" s="23"/>
-      <c r="R33" s="24"/>
-      <c r="S33" s="21"/>
-      <c r="T33" s="21"/>
-      <c r="U33" s="21">
-        <f>U32</f>
-        <v>298</v>
-      </c>
-      <c r="V33" s="21">
-        <f>V32</f>
+    <row r="67" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A67" s="61"/>
+      <c r="B67" s="46"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="46"/>
+      <c r="E67" s="46"/>
+      <c r="F67" s="46"/>
+      <c r="G67" s="46"/>
+      <c r="H67" s="46"/>
+      <c r="I67" s="46"/>
+      <c r="J67" s="46"/>
+      <c r="K67" s="46"/>
+      <c r="L67" s="46"/>
+      <c r="M67" s="46"/>
+      <c r="N67" s="15">
+        <f>SUM(N59:N65)</f>
         <v>3500</v>
       </c>
-      <c r="W33" s="26"/>
-      <c r="X33" s="27"/>
-      <c r="Y33" s="27"/>
-      <c r="Z33" s="28"/>
-      <c r="AA33" s="29"/>
-      <c r="AB33" s="29"/>
-      <c r="AC33" s="30" t="s">
+      <c r="O67" s="46"/>
+      <c r="P67" s="46"/>
+      <c r="Q67" s="46"/>
+      <c r="R67" s="46"/>
+      <c r="S67" s="46"/>
+      <c r="T67" s="46"/>
+      <c r="U67" s="15"/>
+      <c r="W67" s="26"/>
+      <c r="X67" s="27"/>
+      <c r="Y67" s="27"/>
+      <c r="Z67" s="28"/>
+      <c r="AA67" s="29"/>
+      <c r="AB67" s="29"/>
+      <c r="AC67" s="30" t="s">
         <v>110</v>
       </c>
     </row>
+    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A68" s="45"/>
+    </row>
+    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A72" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="99" t="s">
+        <v>140</v>
+      </c>
+      <c r="C72" s="99" t="s">
+        <v>141</v>
+      </c>
+      <c r="D72" s="99" t="s">
+        <v>142</v>
+      </c>
+      <c r="E72" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="F72" s="39">
+        <v>34</v>
+      </c>
+      <c r="G72" s="39">
+        <v>35</v>
+      </c>
+      <c r="H72" s="39">
+        <v>36</v>
+      </c>
+      <c r="I72" s="39">
+        <v>37</v>
+      </c>
+      <c r="J72" s="39">
+        <v>38</v>
+      </c>
+      <c r="K72" s="39">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A73" s="61"/>
+      <c r="B73" s="99"/>
+      <c r="C73" s="99"/>
+      <c r="D73" s="99"/>
+      <c r="E73" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" s="40">
+        <v>2</v>
+      </c>
+      <c r="G73" s="41">
+        <v>2.5</v>
+      </c>
+      <c r="H73" s="40">
+        <v>3</v>
+      </c>
+      <c r="I73" s="40">
+        <v>4</v>
+      </c>
+      <c r="J73" s="40">
+        <v>5</v>
+      </c>
+      <c r="K73" s="40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A74" s="61"/>
+      <c r="B74" s="96"/>
+      <c r="C74" s="96"/>
+      <c r="D74" s="96"/>
+      <c r="E74" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F74" s="40">
+        <v>22.5</v>
+      </c>
+      <c r="G74" s="40">
+        <v>23.5</v>
+      </c>
+      <c r="H74" s="40">
+        <v>24</v>
+      </c>
+      <c r="I74" s="40">
+        <v>24.5</v>
+      </c>
+      <c r="J74" s="40">
+        <v>25.5</v>
+      </c>
+      <c r="K74" s="40">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A75" s="61"/>
+      <c r="B75" s="95" t="s">
+        <v>146</v>
+      </c>
+      <c r="C75" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="D75" s="95">
+        <v>2129</v>
+      </c>
+      <c r="E75" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" s="43">
+        <f>2*148</f>
+        <v>296</v>
+      </c>
+      <c r="G75" s="43">
+        <f>2*538</f>
+        <v>1076</v>
+      </c>
+      <c r="H75" s="43">
+        <f>2*792</f>
+        <v>1584</v>
+      </c>
+      <c r="I75" s="43">
+        <f>2*782</f>
+        <v>1564</v>
+      </c>
+      <c r="J75" s="43">
+        <f>2*602</f>
+        <v>1204</v>
+      </c>
+      <c r="K75" s="43">
+        <f>2*174</f>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A76" s="61"/>
+      <c r="B76" s="96"/>
+      <c r="C76" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="D76" s="96"/>
+      <c r="E76" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="F76" s="43">
+        <f>2*90</f>
+        <v>180</v>
+      </c>
+      <c r="G76" s="43">
+        <f>2*420</f>
+        <v>840</v>
+      </c>
+      <c r="H76" s="43">
+        <f>2*675</f>
+        <v>1350</v>
+      </c>
+      <c r="I76" s="43">
+        <f>2*725</f>
+        <v>1450</v>
+      </c>
+      <c r="J76" s="43">
+        <f>2*665</f>
+        <v>1330</v>
+      </c>
+      <c r="K76" s="43">
+        <f>2*195</f>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A77" s="61"/>
+      <c r="B77" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="C77" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="D77" s="42">
+        <v>2137</v>
+      </c>
+      <c r="E77" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="F77" s="43">
+        <f>2*30</f>
+        <v>60</v>
+      </c>
+      <c r="G77" s="43">
+        <f>2*130</f>
+        <v>260</v>
+      </c>
+      <c r="H77" s="43">
+        <f>2*140</f>
+        <v>280</v>
+      </c>
+      <c r="I77" s="43">
+        <f>2*170</f>
+        <v>340</v>
+      </c>
+      <c r="J77" s="43">
+        <f>2*60</f>
+        <v>120</v>
+      </c>
+      <c r="K77" s="43">
+        <f>2*70</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A78" s="61"/>
+      <c r="B78" s="95" t="s">
+        <v>152</v>
+      </c>
+      <c r="C78" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="D78" s="97">
+        <v>2129</v>
+      </c>
+      <c r="E78" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="F78" s="43">
+        <f>2*130</f>
+        <v>260</v>
+      </c>
+      <c r="G78" s="43">
+        <f>2*420</f>
+        <v>840</v>
+      </c>
+      <c r="H78" s="43">
+        <f>2*660</f>
+        <v>1320</v>
+      </c>
+      <c r="I78" s="43">
+        <f>2*650</f>
+        <v>1300</v>
+      </c>
+      <c r="J78" s="43">
+        <f>2*410</f>
+        <v>820</v>
+      </c>
+      <c r="K78" s="43">
+        <f>2*230</f>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A79" s="61"/>
+      <c r="B79" s="96"/>
+      <c r="C79" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="D79" s="98"/>
+      <c r="E79" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="F79" s="43">
+        <f>2*130</f>
+        <v>260</v>
+      </c>
+      <c r="G79" s="43">
+        <f>2*350</f>
+        <v>700</v>
+      </c>
+      <c r="H79" s="43">
+        <f>2*660</f>
+        <v>1320</v>
+      </c>
+      <c r="I79" s="43">
+        <f>2*780</f>
+        <v>1560</v>
+      </c>
+      <c r="J79" s="43">
+        <f>2*500</f>
+        <v>1000</v>
+      </c>
+      <c r="K79" s="43" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C85" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" t="s">
+        <v>161</v>
+      </c>
+      <c r="C86" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="61"/>
+      <c r="B87" t="s">
+        <v>163</v>
+      </c>
+      <c r="C87" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="61"/>
+      <c r="B88" t="s">
+        <v>164</v>
+      </c>
+      <c r="C88" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="109"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="109"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="109"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="109"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="109"/>
+    </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="B2:I2"/>
+  <mergeCells count="86">
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="S57:S58"/>
+    <mergeCell ref="O57:O58"/>
+    <mergeCell ref="N57:N58"/>
+    <mergeCell ref="M57:M58"/>
+    <mergeCell ref="L57:L58"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="T57:T58"/>
+    <mergeCell ref="U57:U58"/>
+    <mergeCell ref="C59:C65"/>
+    <mergeCell ref="E59:E65"/>
+    <mergeCell ref="F59:F65"/>
+    <mergeCell ref="G59:G65"/>
+    <mergeCell ref="H59:H65"/>
+    <mergeCell ref="I59:I65"/>
+    <mergeCell ref="J59:J65"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="P59:P65"/>
+    <mergeCell ref="R59:R65"/>
+    <mergeCell ref="K61:K65"/>
+    <mergeCell ref="Q61:Q65"/>
+    <mergeCell ref="B32:T32"/>
+    <mergeCell ref="A57:A67"/>
+    <mergeCell ref="A22:A32"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="A72:A79"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="D72:D74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="B49:T49"/>
+    <mergeCell ref="A39:A49"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="P57:P58"/>
+    <mergeCell ref="Q57:Q58"/>
+    <mergeCell ref="R57:R58"/>
+    <mergeCell ref="AB39:AB40"/>
+    <mergeCell ref="AC39:AC40"/>
+    <mergeCell ref="C41:C47"/>
+    <mergeCell ref="E41:E47"/>
+    <mergeCell ref="F41:F47"/>
+    <mergeCell ref="G41:G47"/>
+    <mergeCell ref="H41:H47"/>
+    <mergeCell ref="I41:I47"/>
+    <mergeCell ref="J41:J47"/>
+    <mergeCell ref="X41:X47"/>
+    <mergeCell ref="Z41:Z47"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="K43:K47"/>
+    <mergeCell ref="AA39:AA40"/>
+    <mergeCell ref="Y43:Y47"/>
+    <mergeCell ref="V39:V40"/>
+    <mergeCell ref="W39:W40"/>
+    <mergeCell ref="X39:X40"/>
+    <mergeCell ref="Y39:Y40"/>
+    <mergeCell ref="Z39:Z40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="T39:T40"/>
+    <mergeCell ref="U39:U40"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B8:I8"/>
     <mergeCell ref="A8:A16"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="B32:T32"/>
-    <mergeCell ref="A23:A33"/>
-    <mergeCell ref="AA23:AA24"/>
-    <mergeCell ref="Y27:Y31"/>
-    <mergeCell ref="V23:V24"/>
-    <mergeCell ref="W23:W24"/>
-    <mergeCell ref="X23:X24"/>
-    <mergeCell ref="Y23:Y24"/>
-    <mergeCell ref="Z23:Z24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:S23"/>
-    <mergeCell ref="T23:T24"/>
-    <mergeCell ref="U23:U24"/>
-    <mergeCell ref="AB23:AB24"/>
-    <mergeCell ref="AC23:AC24"/>
-    <mergeCell ref="B25:B31"/>
-    <mergeCell ref="C25:C31"/>
-    <mergeCell ref="E25:E31"/>
-    <mergeCell ref="F25:F31"/>
-    <mergeCell ref="G25:G31"/>
-    <mergeCell ref="H25:H31"/>
-    <mergeCell ref="I25:I31"/>
-    <mergeCell ref="J25:J31"/>
-    <mergeCell ref="X25:X31"/>
-    <mergeCell ref="Z25:Z31"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="K27:K31"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="B2:I2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/ExcelProcesser.Tests/resources/testData.xlsx
+++ b/tests/ExcelProcesser.Tests/resources/testData.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24117"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24122"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62624AC9-B04D-4A44-9B10-D12B317C5711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE468E79-ABA7-41E3-BD2E-694C25323A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,8 +11,9 @@
     <sheet name="Matrix" sheetId="1" r:id="rId1"/>
     <sheet name="Math" sheetId="2" r:id="rId2"/>
     <sheet name="Sematics" sheetId="3" r:id="rId3"/>
+    <sheet name="ReRange" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,8 +31,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="225">
   <si>
     <t>Input</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -733,25 +756,244 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>ROSADO</t>
+  </si>
+  <si>
+    <t>1   2    3     3     2   1</t>
+  </si>
+  <si>
+    <t>GRIS</t>
+  </si>
+  <si>
+    <t>MOSTAZA</t>
+  </si>
+  <si>
+    <t>1   2    3     3     2   1=36PRS/CTN</t>
+  </si>
+  <si>
+    <t>工 厂 货 号
+Pactory NO.</t>
+  </si>
+  <si>
+    <t>客 户 货 号
+Customer NO.</t>
+  </si>
+  <si>
+    <t>图片
+Picture</t>
+  </si>
+  <si>
+    <t>颜  色
+Color</t>
+  </si>
+  <si>
+    <t>商  标
+Logo</t>
+  </si>
+  <si>
+    <t>配码
+Size</t>
+  </si>
+  <si>
+    <t>装数</t>
+  </si>
+  <si>
+    <t>箱数
+CTN</t>
+  </si>
+  <si>
+    <t>双   数
+Quantity</t>
+  </si>
+  <si>
+    <t>单   价
+Unit parice</t>
+  </si>
+  <si>
+    <t>总   价
+Amount</t>
+  </si>
+  <si>
+    <t>备   注
+Remark</t>
+  </si>
+  <si>
+    <t>鞋 舌</t>
+  </si>
+  <si>
+    <t>中 底</t>
+  </si>
+  <si>
+    <t>B61</t>
+  </si>
+  <si>
+    <t>黑色
+BLACK</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>印码数</t>
+  </si>
+  <si>
+    <t>白红WHITE/RED</t>
+  </si>
+  <si>
+    <t>深蓝
+NAVY</t>
+  </si>
+  <si>
+    <t>大红
+RED</t>
+  </si>
+  <si>
+    <t>合计</t>
+  </si>
+  <si>
+    <t>another twoHeaders pivot table</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Color</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kot-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OneRowTable1_Art</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">35  36   37    38    39  40  </t>
-  </si>
-  <si>
-    <t>ROSADO</t>
-  </si>
-  <si>
-    <t>1   2    3     3     2   1</t>
-  </si>
-  <si>
-    <t>GRIS</t>
-  </si>
-  <si>
-    <t>MOSTAZA</t>
-  </si>
-  <si>
-    <t>1   2    3     3     2   1=36PRS/CTN</t>
-  </si>
-  <si>
-    <t>simple 2d Table</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OneRowTable2_Art</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carton</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weight</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mx_util5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OneRowTable3_Art</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OneRowTable4_Art</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞋舌</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中底1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中底2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table4NormalHeaders_OneRow</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>one row Table1</t>
+  </si>
+  <si>
+    <t>one row Table2</t>
+  </si>
+  <si>
+    <t>one row Table3</t>
+  </si>
+  <si>
+    <t>Table4NormalHeaders</t>
+  </si>
+  <si>
+    <t>Table4Headers</t>
+  </si>
+  <si>
+    <t>one row Table4</t>
+  </si>
+  <si>
+    <t>Table4NH2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table4Headers_Art</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupingColumnHeader1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupingColumnHeader2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupingColumnHeader3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupingColumnHeader4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>reRangeToEnd</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>reRangeTo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>reRange_RowBy_ColumnToEnd 2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TopArea</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupingColumnHeader5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftArea</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table4Headers2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table4Headers2_Art</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -759,11 +1001,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
     <numFmt numFmtId="176" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
     <numFmt numFmtId="177" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;#,##0.00"/>
+    <numFmt numFmtId="178" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -925,8 +1169,44 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -996,8 +1276,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1154,6 +1446,272 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1182,7 +1740,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
@@ -1344,6 +1902,83 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="23" fillId="14" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="23" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1353,103 +1988,175 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="23" fillId="14" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="23" fillId="14" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="3" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="3" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="4">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="4" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="3" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="3" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="4">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="4" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1487,15 +2194,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1602,13 +2300,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>266700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>373380</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1641,6 +2339,80 @@
         <a:xfrm>
           <a:off x="4366260" y="5661660"/>
           <a:ext cx="510540" cy="198120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>71838</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 1" descr="e17434375892301d95ecde82032678a">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5A68B2E-D4B4-49E8-A44E-BBB59E0DA894}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4323798" y="26189940"/>
+          <a:ext cx="7311942" cy="4434840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1938,10 +2710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H117"/>
+  <dimension ref="A1:I117"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1975,14 +2747,14 @@
       <c r="C6" t="s">
         <v>156</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="91" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="60"/>
-      <c r="G6" s="60" t="s">
+      <c r="E6" s="91"/>
+      <c r="G6" s="91" t="s">
         <v>76</v>
       </c>
-      <c r="H6" s="60"/>
+      <c r="H6" s="91"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -2041,7 +2813,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="59" t="s">
+      <c r="A22" s="90" t="s">
         <v>0</v>
       </c>
       <c r="B22" t="s">
@@ -2049,7 +2821,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="59"/>
+      <c r="A23" s="90"/>
       <c r="B23" t="s">
         <v>8</v>
       </c>
@@ -2060,7 +2832,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="59" t="s">
+      <c r="A27" s="90" t="s">
         <v>0</v>
       </c>
       <c r="B27" t="s">
@@ -2068,13 +2840,13 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="59"/>
+      <c r="A28" s="90"/>
       <c r="B28" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="59"/>
+      <c r="A29" s="90"/>
       <c r="B29" t="s">
         <v>16</v>
       </c>
@@ -2085,7 +2857,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="59" t="s">
+      <c r="A32" s="90" t="s">
         <v>0</v>
       </c>
       <c r="B32" t="s">
@@ -2099,10 +2871,10 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="59"/>
+      <c r="A33" s="90"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="59"/>
+      <c r="A34" s="90"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -2110,7 +2882,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="59" t="s">
+      <c r="A37" s="90" t="s">
         <v>0</v>
       </c>
       <c r="B37" t="s">
@@ -2121,13 +2893,13 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="59"/>
+      <c r="A38" s="90"/>
       <c r="C38" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="59"/>
+      <c r="A39" s="90"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
@@ -2135,7 +2907,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="59" t="s">
+      <c r="A42" s="90" t="s">
         <v>0</v>
       </c>
       <c r="B42" t="s">
@@ -2146,13 +2918,13 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="59"/>
+      <c r="A43" s="90"/>
       <c r="B43" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="59"/>
+      <c r="A44" s="90"/>
       <c r="B44" t="s">
         <v>20</v>
       </c>
@@ -2163,7 +2935,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="59" t="s">
+      <c r="A48" s="90" t="s">
         <v>0</v>
       </c>
       <c r="B48" t="s">
@@ -2174,13 +2946,13 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="59"/>
+      <c r="A49" s="90"/>
       <c r="B49" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="59"/>
+      <c r="A50" s="90"/>
       <c r="B50" t="s">
         <v>25</v>
       </c>
@@ -2191,7 +2963,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="59" t="s">
+      <c r="A53" s="90" t="s">
         <v>0</v>
       </c>
       <c r="B53" s="31" t="s">
@@ -2205,7 +2977,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="59"/>
+      <c r="A54" s="90"/>
       <c r="B54" s="35" t="s">
         <v>114</v>
       </c>
@@ -2217,7 +2989,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="59"/>
+      <c r="A55" s="90"/>
       <c r="B55" s="35" t="s">
         <v>115</v>
       </c>
@@ -2226,7 +2998,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="59"/>
+      <c r="A56" s="90"/>
       <c r="B56" s="32" t="s">
         <v>117</v>
       </c>
@@ -2237,7 +3009,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="59" t="s">
+      <c r="A59" s="90" t="s">
         <v>0</v>
       </c>
       <c r="B59" t="s">
@@ -2248,13 +3020,13 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="59"/>
+      <c r="A60" s="90"/>
       <c r="C60" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="59"/>
+      <c r="A61" s="90"/>
       <c r="C61" t="s">
         <v>37</v>
       </c>
@@ -2360,7 +3132,7 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="59" t="s">
+      <c r="A80" s="90" t="s">
         <v>0</v>
       </c>
       <c r="B80" t="s">
@@ -2377,10 +3149,10 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="59"/>
+      <c r="A81" s="90"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="59"/>
+      <c r="A82" s="90"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
@@ -2388,7 +3160,7 @@
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="59" t="s">
+      <c r="A87" s="90" t="s">
         <v>0</v>
       </c>
       <c r="B87" t="s">
@@ -2396,19 +3168,19 @@
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="59"/>
+      <c r="A88" s="90"/>
       <c r="B88" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="59"/>
+      <c r="A89" s="90"/>
       <c r="B89" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="59"/>
+      <c r="A90" s="90"/>
       <c r="B90" t="s">
         <v>59</v>
       </c>
@@ -2419,7 +3191,7 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="59" t="s">
+      <c r="A95" s="90" t="s">
         <v>0</v>
       </c>
       <c r="B95" t="s">
@@ -2436,18 +3208,18 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="59"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="59"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="90"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="90"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="59" t="s">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="90" t="s">
         <v>0</v>
       </c>
       <c r="B101" t="s">
@@ -2460,19 +3232,19 @@
         <v>125</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="59"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="59"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="90"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="90"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="59" t="s">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="90" t="s">
         <v>0</v>
       </c>
       <c r="B109" t="s">
@@ -2487,20 +3259,23 @@
       <c r="H109" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="59"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="59"/>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I109" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="90"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="90"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="59" t="s">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="90" t="s">
         <v>0</v>
       </c>
       <c r="B115" t="s">
@@ -2515,12 +3290,15 @@
       <c r="H115" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="59"/>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="59"/>
+      <c r="I115" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="90"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -2563,7 +3341,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="90" t="s">
         <v>0</v>
       </c>
       <c r="B2">
@@ -2571,16 +3349,16 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
+      <c r="A3" s="90"/>
       <c r="B3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
+      <c r="A4" s="90"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
+      <c r="A5" s="90"/>
       <c r="B5">
         <f>SUM(B2:B3)</f>
         <v>3</v>
@@ -2597,13 +3375,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47900B11-AE46-4148-92BB-2515463F524D}">
-  <dimension ref="A1:AC93"/>
+  <dimension ref="A1:AC181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
+    <sheetView tabSelected="1" topLeftCell="A157" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C160" sqref="C160:C161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.88671875" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -2611,23 +3396,23 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="147" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="65"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="146"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
+      <c r="A3" s="92"/>
       <c r="B3" s="3">
         <v>28</v>
       </c>
@@ -2652,7 +3437,7 @@
       <c r="I3" s="3">
         <v>35</v>
       </c>
-      <c r="J3" s="65"/>
+      <c r="J3" s="146"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -2660,22 +3445,22 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="147" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="64"/>
+      <c r="C8" s="148"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="148"/>
+      <c r="F8" s="148"/>
+      <c r="G8" s="148"/>
+      <c r="H8" s="148"/>
+      <c r="I8" s="149"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="61"/>
+      <c r="A9" s="92"/>
       <c r="B9" s="3">
         <v>28</v>
       </c>
@@ -2702,7 +3487,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="61"/>
+      <c r="A10" s="92"/>
       <c r="B10" s="4">
         <v>1</v>
       </c>
@@ -2729,7 +3514,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="61"/>
+      <c r="A11" s="92"/>
       <c r="B11" s="4">
         <v>1</v>
       </c>
@@ -2756,7 +3541,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="61"/>
+      <c r="A12" s="92"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4">
@@ -2769,7 +3554,7 @@
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="61"/>
+      <c r="A13" s="92"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="4"/>
@@ -2782,7 +3567,7 @@
       <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="61"/>
+      <c r="A14" s="92"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -2795,7 +3580,7 @@
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="61"/>
+      <c r="A15" s="92"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -2808,7 +3593,7 @@
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="61"/>
+      <c r="A16" s="92"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -2824,16 +3609,16 @@
       <c r="A20" s="1"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="103" t="s">
+      <c r="B22" s="158" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="93" t="s">
+      <c r="C22" s="140" t="s">
         <v>112</v>
       </c>
-      <c r="D22" s="78" t="s">
+      <c r="D22" s="121" t="s">
         <v>113</v>
       </c>
       <c r="E22" s="56"/>
@@ -2846,10 +3631,10 @@
       <c r="L22" s="58"/>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A23" s="61"/>
-      <c r="B23" s="104"/>
-      <c r="C23" s="94"/>
-      <c r="D23" s="79"/>
+      <c r="A23" s="92"/>
+      <c r="B23" s="159"/>
+      <c r="C23" s="141"/>
+      <c r="D23" s="122"/>
       <c r="E23" s="3">
         <v>28</v>
       </c>
@@ -2876,7 +3661,7 @@
       </c>
     </row>
     <row r="24" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="61"/>
+      <c r="A24" s="92"/>
       <c r="C24" s="36">
         <v>2040</v>
       </c>
@@ -2909,7 +3694,7 @@
       </c>
     </row>
     <row r="25" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="61"/>
+      <c r="A25" s="92"/>
       <c r="B25" s="47"/>
       <c r="C25" s="48">
         <v>980</v>
@@ -2943,7 +3728,7 @@
       </c>
     </row>
     <row r="26" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="61"/>
+      <c r="A26" s="92"/>
       <c r="B26" s="46"/>
       <c r="C26" s="36">
         <v>96</v>
@@ -2963,7 +3748,7 @@
       <c r="L26" s="5"/>
     </row>
     <row r="27" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="61"/>
+      <c r="A27" s="92"/>
       <c r="B27" s="46">
         <v>16501</v>
       </c>
@@ -2985,7 +3770,7 @@
       <c r="L27" s="5"/>
     </row>
     <row r="28" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="61"/>
+      <c r="A28" s="92"/>
       <c r="B28" s="46"/>
       <c r="C28" s="36">
         <v>96</v>
@@ -3005,7 +3790,7 @@
       <c r="L28" s="6"/>
     </row>
     <row r="29" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="61"/>
+      <c r="A29" s="92"/>
       <c r="B29" s="46"/>
       <c r="C29" s="36">
         <v>96</v>
@@ -3025,7 +3810,7 @@
       <c r="L29" s="6"/>
     </row>
     <row r="30" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="61"/>
+      <c r="A30" s="92"/>
       <c r="B30" s="46"/>
       <c r="C30" s="36">
         <v>96</v>
@@ -3045,7 +3830,7 @@
       <c r="L30" s="6"/>
     </row>
     <row r="31" spans="1:29" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A31" s="61"/>
+      <c r="A31" s="92"/>
       <c r="C31">
         <f>SUM(C24:C30)</f>
         <v>3500</v>
@@ -3062,26 +3847,26 @@
       </c>
     </row>
     <row r="32" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A32" s="61"/>
-      <c r="B32" s="100"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="101"/>
-      <c r="F32" s="101"/>
-      <c r="G32" s="101"/>
-      <c r="H32" s="101"/>
-      <c r="I32" s="101"/>
-      <c r="J32" s="101"/>
-      <c r="K32" s="101"/>
-      <c r="L32" s="101"/>
-      <c r="M32" s="101"/>
-      <c r="N32" s="101"/>
-      <c r="O32" s="101"/>
-      <c r="P32" s="101"/>
-      <c r="Q32" s="101"/>
-      <c r="R32" s="101"/>
-      <c r="S32" s="101"/>
-      <c r="T32" s="102"/>
+      <c r="A32" s="92"/>
+      <c r="B32" s="155"/>
+      <c r="C32" s="156"/>
+      <c r="D32" s="156"/>
+      <c r="E32" s="156"/>
+      <c r="F32" s="156"/>
+      <c r="G32" s="156"/>
+      <c r="H32" s="156"/>
+      <c r="I32" s="156"/>
+      <c r="J32" s="156"/>
+      <c r="K32" s="156"/>
+      <c r="L32" s="156"/>
+      <c r="M32" s="156"/>
+      <c r="N32" s="156"/>
+      <c r="O32" s="156"/>
+      <c r="P32" s="156"/>
+      <c r="Q32" s="156"/>
+      <c r="R32" s="156"/>
+      <c r="S32" s="156"/>
+      <c r="T32" s="157"/>
       <c r="U32" s="15"/>
       <c r="V32" s="15"/>
       <c r="W32" s="26"/>
@@ -3100,37 +3885,37 @@
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A39" s="61" t="s">
+      <c r="A39" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="103" t="s">
+      <c r="B39" s="158" t="s">
         <v>111</v>
       </c>
-      <c r="C39" s="74" t="s">
+      <c r="C39" s="100" t="s">
         <v>81</v>
       </c>
-      <c r="D39" s="105" t="s">
+      <c r="D39" s="160" t="s">
         <v>82</v>
       </c>
-      <c r="E39" s="74" t="s">
+      <c r="E39" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="F39" s="74" t="s">
+      <c r="F39" s="100" t="s">
         <v>84</v>
       </c>
-      <c r="G39" s="107" t="s">
+      <c r="G39" s="98" t="s">
         <v>85</v>
       </c>
-      <c r="H39" s="74" t="s">
+      <c r="H39" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="I39" s="107" t="s">
+      <c r="I39" s="98" t="s">
         <v>87</v>
       </c>
-      <c r="J39" s="74" t="s">
+      <c r="J39" s="100" t="s">
         <v>88</v>
       </c>
-      <c r="K39" s="74" t="s">
+      <c r="K39" s="100" t="s">
         <v>89</v>
       </c>
       <c r="L39" s="56"/>
@@ -3141,49 +3926,49 @@
       <c r="Q39" s="57"/>
       <c r="R39" s="57"/>
       <c r="S39" s="58"/>
-      <c r="T39" s="74" t="s">
+      <c r="T39" s="100" t="s">
         <v>90</v>
       </c>
-      <c r="U39" s="74" t="s">
+      <c r="U39" s="100" t="s">
         <v>91</v>
       </c>
-      <c r="V39" s="93" t="s">
+      <c r="V39" s="140" t="s">
         <v>112</v>
       </c>
-      <c r="W39" s="66" t="s">
+      <c r="W39" s="138" t="s">
         <v>92</v>
       </c>
-      <c r="X39" s="68" t="s">
+      <c r="X39" s="142" t="s">
         <v>93</v>
       </c>
-      <c r="Y39" s="70" t="s">
+      <c r="Y39" s="144" t="s">
         <v>94</v>
       </c>
-      <c r="Z39" s="72" t="s">
+      <c r="Z39" s="96" t="s">
         <v>95</v>
       </c>
-      <c r="AA39" s="76" t="s">
+      <c r="AA39" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="AB39" s="76" t="s">
+      <c r="AB39" s="136" t="s">
         <v>97</v>
       </c>
-      <c r="AC39" s="78" t="s">
+      <c r="AC39" s="121" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A40" s="61"/>
-      <c r="B40" s="104"/>
-      <c r="C40" s="75"/>
-      <c r="D40" s="106"/>
-      <c r="E40" s="75"/>
-      <c r="F40" s="75"/>
-      <c r="G40" s="108"/>
-      <c r="H40" s="75"/>
-      <c r="I40" s="108"/>
-      <c r="J40" s="75"/>
-      <c r="K40" s="75"/>
+      <c r="A40" s="92"/>
+      <c r="B40" s="159"/>
+      <c r="C40" s="101"/>
+      <c r="D40" s="161"/>
+      <c r="E40" s="101"/>
+      <c r="F40" s="101"/>
+      <c r="G40" s="99"/>
+      <c r="H40" s="101"/>
+      <c r="I40" s="99"/>
+      <c r="J40" s="101"/>
+      <c r="K40" s="101"/>
       <c r="L40" s="3">
         <v>28</v>
       </c>
@@ -3208,42 +3993,42 @@
       <c r="S40" s="3">
         <v>35</v>
       </c>
-      <c r="T40" s="75"/>
-      <c r="U40" s="75"/>
-      <c r="V40" s="94"/>
-      <c r="W40" s="67"/>
-      <c r="X40" s="69"/>
-      <c r="Y40" s="71"/>
-      <c r="Z40" s="73"/>
-      <c r="AA40" s="77"/>
-      <c r="AB40" s="77"/>
-      <c r="AC40" s="79"/>
+      <c r="T40" s="101"/>
+      <c r="U40" s="101"/>
+      <c r="V40" s="141"/>
+      <c r="W40" s="139"/>
+      <c r="X40" s="143"/>
+      <c r="Y40" s="145"/>
+      <c r="Z40" s="97"/>
+      <c r="AA40" s="137"/>
+      <c r="AB40" s="137"/>
+      <c r="AC40" s="122"/>
     </row>
     <row r="41" spans="1:29" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A41" s="61"/>
-      <c r="C41" s="80">
+      <c r="A41" s="92"/>
+      <c r="C41" s="123">
         <v>91338035</v>
       </c>
       <c r="D41" s="7">
         <v>532325</v>
       </c>
-      <c r="E41" s="80" t="s">
+      <c r="E41" s="123" t="s">
         <v>98</v>
       </c>
-      <c r="F41" s="83" t="s">
+      <c r="F41" s="126" t="s">
         <v>99</v>
       </c>
-      <c r="G41" s="80" t="s">
+      <c r="G41" s="123" t="s">
         <v>99</v>
       </c>
-      <c r="H41" s="80"/>
-      <c r="I41" s="83" t="s">
+      <c r="H41" s="123"/>
+      <c r="I41" s="126" t="s">
         <v>100</v>
       </c>
-      <c r="J41" s="83" t="s">
+      <c r="J41" s="126" t="s">
         <v>101</v>
       </c>
-      <c r="K41" s="83" t="s">
+      <c r="K41" s="126" t="s">
         <v>126</v>
       </c>
       <c r="L41" s="4">
@@ -3283,13 +4068,13 @@
       <c r="W41" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="X41" s="86" t="s">
+      <c r="X41" s="129" t="s">
         <v>103</v>
       </c>
       <c r="Y41" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="Z41" s="88">
+      <c r="Z41" s="131">
         <v>43171</v>
       </c>
       <c r="AA41" s="12"/>
@@ -3300,19 +4085,19 @@
       </c>
     </row>
     <row r="42" spans="1:29" s="45" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A42" s="61"/>
+      <c r="A42" s="92"/>
       <c r="B42" s="47"/>
-      <c r="C42" s="81"/>
+      <c r="C42" s="124"/>
       <c r="D42" s="48">
         <v>532326</v>
       </c>
-      <c r="E42" s="81"/>
-      <c r="F42" s="84"/>
-      <c r="G42" s="81"/>
-      <c r="H42" s="81"/>
-      <c r="I42" s="84"/>
-      <c r="J42" s="84"/>
-      <c r="K42" s="84"/>
+      <c r="E42" s="124"/>
+      <c r="F42" s="127"/>
+      <c r="G42" s="124"/>
+      <c r="H42" s="124"/>
+      <c r="I42" s="127"/>
+      <c r="J42" s="127"/>
+      <c r="K42" s="127"/>
       <c r="L42" s="49">
         <v>1</v>
       </c>
@@ -3350,11 +4135,11 @@
       <c r="W42" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="X42" s="87"/>
+      <c r="X42" s="130"/>
       <c r="Y42" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="Z42" s="89"/>
+      <c r="Z42" s="132"/>
       <c r="AA42" s="54"/>
       <c r="AB42" s="54"/>
       <c r="AC42" s="55">
@@ -3363,19 +4148,19 @@
       </c>
     </row>
     <row r="43" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A43" s="61"/>
+      <c r="A43" s="92"/>
       <c r="B43" s="46"/>
-      <c r="C43" s="81"/>
+      <c r="C43" s="124"/>
       <c r="D43" s="7">
         <v>533180</v>
       </c>
-      <c r="E43" s="81"/>
-      <c r="F43" s="84"/>
-      <c r="G43" s="81"/>
-      <c r="H43" s="81"/>
-      <c r="I43" s="84"/>
-      <c r="J43" s="84"/>
-      <c r="K43" s="84" t="s">
+      <c r="E43" s="124"/>
+      <c r="F43" s="127"/>
+      <c r="G43" s="124"/>
+      <c r="H43" s="124"/>
+      <c r="I43" s="127"/>
+      <c r="J43" s="127"/>
+      <c r="K43" s="127" t="s">
         <v>127</v>
       </c>
       <c r="L43" s="4"/>
@@ -3401,11 +4186,11 @@
       <c r="W43" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="X43" s="87"/>
-      <c r="Y43" s="91" t="s">
+      <c r="X43" s="130"/>
+      <c r="Y43" s="134" t="s">
         <v>108</v>
       </c>
-      <c r="Z43" s="89"/>
+      <c r="Z43" s="132"/>
       <c r="AA43" s="12"/>
       <c r="AB43" s="12"/>
       <c r="AC43" s="13">
@@ -3414,21 +4199,21 @@
       </c>
     </row>
     <row r="44" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A44" s="61"/>
+      <c r="A44" s="92"/>
       <c r="B44" s="46">
         <v>16501</v>
       </c>
-      <c r="C44" s="81"/>
+      <c r="C44" s="124"/>
       <c r="D44" s="7">
         <v>533181</v>
       </c>
-      <c r="E44" s="81"/>
-      <c r="F44" s="84"/>
-      <c r="G44" s="81"/>
-      <c r="H44" s="81"/>
-      <c r="I44" s="84"/>
-      <c r="J44" s="84"/>
-      <c r="K44" s="84"/>
+      <c r="E44" s="124"/>
+      <c r="F44" s="127"/>
+      <c r="G44" s="124"/>
+      <c r="H44" s="124"/>
+      <c r="I44" s="127"/>
+      <c r="J44" s="127"/>
+      <c r="K44" s="127"/>
       <c r="L44" s="4"/>
       <c r="M44" s="5"/>
       <c r="N44" s="4"/>
@@ -3452,9 +4237,9 @@
       <c r="W44" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="X44" s="87"/>
-      <c r="Y44" s="92"/>
-      <c r="Z44" s="89"/>
+      <c r="X44" s="130"/>
+      <c r="Y44" s="135"/>
+      <c r="Z44" s="132"/>
       <c r="AA44" s="12"/>
       <c r="AB44" s="12"/>
       <c r="AC44" s="13">
@@ -3463,19 +4248,19 @@
       </c>
     </row>
     <row r="45" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A45" s="61"/>
+      <c r="A45" s="92"/>
       <c r="B45" s="46"/>
-      <c r="C45" s="81"/>
+      <c r="C45" s="124"/>
       <c r="D45" s="7">
         <v>533182</v>
       </c>
-      <c r="E45" s="81"/>
-      <c r="F45" s="84"/>
-      <c r="G45" s="81"/>
-      <c r="H45" s="81"/>
-      <c r="I45" s="84"/>
-      <c r="J45" s="84"/>
-      <c r="K45" s="84"/>
+      <c r="E45" s="124"/>
+      <c r="F45" s="127"/>
+      <c r="G45" s="124"/>
+      <c r="H45" s="124"/>
+      <c r="I45" s="127"/>
+      <c r="J45" s="127"/>
+      <c r="K45" s="127"/>
       <c r="L45" s="4"/>
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
@@ -3499,9 +4284,9 @@
       <c r="W45" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="X45" s="87"/>
-      <c r="Y45" s="92"/>
-      <c r="Z45" s="89"/>
+      <c r="X45" s="130"/>
+      <c r="Y45" s="135"/>
+      <c r="Z45" s="132"/>
       <c r="AA45" s="12"/>
       <c r="AB45" s="12"/>
       <c r="AC45" s="13">
@@ -3510,19 +4295,19 @@
       </c>
     </row>
     <row r="46" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A46" s="61"/>
+      <c r="A46" s="92"/>
       <c r="B46" s="46"/>
-      <c r="C46" s="81"/>
+      <c r="C46" s="124"/>
       <c r="D46" s="36">
         <v>533183</v>
       </c>
-      <c r="E46" s="81"/>
-      <c r="F46" s="84"/>
-      <c r="G46" s="81"/>
-      <c r="H46" s="81"/>
-      <c r="I46" s="84"/>
-      <c r="J46" s="84"/>
-      <c r="K46" s="84"/>
+      <c r="E46" s="124"/>
+      <c r="F46" s="127"/>
+      <c r="G46" s="124"/>
+      <c r="H46" s="124"/>
+      <c r="I46" s="127"/>
+      <c r="J46" s="127"/>
+      <c r="K46" s="127"/>
       <c r="L46" s="4"/>
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
@@ -3546,9 +4331,9 @@
       <c r="W46" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="X46" s="87"/>
-      <c r="Y46" s="92"/>
-      <c r="Z46" s="89"/>
+      <c r="X46" s="130"/>
+      <c r="Y46" s="135"/>
+      <c r="Z46" s="132"/>
       <c r="AA46" s="12"/>
       <c r="AB46" s="12"/>
       <c r="AC46" s="13">
@@ -3557,19 +4342,19 @@
       </c>
     </row>
     <row r="47" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A47" s="61"/>
+      <c r="A47" s="92"/>
       <c r="B47" s="46"/>
-      <c r="C47" s="82"/>
+      <c r="C47" s="125"/>
       <c r="D47" s="36">
         <v>533184</v>
       </c>
-      <c r="E47" s="82"/>
-      <c r="F47" s="85"/>
-      <c r="G47" s="82"/>
-      <c r="H47" s="82"/>
-      <c r="I47" s="85"/>
-      <c r="J47" s="85"/>
-      <c r="K47" s="85"/>
+      <c r="E47" s="125"/>
+      <c r="F47" s="128"/>
+      <c r="G47" s="125"/>
+      <c r="H47" s="125"/>
+      <c r="I47" s="128"/>
+      <c r="J47" s="128"/>
+      <c r="K47" s="128"/>
       <c r="L47" s="4"/>
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
@@ -3593,9 +4378,9 @@
       <c r="W47" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="X47" s="87"/>
-      <c r="Y47" s="92"/>
-      <c r="Z47" s="90"/>
+      <c r="X47" s="130"/>
+      <c r="Y47" s="135"/>
+      <c r="Z47" s="133"/>
       <c r="AA47" s="12"/>
       <c r="AB47" s="12"/>
       <c r="AC47" s="13">
@@ -3604,7 +4389,7 @@
       </c>
     </row>
     <row r="48" spans="1:29" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A48" s="61"/>
+      <c r="A48" s="92"/>
       <c r="W48" s="14"/>
       <c r="X48" s="16"/>
       <c r="Y48" s="17"/>
@@ -3623,26 +4408,26 @@
       </c>
     </row>
     <row r="49" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A49" s="61"/>
-      <c r="B49" s="100"/>
-      <c r="C49" s="101"/>
-      <c r="D49" s="101"/>
-      <c r="E49" s="101"/>
-      <c r="F49" s="101"/>
-      <c r="G49" s="101"/>
-      <c r="H49" s="101"/>
-      <c r="I49" s="101"/>
-      <c r="J49" s="101"/>
-      <c r="K49" s="101"/>
-      <c r="L49" s="101"/>
-      <c r="M49" s="101"/>
-      <c r="N49" s="101"/>
-      <c r="O49" s="101"/>
-      <c r="P49" s="101"/>
-      <c r="Q49" s="101"/>
-      <c r="R49" s="101"/>
-      <c r="S49" s="101"/>
-      <c r="T49" s="102"/>
+      <c r="A49" s="92"/>
+      <c r="B49" s="155"/>
+      <c r="C49" s="156"/>
+      <c r="D49" s="156"/>
+      <c r="E49" s="156"/>
+      <c r="F49" s="156"/>
+      <c r="G49" s="156"/>
+      <c r="H49" s="156"/>
+      <c r="I49" s="156"/>
+      <c r="J49" s="156"/>
+      <c r="K49" s="156"/>
+      <c r="L49" s="156"/>
+      <c r="M49" s="156"/>
+      <c r="N49" s="156"/>
+      <c r="O49" s="156"/>
+      <c r="P49" s="156"/>
+      <c r="Q49" s="156"/>
+      <c r="R49" s="156"/>
+      <c r="S49" s="156"/>
+      <c r="T49" s="157"/>
       <c r="U49" s="15"/>
       <c r="V49" s="15">
         <f>SUM(V41:V47)</f>
@@ -3683,959 +4468,2069 @@
       <c r="U50" s="21"/>
       <c r="V50" s="21"/>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A57" s="61" t="s">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A63" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B57" s="103" t="s">
+      <c r="B63" s="158" t="s">
         <v>159</v>
       </c>
-      <c r="C57" s="74" t="s">
+      <c r="C63" s="100" t="s">
         <v>81</v>
       </c>
-      <c r="D57" s="105" t="s">
+      <c r="D63" s="160" t="s">
         <v>82</v>
       </c>
-      <c r="E57" s="74" t="s">
+      <c r="E63" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="F57" s="74" t="s">
+      <c r="F63" s="100" t="s">
         <v>84</v>
       </c>
-      <c r="G57" s="107" t="s">
+      <c r="G63" s="98" t="s">
         <v>85</v>
       </c>
-      <c r="H57" s="74" t="s">
+      <c r="H63" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="I57" s="107" t="s">
+      <c r="I63" s="98" t="s">
         <v>87</v>
       </c>
-      <c r="J57" s="74" t="s">
+      <c r="J63" s="100" t="s">
         <v>88</v>
       </c>
-      <c r="K57" s="74" t="s">
+      <c r="K63" s="100" t="s">
         <v>89</v>
       </c>
-      <c r="L57" s="74" t="s">
+      <c r="L63" s="100" t="s">
         <v>90</v>
       </c>
-      <c r="M57" s="74" t="s">
+      <c r="M63" s="100" t="s">
         <v>91</v>
       </c>
-      <c r="N57" s="93" t="s">
+      <c r="N63" s="140" t="s">
         <v>112</v>
       </c>
-      <c r="O57" s="66" t="s">
+      <c r="O63" s="138" t="s">
         <v>92</v>
       </c>
-      <c r="P57" s="68" t="s">
+      <c r="P63" s="142" t="s">
         <v>93</v>
       </c>
-      <c r="Q57" s="70" t="s">
+      <c r="Q63" s="144" t="s">
         <v>94</v>
       </c>
-      <c r="R57" s="72" t="s">
+      <c r="R63" s="96" t="s">
         <v>95</v>
       </c>
-      <c r="S57" s="76" t="s">
+      <c r="S63" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="T57" s="76" t="s">
+      <c r="T63" s="136" t="s">
         <v>97</v>
       </c>
-      <c r="U57" s="78" t="s">
+      <c r="U63" s="121" t="s">
         <v>113</v>
       </c>
-      <c r="V57" s="56"/>
-      <c r="W57" s="57"/>
-      <c r="X57" s="57"/>
-      <c r="Y57" s="57"/>
-      <c r="Z57" s="57"/>
-      <c r="AA57" s="57"/>
-      <c r="AB57" s="57"/>
-      <c r="AC57" s="58"/>
-    </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A58" s="61"/>
-      <c r="B58" s="104"/>
-      <c r="C58" s="75"/>
-      <c r="D58" s="106"/>
-      <c r="E58" s="75"/>
-      <c r="F58" s="75"/>
-      <c r="G58" s="108"/>
-      <c r="H58" s="75"/>
-      <c r="I58" s="108"/>
-      <c r="J58" s="75"/>
-      <c r="K58" s="75"/>
-      <c r="L58" s="75"/>
-      <c r="M58" s="75"/>
-      <c r="N58" s="94"/>
-      <c r="O58" s="67"/>
-      <c r="P58" s="69"/>
-      <c r="Q58" s="71"/>
-      <c r="R58" s="73"/>
-      <c r="S58" s="77"/>
-      <c r="T58" s="77"/>
-      <c r="U58" s="79"/>
-      <c r="V58" s="3">
+      <c r="V63" s="56"/>
+      <c r="W63" s="57"/>
+      <c r="X63" s="57"/>
+      <c r="Y63" s="57"/>
+      <c r="Z63" s="57"/>
+      <c r="AA63" s="57"/>
+      <c r="AB63" s="57"/>
+      <c r="AC63" s="58"/>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A64" s="92"/>
+      <c r="B64" s="159"/>
+      <c r="C64" s="101"/>
+      <c r="D64" s="161"/>
+      <c r="E64" s="101"/>
+      <c r="F64" s="101"/>
+      <c r="G64" s="99"/>
+      <c r="H64" s="101"/>
+      <c r="I64" s="99"/>
+      <c r="J64" s="101"/>
+      <c r="K64" s="101"/>
+      <c r="L64" s="101"/>
+      <c r="M64" s="101"/>
+      <c r="N64" s="141"/>
+      <c r="O64" s="139"/>
+      <c r="P64" s="143"/>
+      <c r="Q64" s="145"/>
+      <c r="R64" s="97"/>
+      <c r="S64" s="137"/>
+      <c r="T64" s="137"/>
+      <c r="U64" s="122"/>
+      <c r="V64" s="3">
         <v>28</v>
       </c>
-      <c r="W58" s="3">
+      <c r="W64" s="3">
         <v>29</v>
       </c>
-      <c r="X58" s="3">
+      <c r="X64" s="3">
         <v>30</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Y64" s="3">
         <v>31</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="Z64" s="3">
         <v>32</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AA64" s="3">
         <v>33</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AB64" s="3">
         <v>34</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AC64" s="3">
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:29" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A59" s="61"/>
-      <c r="C59" s="80">
+    <row r="65" spans="1:29" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A65" s="92"/>
+      <c r="C65" s="123">
         <v>91338035</v>
       </c>
-      <c r="D59" s="36">
+      <c r="D65" s="36">
         <v>532325</v>
       </c>
-      <c r="E59" s="80" t="s">
+      <c r="E65" s="123" t="s">
         <v>98</v>
       </c>
-      <c r="F59" s="83" t="s">
+      <c r="F65" s="126" t="s">
         <v>99</v>
       </c>
-      <c r="G59" s="80" t="s">
+      <c r="G65" s="123" t="s">
         <v>99</v>
       </c>
-      <c r="H59" s="80"/>
-      <c r="I59" s="83" t="s">
+      <c r="H65" s="123"/>
+      <c r="I65" s="126" t="s">
         <v>100</v>
       </c>
-      <c r="J59" s="83" t="s">
+      <c r="J65" s="126" t="s">
         <v>101</v>
       </c>
-      <c r="K59" s="83" t="s">
+      <c r="K65" s="126" t="s">
         <v>126</v>
       </c>
-      <c r="L59" s="8">
+      <c r="L65" s="8">
         <v>12</v>
       </c>
-      <c r="M59" s="9">
+      <c r="M65" s="9">
         <v>170</v>
       </c>
-      <c r="N59" s="36">
-        <f>L59*M59</f>
+      <c r="N65" s="36">
+        <f>L65*M65</f>
         <v>2040</v>
       </c>
-      <c r="O59" s="10" t="s">
+      <c r="O65" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="P59" s="86" t="s">
+      <c r="P65" s="129" t="s">
         <v>103</v>
       </c>
-      <c r="Q59" s="11" t="s">
+      <c r="Q65" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="R59" s="88">
+      <c r="R65" s="131">
         <v>43171</v>
       </c>
-      <c r="S59" s="12"/>
-      <c r="T59" s="12"/>
-      <c r="U59" s="13">
-        <f>0.415*0.39*0.265*M59</f>
-        <v>7.2913424999999998</v>
-      </c>
-      <c r="V59" s="4">
-        <v>1</v>
-      </c>
-      <c r="W59" s="5">
-        <v>1</v>
-      </c>
-      <c r="X59" s="5">
-        <v>2</v>
-      </c>
-      <c r="Y59" s="5">
-        <v>2</v>
-      </c>
-      <c r="Z59" s="5">
-        <v>2</v>
-      </c>
-      <c r="AA59" s="5">
-        <v>2</v>
-      </c>
-      <c r="AB59" s="5">
-        <v>1</v>
-      </c>
-      <c r="AC59" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:29" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A60" s="61"/>
-      <c r="B60" s="47"/>
-      <c r="C60" s="81"/>
-      <c r="D60" s="48">
-        <v>532326</v>
-      </c>
-      <c r="E60" s="81"/>
-      <c r="F60" s="84"/>
-      <c r="G60" s="81"/>
-      <c r="H60" s="81"/>
-      <c r="I60" s="84"/>
-      <c r="J60" s="84"/>
-      <c r="K60" s="84"/>
-      <c r="L60" s="50">
-        <v>10</v>
-      </c>
-      <c r="M60" s="51">
-        <v>98</v>
-      </c>
-      <c r="N60" s="48">
-        <f t="shared" ref="N60:N65" si="1">L60*M60</f>
-        <v>980</v>
-      </c>
-      <c r="O60" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="P60" s="87"/>
-      <c r="Q60" s="53" t="s">
-        <v>106</v>
-      </c>
-      <c r="R60" s="89"/>
-      <c r="S60" s="54"/>
-      <c r="T60" s="54"/>
-      <c r="U60" s="55">
-        <f>0.515*0.265*0.265*M60</f>
-        <v>3.5442557500000005</v>
-      </c>
-      <c r="V60" s="49">
-        <v>1</v>
-      </c>
-      <c r="W60" s="50">
-        <v>1</v>
-      </c>
-      <c r="X60" s="50">
-        <v>1</v>
-      </c>
-      <c r="Y60" s="50">
-        <v>2</v>
-      </c>
-      <c r="Z60" s="50">
-        <v>2</v>
-      </c>
-      <c r="AA60" s="50">
-        <v>1</v>
-      </c>
-      <c r="AB60" s="50">
-        <v>1</v>
-      </c>
-      <c r="AC60" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A61" s="61"/>
-      <c r="B61" s="46"/>
-      <c r="C61" s="81"/>
-      <c r="D61" s="36">
-        <v>533180</v>
-      </c>
-      <c r="E61" s="81"/>
-      <c r="F61" s="84"/>
-      <c r="G61" s="81"/>
-      <c r="H61" s="81"/>
-      <c r="I61" s="84"/>
-      <c r="J61" s="84"/>
-      <c r="K61" s="84" t="s">
-        <v>127</v>
-      </c>
-      <c r="L61" s="8">
-        <v>16</v>
-      </c>
-      <c r="M61" s="9">
-        <v>6</v>
-      </c>
-      <c r="N61" s="36">
-        <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
-      <c r="O61" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="P61" s="87"/>
-      <c r="Q61" s="91" t="s">
-        <v>108</v>
-      </c>
-      <c r="R61" s="89"/>
-      <c r="S61" s="12"/>
-      <c r="T61" s="12"/>
-      <c r="U61" s="13">
-        <f>0.515*0.415*0.265*M61</f>
-        <v>0.33982275000000001</v>
-      </c>
-      <c r="V61" s="4"/>
-      <c r="W61" s="5"/>
-      <c r="X61" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y61" s="5"/>
-      <c r="Z61" s="4"/>
-      <c r="AA61" s="5"/>
-      <c r="AB61" s="4"/>
-      <c r="AC61" s="5"/>
-    </row>
-    <row r="62" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A62" s="61"/>
-      <c r="B62" s="46">
-        <v>16501</v>
-      </c>
-      <c r="C62" s="81"/>
-      <c r="D62" s="36">
-        <v>533181</v>
-      </c>
-      <c r="E62" s="81"/>
-      <c r="F62" s="84"/>
-      <c r="G62" s="81"/>
-      <c r="H62" s="81"/>
-      <c r="I62" s="84"/>
-      <c r="J62" s="84"/>
-      <c r="K62" s="84"/>
-      <c r="L62" s="8">
-        <v>16</v>
-      </c>
-      <c r="M62" s="9">
-        <v>6</v>
-      </c>
-      <c r="N62" s="36">
-        <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
-      <c r="O62" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="P62" s="87"/>
-      <c r="Q62" s="92"/>
-      <c r="R62" s="89"/>
-      <c r="S62" s="12"/>
-      <c r="T62" s="12"/>
-      <c r="U62" s="13">
-        <f>0.515*0.415*0.265*M62</f>
-        <v>0.33982275000000001</v>
-      </c>
-      <c r="V62" s="4"/>
-      <c r="W62" s="5"/>
-      <c r="X62" s="4"/>
-      <c r="Y62" s="5">
-        <v>1</v>
-      </c>
-      <c r="Z62" s="4"/>
-      <c r="AA62" s="5"/>
-      <c r="AB62" s="4"/>
-      <c r="AC62" s="5"/>
-    </row>
-    <row r="63" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A63" s="61"/>
-      <c r="B63" s="46"/>
-      <c r="C63" s="81"/>
-      <c r="D63" s="36">
-        <v>533182</v>
-      </c>
-      <c r="E63" s="81"/>
-      <c r="F63" s="84"/>
-      <c r="G63" s="81"/>
-      <c r="H63" s="81"/>
-      <c r="I63" s="84"/>
-      <c r="J63" s="84"/>
-      <c r="K63" s="84"/>
-      <c r="L63" s="8">
-        <v>16</v>
-      </c>
-      <c r="M63" s="9">
-        <v>6</v>
-      </c>
-      <c r="N63" s="36">
-        <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
-      <c r="O63" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="P63" s="87"/>
-      <c r="Q63" s="92"/>
-      <c r="R63" s="89"/>
-      <c r="S63" s="12"/>
-      <c r="T63" s="12"/>
-      <c r="U63" s="13">
-        <f>0.515*0.415*0.265*M63</f>
-        <v>0.33982275000000001</v>
-      </c>
-      <c r="V63" s="4"/>
-      <c r="W63" s="5"/>
-      <c r="X63" s="5"/>
-      <c r="Y63" s="5"/>
-      <c r="Z63" s="5">
-        <v>1</v>
-      </c>
-      <c r="AA63" s="5"/>
-      <c r="AB63" s="6"/>
-      <c r="AC63" s="6"/>
-    </row>
-    <row r="64" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A64" s="61"/>
-      <c r="B64" s="46"/>
-      <c r="C64" s="81"/>
-      <c r="D64" s="36">
-        <v>533183</v>
-      </c>
-      <c r="E64" s="81"/>
-      <c r="F64" s="84"/>
-      <c r="G64" s="81"/>
-      <c r="H64" s="81"/>
-      <c r="I64" s="84"/>
-      <c r="J64" s="84"/>
-      <c r="K64" s="84"/>
-      <c r="L64" s="8">
-        <v>16</v>
-      </c>
-      <c r="M64" s="9">
-        <v>6</v>
-      </c>
-      <c r="N64" s="36">
-        <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
-      <c r="O64" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="P64" s="87"/>
-      <c r="Q64" s="92"/>
-      <c r="R64" s="89"/>
-      <c r="S64" s="12"/>
-      <c r="T64" s="12"/>
-      <c r="U64" s="13">
-        <f>0.515*0.415*0.265*M64</f>
-        <v>0.33982275000000001</v>
-      </c>
-      <c r="V64" s="4"/>
-      <c r="W64" s="5"/>
-      <c r="X64" s="5"/>
-      <c r="Y64" s="5"/>
-      <c r="Z64" s="5"/>
-      <c r="AA64" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB64" s="6"/>
-      <c r="AC64" s="6"/>
-    </row>
-    <row r="65" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A65" s="61"/>
-      <c r="B65" s="46"/>
-      <c r="C65" s="82"/>
-      <c r="D65" s="36">
-        <v>533184</v>
-      </c>
-      <c r="E65" s="82"/>
-      <c r="F65" s="85"/>
-      <c r="G65" s="82"/>
-      <c r="H65" s="82"/>
-      <c r="I65" s="85"/>
-      <c r="J65" s="85"/>
-      <c r="K65" s="85"/>
-      <c r="L65" s="8">
-        <v>16</v>
-      </c>
-      <c r="M65" s="9">
-        <v>6</v>
-      </c>
-      <c r="N65" s="36">
-        <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
-      <c r="O65" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="P65" s="87"/>
-      <c r="Q65" s="92"/>
-      <c r="R65" s="90"/>
       <c r="S65" s="12"/>
       <c r="T65" s="12"/>
       <c r="U65" s="13">
-        <f>0.515*0.415*0.265*M65</f>
+        <f>0.415*0.39*0.265*M65</f>
+        <v>7.2913424999999998</v>
+      </c>
+      <c r="V65" s="4">
+        <v>1</v>
+      </c>
+      <c r="W65" s="5">
+        <v>1</v>
+      </c>
+      <c r="X65" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y65" s="5">
+        <v>2</v>
+      </c>
+      <c r="Z65" s="5">
+        <v>2</v>
+      </c>
+      <c r="AA65" s="5">
+        <v>2</v>
+      </c>
+      <c r="AB65" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC65" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A66" s="92"/>
+      <c r="B66" s="47"/>
+      <c r="C66" s="124"/>
+      <c r="D66" s="48">
+        <v>532326</v>
+      </c>
+      <c r="E66" s="124"/>
+      <c r="F66" s="127"/>
+      <c r="G66" s="124"/>
+      <c r="H66" s="124"/>
+      <c r="I66" s="127"/>
+      <c r="J66" s="127"/>
+      <c r="K66" s="127"/>
+      <c r="L66" s="50">
+        <v>10</v>
+      </c>
+      <c r="M66" s="51">
+        <v>98</v>
+      </c>
+      <c r="N66" s="48">
+        <f t="shared" ref="N66:N71" si="1">L66*M66</f>
+        <v>980</v>
+      </c>
+      <c r="O66" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="P66" s="130"/>
+      <c r="Q66" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="R66" s="132"/>
+      <c r="S66" s="54"/>
+      <c r="T66" s="54"/>
+      <c r="U66" s="55">
+        <f>0.515*0.265*0.265*M66</f>
+        <v>3.5442557500000005</v>
+      </c>
+      <c r="V66" s="49">
+        <v>1</v>
+      </c>
+      <c r="W66" s="50">
+        <v>1</v>
+      </c>
+      <c r="X66" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y66" s="50">
+        <v>2</v>
+      </c>
+      <c r="Z66" s="50">
+        <v>2</v>
+      </c>
+      <c r="AA66" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB66" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC66" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A67" s="92"/>
+      <c r="B67" s="46"/>
+      <c r="C67" s="124"/>
+      <c r="D67" s="36">
+        <v>533180</v>
+      </c>
+      <c r="E67" s="124"/>
+      <c r="F67" s="127"/>
+      <c r="G67" s="124"/>
+      <c r="H67" s="124"/>
+      <c r="I67" s="127"/>
+      <c r="J67" s="127"/>
+      <c r="K67" s="127" t="s">
+        <v>127</v>
+      </c>
+      <c r="L67" s="8">
+        <v>16</v>
+      </c>
+      <c r="M67" s="9">
+        <v>6</v>
+      </c>
+      <c r="N67" s="36">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="O67" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="P67" s="130"/>
+      <c r="Q67" s="134" t="s">
+        <v>108</v>
+      </c>
+      <c r="R67" s="132"/>
+      <c r="S67" s="12"/>
+      <c r="T67" s="12"/>
+      <c r="U67" s="13">
+        <f>0.515*0.415*0.265*M67</f>
         <v>0.33982275000000001</v>
       </c>
-      <c r="V65" s="4"/>
-      <c r="W65" s="5"/>
-      <c r="X65" s="5"/>
-      <c r="Y65" s="5"/>
-      <c r="Z65" s="5"/>
-      <c r="AA65" s="5"/>
-      <c r="AB65" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC65" s="6"/>
-    </row>
-    <row r="66" spans="1:29" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A66" s="61"/>
-      <c r="S66" s="18">
-        <f>SUM(S59:S65)</f>
+      <c r="V67" s="4"/>
+      <c r="W67" s="5"/>
+      <c r="X67" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y67" s="5"/>
+      <c r="Z67" s="4"/>
+      <c r="AA67" s="5"/>
+      <c r="AB67" s="4"/>
+      <c r="AC67" s="5"/>
+    </row>
+    <row r="68" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A68" s="92"/>
+      <c r="B68" s="46">
+        <v>16501</v>
+      </c>
+      <c r="C68" s="124"/>
+      <c r="D68" s="36">
+        <v>533181</v>
+      </c>
+      <c r="E68" s="124"/>
+      <c r="F68" s="127"/>
+      <c r="G68" s="124"/>
+      <c r="H68" s="124"/>
+      <c r="I68" s="127"/>
+      <c r="J68" s="127"/>
+      <c r="K68" s="127"/>
+      <c r="L68" s="8">
+        <v>16</v>
+      </c>
+      <c r="M68" s="9">
+        <v>6</v>
+      </c>
+      <c r="N68" s="36">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="O68" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="P68" s="130"/>
+      <c r="Q68" s="135"/>
+      <c r="R68" s="132"/>
+      <c r="S68" s="12"/>
+      <c r="T68" s="12"/>
+      <c r="U68" s="13">
+        <f>0.515*0.415*0.265*M68</f>
+        <v>0.33982275000000001</v>
+      </c>
+      <c r="V68" s="4"/>
+      <c r="W68" s="5"/>
+      <c r="X68" s="4"/>
+      <c r="Y68" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z68" s="4"/>
+      <c r="AA68" s="5"/>
+      <c r="AB68" s="4"/>
+      <c r="AC68" s="5"/>
+    </row>
+    <row r="69" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A69" s="92"/>
+      <c r="B69" s="46"/>
+      <c r="C69" s="124"/>
+      <c r="D69" s="36">
+        <v>533182</v>
+      </c>
+      <c r="E69" s="124"/>
+      <c r="F69" s="127"/>
+      <c r="G69" s="124"/>
+      <c r="H69" s="124"/>
+      <c r="I69" s="127"/>
+      <c r="J69" s="127"/>
+      <c r="K69" s="127"/>
+      <c r="L69" s="8">
+        <v>16</v>
+      </c>
+      <c r="M69" s="9">
+        <v>6</v>
+      </c>
+      <c r="N69" s="36">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="O69" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="P69" s="130"/>
+      <c r="Q69" s="135"/>
+      <c r="R69" s="132"/>
+      <c r="S69" s="12"/>
+      <c r="T69" s="12"/>
+      <c r="U69" s="13">
+        <f>0.515*0.415*0.265*M69</f>
+        <v>0.33982275000000001</v>
+      </c>
+      <c r="V69" s="4"/>
+      <c r="W69" s="5"/>
+      <c r="X69" s="5"/>
+      <c r="Y69" s="5"/>
+      <c r="Z69" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA69" s="5"/>
+      <c r="AB69" s="6"/>
+      <c r="AC69" s="6"/>
+    </row>
+    <row r="70" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A70" s="92"/>
+      <c r="B70" s="46"/>
+      <c r="C70" s="124"/>
+      <c r="D70" s="36">
+        <v>533183</v>
+      </c>
+      <c r="E70" s="124"/>
+      <c r="F70" s="127"/>
+      <c r="G70" s="124"/>
+      <c r="H70" s="124"/>
+      <c r="I70" s="127"/>
+      <c r="J70" s="127"/>
+      <c r="K70" s="127"/>
+      <c r="L70" s="8">
+        <v>16</v>
+      </c>
+      <c r="M70" s="9">
+        <v>6</v>
+      </c>
+      <c r="N70" s="36">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="O70" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="P70" s="130"/>
+      <c r="Q70" s="135"/>
+      <c r="R70" s="132"/>
+      <c r="S70" s="12"/>
+      <c r="T70" s="12"/>
+      <c r="U70" s="13">
+        <f>0.515*0.415*0.265*M70</f>
+        <v>0.33982275000000001</v>
+      </c>
+      <c r="V70" s="4"/>
+      <c r="W70" s="5"/>
+      <c r="X70" s="5"/>
+      <c r="Y70" s="5"/>
+      <c r="Z70" s="5"/>
+      <c r="AA70" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB70" s="6"/>
+      <c r="AC70" s="6"/>
+    </row>
+    <row r="71" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A71" s="92"/>
+      <c r="B71" s="46"/>
+      <c r="C71" s="125"/>
+      <c r="D71" s="36">
+        <v>533184</v>
+      </c>
+      <c r="E71" s="125"/>
+      <c r="F71" s="128"/>
+      <c r="G71" s="125"/>
+      <c r="H71" s="125"/>
+      <c r="I71" s="128"/>
+      <c r="J71" s="128"/>
+      <c r="K71" s="128"/>
+      <c r="L71" s="8">
+        <v>16</v>
+      </c>
+      <c r="M71" s="9">
+        <v>6</v>
+      </c>
+      <c r="N71" s="36">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="O71" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="P71" s="130"/>
+      <c r="Q71" s="135"/>
+      <c r="R71" s="133"/>
+      <c r="S71" s="12"/>
+      <c r="T71" s="12"/>
+      <c r="U71" s="13">
+        <f>0.515*0.415*0.265*M71</f>
+        <v>0.33982275000000001</v>
+      </c>
+      <c r="V71" s="4"/>
+      <c r="W71" s="5"/>
+      <c r="X71" s="5"/>
+      <c r="Y71" s="5"/>
+      <c r="Z71" s="5"/>
+      <c r="AA71" s="5"/>
+      <c r="AB71" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC71" s="6"/>
+    </row>
+    <row r="72" spans="1:29" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A72" s="92"/>
+      <c r="S72" s="18">
+        <f>SUM(S65:S71)</f>
         <v>0</v>
       </c>
-      <c r="T66" s="18">
-        <f>SUM(T59:T65)</f>
+      <c r="T72" s="18">
+        <f>SUM(T65:T71)</f>
         <v>0</v>
       </c>
-      <c r="U66" s="19">
-        <f>SUM(U59:U65)</f>
+      <c r="U72" s="19">
+        <f>SUM(U65:U71)</f>
         <v>12.534711999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A67" s="61"/>
-      <c r="B67" s="46"/>
-      <c r="C67" s="46"/>
-      <c r="D67" s="46"/>
-      <c r="E67" s="46"/>
-      <c r="F67" s="46"/>
-      <c r="G67" s="46"/>
-      <c r="H67" s="46"/>
-      <c r="I67" s="46"/>
-      <c r="J67" s="46"/>
-      <c r="K67" s="46"/>
-      <c r="L67" s="46"/>
-      <c r="M67" s="46"/>
-      <c r="N67" s="15">
-        <f>SUM(N59:N65)</f>
+    <row r="73" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A73" s="92"/>
+      <c r="B73" s="46"/>
+      <c r="C73" s="46"/>
+      <c r="D73" s="46"/>
+      <c r="E73" s="46"/>
+      <c r="F73" s="46"/>
+      <c r="G73" s="46"/>
+      <c r="H73" s="46"/>
+      <c r="I73" s="46"/>
+      <c r="J73" s="46"/>
+      <c r="K73" s="46"/>
+      <c r="L73" s="46"/>
+      <c r="M73" s="46"/>
+      <c r="N73" s="15">
+        <f>SUM(N65:N71)</f>
         <v>3500</v>
       </c>
-      <c r="O67" s="46"/>
-      <c r="P67" s="46"/>
-      <c r="Q67" s="46"/>
-      <c r="R67" s="46"/>
-      <c r="S67" s="46"/>
-      <c r="T67" s="46"/>
-      <c r="U67" s="15"/>
-      <c r="W67" s="26"/>
-      <c r="X67" s="27"/>
-      <c r="Y67" s="27"/>
-      <c r="Z67" s="28"/>
-      <c r="AA67" s="29"/>
-      <c r="AB67" s="29"/>
-      <c r="AC67" s="30" t="s">
+      <c r="O73" s="46"/>
+      <c r="P73" s="46"/>
+      <c r="Q73" s="46"/>
+      <c r="R73" s="46"/>
+      <c r="S73" s="46"/>
+      <c r="T73" s="46"/>
+      <c r="U73" s="15"/>
+      <c r="W73" s="26"/>
+      <c r="X73" s="27"/>
+      <c r="Y73" s="27"/>
+      <c r="Z73" s="28"/>
+      <c r="AA73" s="29"/>
+      <c r="AB73" s="29"/>
+      <c r="AC73" s="30" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A68" s="45"/>
-    </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A74" s="45"/>
+    </row>
+    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A72" s="61" t="s">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A78" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B72" s="99" t="s">
+      <c r="B78" s="154" t="s">
         <v>140</v>
       </c>
-      <c r="C72" s="99" t="s">
+      <c r="C78" s="154" t="s">
         <v>141</v>
       </c>
-      <c r="D72" s="99" t="s">
+      <c r="D78" s="154" t="s">
         <v>142</v>
       </c>
-      <c r="E72" s="38" t="s">
+      <c r="E78" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="F72" s="39">
+      <c r="F78" s="39">
         <v>34</v>
       </c>
-      <c r="G72" s="39">
+      <c r="G78" s="39">
         <v>35</v>
       </c>
-      <c r="H72" s="39">
+      <c r="H78" s="39">
         <v>36</v>
       </c>
-      <c r="I72" s="39">
+      <c r="I78" s="39">
         <v>37</v>
       </c>
-      <c r="J72" s="39">
+      <c r="J78" s="39">
         <v>38</v>
       </c>
-      <c r="K72" s="39">
+      <c r="K78" s="39">
         <v>39</v>
       </c>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A73" s="61"/>
-      <c r="B73" s="99"/>
-      <c r="C73" s="99"/>
-      <c r="D73" s="99"/>
-      <c r="E73" s="4" t="s">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A79" s="92"/>
+      <c r="B79" s="154"/>
+      <c r="C79" s="154"/>
+      <c r="D79" s="154"/>
+      <c r="E79" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="F73" s="40">
+      <c r="F79" s="40">
         <v>2</v>
       </c>
-      <c r="G73" s="41">
+      <c r="G79" s="41">
         <v>2.5</v>
       </c>
-      <c r="H73" s="40">
+      <c r="H79" s="40">
         <v>3</v>
       </c>
-      <c r="I73" s="40">
+      <c r="I79" s="40">
         <v>4</v>
       </c>
-      <c r="J73" s="40">
+      <c r="J79" s="40">
         <v>5</v>
       </c>
-      <c r="K73" s="40">
+      <c r="K79" s="40">
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A74" s="61"/>
-      <c r="B74" s="96"/>
-      <c r="C74" s="96"/>
-      <c r="D74" s="96"/>
-      <c r="E74" s="4" t="s">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A80" s="92"/>
+      <c r="B80" s="151"/>
+      <c r="C80" s="151"/>
+      <c r="D80" s="151"/>
+      <c r="E80" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="F74" s="40">
+      <c r="F80" s="40">
         <v>22.5</v>
       </c>
-      <c r="G74" s="40">
+      <c r="G80" s="40">
         <v>23.5</v>
       </c>
-      <c r="H74" s="40">
+      <c r="H80" s="40">
         <v>24</v>
       </c>
-      <c r="I74" s="40">
+      <c r="I80" s="40">
         <v>24.5</v>
       </c>
-      <c r="J74" s="40">
+      <c r="J80" s="40">
         <v>25.5</v>
       </c>
-      <c r="K74" s="40">
+      <c r="K80" s="40">
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A75" s="61"/>
-      <c r="B75" s="95" t="s">
+    <row r="81" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A81" s="92"/>
+      <c r="B81" s="150" t="s">
         <v>146</v>
       </c>
-      <c r="C75" s="42" t="s">
+      <c r="C81" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="D75" s="95">
+      <c r="D81" s="150">
         <v>2129</v>
       </c>
-      <c r="E75" s="42" t="s">
+      <c r="E81" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="F75" s="43">
+      <c r="F81" s="43">
         <f>2*148</f>
         <v>296</v>
       </c>
-      <c r="G75" s="43">
+      <c r="G81" s="43">
         <f>2*538</f>
         <v>1076</v>
       </c>
-      <c r="H75" s="43">
+      <c r="H81" s="43">
         <f>2*792</f>
         <v>1584</v>
       </c>
-      <c r="I75" s="43">
+      <c r="I81" s="43">
         <f>2*782</f>
         <v>1564</v>
       </c>
-      <c r="J75" s="43">
+      <c r="J81" s="43">
         <f>2*602</f>
         <v>1204</v>
       </c>
-      <c r="K75" s="43">
+      <c r="K81" s="43">
         <f>2*174</f>
         <v>348</v>
       </c>
     </row>
-    <row r="76" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A76" s="61"/>
-      <c r="B76" s="96"/>
-      <c r="C76" s="43" t="s">
+    <row r="82" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A82" s="92"/>
+      <c r="B82" s="151"/>
+      <c r="C82" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="D76" s="96"/>
-      <c r="E76" s="42" t="s">
+      <c r="D82" s="151"/>
+      <c r="E82" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="F76" s="43">
+      <c r="F82" s="43">
         <f>2*90</f>
         <v>180</v>
       </c>
-      <c r="G76" s="43">
+      <c r="G82" s="43">
         <f>2*420</f>
         <v>840</v>
       </c>
-      <c r="H76" s="43">
+      <c r="H82" s="43">
         <f>2*675</f>
         <v>1350</v>
       </c>
-      <c r="I76" s="43">
+      <c r="I82" s="43">
         <f>2*725</f>
         <v>1450</v>
       </c>
-      <c r="J76" s="43">
+      <c r="J82" s="43">
         <f>2*665</f>
         <v>1330</v>
       </c>
-      <c r="K76" s="43">
+      <c r="K82" s="43">
         <f>2*195</f>
         <v>390</v>
       </c>
     </row>
-    <row r="77" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A77" s="61"/>
-      <c r="B77" s="44" t="s">
+    <row r="83" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A83" s="92"/>
+      <c r="B83" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="C77" s="42" t="s">
+      <c r="C83" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="D77" s="42">
+      <c r="D83" s="42">
         <v>2137</v>
       </c>
-      <c r="E77" s="42" t="s">
+      <c r="E83" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="F77" s="43">
+      <c r="F83" s="43">
         <f>2*30</f>
         <v>60</v>
       </c>
-      <c r="G77" s="43">
+      <c r="G83" s="43">
         <f>2*130</f>
         <v>260</v>
       </c>
-      <c r="H77" s="43">
+      <c r="H83" s="43">
         <f>2*140</f>
         <v>280</v>
       </c>
-      <c r="I77" s="43">
+      <c r="I83" s="43">
         <f>2*170</f>
         <v>340</v>
       </c>
-      <c r="J77" s="43">
+      <c r="J83" s="43">
         <f>2*60</f>
         <v>120</v>
       </c>
-      <c r="K77" s="43">
+      <c r="K83" s="43">
         <f>2*70</f>
         <v>140</v>
       </c>
     </row>
-    <row r="78" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A78" s="61"/>
-      <c r="B78" s="95" t="s">
+    <row r="84" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A84" s="92"/>
+      <c r="B84" s="150" t="s">
         <v>152</v>
       </c>
-      <c r="C78" s="43" t="s">
+      <c r="C84" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="D78" s="97">
+      <c r="D84" s="152">
         <v>2129</v>
       </c>
-      <c r="E78" s="42" t="s">
+      <c r="E84" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="F78" s="43">
+      <c r="F84" s="43">
         <f>2*130</f>
         <v>260</v>
       </c>
-      <c r="G78" s="43">
+      <c r="G84" s="43">
         <f>2*420</f>
         <v>840</v>
       </c>
-      <c r="H78" s="43">
+      <c r="H84" s="43">
         <f>2*660</f>
         <v>1320</v>
       </c>
-      <c r="I78" s="43">
+      <c r="I84" s="43">
         <f>2*650</f>
         <v>1300</v>
       </c>
-      <c r="J78" s="43">
+      <c r="J84" s="43">
         <f>2*410</f>
         <v>820</v>
       </c>
-      <c r="K78" s="43">
+      <c r="K84" s="43">
         <f>2*230</f>
         <v>460</v>
       </c>
     </row>
-    <row r="79" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A79" s="61"/>
-      <c r="B79" s="96"/>
-      <c r="C79" s="43" t="s">
+    <row r="85" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A85" s="92"/>
+      <c r="B85" s="151"/>
+      <c r="C85" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="D79" s="98"/>
-      <c r="E79" s="42" t="s">
+      <c r="D85" s="153"/>
+      <c r="E85" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="F79" s="43">
+      <c r="F85" s="43">
         <f>2*130</f>
         <v>260</v>
       </c>
-      <c r="G79" s="43">
+      <c r="G85" s="43">
         <f>2*350</f>
         <v>700</v>
       </c>
-      <c r="H79" s="43">
+      <c r="H85" s="43">
         <f>2*660</f>
         <v>1320</v>
       </c>
-      <c r="I79" s="43">
+      <c r="I85" s="43">
         <f>2*780</f>
         <v>1560</v>
       </c>
-      <c r="J79" s="43">
+      <c r="J85" s="43">
         <f>2*500</f>
         <v>1000</v>
       </c>
-      <c r="K79" s="43" t="s">
+      <c r="K85" s="43" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B88" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>2300</v>
+      </c>
+      <c r="M89">
+        <f>ROUNDUP(L89/48,0)+1</f>
+        <v>49</v>
+      </c>
+      <c r="N89" t="str" cm="1">
+        <f t="array" ref="N89">_xll.IdCombinePrintQI(M89:M91)</f>
+        <v>1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 3 3 3 3 3 3 3 3 3 3 3 3 3 3 3 3 3 3 3 3 3 3 3 3 3 3 3 3 3 3 3 3 3 3 3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90" s="92"/>
+      <c r="L90">
+        <v>2300</v>
+      </c>
+      <c r="M90">
+        <f t="shared" ref="M90:M91" si="2">ROUNDUP(L90/48,0)+1</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91" s="92"/>
+      <c r="L91">
+        <v>1600</v>
+      </c>
+      <c r="M91">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B93" s="78">
+        <v>35</v>
+      </c>
+      <c r="C93" s="78">
+        <v>36</v>
+      </c>
+      <c r="D93" s="78">
+        <v>37</v>
+      </c>
+      <c r="E93" s="78">
+        <v>38</v>
+      </c>
+      <c r="F93" s="78">
+        <v>39</v>
+      </c>
+      <c r="G93" s="78">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" s="78"/>
+      <c r="C94" s="78"/>
+      <c r="D94" s="78"/>
+      <c r="E94" s="78"/>
+      <c r="F94" s="78"/>
+      <c r="G94" s="78"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95" s="92"/>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96" s="92"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B98" s="91">
+        <v>35</v>
+      </c>
+      <c r="C98" s="91">
+        <v>36</v>
+      </c>
+      <c r="D98" s="91">
+        <v>37</v>
+      </c>
+      <c r="E98" s="91">
+        <v>38</v>
+      </c>
+      <c r="F98" s="91">
+        <v>39</v>
+      </c>
+      <c r="G98" s="91">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" s="91"/>
+      <c r="C99" s="91"/>
+      <c r="D99" s="91"/>
+      <c r="E99" s="91"/>
+      <c r="F99" s="91"/>
+      <c r="G99" s="91"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="92"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="92"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C103" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" s="78">
+        <v>35</v>
+      </c>
+      <c r="C104" s="78">
+        <v>36</v>
+      </c>
+      <c r="D104" s="78">
+        <v>37</v>
+      </c>
+      <c r="E104" s="78">
+        <v>38</v>
+      </c>
+      <c r="F104" s="78">
+        <v>39</v>
+      </c>
+      <c r="G104" s="78">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="92"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="92"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B109" s="81" t="s">
+        <v>143</v>
+      </c>
+      <c r="C109" s="39">
+        <v>34</v>
+      </c>
+      <c r="D109" s="39">
+        <v>35</v>
+      </c>
+      <c r="E109" s="39">
+        <v>36</v>
+      </c>
+      <c r="F109" s="39">
+        <v>37</v>
+      </c>
+      <c r="G109" s="39">
+        <v>38</v>
+      </c>
+      <c r="H109" s="39">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C110" s="40">
+        <v>2</v>
+      </c>
+      <c r="D110" s="87">
+        <v>2.5</v>
+      </c>
+      <c r="E110" s="40">
+        <v>3</v>
+      </c>
+      <c r="F110" s="40">
+        <v>4</v>
+      </c>
+      <c r="G110" s="40">
+        <v>5</v>
+      </c>
+      <c r="H110" s="40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="92"/>
+      <c r="B111" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C111" s="40">
+        <v>22.5</v>
+      </c>
+      <c r="D111" s="40">
+        <v>23.5</v>
+      </c>
+      <c r="E111" s="40">
+        <v>24</v>
+      </c>
+      <c r="F111" s="40">
+        <v>24.5</v>
+      </c>
+      <c r="G111" s="40">
+        <v>25.5</v>
+      </c>
+      <c r="H111" s="40">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="92"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B127" t="s">
+        <v>190</v>
+      </c>
+      <c r="C127" t="s">
+        <v>188</v>
+      </c>
+      <c r="D127" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B128" t="s">
+        <v>189</v>
+      </c>
+      <c r="C128" t="s">
+        <v>160</v>
+      </c>
+      <c r="D128" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" s="92"/>
+      <c r="B129" t="s">
+        <v>189</v>
+      </c>
+      <c r="C129" t="s">
+        <v>162</v>
+      </c>
+      <c r="D129" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" s="92"/>
+      <c r="B130" t="s">
+        <v>189</v>
+      </c>
+      <c r="C130" t="s">
+        <v>163</v>
+      </c>
+      <c r="D130" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B133" t="s">
+        <v>192</v>
+      </c>
+      <c r="C133" t="s">
+        <v>188</v>
+      </c>
+      <c r="D133" t="s">
+        <v>191</v>
+      </c>
+      <c r="E133" t="s">
+        <v>193</v>
+      </c>
+      <c r="F133" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B134" t="s">
+        <v>189</v>
+      </c>
+      <c r="C134" t="s">
+        <v>160</v>
+      </c>
+      <c r="D134" t="s">
+        <v>161</v>
+      </c>
+      <c r="E134">
+        <v>50</v>
+      </c>
+      <c r="F134">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" s="92"/>
+      <c r="B135" t="s">
+        <v>189</v>
+      </c>
+      <c r="C135" t="s">
+        <v>162</v>
+      </c>
+      <c r="D135" t="s">
+        <v>161</v>
+      </c>
+      <c r="E135">
+        <v>50</v>
+      </c>
+      <c r="F135">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" s="92"/>
+      <c r="B136" t="s">
+        <v>189</v>
+      </c>
+      <c r="C136" t="s">
+        <v>163</v>
+      </c>
+      <c r="D136" t="s">
+        <v>164</v>
+      </c>
+      <c r="E136">
+        <v>50</v>
+      </c>
+      <c r="F136">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B138" t="s">
+        <v>196</v>
+      </c>
+      <c r="C138" t="s">
+        <v>188</v>
+      </c>
+      <c r="D138">
+        <v>35</v>
+      </c>
+      <c r="E138">
+        <v>36</v>
+      </c>
+      <c r="F138">
+        <v>37</v>
+      </c>
+      <c r="G138">
+        <v>38</v>
+      </c>
+      <c r="H138">
+        <v>39</v>
+      </c>
+      <c r="I138">
+        <v>40</v>
+      </c>
+      <c r="J138" t="s">
+        <v>193</v>
+      </c>
+      <c r="K138" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B139" t="s">
+        <v>189</v>
+      </c>
+      <c r="C139" t="s">
+        <v>160</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+      <c r="E139">
+        <v>2</v>
+      </c>
+      <c r="F139">
+        <v>3</v>
+      </c>
+      <c r="G139">
+        <v>3</v>
+      </c>
+      <c r="H139">
+        <v>2</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139">
+        <v>50</v>
+      </c>
+      <c r="K139">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" s="92"/>
+      <c r="B140" t="s">
+        <v>189</v>
+      </c>
+      <c r="C140" t="s">
+        <v>162</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+      <c r="E140">
+        <v>2</v>
+      </c>
+      <c r="F140">
+        <v>3</v>
+      </c>
+      <c r="G140">
+        <v>3</v>
+      </c>
+      <c r="H140">
+        <v>2</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="J140">
+        <v>100</v>
+      </c>
+      <c r="K140">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141" s="92"/>
+      <c r="B141" t="s">
+        <v>189</v>
+      </c>
+      <c r="C141" t="s">
+        <v>163</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+      <c r="E141">
+        <v>2</v>
+      </c>
+      <c r="F141">
+        <v>3</v>
+      </c>
+      <c r="G141">
+        <v>3</v>
+      </c>
+      <c r="H141">
+        <v>2</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="J141">
+        <v>100</v>
+      </c>
+      <c r="K141">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B145" s="95" t="s">
+        <v>201</v>
+      </c>
+      <c r="C145" s="94" t="s">
+        <v>208</v>
+      </c>
+      <c r="D145" s="94"/>
+      <c r="E145" s="94"/>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146" s="92"/>
+      <c r="B146" s="95"/>
+      <c r="C146" s="93" t="s">
+        <v>177</v>
+      </c>
+      <c r="D146" s="93" t="s">
+        <v>178</v>
+      </c>
+      <c r="E146" s="93"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147" s="92"/>
+      <c r="B147" s="95"/>
+      <c r="C147" s="93"/>
+      <c r="D147" s="93"/>
+      <c r="E147" s="93"/>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" s="77"/>
+      <c r="B148" s="95"/>
+      <c r="C148" s="93" t="s">
+        <v>198</v>
+      </c>
+      <c r="D148" s="93" t="s">
+        <v>199</v>
+      </c>
+      <c r="E148" s="93" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149" s="77"/>
+      <c r="C149" s="93"/>
+      <c r="D149" s="93"/>
+      <c r="E149" s="93"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150" s="79"/>
+      <c r="C150" s="80"/>
+      <c r="D150" s="80"/>
+      <c r="E150" s="80"/>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151" s="79"/>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152" s="79"/>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B154" s="93" t="s">
+        <v>209</v>
+      </c>
+      <c r="C154" s="93" t="s">
+        <v>188</v>
+      </c>
+      <c r="D154" s="91" t="s">
+        <v>66</v>
+      </c>
+      <c r="E154" s="91"/>
+      <c r="F154" s="91"/>
+      <c r="G154" s="91"/>
+      <c r="H154" s="91"/>
+      <c r="I154" s="91"/>
+      <c r="J154" s="93"/>
+      <c r="K154" s="93"/>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155" s="92"/>
+      <c r="B155" s="93"/>
+      <c r="C155" s="93"/>
+      <c r="D155">
+        <v>35</v>
+      </c>
+      <c r="E155">
+        <v>36</v>
+      </c>
+      <c r="F155">
+        <v>37</v>
+      </c>
+      <c r="G155">
+        <v>38</v>
+      </c>
+      <c r="H155">
+        <v>39</v>
+      </c>
+      <c r="I155">
+        <v>40</v>
+      </c>
+      <c r="J155" s="93"/>
+      <c r="K155" s="93"/>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A156" s="92"/>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B160" s="93" t="s">
+        <v>224</v>
+      </c>
+      <c r="C160" s="93" t="s">
+        <v>188</v>
+      </c>
+      <c r="D160" s="91" t="s">
+        <v>66</v>
+      </c>
+      <c r="E160" s="91"/>
+      <c r="F160" s="91"/>
+      <c r="G160" s="91"/>
+      <c r="H160" s="91"/>
+      <c r="I160" s="91"/>
+      <c r="J160" s="93" t="s">
+        <v>169</v>
+      </c>
+      <c r="K160" s="93" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A161" s="92"/>
+      <c r="B161" s="93"/>
+      <c r="C161" s="93"/>
+      <c r="D161">
+        <v>35</v>
+      </c>
+      <c r="E161">
+        <v>36</v>
+      </c>
+      <c r="F161">
+        <v>37</v>
+      </c>
+      <c r="G161">
+        <v>38</v>
+      </c>
+      <c r="H161">
+        <v>39</v>
+      </c>
+      <c r="I161">
+        <v>40</v>
+      </c>
+      <c r="J161" s="93"/>
+      <c r="K161" s="93"/>
+    </row>
+    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A162" s="92"/>
+    </row>
+    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B167" s="93" t="s">
+        <v>197</v>
+      </c>
+      <c r="C167" s="93" t="s">
+        <v>188</v>
+      </c>
+      <c r="E167" s="78"/>
+      <c r="F167" s="78"/>
+      <c r="G167" s="78" t="s">
+        <v>66</v>
+      </c>
+      <c r="H167" s="78"/>
+      <c r="I167" s="78"/>
+      <c r="J167" s="93" t="s">
+        <v>193</v>
+      </c>
+      <c r="K167" s="93" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B168" s="93"/>
+      <c r="C168" s="93"/>
+      <c r="D168">
+        <v>35</v>
+      </c>
+      <c r="E168">
+        <v>36</v>
+      </c>
+      <c r="F168">
+        <v>37</v>
+      </c>
+      <c r="G168">
+        <v>38</v>
+      </c>
+      <c r="H168">
+        <v>39</v>
+      </c>
+      <c r="I168">
+        <v>40</v>
+      </c>
+      <c r="J168" s="93"/>
+      <c r="K168" s="93"/>
+    </row>
+    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A169" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B169" t="s">
+        <v>189</v>
+      </c>
+      <c r="C169" t="s">
+        <v>160</v>
+      </c>
+      <c r="D169">
+        <v>1</v>
+      </c>
+      <c r="E169">
+        <v>2</v>
+      </c>
+      <c r="F169">
+        <v>3</v>
+      </c>
+      <c r="G169">
+        <v>3</v>
+      </c>
+      <c r="H169">
+        <v>2</v>
+      </c>
+      <c r="I169">
+        <v>1</v>
+      </c>
+      <c r="J169">
+        <v>50</v>
+      </c>
+      <c r="K169">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A170" s="92"/>
+      <c r="B170" t="s">
+        <v>189</v>
+      </c>
+      <c r="C170" t="s">
+        <v>162</v>
+      </c>
+      <c r="D170">
+        <v>1</v>
+      </c>
+      <c r="E170">
+        <v>2</v>
+      </c>
+      <c r="F170">
+        <v>3</v>
+      </c>
+      <c r="G170">
+        <v>3</v>
+      </c>
+      <c r="H170">
+        <v>2</v>
+      </c>
+      <c r="I170">
+        <v>1</v>
+      </c>
+      <c r="J170">
+        <v>100</v>
+      </c>
+      <c r="K170">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A171" s="92"/>
+      <c r="B171" t="s">
+        <v>189</v>
+      </c>
+      <c r="C171" t="s">
+        <v>163</v>
+      </c>
+      <c r="D171">
+        <v>1</v>
+      </c>
+      <c r="E171">
+        <v>2</v>
+      </c>
+      <c r="F171">
+        <v>3</v>
+      </c>
+      <c r="G171">
+        <v>3</v>
+      </c>
+      <c r="H171">
+        <v>2</v>
+      </c>
+      <c r="I171">
+        <v>1</v>
+      </c>
+      <c r="J171">
+        <v>100</v>
+      </c>
+      <c r="K171">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="173" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B173" s="106" t="s">
+        <v>165</v>
+      </c>
+      <c r="C173" s="108" t="s">
         <v>166</v>
       </c>
-      <c r="C85" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="61" t="s">
+      <c r="D173" s="110" t="s">
+        <v>167</v>
+      </c>
+      <c r="E173" s="112" t="s">
+        <v>168</v>
+      </c>
+      <c r="F173" s="112" t="s">
+        <v>169</v>
+      </c>
+      <c r="G173" s="114"/>
+      <c r="H173" s="112" t="s">
+        <v>170</v>
+      </c>
+      <c r="I173" s="115">
+        <v>19</v>
+      </c>
+      <c r="J173" s="115">
+        <v>20</v>
+      </c>
+      <c r="K173" s="115">
+        <v>21</v>
+      </c>
+      <c r="L173" s="115">
+        <v>22</v>
+      </c>
+      <c r="M173" s="115">
+        <v>23</v>
+      </c>
+      <c r="N173" s="115"/>
+      <c r="O173" s="112" t="s">
+        <v>171</v>
+      </c>
+      <c r="P173" s="112" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q173" s="112" t="s">
+        <v>173</v>
+      </c>
+      <c r="R173" s="112" t="s">
+        <v>174</v>
+      </c>
+      <c r="S173" s="112" t="s">
+        <v>175</v>
+      </c>
+      <c r="T173" s="117" t="s">
+        <v>176</v>
+      </c>
+      <c r="U173" s="118"/>
+    </row>
+    <row r="174" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A174" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B86" t="s">
-        <v>161</v>
-      </c>
-      <c r="C86" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="61"/>
-      <c r="B87" t="s">
-        <v>163</v>
-      </c>
-      <c r="C87" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="61"/>
-      <c r="B88" t="s">
-        <v>164</v>
-      </c>
-      <c r="C88" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="109"/>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="109"/>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="109"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="109"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="109"/>
+      <c r="B174" s="107"/>
+      <c r="C174" s="109"/>
+      <c r="D174" s="111"/>
+      <c r="E174" s="113"/>
+      <c r="F174" s="60"/>
+      <c r="G174" s="60" t="s">
+        <v>178</v>
+      </c>
+      <c r="H174" s="113"/>
+      <c r="I174" s="113"/>
+      <c r="J174" s="113"/>
+      <c r="K174" s="113"/>
+      <c r="L174" s="113"/>
+      <c r="M174" s="113"/>
+      <c r="N174" s="113"/>
+      <c r="O174" s="116"/>
+      <c r="P174" s="113"/>
+      <c r="Q174" s="113"/>
+      <c r="R174" s="113"/>
+      <c r="S174" s="113"/>
+      <c r="T174" s="119"/>
+      <c r="U174" s="120"/>
+    </row>
+    <row r="175" spans="1:21" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A175" s="92"/>
+      <c r="B175" s="61" t="s">
+        <v>179</v>
+      </c>
+      <c r="C175" s="62" t="s">
+        <v>179</v>
+      </c>
+      <c r="D175" s="62"/>
+      <c r="E175" s="63" t="s">
+        <v>180</v>
+      </c>
+      <c r="F175" s="64" t="s">
+        <v>181</v>
+      </c>
+      <c r="G175" s="64" t="s">
+        <v>182</v>
+      </c>
+      <c r="H175" s="64"/>
+      <c r="I175" s="64">
+        <v>2</v>
+      </c>
+      <c r="J175" s="64">
+        <v>2</v>
+      </c>
+      <c r="K175" s="64">
+        <v>2</v>
+      </c>
+      <c r="L175" s="64">
+        <v>3</v>
+      </c>
+      <c r="M175" s="64">
+        <v>3</v>
+      </c>
+      <c r="N175" s="64"/>
+      <c r="O175" s="65">
+        <v>12</v>
+      </c>
+      <c r="P175" s="65">
+        <v>60</v>
+      </c>
+      <c r="Q175" s="62">
+        <f t="shared" ref="Q175:Q178" si="3">P175*O175</f>
+        <v>720</v>
+      </c>
+      <c r="R175" s="66"/>
+      <c r="S175" s="67">
+        <f t="shared" ref="S175:S178" si="4">R175*Q175</f>
+        <v>0</v>
+      </c>
+      <c r="T175" s="102"/>
+      <c r="U175" s="103"/>
+    </row>
+    <row r="176" spans="1:21" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A176" s="92"/>
+      <c r="B176" s="61" t="s">
+        <v>179</v>
+      </c>
+      <c r="C176" s="62" t="s">
+        <v>179</v>
+      </c>
+      <c r="D176" s="62"/>
+      <c r="E176" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="F176" s="64" t="s">
+        <v>181</v>
+      </c>
+      <c r="G176" s="64" t="s">
+        <v>182</v>
+      </c>
+      <c r="H176" s="64"/>
+      <c r="I176" s="64">
+        <v>2</v>
+      </c>
+      <c r="J176" s="64">
+        <v>2</v>
+      </c>
+      <c r="K176" s="64">
+        <v>2</v>
+      </c>
+      <c r="L176" s="64">
+        <v>3</v>
+      </c>
+      <c r="M176" s="64">
+        <v>3</v>
+      </c>
+      <c r="N176" s="64"/>
+      <c r="O176" s="65">
+        <v>12</v>
+      </c>
+      <c r="P176" s="65">
+        <v>300</v>
+      </c>
+      <c r="Q176" s="62">
+        <f t="shared" si="3"/>
+        <v>3600</v>
+      </c>
+      <c r="R176" s="66"/>
+      <c r="S176" s="67">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T176" s="68"/>
+      <c r="U176" s="69"/>
+    </row>
+    <row r="177" spans="1:21" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A177" s="59"/>
+      <c r="B177" s="61" t="s">
+        <v>179</v>
+      </c>
+      <c r="C177" s="62" t="s">
+        <v>179</v>
+      </c>
+      <c r="D177" s="62"/>
+      <c r="E177" s="63" t="s">
+        <v>184</v>
+      </c>
+      <c r="F177" s="64" t="s">
+        <v>181</v>
+      </c>
+      <c r="G177" s="64" t="s">
+        <v>182</v>
+      </c>
+      <c r="H177" s="64"/>
+      <c r="I177" s="64">
+        <v>2</v>
+      </c>
+      <c r="J177" s="64">
+        <v>2</v>
+      </c>
+      <c r="K177" s="64">
+        <v>2</v>
+      </c>
+      <c r="L177" s="64">
+        <v>3</v>
+      </c>
+      <c r="M177" s="64">
+        <v>3</v>
+      </c>
+      <c r="N177" s="64"/>
+      <c r="O177" s="65">
+        <v>12</v>
+      </c>
+      <c r="P177" s="65">
+        <v>150</v>
+      </c>
+      <c r="Q177" s="62">
+        <f t="shared" si="3"/>
+        <v>1800</v>
+      </c>
+      <c r="R177" s="66"/>
+      <c r="S177" s="67">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T177" s="68"/>
+      <c r="U177" s="69"/>
+    </row>
+    <row r="178" spans="1:21" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A178" s="59"/>
+      <c r="B178" s="61" t="s">
+        <v>179</v>
+      </c>
+      <c r="C178" s="62" t="s">
+        <v>179</v>
+      </c>
+      <c r="D178" s="62"/>
+      <c r="E178" s="63" t="s">
+        <v>185</v>
+      </c>
+      <c r="F178" s="64" t="s">
+        <v>181</v>
+      </c>
+      <c r="G178" s="64" t="s">
+        <v>182</v>
+      </c>
+      <c r="H178" s="64"/>
+      <c r="I178" s="64">
+        <v>2</v>
+      </c>
+      <c r="J178" s="64">
+        <v>2</v>
+      </c>
+      <c r="K178" s="64">
+        <v>2</v>
+      </c>
+      <c r="L178" s="64">
+        <v>3</v>
+      </c>
+      <c r="M178" s="64">
+        <v>3</v>
+      </c>
+      <c r="N178" s="64"/>
+      <c r="O178" s="65">
+        <v>12</v>
+      </c>
+      <c r="P178" s="65">
+        <v>90</v>
+      </c>
+      <c r="Q178" s="62">
+        <f t="shared" si="3"/>
+        <v>1080</v>
+      </c>
+      <c r="R178" s="66"/>
+      <c r="S178" s="67">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T178" s="68"/>
+      <c r="U178" s="69"/>
+    </row>
+    <row r="179" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A179" s="59"/>
+      <c r="B179" s="70" t="s">
+        <v>186</v>
+      </c>
+      <c r="C179" s="71"/>
+      <c r="D179" s="71"/>
+      <c r="E179" s="72"/>
+      <c r="F179" s="72"/>
+      <c r="G179" s="72"/>
+      <c r="H179" s="72"/>
+      <c r="I179" s="72"/>
+      <c r="J179" s="72"/>
+      <c r="K179" s="72"/>
+      <c r="L179" s="72"/>
+      <c r="M179" s="72"/>
+      <c r="N179" s="73"/>
+      <c r="O179" s="74"/>
+      <c r="P179" s="74">
+        <f t="shared" ref="P179:S179" si="5">SUM(P175:P178)</f>
+        <v>600</v>
+      </c>
+      <c r="Q179" s="71">
+        <f t="shared" si="5"/>
+        <v>7200</v>
+      </c>
+      <c r="R179" s="75"/>
+      <c r="S179" s="76">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T179" s="104"/>
+      <c r="U179" s="105"/>
+    </row>
+    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A180" s="59"/>
+    </row>
+    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A181" s="59"/>
     </row>
   </sheetData>
-  <mergeCells count="86">
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
+  <mergeCells count="145">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="C146:C147"/>
     <mergeCell ref="D39:D40"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="B57:B58"/>
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="S57:S58"/>
-    <mergeCell ref="O57:O58"/>
-    <mergeCell ref="N57:N58"/>
-    <mergeCell ref="M57:M58"/>
-    <mergeCell ref="L57:L58"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="A128:A130"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="A63:A73"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="A139:A141"/>
+    <mergeCell ref="A89:A91"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="A104:A106"/>
+    <mergeCell ref="A110:A112"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="A134:A136"/>
+    <mergeCell ref="A22:A32"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="A78:A85"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="D78:D80"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="B49:T49"/>
+    <mergeCell ref="A39:A49"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="P63:P64"/>
+    <mergeCell ref="Q63:Q64"/>
     <mergeCell ref="D22:D23"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="B22:B23"/>
-    <mergeCell ref="T57:T58"/>
-    <mergeCell ref="U57:U58"/>
-    <mergeCell ref="C59:C65"/>
-    <mergeCell ref="E59:E65"/>
-    <mergeCell ref="F59:F65"/>
-    <mergeCell ref="G59:G65"/>
-    <mergeCell ref="H59:H65"/>
-    <mergeCell ref="I59:I65"/>
-    <mergeCell ref="J59:J65"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="P59:P65"/>
-    <mergeCell ref="R59:R65"/>
-    <mergeCell ref="K61:K65"/>
-    <mergeCell ref="Q61:Q65"/>
+    <mergeCell ref="T63:T64"/>
     <mergeCell ref="B32:T32"/>
-    <mergeCell ref="A57:A67"/>
-    <mergeCell ref="A22:A32"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="A72:A79"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="D72:D74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="B49:T49"/>
-    <mergeCell ref="A39:A49"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="P57:P58"/>
-    <mergeCell ref="Q57:Q58"/>
-    <mergeCell ref="R57:R58"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
     <mergeCell ref="AB39:AB40"/>
     <mergeCell ref="AC39:AC40"/>
     <mergeCell ref="C41:C47"/>
@@ -4660,15 +6555,405 @@
     <mergeCell ref="K39:K40"/>
     <mergeCell ref="T39:T40"/>
     <mergeCell ref="U39:U40"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="A8:A16"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="U63:U64"/>
+    <mergeCell ref="C65:C71"/>
+    <mergeCell ref="E65:E71"/>
+    <mergeCell ref="F65:F71"/>
+    <mergeCell ref="G65:G71"/>
+    <mergeCell ref="H65:H71"/>
+    <mergeCell ref="I65:I71"/>
+    <mergeCell ref="J65:J71"/>
+    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="P65:P71"/>
+    <mergeCell ref="R65:R71"/>
+    <mergeCell ref="K67:K71"/>
+    <mergeCell ref="Q67:Q71"/>
+    <mergeCell ref="S63:S64"/>
+    <mergeCell ref="O63:O64"/>
+    <mergeCell ref="N63:N64"/>
+    <mergeCell ref="M63:M64"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="R63:R64"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="T175:U175"/>
+    <mergeCell ref="T179:U179"/>
+    <mergeCell ref="A174:A176"/>
+    <mergeCell ref="B173:B174"/>
+    <mergeCell ref="C173:C174"/>
+    <mergeCell ref="D173:D174"/>
+    <mergeCell ref="E173:E174"/>
+    <mergeCell ref="F173:G173"/>
+    <mergeCell ref="H173:H174"/>
+    <mergeCell ref="I173:I174"/>
+    <mergeCell ref="J173:J174"/>
+    <mergeCell ref="K173:K174"/>
+    <mergeCell ref="L173:L174"/>
+    <mergeCell ref="M173:M174"/>
+    <mergeCell ref="N173:N174"/>
+    <mergeCell ref="O173:O174"/>
+    <mergeCell ref="P173:P174"/>
+    <mergeCell ref="Q173:Q174"/>
+    <mergeCell ref="R173:R174"/>
+    <mergeCell ref="S173:S174"/>
+    <mergeCell ref="T173:U174"/>
+    <mergeCell ref="A169:A171"/>
+    <mergeCell ref="B167:B168"/>
+    <mergeCell ref="C167:C168"/>
+    <mergeCell ref="J167:J168"/>
+    <mergeCell ref="K167:K168"/>
+    <mergeCell ref="B154:B155"/>
+    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="J154:J155"/>
+    <mergeCell ref="K154:K155"/>
+    <mergeCell ref="D154:I154"/>
+    <mergeCell ref="A160:A162"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="D160:I160"/>
+    <mergeCell ref="J160:J161"/>
+    <mergeCell ref="K160:K161"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="A154:A156"/>
+    <mergeCell ref="D146:E147"/>
+    <mergeCell ref="C145:E145"/>
+    <mergeCell ref="A145:A147"/>
+    <mergeCell ref="B145:B148"/>
+    <mergeCell ref="C148:C149"/>
+    <mergeCell ref="D148:D149"/>
+    <mergeCell ref="E148:E149"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="136" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4FF10CC-5D7B-4775-B3C9-33C53A94DCE9}">
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C29" sqref="B29:C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="83" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="82" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" s="82" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="92"/>
+      <c r="B3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" s="82" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="82" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3" s="82" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="92"/>
+      <c r="B4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" s="82" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" s="82" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" s="82" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C9" t="s">
+        <v>188</v>
+      </c>
+      <c r="D9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" s="83" t="s">
+        <v>160</v>
+      </c>
+      <c r="D10" s="82" t="s">
+        <v>161</v>
+      </c>
+      <c r="E10" s="84" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="92"/>
+      <c r="B11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C11" s="82" t="s">
+        <v>162</v>
+      </c>
+      <c r="D11" s="82" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" s="84" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="92"/>
+      <c r="B12" t="s">
+        <v>189</v>
+      </c>
+      <c r="C12" s="82" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12" s="83" t="s">
+        <v>164</v>
+      </c>
+      <c r="E12" s="84" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B16" t="s">
+        <v>190</v>
+      </c>
+      <c r="C16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D16" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C17" s="83" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" s="82" t="s">
+        <v>161</v>
+      </c>
+      <c r="E17" s="82" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="92"/>
+      <c r="B18" t="s">
+        <v>189</v>
+      </c>
+      <c r="C18" s="82" t="s">
+        <v>162</v>
+      </c>
+      <c r="D18" s="82" t="s">
+        <v>161</v>
+      </c>
+      <c r="E18" s="82" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="92"/>
+      <c r="B19" t="s">
+        <v>189</v>
+      </c>
+      <c r="C19" s="84" t="s">
+        <v>163</v>
+      </c>
+      <c r="D19" s="85" t="s">
+        <v>164</v>
+      </c>
+      <c r="E19" s="84" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B22" t="s">
+        <v>190</v>
+      </c>
+      <c r="C22" s="82" t="s">
+        <v>188</v>
+      </c>
+      <c r="D22" s="82" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>189</v>
+      </c>
+      <c r="C23" s="82" t="s">
+        <v>160</v>
+      </c>
+      <c r="D23" s="82" t="s">
+        <v>161</v>
+      </c>
+      <c r="E23" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="92"/>
+      <c r="B24" t="s">
+        <v>189</v>
+      </c>
+      <c r="C24" s="86" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" s="86" t="s">
+        <v>161</v>
+      </c>
+      <c r="E24" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="92"/>
+      <c r="B25" t="s">
+        <v>189</v>
+      </c>
+      <c r="C25" s="84" t="s">
+        <v>163</v>
+      </c>
+      <c r="D25" s="85" t="s">
+        <v>164</v>
+      </c>
+      <c r="E25" s="84" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B27" t="s">
+        <v>190</v>
+      </c>
+      <c r="C27" t="s">
+        <v>188</v>
+      </c>
+      <c r="D27" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>189</v>
+      </c>
+      <c r="C28" t="s">
+        <v>160</v>
+      </c>
+      <c r="D28" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="92"/>
+      <c r="B29" s="82" t="s">
+        <v>189</v>
+      </c>
+      <c r="C29" s="88" t="s">
+        <v>162</v>
+      </c>
+      <c r="D29" s="86" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="92"/>
+      <c r="B30" s="82" t="s">
+        <v>189</v>
+      </c>
+      <c r="C30" s="82" t="s">
+        <v>163</v>
+      </c>
+      <c r="D30" s="89" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A28:A30"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tests/ExcelProcesser.Tests/resources/testData.xlsx
+++ b/tests/ExcelProcesser.Tests/resources/testData.xlsx
@@ -1,17 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24122"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE468E79-ABA7-41E3-BD2E-694C25323A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24613"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92D32C6-A49A-447F-9FC6-EBC212B5B519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matrix" sheetId="1" r:id="rId1"/>
     <sheet name="Math" sheetId="2" r:id="rId2"/>
-    <sheet name="Sematics" sheetId="3" r:id="rId3"/>
-    <sheet name="ReRange" sheetId="4" r:id="rId4"/>
+    <sheet name="Sematics_Back" sheetId="3" r:id="rId3"/>
+    <sheet name="Sematics_Normal" sheetId="5" r:id="rId4"/>
+    <sheet name="Sematics_RangeInHeaders" sheetId="6" r:id="rId5"/>
+    <sheet name="ReRange" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="264">
   <si>
     <t>Input</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -920,80 +922,229 @@
     <t>one row Table3</t>
   </si>
   <si>
+    <t>Table4Headers</t>
+  </si>
+  <si>
+    <t>one row Table4</t>
+  </si>
+  <si>
+    <t>Table4NH2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table4Headers_Art</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupingColumnHeader1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupingColumnHeader2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupingColumnHeader3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupingColumnHeader4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>reRangeToEnd</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>reRangeTo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>reRange_RowBy_ColumnToEnd 2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TopArea</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupingColumnHeader5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftArea</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table4Headers2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table4Headers2_Art</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>Table4NormalHeaders</t>
-  </si>
-  <si>
-    <t>Table4Headers</t>
-  </si>
-  <si>
-    <t>one row Table4</t>
-  </si>
-  <si>
-    <t>Table4NH2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Table4Headers_Art</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>groupingColumnHeader1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>groupingColumnHeader2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>groupingColumnHeader3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>groupingColumnHeader4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>reRangeToEnd</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>reRangeTo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>reRange_RowBy_ColumnToEnd 2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TopArea</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>groupingColumnHeader5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LeftArea</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Table4Headers2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Table4Headers2_Art</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meged</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D6:E6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞋 舌3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Red</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blue</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>White</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Black</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Navy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>尺码/数量（张）</t>
+  </si>
+  <si>
+    <t>尺码</t>
+  </si>
+  <si>
+    <t>08/21</t>
+  </si>
+  <si>
+    <t>07/21</t>
+  </si>
+  <si>
+    <t>Pivot Table1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pivot Table Headers1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal Columns1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multiple Rows Headers1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal Columns1 Test</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multiple Rows Headers1 Test</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pivot Table Headers1 Test</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pivot Table1 Test</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mxMany1Op</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mxMany1Op_Starter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cm_op_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cm_op_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cm_op_3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cm_op_4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContentsTable</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OneColumnContentsTableHeader</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MultipleContentsTableHeader</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1206,7 +1357,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1288,8 +1439,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="36">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1712,6 +1905,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1740,7 +1992,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
@@ -1979,12 +2231,100 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="26" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="3" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2194,6 +2534,54 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="40" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -2207,7 +2595,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Number" xfId="4" xr:uid="{2D041BF4-1455-4CE8-B095-13490AFABE14}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2445,6 +2841,108 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>960120</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>373380</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F33CB1B2-9A75-465C-AD4F-37FA8584DC12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8557260" y="5204460"/>
+          <a:ext cx="510540" cy="198120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0F020B5E-AB10-460E-8E84-A3316A230B16}" name="Table1" displayName="Table1" ref="B22:E33" totalsRowShown="0">
+  <autoFilter ref="B22:E33" xr:uid="{0F020B5E-AB10-460E-8E84-A3316A230B16}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{914BC0A9-A83E-4F09-A4B0-42ED4A433594}" name="MultipleContentsTableHeader"/>
+    <tableColumn id="2" xr3:uid="{5C34AD47-38CC-478C-95F2-4BD19DE6D543}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{44D097E3-4E64-466B-AA25-CA6E7E0CFFA7}" name="Column3"/>
+    <tableColumn id="4" xr3:uid="{5EEBD59D-1A0A-47EF-A37B-CC165B40FB6E}" name="Column4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AC35E9F7-9932-487D-A5EA-0AAB04ED34E6}" name="Table13" displayName="Table13" ref="B36:B45" totalsRowShown="0" tableBorderDxfId="0">
+  <autoFilter ref="B36:B45" xr:uid="{AC35E9F7-9932-487D-A5EA-0AAB04ED34E6}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{E84AD391-C107-49BB-B1A6-E3BBE69CBD64}" name="OneColumnContentsTableHeader"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2710,10 +3208,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I117"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:J123"/>
   <sheetViews>
     <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+      <selection activeCell="J102" sqref="J102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2747,14 +3246,14 @@
       <c r="C6" t="s">
         <v>156</v>
       </c>
-      <c r="D6" s="91" t="s">
+      <c r="D6" s="113" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="91"/>
-      <c r="G6" s="91" t="s">
+      <c r="E6" s="113"/>
+      <c r="G6" s="113" t="s">
         <v>76</v>
       </c>
-      <c r="H6" s="91"/>
+      <c r="H6" s="113"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -2813,7 +3312,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="90" t="s">
+      <c r="A22" s="112" t="s">
         <v>0</v>
       </c>
       <c r="B22" t="s">
@@ -2821,7 +3320,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="90"/>
+      <c r="A23" s="112"/>
       <c r="B23" t="s">
         <v>8</v>
       </c>
@@ -2832,7 +3331,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="90" t="s">
+      <c r="A27" s="112" t="s">
         <v>0</v>
       </c>
       <c r="B27" t="s">
@@ -2840,13 +3339,13 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="90"/>
+      <c r="A28" s="112"/>
       <c r="B28" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="90"/>
+      <c r="A29" s="112"/>
       <c r="B29" t="s">
         <v>16</v>
       </c>
@@ -2857,7 +3356,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="90" t="s">
+      <c r="A32" s="112" t="s">
         <v>0</v>
       </c>
       <c r="B32" t="s">
@@ -2871,10 +3370,10 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="90"/>
+      <c r="A33" s="112"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="90"/>
+      <c r="A34" s="112"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -2882,7 +3381,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="90" t="s">
+      <c r="A37" s="112" t="s">
         <v>0</v>
       </c>
       <c r="B37" t="s">
@@ -2893,13 +3392,13 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="90"/>
+      <c r="A38" s="112"/>
       <c r="C38" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="90"/>
+      <c r="A39" s="112"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
@@ -2907,7 +3406,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="90" t="s">
+      <c r="A42" s="112" t="s">
         <v>0</v>
       </c>
       <c r="B42" t="s">
@@ -2918,13 +3417,13 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="90"/>
+      <c r="A43" s="112"/>
       <c r="B43" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="90"/>
+      <c r="A44" s="112"/>
       <c r="B44" t="s">
         <v>20</v>
       </c>
@@ -2935,7 +3434,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="90" t="s">
+      <c r="A48" s="112" t="s">
         <v>0</v>
       </c>
       <c r="B48" t="s">
@@ -2946,13 +3445,13 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="90"/>
+      <c r="A49" s="112"/>
       <c r="B49" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="90"/>
+      <c r="A50" s="112"/>
       <c r="B50" t="s">
         <v>25</v>
       </c>
@@ -2963,7 +3462,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="90" t="s">
+      <c r="A53" s="112" t="s">
         <v>0</v>
       </c>
       <c r="B53" s="31" t="s">
@@ -2977,7 +3476,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="90"/>
+      <c r="A54" s="112"/>
       <c r="B54" s="35" t="s">
         <v>114</v>
       </c>
@@ -2989,7 +3488,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="90"/>
+      <c r="A55" s="112"/>
       <c r="B55" s="35" t="s">
         <v>115</v>
       </c>
@@ -2998,7 +3497,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="90"/>
+      <c r="A56" s="112"/>
       <c r="B56" s="32" t="s">
         <v>117</v>
       </c>
@@ -3009,7 +3508,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="90" t="s">
+      <c r="A59" s="112" t="s">
         <v>0</v>
       </c>
       <c r="B59" t="s">
@@ -3020,13 +3519,13 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="90"/>
+      <c r="A60" s="112"/>
       <c r="C60" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="90"/>
+      <c r="A61" s="112"/>
       <c r="C61" t="s">
         <v>37</v>
       </c>
@@ -3132,7 +3631,7 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="90" t="s">
+      <c r="A80" s="112" t="s">
         <v>0</v>
       </c>
       <c r="B80" t="s">
@@ -3149,10 +3648,10 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="90"/>
+      <c r="A81" s="112"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="90"/>
+      <c r="A82" s="112"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
@@ -3160,7 +3659,7 @@
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="90" t="s">
+      <c r="A87" s="112" t="s">
         <v>0</v>
       </c>
       <c r="B87" t="s">
@@ -3168,19 +3667,19 @@
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="90"/>
+      <c r="A88" s="112"/>
       <c r="B88" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="90"/>
+      <c r="A89" s="112"/>
       <c r="B89" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="90"/>
+      <c r="A90" s="112"/>
       <c r="B90" t="s">
         <v>59</v>
       </c>
@@ -3191,7 +3690,7 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="90" t="s">
+      <c r="A95" s="112" t="s">
         <v>0</v>
       </c>
       <c r="B95" t="s">
@@ -3208,74 +3707,74 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="90"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="90"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="112"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="112"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="112" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>252</v>
+      </c>
+      <c r="D101" t="s">
+        <v>253</v>
+      </c>
+      <c r="E101" t="s">
+        <v>254</v>
+      </c>
+      <c r="G101" t="s">
+        <v>255</v>
+      </c>
+      <c r="J101" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="112"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="112"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="90" t="s">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B107" t="s">
         <v>78</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C107" t="s">
         <v>79</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D107" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="90"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="90"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="B109" t="s">
-        <v>61</v>
-      </c>
-      <c r="D109" t="s">
-        <v>62</v>
-      </c>
-      <c r="E109" t="s">
-        <v>63</v>
-      </c>
-      <c r="H109" t="s">
-        <v>64</v>
-      </c>
-      <c r="I109" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="90"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="90"/>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="112"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="112"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>155</v>
+        <v>60</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="90" t="s">
+      <c r="A115" s="112" t="s">
         <v>0</v>
       </c>
       <c r="B115" t="s">
@@ -3295,18 +3794,47 @@
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="90"/>
+      <c r="A116" s="112"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="90"/>
+      <c r="A117" s="112"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" s="112" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121" t="s">
+        <v>61</v>
+      </c>
+      <c r="D121" t="s">
+        <v>62</v>
+      </c>
+      <c r="E121" t="s">
+        <v>63</v>
+      </c>
+      <c r="H121" t="s">
+        <v>64</v>
+      </c>
+      <c r="I121" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" s="112"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="112"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A115:A117"/>
-    <mergeCell ref="D6:E6"/>
+  <mergeCells count="17">
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="A101:A103"/>
-    <mergeCell ref="A109:A111"/>
+    <mergeCell ref="A115:A117"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A42:A44"/>
@@ -3318,6 +3846,9 @@
     <mergeCell ref="A37:A39"/>
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="A53:A56"/>
+    <mergeCell ref="A107:A109"/>
+    <mergeCell ref="A121:A123"/>
+    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3327,6 +3858,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{171B277E-1E9C-4949-8C4C-5EFD188DCF86}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3341,7 +3873,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="112" t="s">
         <v>0</v>
       </c>
       <c r="B2">
@@ -3349,16 +3881,16 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="90"/>
+      <c r="A3" s="112"/>
       <c r="B3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="90"/>
+      <c r="A4" s="112"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="90"/>
+      <c r="A5" s="112"/>
       <c r="B5">
         <f>SUM(B2:B3)</f>
         <v>3</v>
@@ -3375,10 +3907,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47900B11-AE46-4148-92BB-2515463F524D}">
-  <dimension ref="A1:AC181"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:AC230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C160" sqref="C160:C161"/>
+    <sheetView topLeftCell="A181" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C177" sqref="C177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3396,23 +3929,23 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="147" t="s">
+      <c r="B2" s="177" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="146"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="178"/>
+      <c r="I2" s="179"/>
+      <c r="J2" s="176"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="92"/>
+      <c r="A3" s="122"/>
       <c r="B3" s="3">
         <v>28</v>
       </c>
@@ -3437,7 +3970,7 @@
       <c r="I3" s="3">
         <v>35</v>
       </c>
-      <c r="J3" s="146"/>
+      <c r="J3" s="176"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -3445,22 +3978,22 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="92" t="s">
+      <c r="A8" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="147" t="s">
+      <c r="B8" s="177" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="148"/>
-      <c r="D8" s="148"/>
-      <c r="E8" s="148"/>
-      <c r="F8" s="148"/>
-      <c r="G8" s="148"/>
-      <c r="H8" s="148"/>
-      <c r="I8" s="149"/>
+      <c r="C8" s="178"/>
+      <c r="D8" s="178"/>
+      <c r="E8" s="178"/>
+      <c r="F8" s="178"/>
+      <c r="G8" s="178"/>
+      <c r="H8" s="178"/>
+      <c r="I8" s="179"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="92"/>
+      <c r="A9" s="122"/>
       <c r="B9" s="3">
         <v>28</v>
       </c>
@@ -3487,7 +4020,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="92"/>
+      <c r="A10" s="122"/>
       <c r="B10" s="4">
         <v>1</v>
       </c>
@@ -3514,7 +4047,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="92"/>
+      <c r="A11" s="122"/>
       <c r="B11" s="4">
         <v>1</v>
       </c>
@@ -3541,7 +4074,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="92"/>
+      <c r="A12" s="122"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4">
@@ -3554,7 +4087,7 @@
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="92"/>
+      <c r="A13" s="122"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="4"/>
@@ -3567,7 +4100,7 @@
       <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="92"/>
+      <c r="A14" s="122"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -3580,7 +4113,7 @@
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="92"/>
+      <c r="A15" s="122"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -3593,7 +4126,7 @@
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="92"/>
+      <c r="A16" s="122"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -3609,16 +4142,16 @@
       <c r="A20" s="1"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A22" s="92" t="s">
+      <c r="A22" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="158" t="s">
+      <c r="B22" s="188" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="140" t="s">
+      <c r="C22" s="170" t="s">
         <v>112</v>
       </c>
-      <c r="D22" s="121" t="s">
+      <c r="D22" s="151" t="s">
         <v>113</v>
       </c>
       <c r="E22" s="56"/>
@@ -3631,10 +4164,10 @@
       <c r="L22" s="58"/>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A23" s="92"/>
-      <c r="B23" s="159"/>
-      <c r="C23" s="141"/>
-      <c r="D23" s="122"/>
+      <c r="A23" s="122"/>
+      <c r="B23" s="189"/>
+      <c r="C23" s="171"/>
+      <c r="D23" s="152"/>
       <c r="E23" s="3">
         <v>28</v>
       </c>
@@ -3661,7 +4194,7 @@
       </c>
     </row>
     <row r="24" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="92"/>
+      <c r="A24" s="122"/>
       <c r="C24" s="36">
         <v>2040</v>
       </c>
@@ -3694,7 +4227,7 @@
       </c>
     </row>
     <row r="25" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="92"/>
+      <c r="A25" s="122"/>
       <c r="B25" s="47"/>
       <c r="C25" s="48">
         <v>980</v>
@@ -3728,7 +4261,7 @@
       </c>
     </row>
     <row r="26" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="92"/>
+      <c r="A26" s="122"/>
       <c r="B26" s="46"/>
       <c r="C26" s="36">
         <v>96</v>
@@ -3748,7 +4281,7 @@
       <c r="L26" s="5"/>
     </row>
     <row r="27" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="92"/>
+      <c r="A27" s="122"/>
       <c r="B27" s="46">
         <v>16501</v>
       </c>
@@ -3770,7 +4303,7 @@
       <c r="L27" s="5"/>
     </row>
     <row r="28" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="92"/>
+      <c r="A28" s="122"/>
       <c r="B28" s="46"/>
       <c r="C28" s="36">
         <v>96</v>
@@ -3790,7 +4323,7 @@
       <c r="L28" s="6"/>
     </row>
     <row r="29" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="92"/>
+      <c r="A29" s="122"/>
       <c r="B29" s="46"/>
       <c r="C29" s="36">
         <v>96</v>
@@ -3810,7 +4343,7 @@
       <c r="L29" s="6"/>
     </row>
     <row r="30" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="92"/>
+      <c r="A30" s="122"/>
       <c r="B30" s="46"/>
       <c r="C30" s="36">
         <v>96</v>
@@ -3830,7 +4363,7 @@
       <c r="L30" s="6"/>
     </row>
     <row r="31" spans="1:29" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A31" s="92"/>
+      <c r="A31" s="122"/>
       <c r="C31">
         <f>SUM(C24:C30)</f>
         <v>3500</v>
@@ -3847,26 +4380,26 @@
       </c>
     </row>
     <row r="32" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A32" s="92"/>
-      <c r="B32" s="155"/>
-      <c r="C32" s="156"/>
-      <c r="D32" s="156"/>
-      <c r="E32" s="156"/>
-      <c r="F32" s="156"/>
-      <c r="G32" s="156"/>
-      <c r="H32" s="156"/>
-      <c r="I32" s="156"/>
-      <c r="J32" s="156"/>
-      <c r="K32" s="156"/>
-      <c r="L32" s="156"/>
-      <c r="M32" s="156"/>
-      <c r="N32" s="156"/>
-      <c r="O32" s="156"/>
-      <c r="P32" s="156"/>
-      <c r="Q32" s="156"/>
-      <c r="R32" s="156"/>
-      <c r="S32" s="156"/>
-      <c r="T32" s="157"/>
+      <c r="A32" s="122"/>
+      <c r="B32" s="185"/>
+      <c r="C32" s="186"/>
+      <c r="D32" s="186"/>
+      <c r="E32" s="186"/>
+      <c r="F32" s="186"/>
+      <c r="G32" s="186"/>
+      <c r="H32" s="186"/>
+      <c r="I32" s="186"/>
+      <c r="J32" s="186"/>
+      <c r="K32" s="186"/>
+      <c r="L32" s="186"/>
+      <c r="M32" s="186"/>
+      <c r="N32" s="186"/>
+      <c r="O32" s="186"/>
+      <c r="P32" s="186"/>
+      <c r="Q32" s="186"/>
+      <c r="R32" s="186"/>
+      <c r="S32" s="186"/>
+      <c r="T32" s="187"/>
       <c r="U32" s="15"/>
       <c r="V32" s="15"/>
       <c r="W32" s="26"/>
@@ -3885,37 +4418,37 @@
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A39" s="92" t="s">
+      <c r="A39" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="158" t="s">
+      <c r="B39" s="188" t="s">
         <v>111</v>
       </c>
-      <c r="C39" s="100" t="s">
+      <c r="C39" s="130" t="s">
         <v>81</v>
       </c>
-      <c r="D39" s="160" t="s">
+      <c r="D39" s="190" t="s">
         <v>82</v>
       </c>
-      <c r="E39" s="100" t="s">
+      <c r="E39" s="130" t="s">
         <v>83</v>
       </c>
-      <c r="F39" s="100" t="s">
+      <c r="F39" s="130" t="s">
         <v>84</v>
       </c>
-      <c r="G39" s="98" t="s">
+      <c r="G39" s="128" t="s">
         <v>85</v>
       </c>
-      <c r="H39" s="100" t="s">
+      <c r="H39" s="130" t="s">
         <v>86</v>
       </c>
-      <c r="I39" s="98" t="s">
+      <c r="I39" s="128" t="s">
         <v>87</v>
       </c>
-      <c r="J39" s="100" t="s">
+      <c r="J39" s="130" t="s">
         <v>88</v>
       </c>
-      <c r="K39" s="100" t="s">
+      <c r="K39" s="130" t="s">
         <v>89</v>
       </c>
       <c r="L39" s="56"/>
@@ -3926,49 +4459,49 @@
       <c r="Q39" s="57"/>
       <c r="R39" s="57"/>
       <c r="S39" s="58"/>
-      <c r="T39" s="100" t="s">
+      <c r="T39" s="130" t="s">
         <v>90</v>
       </c>
-      <c r="U39" s="100" t="s">
+      <c r="U39" s="130" t="s">
         <v>91</v>
       </c>
-      <c r="V39" s="140" t="s">
+      <c r="V39" s="170" t="s">
         <v>112</v>
       </c>
-      <c r="W39" s="138" t="s">
+      <c r="W39" s="168" t="s">
         <v>92</v>
       </c>
-      <c r="X39" s="142" t="s">
+      <c r="X39" s="172" t="s">
         <v>93</v>
       </c>
-      <c r="Y39" s="144" t="s">
+      <c r="Y39" s="174" t="s">
         <v>94</v>
       </c>
-      <c r="Z39" s="96" t="s">
+      <c r="Z39" s="126" t="s">
         <v>95</v>
       </c>
-      <c r="AA39" s="136" t="s">
+      <c r="AA39" s="166" t="s">
         <v>96</v>
       </c>
-      <c r="AB39" s="136" t="s">
+      <c r="AB39" s="166" t="s">
         <v>97</v>
       </c>
-      <c r="AC39" s="121" t="s">
+      <c r="AC39" s="151" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A40" s="92"/>
-      <c r="B40" s="159"/>
-      <c r="C40" s="101"/>
-      <c r="D40" s="161"/>
-      <c r="E40" s="101"/>
-      <c r="F40" s="101"/>
-      <c r="G40" s="99"/>
-      <c r="H40" s="101"/>
-      <c r="I40" s="99"/>
-      <c r="J40" s="101"/>
-      <c r="K40" s="101"/>
+      <c r="A40" s="122"/>
+      <c r="B40" s="189"/>
+      <c r="C40" s="131"/>
+      <c r="D40" s="191"/>
+      <c r="E40" s="131"/>
+      <c r="F40" s="131"/>
+      <c r="G40" s="129"/>
+      <c r="H40" s="131"/>
+      <c r="I40" s="129"/>
+      <c r="J40" s="131"/>
+      <c r="K40" s="131"/>
       <c r="L40" s="3">
         <v>28</v>
       </c>
@@ -3993,42 +4526,42 @@
       <c r="S40" s="3">
         <v>35</v>
       </c>
-      <c r="T40" s="101"/>
-      <c r="U40" s="101"/>
-      <c r="V40" s="141"/>
-      <c r="W40" s="139"/>
-      <c r="X40" s="143"/>
-      <c r="Y40" s="145"/>
-      <c r="Z40" s="97"/>
-      <c r="AA40" s="137"/>
-      <c r="AB40" s="137"/>
-      <c r="AC40" s="122"/>
+      <c r="T40" s="131"/>
+      <c r="U40" s="131"/>
+      <c r="V40" s="171"/>
+      <c r="W40" s="169"/>
+      <c r="X40" s="173"/>
+      <c r="Y40" s="175"/>
+      <c r="Z40" s="127"/>
+      <c r="AA40" s="167"/>
+      <c r="AB40" s="167"/>
+      <c r="AC40" s="152"/>
     </row>
     <row r="41" spans="1:29" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A41" s="92"/>
-      <c r="C41" s="123">
+      <c r="A41" s="122"/>
+      <c r="C41" s="153">
         <v>91338035</v>
       </c>
       <c r="D41" s="7">
         <v>532325</v>
       </c>
-      <c r="E41" s="123" t="s">
+      <c r="E41" s="153" t="s">
         <v>98</v>
       </c>
-      <c r="F41" s="126" t="s">
+      <c r="F41" s="156" t="s">
         <v>99</v>
       </c>
-      <c r="G41" s="123" t="s">
+      <c r="G41" s="153" t="s">
         <v>99</v>
       </c>
-      <c r="H41" s="123"/>
-      <c r="I41" s="126" t="s">
+      <c r="H41" s="153"/>
+      <c r="I41" s="156" t="s">
         <v>100</v>
       </c>
-      <c r="J41" s="126" t="s">
+      <c r="J41" s="156" t="s">
         <v>101</v>
       </c>
-      <c r="K41" s="126" t="s">
+      <c r="K41" s="156" t="s">
         <v>126</v>
       </c>
       <c r="L41" s="4">
@@ -4068,13 +4601,13 @@
       <c r="W41" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="X41" s="129" t="s">
+      <c r="X41" s="159" t="s">
         <v>103</v>
       </c>
       <c r="Y41" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="Z41" s="131">
+      <c r="Z41" s="161">
         <v>43171</v>
       </c>
       <c r="AA41" s="12"/>
@@ -4085,19 +4618,19 @@
       </c>
     </row>
     <row r="42" spans="1:29" s="45" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A42" s="92"/>
+      <c r="A42" s="122"/>
       <c r="B42" s="47"/>
-      <c r="C42" s="124"/>
+      <c r="C42" s="154"/>
       <c r="D42" s="48">
         <v>532326</v>
       </c>
-      <c r="E42" s="124"/>
-      <c r="F42" s="127"/>
-      <c r="G42" s="124"/>
-      <c r="H42" s="124"/>
-      <c r="I42" s="127"/>
-      <c r="J42" s="127"/>
-      <c r="K42" s="127"/>
+      <c r="E42" s="154"/>
+      <c r="F42" s="157"/>
+      <c r="G42" s="154"/>
+      <c r="H42" s="154"/>
+      <c r="I42" s="157"/>
+      <c r="J42" s="157"/>
+      <c r="K42" s="157"/>
       <c r="L42" s="49">
         <v>1</v>
       </c>
@@ -4135,11 +4668,11 @@
       <c r="W42" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="X42" s="130"/>
+      <c r="X42" s="160"/>
       <c r="Y42" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="Z42" s="132"/>
+      <c r="Z42" s="162"/>
       <c r="AA42" s="54"/>
       <c r="AB42" s="54"/>
       <c r="AC42" s="55">
@@ -4148,19 +4681,19 @@
       </c>
     </row>
     <row r="43" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A43" s="92"/>
+      <c r="A43" s="122"/>
       <c r="B43" s="46"/>
-      <c r="C43" s="124"/>
+      <c r="C43" s="154"/>
       <c r="D43" s="7">
         <v>533180</v>
       </c>
-      <c r="E43" s="124"/>
-      <c r="F43" s="127"/>
-      <c r="G43" s="124"/>
-      <c r="H43" s="124"/>
-      <c r="I43" s="127"/>
-      <c r="J43" s="127"/>
-      <c r="K43" s="127" t="s">
+      <c r="E43" s="154"/>
+      <c r="F43" s="157"/>
+      <c r="G43" s="154"/>
+      <c r="H43" s="154"/>
+      <c r="I43" s="157"/>
+      <c r="J43" s="157"/>
+      <c r="K43" s="157" t="s">
         <v>127</v>
       </c>
       <c r="L43" s="4"/>
@@ -4186,11 +4719,11 @@
       <c r="W43" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="X43" s="130"/>
-      <c r="Y43" s="134" t="s">
+      <c r="X43" s="160"/>
+      <c r="Y43" s="164" t="s">
         <v>108</v>
       </c>
-      <c r="Z43" s="132"/>
+      <c r="Z43" s="162"/>
       <c r="AA43" s="12"/>
       <c r="AB43" s="12"/>
       <c r="AC43" s="13">
@@ -4199,21 +4732,21 @@
       </c>
     </row>
     <row r="44" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A44" s="92"/>
+      <c r="A44" s="122"/>
       <c r="B44" s="46">
         <v>16501</v>
       </c>
-      <c r="C44" s="124"/>
+      <c r="C44" s="154"/>
       <c r="D44" s="7">
         <v>533181</v>
       </c>
-      <c r="E44" s="124"/>
-      <c r="F44" s="127"/>
-      <c r="G44" s="124"/>
-      <c r="H44" s="124"/>
-      <c r="I44" s="127"/>
-      <c r="J44" s="127"/>
-      <c r="K44" s="127"/>
+      <c r="E44" s="154"/>
+      <c r="F44" s="157"/>
+      <c r="G44" s="154"/>
+      <c r="H44" s="154"/>
+      <c r="I44" s="157"/>
+      <c r="J44" s="157"/>
+      <c r="K44" s="157"/>
       <c r="L44" s="4"/>
       <c r="M44" s="5"/>
       <c r="N44" s="4"/>
@@ -4237,9 +4770,9 @@
       <c r="W44" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="X44" s="130"/>
-      <c r="Y44" s="135"/>
-      <c r="Z44" s="132"/>
+      <c r="X44" s="160"/>
+      <c r="Y44" s="165"/>
+      <c r="Z44" s="162"/>
       <c r="AA44" s="12"/>
       <c r="AB44" s="12"/>
       <c r="AC44" s="13">
@@ -4248,19 +4781,19 @@
       </c>
     </row>
     <row r="45" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A45" s="92"/>
+      <c r="A45" s="122"/>
       <c r="B45" s="46"/>
-      <c r="C45" s="124"/>
+      <c r="C45" s="154"/>
       <c r="D45" s="7">
         <v>533182</v>
       </c>
-      <c r="E45" s="124"/>
-      <c r="F45" s="127"/>
-      <c r="G45" s="124"/>
-      <c r="H45" s="124"/>
-      <c r="I45" s="127"/>
-      <c r="J45" s="127"/>
-      <c r="K45" s="127"/>
+      <c r="E45" s="154"/>
+      <c r="F45" s="157"/>
+      <c r="G45" s="154"/>
+      <c r="H45" s="154"/>
+      <c r="I45" s="157"/>
+      <c r="J45" s="157"/>
+      <c r="K45" s="157"/>
       <c r="L45" s="4"/>
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
@@ -4284,9 +4817,9 @@
       <c r="W45" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="X45" s="130"/>
-      <c r="Y45" s="135"/>
-      <c r="Z45" s="132"/>
+      <c r="X45" s="160"/>
+      <c r="Y45" s="165"/>
+      <c r="Z45" s="162"/>
       <c r="AA45" s="12"/>
       <c r="AB45" s="12"/>
       <c r="AC45" s="13">
@@ -4295,19 +4828,19 @@
       </c>
     </row>
     <row r="46" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A46" s="92"/>
+      <c r="A46" s="122"/>
       <c r="B46" s="46"/>
-      <c r="C46" s="124"/>
+      <c r="C46" s="154"/>
       <c r="D46" s="36">
         <v>533183</v>
       </c>
-      <c r="E46" s="124"/>
-      <c r="F46" s="127"/>
-      <c r="G46" s="124"/>
-      <c r="H46" s="124"/>
-      <c r="I46" s="127"/>
-      <c r="J46" s="127"/>
-      <c r="K46" s="127"/>
+      <c r="E46" s="154"/>
+      <c r="F46" s="157"/>
+      <c r="G46" s="154"/>
+      <c r="H46" s="154"/>
+      <c r="I46" s="157"/>
+      <c r="J46" s="157"/>
+      <c r="K46" s="157"/>
       <c r="L46" s="4"/>
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
@@ -4331,9 +4864,9 @@
       <c r="W46" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="X46" s="130"/>
-      <c r="Y46" s="135"/>
-      <c r="Z46" s="132"/>
+      <c r="X46" s="160"/>
+      <c r="Y46" s="165"/>
+      <c r="Z46" s="162"/>
       <c r="AA46" s="12"/>
       <c r="AB46" s="12"/>
       <c r="AC46" s="13">
@@ -4342,19 +4875,19 @@
       </c>
     </row>
     <row r="47" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A47" s="92"/>
+      <c r="A47" s="122"/>
       <c r="B47" s="46"/>
-      <c r="C47" s="125"/>
+      <c r="C47" s="155"/>
       <c r="D47" s="36">
         <v>533184</v>
       </c>
-      <c r="E47" s="125"/>
-      <c r="F47" s="128"/>
-      <c r="G47" s="125"/>
-      <c r="H47" s="125"/>
-      <c r="I47" s="128"/>
-      <c r="J47" s="128"/>
-      <c r="K47" s="128"/>
+      <c r="E47" s="155"/>
+      <c r="F47" s="158"/>
+      <c r="G47" s="155"/>
+      <c r="H47" s="155"/>
+      <c r="I47" s="158"/>
+      <c r="J47" s="158"/>
+      <c r="K47" s="158"/>
       <c r="L47" s="4"/>
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
@@ -4378,9 +4911,9 @@
       <c r="W47" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="X47" s="130"/>
-      <c r="Y47" s="135"/>
-      <c r="Z47" s="133"/>
+      <c r="X47" s="160"/>
+      <c r="Y47" s="165"/>
+      <c r="Z47" s="163"/>
       <c r="AA47" s="12"/>
       <c r="AB47" s="12"/>
       <c r="AC47" s="13">
@@ -4389,7 +4922,7 @@
       </c>
     </row>
     <row r="48" spans="1:29" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A48" s="92"/>
+      <c r="A48" s="122"/>
       <c r="W48" s="14"/>
       <c r="X48" s="16"/>
       <c r="Y48" s="17"/>
@@ -4408,26 +4941,26 @@
       </c>
     </row>
     <row r="49" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A49" s="92"/>
-      <c r="B49" s="155"/>
-      <c r="C49" s="156"/>
-      <c r="D49" s="156"/>
-      <c r="E49" s="156"/>
-      <c r="F49" s="156"/>
-      <c r="G49" s="156"/>
-      <c r="H49" s="156"/>
-      <c r="I49" s="156"/>
-      <c r="J49" s="156"/>
-      <c r="K49" s="156"/>
-      <c r="L49" s="156"/>
-      <c r="M49" s="156"/>
-      <c r="N49" s="156"/>
-      <c r="O49" s="156"/>
-      <c r="P49" s="156"/>
-      <c r="Q49" s="156"/>
-      <c r="R49" s="156"/>
-      <c r="S49" s="156"/>
-      <c r="T49" s="157"/>
+      <c r="A49" s="122"/>
+      <c r="B49" s="185"/>
+      <c r="C49" s="186"/>
+      <c r="D49" s="186"/>
+      <c r="E49" s="186"/>
+      <c r="F49" s="186"/>
+      <c r="G49" s="186"/>
+      <c r="H49" s="186"/>
+      <c r="I49" s="186"/>
+      <c r="J49" s="186"/>
+      <c r="K49" s="186"/>
+      <c r="L49" s="186"/>
+      <c r="M49" s="186"/>
+      <c r="N49" s="186"/>
+      <c r="O49" s="186"/>
+      <c r="P49" s="186"/>
+      <c r="Q49" s="186"/>
+      <c r="R49" s="186"/>
+      <c r="S49" s="186"/>
+      <c r="T49" s="187"/>
       <c r="U49" s="15"/>
       <c r="V49" s="15">
         <f>SUM(V41:V47)</f>
@@ -4474,67 +5007,67 @@
       </c>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A63" s="92" t="s">
+      <c r="A63" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="B63" s="158" t="s">
+      <c r="B63" s="188" t="s">
         <v>159</v>
       </c>
-      <c r="C63" s="100" t="s">
+      <c r="C63" s="130" t="s">
         <v>81</v>
       </c>
-      <c r="D63" s="160" t="s">
+      <c r="D63" s="190" t="s">
         <v>82</v>
       </c>
-      <c r="E63" s="100" t="s">
+      <c r="E63" s="130" t="s">
         <v>83</v>
       </c>
-      <c r="F63" s="100" t="s">
+      <c r="F63" s="130" t="s">
         <v>84</v>
       </c>
-      <c r="G63" s="98" t="s">
+      <c r="G63" s="128" t="s">
         <v>85</v>
       </c>
-      <c r="H63" s="100" t="s">
+      <c r="H63" s="130" t="s">
         <v>86</v>
       </c>
-      <c r="I63" s="98" t="s">
+      <c r="I63" s="128" t="s">
         <v>87</v>
       </c>
-      <c r="J63" s="100" t="s">
+      <c r="J63" s="130" t="s">
         <v>88</v>
       </c>
-      <c r="K63" s="100" t="s">
+      <c r="K63" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="L63" s="100" t="s">
+      <c r="L63" s="130" t="s">
         <v>90</v>
       </c>
-      <c r="M63" s="100" t="s">
+      <c r="M63" s="130" t="s">
         <v>91</v>
       </c>
-      <c r="N63" s="140" t="s">
+      <c r="N63" s="170" t="s">
         <v>112</v>
       </c>
-      <c r="O63" s="138" t="s">
+      <c r="O63" s="168" t="s">
         <v>92</v>
       </c>
-      <c r="P63" s="142" t="s">
+      <c r="P63" s="172" t="s">
         <v>93</v>
       </c>
-      <c r="Q63" s="144" t="s">
+      <c r="Q63" s="174" t="s">
         <v>94</v>
       </c>
-      <c r="R63" s="96" t="s">
+      <c r="R63" s="126" t="s">
         <v>95</v>
       </c>
-      <c r="S63" s="136" t="s">
+      <c r="S63" s="166" t="s">
         <v>96</v>
       </c>
-      <c r="T63" s="136" t="s">
+      <c r="T63" s="166" t="s">
         <v>97</v>
       </c>
-      <c r="U63" s="121" t="s">
+      <c r="U63" s="151" t="s">
         <v>113</v>
       </c>
       <c r="V63" s="56"/>
@@ -4547,27 +5080,27 @@
       <c r="AC63" s="58"/>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A64" s="92"/>
-      <c r="B64" s="159"/>
-      <c r="C64" s="101"/>
-      <c r="D64" s="161"/>
-      <c r="E64" s="101"/>
-      <c r="F64" s="101"/>
-      <c r="G64" s="99"/>
-      <c r="H64" s="101"/>
-      <c r="I64" s="99"/>
-      <c r="J64" s="101"/>
-      <c r="K64" s="101"/>
-      <c r="L64" s="101"/>
-      <c r="M64" s="101"/>
-      <c r="N64" s="141"/>
-      <c r="O64" s="139"/>
-      <c r="P64" s="143"/>
-      <c r="Q64" s="145"/>
-      <c r="R64" s="97"/>
-      <c r="S64" s="137"/>
-      <c r="T64" s="137"/>
-      <c r="U64" s="122"/>
+      <c r="A64" s="122"/>
+      <c r="B64" s="189"/>
+      <c r="C64" s="131"/>
+      <c r="D64" s="191"/>
+      <c r="E64" s="131"/>
+      <c r="F64" s="131"/>
+      <c r="G64" s="129"/>
+      <c r="H64" s="131"/>
+      <c r="I64" s="129"/>
+      <c r="J64" s="131"/>
+      <c r="K64" s="131"/>
+      <c r="L64" s="131"/>
+      <c r="M64" s="131"/>
+      <c r="N64" s="171"/>
+      <c r="O64" s="169"/>
+      <c r="P64" s="173"/>
+      <c r="Q64" s="175"/>
+      <c r="R64" s="127"/>
+      <c r="S64" s="167"/>
+      <c r="T64" s="167"/>
+      <c r="U64" s="152"/>
       <c r="V64" s="3">
         <v>28</v>
       </c>
@@ -4594,30 +5127,30 @@
       </c>
     </row>
     <row r="65" spans="1:29" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A65" s="92"/>
-      <c r="C65" s="123">
+      <c r="A65" s="122"/>
+      <c r="C65" s="153">
         <v>91338035</v>
       </c>
       <c r="D65" s="36">
         <v>532325</v>
       </c>
-      <c r="E65" s="123" t="s">
+      <c r="E65" s="153" t="s">
         <v>98</v>
       </c>
-      <c r="F65" s="126" t="s">
+      <c r="F65" s="156" t="s">
         <v>99</v>
       </c>
-      <c r="G65" s="123" t="s">
+      <c r="G65" s="153" t="s">
         <v>99</v>
       </c>
-      <c r="H65" s="123"/>
-      <c r="I65" s="126" t="s">
+      <c r="H65" s="153"/>
+      <c r="I65" s="156" t="s">
         <v>100</v>
       </c>
-      <c r="J65" s="126" t="s">
+      <c r="J65" s="156" t="s">
         <v>101</v>
       </c>
-      <c r="K65" s="126" t="s">
+      <c r="K65" s="156" t="s">
         <v>126</v>
       </c>
       <c r="L65" s="8">
@@ -4633,13 +5166,13 @@
       <c r="O65" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="P65" s="129" t="s">
+      <c r="P65" s="159" t="s">
         <v>103</v>
       </c>
       <c r="Q65" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="R65" s="131">
+      <c r="R65" s="161">
         <v>43171</v>
       </c>
       <c r="S65" s="12"/>
@@ -4674,19 +5207,19 @@
       </c>
     </row>
     <row r="66" spans="1:29" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A66" s="92"/>
+      <c r="A66" s="122"/>
       <c r="B66" s="47"/>
-      <c r="C66" s="124"/>
+      <c r="C66" s="154"/>
       <c r="D66" s="48">
         <v>532326</v>
       </c>
-      <c r="E66" s="124"/>
-      <c r="F66" s="127"/>
-      <c r="G66" s="124"/>
-      <c r="H66" s="124"/>
-      <c r="I66" s="127"/>
-      <c r="J66" s="127"/>
-      <c r="K66" s="127"/>
+      <c r="E66" s="154"/>
+      <c r="F66" s="157"/>
+      <c r="G66" s="154"/>
+      <c r="H66" s="154"/>
+      <c r="I66" s="157"/>
+      <c r="J66" s="157"/>
+      <c r="K66" s="157"/>
       <c r="L66" s="50">
         <v>10</v>
       </c>
@@ -4700,11 +5233,11 @@
       <c r="O66" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="P66" s="130"/>
+      <c r="P66" s="160"/>
       <c r="Q66" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="R66" s="132"/>
+      <c r="R66" s="162"/>
       <c r="S66" s="54"/>
       <c r="T66" s="54"/>
       <c r="U66" s="55">
@@ -4737,19 +5270,19 @@
       </c>
     </row>
     <row r="67" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A67" s="92"/>
+      <c r="A67" s="122"/>
       <c r="B67" s="46"/>
-      <c r="C67" s="124"/>
+      <c r="C67" s="154"/>
       <c r="D67" s="36">
         <v>533180</v>
       </c>
-      <c r="E67" s="124"/>
-      <c r="F67" s="127"/>
-      <c r="G67" s="124"/>
-      <c r="H67" s="124"/>
-      <c r="I67" s="127"/>
-      <c r="J67" s="127"/>
-      <c r="K67" s="127" t="s">
+      <c r="E67" s="154"/>
+      <c r="F67" s="157"/>
+      <c r="G67" s="154"/>
+      <c r="H67" s="154"/>
+      <c r="I67" s="157"/>
+      <c r="J67" s="157"/>
+      <c r="K67" s="157" t="s">
         <v>127</v>
       </c>
       <c r="L67" s="8">
@@ -4765,11 +5298,11 @@
       <c r="O67" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="P67" s="130"/>
-      <c r="Q67" s="134" t="s">
+      <c r="P67" s="160"/>
+      <c r="Q67" s="164" t="s">
         <v>108</v>
       </c>
-      <c r="R67" s="132"/>
+      <c r="R67" s="162"/>
       <c r="S67" s="12"/>
       <c r="T67" s="12"/>
       <c r="U67" s="13">
@@ -4788,21 +5321,21 @@
       <c r="AC67" s="5"/>
     </row>
     <row r="68" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A68" s="92"/>
+      <c r="A68" s="122"/>
       <c r="B68" s="46">
         <v>16501</v>
       </c>
-      <c r="C68" s="124"/>
+      <c r="C68" s="154"/>
       <c r="D68" s="36">
         <v>533181</v>
       </c>
-      <c r="E68" s="124"/>
-      <c r="F68" s="127"/>
-      <c r="G68" s="124"/>
-      <c r="H68" s="124"/>
-      <c r="I68" s="127"/>
-      <c r="J68" s="127"/>
-      <c r="K68" s="127"/>
+      <c r="E68" s="154"/>
+      <c r="F68" s="157"/>
+      <c r="G68" s="154"/>
+      <c r="H68" s="154"/>
+      <c r="I68" s="157"/>
+      <c r="J68" s="157"/>
+      <c r="K68" s="157"/>
       <c r="L68" s="8">
         <v>16</v>
       </c>
@@ -4816,9 +5349,9 @@
       <c r="O68" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="P68" s="130"/>
-      <c r="Q68" s="135"/>
-      <c r="R68" s="132"/>
+      <c r="P68" s="160"/>
+      <c r="Q68" s="165"/>
+      <c r="R68" s="162"/>
       <c r="S68" s="12"/>
       <c r="T68" s="12"/>
       <c r="U68" s="13">
@@ -4837,19 +5370,19 @@
       <c r="AC68" s="5"/>
     </row>
     <row r="69" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A69" s="92"/>
+      <c r="A69" s="122"/>
       <c r="B69" s="46"/>
-      <c r="C69" s="124"/>
+      <c r="C69" s="154"/>
       <c r="D69" s="36">
         <v>533182</v>
       </c>
-      <c r="E69" s="124"/>
-      <c r="F69" s="127"/>
-      <c r="G69" s="124"/>
-      <c r="H69" s="124"/>
-      <c r="I69" s="127"/>
-      <c r="J69" s="127"/>
-      <c r="K69" s="127"/>
+      <c r="E69" s="154"/>
+      <c r="F69" s="157"/>
+      <c r="G69" s="154"/>
+      <c r="H69" s="154"/>
+      <c r="I69" s="157"/>
+      <c r="J69" s="157"/>
+      <c r="K69" s="157"/>
       <c r="L69" s="8">
         <v>16</v>
       </c>
@@ -4863,9 +5396,9 @@
       <c r="O69" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="P69" s="130"/>
-      <c r="Q69" s="135"/>
-      <c r="R69" s="132"/>
+      <c r="P69" s="160"/>
+      <c r="Q69" s="165"/>
+      <c r="R69" s="162"/>
       <c r="S69" s="12"/>
       <c r="T69" s="12"/>
       <c r="U69" s="13">
@@ -4884,19 +5417,19 @@
       <c r="AC69" s="6"/>
     </row>
     <row r="70" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A70" s="92"/>
+      <c r="A70" s="122"/>
       <c r="B70" s="46"/>
-      <c r="C70" s="124"/>
+      <c r="C70" s="154"/>
       <c r="D70" s="36">
         <v>533183</v>
       </c>
-      <c r="E70" s="124"/>
-      <c r="F70" s="127"/>
-      <c r="G70" s="124"/>
-      <c r="H70" s="124"/>
-      <c r="I70" s="127"/>
-      <c r="J70" s="127"/>
-      <c r="K70" s="127"/>
+      <c r="E70" s="154"/>
+      <c r="F70" s="157"/>
+      <c r="G70" s="154"/>
+      <c r="H70" s="154"/>
+      <c r="I70" s="157"/>
+      <c r="J70" s="157"/>
+      <c r="K70" s="157"/>
       <c r="L70" s="8">
         <v>16</v>
       </c>
@@ -4910,9 +5443,9 @@
       <c r="O70" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="P70" s="130"/>
-      <c r="Q70" s="135"/>
-      <c r="R70" s="132"/>
+      <c r="P70" s="160"/>
+      <c r="Q70" s="165"/>
+      <c r="R70" s="162"/>
       <c r="S70" s="12"/>
       <c r="T70" s="12"/>
       <c r="U70" s="13">
@@ -4931,19 +5464,19 @@
       <c r="AC70" s="6"/>
     </row>
     <row r="71" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A71" s="92"/>
+      <c r="A71" s="122"/>
       <c r="B71" s="46"/>
-      <c r="C71" s="125"/>
+      <c r="C71" s="155"/>
       <c r="D71" s="36">
         <v>533184</v>
       </c>
-      <c r="E71" s="125"/>
-      <c r="F71" s="128"/>
-      <c r="G71" s="125"/>
-      <c r="H71" s="125"/>
-      <c r="I71" s="128"/>
-      <c r="J71" s="128"/>
-      <c r="K71" s="128"/>
+      <c r="E71" s="155"/>
+      <c r="F71" s="158"/>
+      <c r="G71" s="155"/>
+      <c r="H71" s="155"/>
+      <c r="I71" s="158"/>
+      <c r="J71" s="158"/>
+      <c r="K71" s="158"/>
       <c r="L71" s="8">
         <v>16</v>
       </c>
@@ -4957,9 +5490,9 @@
       <c r="O71" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="P71" s="130"/>
-      <c r="Q71" s="135"/>
-      <c r="R71" s="133"/>
+      <c r="P71" s="160"/>
+      <c r="Q71" s="165"/>
+      <c r="R71" s="163"/>
       <c r="S71" s="12"/>
       <c r="T71" s="12"/>
       <c r="U71" s="13">
@@ -4978,7 +5511,7 @@
       <c r="AC71" s="6"/>
     </row>
     <row r="72" spans="1:29" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A72" s="92"/>
+      <c r="A72" s="122"/>
       <c r="S72" s="18">
         <f>SUM(S65:S71)</f>
         <v>0</v>
@@ -4993,7 +5526,7 @@
       </c>
     </row>
     <row r="73" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A73" s="92"/>
+      <c r="A73" s="122"/>
       <c r="B73" s="46"/>
       <c r="C73" s="46"/>
       <c r="D73" s="46"/>
@@ -5036,16 +5569,16 @@
       </c>
     </row>
     <row r="78" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A78" s="92" t="s">
+      <c r="A78" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="B78" s="154" t="s">
+      <c r="B78" s="184" t="s">
         <v>140</v>
       </c>
-      <c r="C78" s="154" t="s">
+      <c r="C78" s="184" t="s">
         <v>141</v>
       </c>
-      <c r="D78" s="154" t="s">
+      <c r="D78" s="184" t="s">
         <v>142</v>
       </c>
       <c r="E78" s="38" t="s">
@@ -5071,10 +5604,10 @@
       </c>
     </row>
     <row r="79" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A79" s="92"/>
-      <c r="B79" s="154"/>
-      <c r="C79" s="154"/>
-      <c r="D79" s="154"/>
+      <c r="A79" s="122"/>
+      <c r="B79" s="184"/>
+      <c r="C79" s="184"/>
+      <c r="D79" s="184"/>
       <c r="E79" s="4" t="s">
         <v>144</v>
       </c>
@@ -5098,10 +5631,10 @@
       </c>
     </row>
     <row r="80" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A80" s="92"/>
-      <c r="B80" s="151"/>
-      <c r="C80" s="151"/>
-      <c r="D80" s="151"/>
+      <c r="A80" s="122"/>
+      <c r="B80" s="181"/>
+      <c r="C80" s="181"/>
+      <c r="D80" s="181"/>
       <c r="E80" s="4" t="s">
         <v>145</v>
       </c>
@@ -5125,14 +5658,14 @@
       </c>
     </row>
     <row r="81" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A81" s="92"/>
-      <c r="B81" s="150" t="s">
+      <c r="A81" s="122"/>
+      <c r="B81" s="180" t="s">
         <v>146</v>
       </c>
       <c r="C81" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="D81" s="150">
+      <c r="D81" s="180">
         <v>2129</v>
       </c>
       <c r="E81" s="42" t="s">
@@ -5164,12 +5697,12 @@
       </c>
     </row>
     <row r="82" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A82" s="92"/>
-      <c r="B82" s="151"/>
+      <c r="A82" s="122"/>
+      <c r="B82" s="181"/>
       <c r="C82" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="D82" s="151"/>
+      <c r="D82" s="181"/>
       <c r="E82" s="42" t="s">
         <v>148</v>
       </c>
@@ -5199,7 +5732,7 @@
       </c>
     </row>
     <row r="83" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A83" s="92"/>
+      <c r="A83" s="122"/>
       <c r="B83" s="44" t="s">
         <v>150</v>
       </c>
@@ -5238,14 +5771,14 @@
       </c>
     </row>
     <row r="84" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A84" s="92"/>
-      <c r="B84" s="150" t="s">
+      <c r="A84" s="122"/>
+      <c r="B84" s="180" t="s">
         <v>152</v>
       </c>
       <c r="C84" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="D84" s="152">
+      <c r="D84" s="182">
         <v>2129</v>
       </c>
       <c r="E84" s="42" t="s">
@@ -5277,12 +5810,12 @@
       </c>
     </row>
     <row r="85" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A85" s="92"/>
-      <c r="B85" s="151"/>
+      <c r="A85" s="122"/>
+      <c r="B85" s="181"/>
       <c r="C85" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="D85" s="153"/>
+      <c r="D85" s="183"/>
       <c r="E85" s="42" t="s">
         <v>148</v>
       </c>
@@ -5312,14 +5845,14 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B88" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89" s="92" t="s">
+      <c r="A89" s="122" t="s">
         <v>0</v>
       </c>
       <c r="L89">
@@ -5335,7 +5868,7 @@
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90" s="92"/>
+      <c r="A90" s="122"/>
       <c r="L90">
         <v>2300</v>
       </c>
@@ -5345,7 +5878,7 @@
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91" s="92"/>
+      <c r="A91" s="122"/>
       <c r="L91">
         <v>1600</v>
       </c>
@@ -5356,7 +5889,7 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B93" s="78">
         <v>35</v>
@@ -5378,7 +5911,7 @@
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94" s="92" t="s">
+      <c r="A94" s="122" t="s">
         <v>0</v>
       </c>
       <c r="B94" s="78"/>
@@ -5389,61 +5922,61 @@
       <c r="G94" s="78"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" s="92"/>
+      <c r="A95" s="122"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A96" s="92"/>
+      <c r="A96" s="122"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B98" s="91">
+        <v>211</v>
+      </c>
+      <c r="B98" s="113">
         <v>35</v>
       </c>
-      <c r="C98" s="91">
+      <c r="C98" s="113">
         <v>36</v>
       </c>
-      <c r="D98" s="91">
+      <c r="D98" s="113">
         <v>37</v>
       </c>
-      <c r="E98" s="91">
+      <c r="E98" s="113">
         <v>38</v>
       </c>
-      <c r="F98" s="91">
+      <c r="F98" s="113">
         <v>39</v>
       </c>
-      <c r="G98" s="91">
+      <c r="G98" s="113">
         <v>40</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="92" t="s">
+      <c r="A99" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="B99" s="91"/>
-      <c r="C99" s="91"/>
-      <c r="D99" s="91"/>
-      <c r="E99" s="91"/>
-      <c r="F99" s="91"/>
-      <c r="G99" s="91"/>
+      <c r="B99" s="113"/>
+      <c r="C99" s="113"/>
+      <c r="D99" s="113"/>
+      <c r="E99" s="113"/>
+      <c r="F99" s="113"/>
+      <c r="G99" s="113"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="92"/>
+      <c r="A100" s="122"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="92"/>
+      <c r="A101" s="122"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C103" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="92" t="s">
+      <c r="A104" s="122" t="s">
         <v>0</v>
       </c>
       <c r="B104" s="78">
@@ -5466,14 +5999,14 @@
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="92"/>
+      <c r="A105" s="122"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="92"/>
+      <c r="A106" s="122"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B109" s="81" t="s">
         <v>143</v>
@@ -5498,7 +6031,7 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="92" t="s">
+      <c r="A110" s="122" t="s">
         <v>0</v>
       </c>
       <c r="B110" s="4" t="s">
@@ -5524,7 +6057,7 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="92"/>
+      <c r="A111" s="122"/>
       <c r="B111" s="4" t="s">
         <v>145</v>
       </c>
@@ -5548,7 +6081,7 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="92"/>
+      <c r="A112" s="122"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
@@ -5565,7 +6098,7 @@
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="92" t="s">
+      <c r="A128" s="122" t="s">
         <v>0</v>
       </c>
       <c r="B128" t="s">
@@ -5579,7 +6112,7 @@
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="92"/>
+      <c r="A129" s="122"/>
       <c r="B129" t="s">
         <v>189</v>
       </c>
@@ -5591,7 +6124,7 @@
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="92"/>
+      <c r="A130" s="122"/>
       <c r="B130" t="s">
         <v>189</v>
       </c>
@@ -5623,7 +6156,7 @@
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="92" t="s">
+      <c r="A134" s="122" t="s">
         <v>0</v>
       </c>
       <c r="B134" t="s">
@@ -5643,7 +6176,7 @@
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="92"/>
+      <c r="A135" s="122"/>
       <c r="B135" t="s">
         <v>189</v>
       </c>
@@ -5661,7 +6194,7 @@
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="92"/>
+      <c r="A136" s="122"/>
       <c r="B136" t="s">
         <v>189</v>
       </c>
@@ -5714,7 +6247,7 @@
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="92" t="s">
+      <c r="A139" s="122" t="s">
         <v>0</v>
       </c>
       <c r="B139" t="s">
@@ -5749,7 +6282,7 @@
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" s="92"/>
+      <c r="A140" s="122"/>
       <c r="B140" t="s">
         <v>189</v>
       </c>
@@ -5782,7 +6315,7 @@
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" s="92"/>
+      <c r="A141" s="122"/>
       <c r="B141" t="s">
         <v>189</v>
       </c>
@@ -5816,58 +6349,58 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
     </row>
     <row r="145" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="92" t="s">
+      <c r="A145" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="B145" s="95" t="s">
+      <c r="B145" s="125" t="s">
         <v>201</v>
       </c>
-      <c r="C145" s="94" t="s">
-        <v>208</v>
-      </c>
-      <c r="D145" s="94"/>
-      <c r="E145" s="94"/>
+      <c r="C145" s="124" t="s">
+        <v>207</v>
+      </c>
+      <c r="D145" s="124"/>
+      <c r="E145" s="124"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A146" s="92"/>
-      <c r="B146" s="95"/>
-      <c r="C146" s="93" t="s">
+      <c r="A146" s="122"/>
+      <c r="B146" s="125"/>
+      <c r="C146" s="123" t="s">
         <v>177</v>
       </c>
-      <c r="D146" s="93" t="s">
+      <c r="D146" s="123" t="s">
         <v>178</v>
       </c>
-      <c r="E146" s="93"/>
+      <c r="E146" s="123"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147" s="92"/>
-      <c r="B147" s="95"/>
-      <c r="C147" s="93"/>
-      <c r="D147" s="93"/>
-      <c r="E147" s="93"/>
+      <c r="A147" s="122"/>
+      <c r="B147" s="125"/>
+      <c r="C147" s="123"/>
+      <c r="D147" s="123"/>
+      <c r="E147" s="123"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="77"/>
-      <c r="B148" s="95"/>
-      <c r="C148" s="93" t="s">
+      <c r="B148" s="125"/>
+      <c r="C148" s="123" t="s">
         <v>198</v>
       </c>
-      <c r="D148" s="93" t="s">
+      <c r="D148" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E148" s="93" t="s">
+      <c r="E148" s="123" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="77"/>
-      <c r="C149" s="93"/>
-      <c r="D149" s="93"/>
-      <c r="E149" s="93"/>
+      <c r="C149" s="123"/>
+      <c r="D149" s="123"/>
+      <c r="E149" s="123"/>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="79"/>
@@ -5883,34 +6416,34 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A154" s="92" t="s">
+      <c r="A154" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="B154" s="93" t="s">
-        <v>209</v>
-      </c>
-      <c r="C154" s="93" t="s">
+      <c r="B154" s="123" t="s">
+        <v>208</v>
+      </c>
+      <c r="C154" s="123" t="s">
         <v>188</v>
       </c>
-      <c r="D154" s="91" t="s">
+      <c r="D154" s="113" t="s">
         <v>66</v>
       </c>
-      <c r="E154" s="91"/>
-      <c r="F154" s="91"/>
-      <c r="G154" s="91"/>
-      <c r="H154" s="91"/>
-      <c r="I154" s="91"/>
-      <c r="J154" s="93"/>
-      <c r="K154" s="93"/>
+      <c r="E154" s="113"/>
+      <c r="F154" s="113"/>
+      <c r="G154" s="113"/>
+      <c r="H154" s="113"/>
+      <c r="I154" s="113"/>
+      <c r="J154" s="123"/>
+      <c r="K154" s="123"/>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A155" s="92"/>
-      <c r="B155" s="93"/>
-      <c r="C155" s="93"/>
+      <c r="A155" s="122"/>
+      <c r="B155" s="123"/>
+      <c r="C155" s="123"/>
       <c r="D155">
         <v>35</v>
       </c>
@@ -5929,46 +6462,46 @@
       <c r="I155">
         <v>40</v>
       </c>
-      <c r="J155" s="93"/>
-      <c r="K155" s="93"/>
+      <c r="J155" s="123"/>
+      <c r="K155" s="123"/>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A156" s="92"/>
+      <c r="A156" s="122"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160" s="122" t="s">
+        <v>0</v>
+      </c>
+      <c r="B160" s="123" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A160" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B160" s="93" t="s">
-        <v>224</v>
-      </c>
-      <c r="C160" s="93" t="s">
+      <c r="C160" s="123" t="s">
         <v>188</v>
       </c>
-      <c r="D160" s="91" t="s">
+      <c r="D160" s="113" t="s">
         <v>66</v>
       </c>
-      <c r="E160" s="91"/>
-      <c r="F160" s="91"/>
-      <c r="G160" s="91"/>
-      <c r="H160" s="91"/>
-      <c r="I160" s="91"/>
-      <c r="J160" s="93" t="s">
+      <c r="E160" s="113"/>
+      <c r="F160" s="113"/>
+      <c r="G160" s="113"/>
+      <c r="H160" s="113"/>
+      <c r="I160" s="113"/>
+      <c r="J160" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="K160" s="93" t="s">
+      <c r="K160" s="123" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="161" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A161" s="92"/>
-      <c r="B161" s="93"/>
-      <c r="C161" s="93"/>
+      <c r="A161" s="122"/>
+      <c r="B161" s="123"/>
+      <c r="C161" s="123"/>
       <c r="D161">
         <v>35</v>
       </c>
@@ -5987,17 +6520,17 @@
       <c r="I161">
         <v>40</v>
       </c>
-      <c r="J161" s="93"/>
-      <c r="K161" s="93"/>
+      <c r="J161" s="123"/>
+      <c r="K161" s="123"/>
     </row>
     <row r="162" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A162" s="92"/>
+      <c r="A162" s="122"/>
     </row>
     <row r="167" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B167" s="93" t="s">
+      <c r="B167" s="123" t="s">
         <v>197</v>
       </c>
-      <c r="C167" s="93" t="s">
+      <c r="C167" s="123" t="s">
         <v>188</v>
       </c>
       <c r="E167" s="78"/>
@@ -6007,19 +6540,19 @@
       </c>
       <c r="H167" s="78"/>
       <c r="I167" s="78"/>
-      <c r="J167" s="93" t="s">
+      <c r="J167" s="123" t="s">
         <v>193</v>
       </c>
-      <c r="K167" s="93" t="s">
+      <c r="K167" s="123" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="168" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B168" s="93"/>
-      <c r="C168" s="93"/>
+        <v>206</v>
+      </c>
+      <c r="B168" s="123"/>
+      <c r="C168" s="123"/>
       <c r="D168">
         <v>35</v>
       </c>
@@ -6038,11 +6571,11 @@
       <c r="I168">
         <v>40</v>
       </c>
-      <c r="J168" s="93"/>
-      <c r="K168" s="93"/>
+      <c r="J168" s="123"/>
+      <c r="K168" s="123"/>
     </row>
     <row r="169" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A169" s="92" t="s">
+      <c r="A169" s="122" t="s">
         <v>0</v>
       </c>
       <c r="B169" t="s">
@@ -6077,7 +6610,7 @@
       </c>
     </row>
     <row r="170" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A170" s="92"/>
+      <c r="A170" s="122"/>
       <c r="B170" t="s">
         <v>189</v>
       </c>
@@ -6110,7 +6643,7 @@
       </c>
     </row>
     <row r="171" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A171" s="92"/>
+      <c r="A171" s="122"/>
       <c r="B171" t="s">
         <v>189</v>
       </c>
@@ -6147,90 +6680,90 @@
       <c r="A173" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B173" s="106" t="s">
+      <c r="B173" s="136" t="s">
         <v>165</v>
       </c>
-      <c r="C173" s="108" t="s">
+      <c r="C173" s="138" t="s">
         <v>166</v>
       </c>
-      <c r="D173" s="110" t="s">
+      <c r="D173" s="140" t="s">
         <v>167</v>
       </c>
-      <c r="E173" s="112" t="s">
+      <c r="E173" s="142" t="s">
         <v>168</v>
       </c>
-      <c r="F173" s="112" t="s">
+      <c r="F173" s="142" t="s">
         <v>169</v>
       </c>
-      <c r="G173" s="114"/>
-      <c r="H173" s="112" t="s">
+      <c r="G173" s="144"/>
+      <c r="H173" s="142" t="s">
         <v>170</v>
       </c>
-      <c r="I173" s="115">
+      <c r="I173" s="145">
         <v>19</v>
       </c>
-      <c r="J173" s="115">
+      <c r="J173" s="145">
         <v>20</v>
       </c>
-      <c r="K173" s="115">
+      <c r="K173" s="145">
         <v>21</v>
       </c>
-      <c r="L173" s="115">
+      <c r="L173" s="145">
         <v>22</v>
       </c>
-      <c r="M173" s="115">
+      <c r="M173" s="145">
         <v>23</v>
       </c>
-      <c r="N173" s="115"/>
-      <c r="O173" s="112" t="s">
+      <c r="N173" s="145"/>
+      <c r="O173" s="142" t="s">
         <v>171</v>
       </c>
-      <c r="P173" s="112" t="s">
+      <c r="P173" s="142" t="s">
         <v>172</v>
       </c>
-      <c r="Q173" s="112" t="s">
+      <c r="Q173" s="142" t="s">
         <v>173</v>
       </c>
-      <c r="R173" s="112" t="s">
+      <c r="R173" s="142" t="s">
         <v>174</v>
       </c>
-      <c r="S173" s="112" t="s">
+      <c r="S173" s="142" t="s">
         <v>175</v>
       </c>
-      <c r="T173" s="117" t="s">
+      <c r="T173" s="147" t="s">
         <v>176</v>
       </c>
-      <c r="U173" s="118"/>
+      <c r="U173" s="148"/>
     </row>
     <row r="174" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A174" s="92" t="s">
+      <c r="A174" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="B174" s="107"/>
-      <c r="C174" s="109"/>
-      <c r="D174" s="111"/>
-      <c r="E174" s="113"/>
+      <c r="B174" s="137"/>
+      <c r="C174" s="139"/>
+      <c r="D174" s="141"/>
+      <c r="E174" s="143"/>
       <c r="F174" s="60"/>
       <c r="G174" s="60" t="s">
         <v>178</v>
       </c>
-      <c r="H174" s="113"/>
-      <c r="I174" s="113"/>
-      <c r="J174" s="113"/>
-      <c r="K174" s="113"/>
-      <c r="L174" s="113"/>
-      <c r="M174" s="113"/>
-      <c r="N174" s="113"/>
-      <c r="O174" s="116"/>
-      <c r="P174" s="113"/>
-      <c r="Q174" s="113"/>
-      <c r="R174" s="113"/>
-      <c r="S174" s="113"/>
-      <c r="T174" s="119"/>
-      <c r="U174" s="120"/>
+      <c r="H174" s="143"/>
+      <c r="I174" s="143"/>
+      <c r="J174" s="143"/>
+      <c r="K174" s="143"/>
+      <c r="L174" s="143"/>
+      <c r="M174" s="143"/>
+      <c r="N174" s="143"/>
+      <c r="O174" s="146"/>
+      <c r="P174" s="143"/>
+      <c r="Q174" s="143"/>
+      <c r="R174" s="143"/>
+      <c r="S174" s="143"/>
+      <c r="T174" s="149"/>
+      <c r="U174" s="150"/>
     </row>
     <row r="175" spans="1:21" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A175" s="92"/>
+      <c r="A175" s="122"/>
       <c r="B175" s="61" t="s">
         <v>179</v>
       </c>
@@ -6279,11 +6812,11 @@
         <f t="shared" ref="S175:S178" si="4">R175*Q175</f>
         <v>0</v>
       </c>
-      <c r="T175" s="102"/>
-      <c r="U175" s="103"/>
+      <c r="T175" s="132"/>
+      <c r="U175" s="133"/>
     </row>
     <row r="176" spans="1:21" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A176" s="92"/>
+      <c r="A176" s="122"/>
       <c r="B176" s="61" t="s">
         <v>179</v>
       </c>
@@ -6472,8 +7005,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T179" s="104"/>
-      <c r="U179" s="105"/>
+      <c r="T179" s="134"/>
+      <c r="U179" s="135"/>
     </row>
     <row r="180" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A180" s="59"/>
@@ -6481,8 +7014,398 @@
     <row r="181" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A181" s="59"/>
     </row>
+    <row r="212" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D212" s="96" t="s">
+        <v>143</v>
+      </c>
+      <c r="E212" s="39">
+        <v>34</v>
+      </c>
+      <c r="F212" s="39">
+        <v>35</v>
+      </c>
+      <c r="G212" s="39">
+        <v>36</v>
+      </c>
+      <c r="H212" s="39">
+        <v>37</v>
+      </c>
+      <c r="I212" s="39">
+        <v>38</v>
+      </c>
+      <c r="J212" s="39">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="213" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D213" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E213" s="40">
+        <v>2</v>
+      </c>
+      <c r="F213" s="41">
+        <v>2.5</v>
+      </c>
+      <c r="G213" s="40">
+        <v>3</v>
+      </c>
+      <c r="H213" s="40">
+        <v>4</v>
+      </c>
+      <c r="I213" s="40">
+        <v>5</v>
+      </c>
+      <c r="J213" s="40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D214" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E214" s="40">
+        <v>22.5</v>
+      </c>
+      <c r="F214" s="40">
+        <v>23.5</v>
+      </c>
+      <c r="G214" s="40">
+        <v>24</v>
+      </c>
+      <c r="H214" s="40">
+        <v>24.5</v>
+      </c>
+      <c r="I214" s="40">
+        <v>25.5</v>
+      </c>
+      <c r="J214" s="40">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="215" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="D215" t="s">
+        <v>232</v>
+      </c>
+      <c r="E215" s="43">
+        <f>2*148</f>
+        <v>296</v>
+      </c>
+      <c r="F215" s="43">
+        <f>2*538</f>
+        <v>1076</v>
+      </c>
+      <c r="G215" s="43">
+        <f>2*792</f>
+        <v>1584</v>
+      </c>
+      <c r="H215" s="43">
+        <f>2*782</f>
+        <v>1564</v>
+      </c>
+      <c r="I215" s="43">
+        <f>2*602</f>
+        <v>1204</v>
+      </c>
+      <c r="J215" s="43">
+        <f>2*174</f>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="216" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="D216" t="s">
+        <v>233</v>
+      </c>
+      <c r="E216" s="43">
+        <f>2*90</f>
+        <v>180</v>
+      </c>
+      <c r="F216" s="43">
+        <f>2*420</f>
+        <v>840</v>
+      </c>
+      <c r="G216" s="43">
+        <f>2*675</f>
+        <v>1350</v>
+      </c>
+      <c r="H216" s="43">
+        <f>2*725</f>
+        <v>1450</v>
+      </c>
+      <c r="I216" s="43">
+        <f>2*665</f>
+        <v>1330</v>
+      </c>
+      <c r="J216" s="43">
+        <f>2*195</f>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="217" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="D217" t="s">
+        <v>234</v>
+      </c>
+      <c r="E217" s="43">
+        <f>2*30</f>
+        <v>60</v>
+      </c>
+      <c r="F217" s="43">
+        <f>2*130</f>
+        <v>260</v>
+      </c>
+      <c r="G217" s="43">
+        <f>2*140</f>
+        <v>280</v>
+      </c>
+      <c r="H217" s="43">
+        <f>2*170</f>
+        <v>340</v>
+      </c>
+      <c r="I217" s="43">
+        <f>2*60</f>
+        <v>120</v>
+      </c>
+      <c r="J217" s="43">
+        <f>2*70</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="218" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="D218" t="s">
+        <v>235</v>
+      </c>
+      <c r="E218" s="43">
+        <f>2*130</f>
+        <v>260</v>
+      </c>
+      <c r="F218" s="43">
+        <f>2*420</f>
+        <v>840</v>
+      </c>
+      <c r="G218" s="43">
+        <f>2*660</f>
+        <v>1320</v>
+      </c>
+      <c r="H218" s="43">
+        <f>2*650</f>
+        <v>1300</v>
+      </c>
+      <c r="I218" s="43">
+        <f>2*410</f>
+        <v>820</v>
+      </c>
+      <c r="J218" s="43">
+        <f>2*230</f>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="219" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="D219" t="s">
+        <v>236</v>
+      </c>
+      <c r="E219" s="43">
+        <f>2*130</f>
+        <v>260</v>
+      </c>
+      <c r="F219" s="43">
+        <f>2*350</f>
+        <v>700</v>
+      </c>
+      <c r="G219" s="43">
+        <f>2*660</f>
+        <v>1320</v>
+      </c>
+      <c r="H219" s="43">
+        <f>2*780</f>
+        <v>1560</v>
+      </c>
+      <c r="I219" s="43">
+        <f>2*500</f>
+        <v>1000</v>
+      </c>
+      <c r="J219" s="43" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="223" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B223" s="101"/>
+      <c r="C223" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D223" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E223" s="114" t="s">
+        <v>238</v>
+      </c>
+      <c r="F223" s="114"/>
+      <c r="G223" s="114"/>
+      <c r="H223" s="114"/>
+      <c r="I223" s="114"/>
+      <c r="J223" s="114"/>
+    </row>
+    <row r="224" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B224" s="101"/>
+      <c r="C224" s="103"/>
+      <c r="D224" s="40" t="s">
+        <v>239</v>
+      </c>
+      <c r="E224" s="40">
+        <v>39</v>
+      </c>
+      <c r="F224" s="40">
+        <v>40</v>
+      </c>
+      <c r="G224" s="40">
+        <v>41</v>
+      </c>
+      <c r="H224" s="40">
+        <v>42</v>
+      </c>
+      <c r="I224" s="40">
+        <v>43</v>
+      </c>
+      <c r="J224" s="40">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="225" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B225" s="115">
+        <v>68637</v>
+      </c>
+      <c r="C225" s="117" t="s">
+        <v>240</v>
+      </c>
+      <c r="D225" s="104">
+        <v>8891042</v>
+      </c>
+      <c r="E225" s="4">
+        <v>75</v>
+      </c>
+      <c r="F225" s="4">
+        <v>100</v>
+      </c>
+      <c r="G225" s="4">
+        <v>100</v>
+      </c>
+      <c r="H225" s="4">
+        <v>100</v>
+      </c>
+      <c r="I225" s="4">
+        <v>50</v>
+      </c>
+      <c r="J225" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="226" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B226" s="116"/>
+      <c r="C226" s="118"/>
+    </row>
+    <row r="227" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B227" s="114">
+        <v>68634</v>
+      </c>
+      <c r="C227" s="119" t="s">
+        <v>241</v>
+      </c>
+      <c r="D227" s="105" t="s">
+        <v>239</v>
+      </c>
+      <c r="E227" s="40">
+        <v>35</v>
+      </c>
+      <c r="F227" s="40">
+        <v>36</v>
+      </c>
+      <c r="G227" s="40">
+        <v>37</v>
+      </c>
+      <c r="H227" s="40">
+        <v>38</v>
+      </c>
+      <c r="I227" s="40">
+        <v>39</v>
+      </c>
+      <c r="J227" s="40">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="228" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B228" s="114"/>
+      <c r="C228" s="120"/>
+      <c r="D228" s="106">
+        <v>5896652</v>
+      </c>
+      <c r="E228" s="4">
+        <v>40</v>
+      </c>
+      <c r="F228" s="4">
+        <v>120</v>
+      </c>
+      <c r="G228" s="4">
+        <v>200</v>
+      </c>
+      <c r="H228" s="4">
+        <v>200</v>
+      </c>
+      <c r="I228" s="4">
+        <v>120</v>
+      </c>
+      <c r="J228" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="229" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B229" s="114"/>
+      <c r="C229" s="121"/>
+      <c r="D229" s="106">
+        <v>5891652</v>
+      </c>
+      <c r="E229" s="4">
+        <v>30</v>
+      </c>
+      <c r="F229" s="4">
+        <v>90</v>
+      </c>
+      <c r="G229" s="4">
+        <v>150</v>
+      </c>
+      <c r="H229" s="4">
+        <v>150</v>
+      </c>
+      <c r="I229" s="4">
+        <v>90</v>
+      </c>
+      <c r="J229" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="230" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D230" s="106">
+        <v>5895652</v>
+      </c>
+      <c r="E230" s="4">
+        <v>17</v>
+      </c>
+      <c r="F230" s="4">
+        <v>51</v>
+      </c>
+      <c r="G230" s="4">
+        <v>85</v>
+      </c>
+      <c r="H230" s="4">
+        <v>85</v>
+      </c>
+      <c r="I230" s="4">
+        <v>51</v>
+      </c>
+      <c r="J230" s="4">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="145">
+  <mergeCells count="150">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B8:I8"/>
     <mergeCell ref="A8:A16"/>
@@ -6603,10 +7526,6 @@
     <mergeCell ref="R173:R174"/>
     <mergeCell ref="S173:S174"/>
     <mergeCell ref="T173:U174"/>
-    <mergeCell ref="A169:A171"/>
-    <mergeCell ref="B167:B168"/>
-    <mergeCell ref="C167:C168"/>
-    <mergeCell ref="J167:J168"/>
     <mergeCell ref="K167:K168"/>
     <mergeCell ref="B154:B155"/>
     <mergeCell ref="C154:C155"/>
@@ -6619,6 +7538,11 @@
     <mergeCell ref="D160:I160"/>
     <mergeCell ref="J160:J161"/>
     <mergeCell ref="K160:K161"/>
+    <mergeCell ref="E223:J223"/>
+    <mergeCell ref="B225:B226"/>
+    <mergeCell ref="C225:C226"/>
+    <mergeCell ref="B227:B229"/>
+    <mergeCell ref="C227:C229"/>
     <mergeCell ref="G98:G99"/>
     <mergeCell ref="A154:A156"/>
     <mergeCell ref="D146:E147"/>
@@ -6628,6 +7552,10 @@
     <mergeCell ref="C148:C149"/>
     <mergeCell ref="D148:D149"/>
     <mergeCell ref="E148:E149"/>
+    <mergeCell ref="A169:A171"/>
+    <mergeCell ref="B167:B168"/>
+    <mergeCell ref="C167:C168"/>
+    <mergeCell ref="J167:J168"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6637,10 +7565,1281 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E857086F-A3A9-41F8-8F13-28250F5FE10C}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:L45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="34.5546875" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="21.88671875" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
+    <col min="7" max="7" width="20.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="122" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="91" t="s">
+        <v>245</v>
+      </c>
+      <c r="C2" s="91"/>
+      <c r="D2" s="92" t="s">
+        <v>226</v>
+      </c>
+      <c r="E2" s="93" t="s">
+        <v>228</v>
+      </c>
+      <c r="F2" s="90"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="197" t="s">
+        <v>225</v>
+      </c>
+      <c r="I2" s="197"/>
+      <c r="J2" s="197"/>
+      <c r="K2" s="197"/>
+      <c r="L2" s="196" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="122"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="92" t="s">
+        <v>227</v>
+      </c>
+      <c r="G3" s="95"/>
+      <c r="H3" s="196" t="s">
+        <v>177</v>
+      </c>
+      <c r="I3" s="200" t="s">
+        <v>178</v>
+      </c>
+      <c r="J3" s="200"/>
+      <c r="K3" s="200"/>
+      <c r="L3" s="196"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="122"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="196"/>
+      <c r="I4" s="200"/>
+      <c r="J4" s="200"/>
+      <c r="K4" s="200"/>
+      <c r="L4" s="196"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="77"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="196" t="s">
+        <v>198</v>
+      </c>
+      <c r="I5" s="196" t="s">
+        <v>199</v>
+      </c>
+      <c r="J5" s="198" t="s">
+        <v>200</v>
+      </c>
+      <c r="K5" s="198"/>
+      <c r="L5" s="196"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="77"/>
+      <c r="E6" s="199" t="s">
+        <v>229</v>
+      </c>
+      <c r="F6" s="199"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="196"/>
+      <c r="I6" s="196"/>
+      <c r="J6" s="198"/>
+      <c r="K6" s="198"/>
+      <c r="L6" s="196"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="122" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="192" t="s">
+        <v>244</v>
+      </c>
+      <c r="C9" s="193"/>
+      <c r="D9" s="130" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="190" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="130" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="174" t="s">
+        <v>94</v>
+      </c>
+      <c r="H9" s="166" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="122"/>
+      <c r="B10" s="194"/>
+      <c r="C10" s="195"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="191"/>
+      <c r="F10" s="131"/>
+      <c r="G10" s="175"/>
+      <c r="H10" s="167"/>
+    </row>
+    <row r="11" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="122"/>
+      <c r="D11" s="156" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="36">
+        <v>532325</v>
+      </c>
+      <c r="F11" s="156" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="122"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="157"/>
+      <c r="E12" s="48">
+        <v>532326</v>
+      </c>
+      <c r="F12" s="157"/>
+      <c r="G12" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="H12" s="54"/>
+    </row>
+    <row r="13" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="122"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="157"/>
+      <c r="E13" s="36">
+        <v>533180</v>
+      </c>
+      <c r="F13" s="157" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" s="164" t="s">
+        <v>108</v>
+      </c>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="122"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="157"/>
+      <c r="E14" s="36">
+        <v>533181</v>
+      </c>
+      <c r="F14" s="157"/>
+      <c r="G14" s="165"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A15" s="122"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="157"/>
+      <c r="E15" s="36">
+        <v>533182</v>
+      </c>
+      <c r="F15" s="157"/>
+      <c r="G15" s="165"/>
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A16" s="122"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="157"/>
+      <c r="E16" s="36">
+        <v>533183</v>
+      </c>
+      <c r="F16" s="157"/>
+      <c r="G16" s="165"/>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A17" s="122"/>
+      <c r="B17" s="46">
+        <v>16501</v>
+      </c>
+      <c r="C17" s="111"/>
+      <c r="D17" s="158"/>
+      <c r="E17" s="36">
+        <v>533184</v>
+      </c>
+      <c r="F17" s="158"/>
+      <c r="G17" s="165"/>
+      <c r="H17" s="12"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>261</v>
+      </c>
+      <c r="B22" t="s">
+        <v>263</v>
+      </c>
+      <c r="C22" t="s">
+        <v>257</v>
+      </c>
+      <c r="D22" t="s">
+        <v>258</v>
+      </c>
+      <c r="E22" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>215</v>
+      </c>
+      <c r="C23" t="s">
+        <v>216</v>
+      </c>
+      <c r="D23" t="s">
+        <v>217</v>
+      </c>
+      <c r="E23" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>215</v>
+      </c>
+      <c r="C24" t="s">
+        <v>216</v>
+      </c>
+      <c r="D24" t="s">
+        <v>217</v>
+      </c>
+      <c r="E24" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>215</v>
+      </c>
+      <c r="C25" t="s">
+        <v>216</v>
+      </c>
+      <c r="D25" t="s">
+        <v>217</v>
+      </c>
+      <c r="E25" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>215</v>
+      </c>
+      <c r="C26" t="s">
+        <v>216</v>
+      </c>
+      <c r="D26" t="s">
+        <v>217</v>
+      </c>
+      <c r="E26" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>215</v>
+      </c>
+      <c r="C27" t="s">
+        <v>216</v>
+      </c>
+      <c r="D27" t="s">
+        <v>217</v>
+      </c>
+      <c r="E27" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>215</v>
+      </c>
+      <c r="C28" t="s">
+        <v>216</v>
+      </c>
+      <c r="D28" t="s">
+        <v>217</v>
+      </c>
+      <c r="E28" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>215</v>
+      </c>
+      <c r="C29" t="s">
+        <v>216</v>
+      </c>
+      <c r="D29" t="s">
+        <v>217</v>
+      </c>
+      <c r="E29" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>215</v>
+      </c>
+      <c r="C30" t="s">
+        <v>216</v>
+      </c>
+      <c r="D30" t="s">
+        <v>217</v>
+      </c>
+      <c r="E30" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>215</v>
+      </c>
+      <c r="C31" t="s">
+        <v>216</v>
+      </c>
+      <c r="D31" t="s">
+        <v>217</v>
+      </c>
+      <c r="E31" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>215</v>
+      </c>
+      <c r="C32" t="s">
+        <v>216</v>
+      </c>
+      <c r="D32" t="s">
+        <v>217</v>
+      </c>
+      <c r="E32" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>215</v>
+      </c>
+      <c r="C33" t="s">
+        <v>216</v>
+      </c>
+      <c r="D33" t="s">
+        <v>217</v>
+      </c>
+      <c r="E33" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="80" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="80">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="80">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="80">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="80">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="80">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="80">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="80">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="80">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="80">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="L2:L6"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="J5:K6"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="I3:K4"/>
+    <mergeCell ref="F13:F17"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="G13:G17"/>
+    <mergeCell ref="A9:A17"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="D11:D17"/>
+    <mergeCell ref="F11:F12"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="136" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3BC949-7C4B-4ECC-A1A6-1E46430B3203}">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:AF31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="34.5546875" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="20.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="122" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="202" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2" s="140" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="203" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2" s="203" t="s">
+        <v>168</v>
+      </c>
+      <c r="F2" s="201" t="s">
+        <v>169</v>
+      </c>
+      <c r="G2" s="138"/>
+      <c r="H2" s="203" t="s">
+        <v>170</v>
+      </c>
+      <c r="I2" s="205" t="s">
+        <v>231</v>
+      </c>
+      <c r="J2" s="206"/>
+      <c r="K2" s="206"/>
+      <c r="L2" s="206"/>
+      <c r="M2" s="207"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="203" t="s">
+        <v>171</v>
+      </c>
+      <c r="P2" s="203" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q2" s="203" t="s">
+        <v>173</v>
+      </c>
+      <c r="R2" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="S2" s="203" t="s">
+        <v>175</v>
+      </c>
+      <c r="T2" s="147" t="s">
+        <v>176</v>
+      </c>
+      <c r="U2" s="148"/>
+    </row>
+    <row r="3" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="122"/>
+      <c r="B3" s="202"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" s="204"/>
+      <c r="I3" s="97">
+        <v>19</v>
+      </c>
+      <c r="J3" s="97">
+        <v>20</v>
+      </c>
+      <c r="K3" s="97">
+        <v>21</v>
+      </c>
+      <c r="L3" s="97">
+        <v>22</v>
+      </c>
+      <c r="M3" s="97">
+        <v>23</v>
+      </c>
+      <c r="N3" s="97"/>
+      <c r="O3" s="204"/>
+      <c r="P3" s="204"/>
+      <c r="Q3" s="204"/>
+      <c r="R3" s="204"/>
+      <c r="S3" s="204"/>
+      <c r="T3" s="149"/>
+      <c r="U3" s="150"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" s="122"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="77"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" s="77"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14" s="122" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="107" t="s">
+        <v>242</v>
+      </c>
+      <c r="C14" s="130" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="190" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="130" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="130" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="128" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="130" t="s">
+        <v>86</v>
+      </c>
+      <c r="I14" s="128" t="s">
+        <v>87</v>
+      </c>
+      <c r="J14" s="130" t="s">
+        <v>88</v>
+      </c>
+      <c r="K14" s="130" t="s">
+        <v>89</v>
+      </c>
+      <c r="L14" s="56"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="58"/>
+      <c r="T14" s="130" t="s">
+        <v>90</v>
+      </c>
+      <c r="U14" s="130" t="s">
+        <v>91</v>
+      </c>
+      <c r="V14" s="170" t="s">
+        <v>112</v>
+      </c>
+      <c r="W14" s="168" t="s">
+        <v>92</v>
+      </c>
+      <c r="X14" s="172" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y14" s="174" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z14" s="126" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA14" s="166" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB14" s="166" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC14" s="151" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A15" s="122"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="131"/>
+      <c r="D15" s="191"/>
+      <c r="E15" s="131"/>
+      <c r="F15" s="131"/>
+      <c r="G15" s="129"/>
+      <c r="H15" s="131"/>
+      <c r="I15" s="129"/>
+      <c r="J15" s="131"/>
+      <c r="K15" s="131"/>
+      <c r="L15" s="3">
+        <v>28</v>
+      </c>
+      <c r="M15" s="3">
+        <v>29</v>
+      </c>
+      <c r="N15" s="3">
+        <v>30</v>
+      </c>
+      <c r="O15" s="3">
+        <v>31</v>
+      </c>
+      <c r="P15" s="3">
+        <v>32</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>33</v>
+      </c>
+      <c r="R15" s="3">
+        <v>34</v>
+      </c>
+      <c r="S15" s="3">
+        <v>35</v>
+      </c>
+      <c r="T15" s="131"/>
+      <c r="U15" s="131"/>
+      <c r="V15" s="171"/>
+      <c r="W15" s="169"/>
+      <c r="X15" s="173"/>
+      <c r="Y15" s="175"/>
+      <c r="Z15" s="127"/>
+      <c r="AA15" s="167"/>
+      <c r="AB15" s="167"/>
+      <c r="AC15" s="152"/>
+    </row>
+    <row r="16" spans="1:29" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="122"/>
+      <c r="C16" s="153">
+        <v>91338035</v>
+      </c>
+      <c r="D16" s="36">
+        <v>532325</v>
+      </c>
+      <c r="E16" s="153" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="156" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="153" t="s">
+        <v>99</v>
+      </c>
+      <c r="H16" s="153"/>
+      <c r="I16" s="156" t="s">
+        <v>100</v>
+      </c>
+      <c r="J16" s="156" t="s">
+        <v>101</v>
+      </c>
+      <c r="K16" s="156" t="s">
+        <v>126</v>
+      </c>
+      <c r="L16" s="102">
+        <v>1</v>
+      </c>
+      <c r="M16" s="5">
+        <v>1</v>
+      </c>
+      <c r="N16" s="5">
+        <v>2</v>
+      </c>
+      <c r="O16" s="5">
+        <v>2</v>
+      </c>
+      <c r="P16" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>2</v>
+      </c>
+      <c r="R16" s="5">
+        <v>1</v>
+      </c>
+      <c r="S16" s="5">
+        <v>1</v>
+      </c>
+      <c r="T16" s="8">
+        <v>12</v>
+      </c>
+      <c r="U16" s="9">
+        <v>170</v>
+      </c>
+      <c r="V16" s="36">
+        <f>T16*U16</f>
+        <v>2040</v>
+      </c>
+      <c r="W16" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="X16" s="159" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y16" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z16" s="161">
+        <v>43171</v>
+      </c>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="13">
+        <f>0.415*0.39*0.265*U16</f>
+        <v>7.2913424999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="122"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="154"/>
+      <c r="D17" s="48">
+        <v>532326</v>
+      </c>
+      <c r="E17" s="154"/>
+      <c r="F17" s="157"/>
+      <c r="G17" s="154"/>
+      <c r="H17" s="154"/>
+      <c r="I17" s="157"/>
+      <c r="J17" s="157"/>
+      <c r="K17" s="157"/>
+      <c r="L17" s="49">
+        <v>1</v>
+      </c>
+      <c r="M17" s="50">
+        <v>1</v>
+      </c>
+      <c r="N17" s="50">
+        <v>1</v>
+      </c>
+      <c r="O17" s="50">
+        <v>2</v>
+      </c>
+      <c r="P17" s="50">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="50">
+        <v>1</v>
+      </c>
+      <c r="R17" s="50">
+        <v>1</v>
+      </c>
+      <c r="S17" s="50">
+        <v>1</v>
+      </c>
+      <c r="T17" s="50">
+        <v>10</v>
+      </c>
+      <c r="U17" s="51">
+        <v>98</v>
+      </c>
+      <c r="V17" s="48">
+        <f t="shared" ref="V17:V22" si="0">T17*U17</f>
+        <v>980</v>
+      </c>
+      <c r="W17" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="X17" s="160"/>
+      <c r="Y17" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z17" s="162"/>
+      <c r="AA17" s="54"/>
+      <c r="AB17" s="54"/>
+      <c r="AC17" s="55">
+        <f>0.515*0.265*0.265*U17</f>
+        <v>3.5442557500000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="122"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="154"/>
+      <c r="D18" s="36">
+        <v>533180</v>
+      </c>
+      <c r="E18" s="154"/>
+      <c r="F18" s="157"/>
+      <c r="G18" s="154"/>
+      <c r="H18" s="154"/>
+      <c r="I18" s="157"/>
+      <c r="J18" s="157"/>
+      <c r="K18" s="157" t="s">
+        <v>127</v>
+      </c>
+      <c r="L18" s="102"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="102">
+        <v>1</v>
+      </c>
+      <c r="O18" s="5"/>
+      <c r="P18" s="102"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="102"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="8">
+        <v>16</v>
+      </c>
+      <c r="U18" s="9">
+        <v>6</v>
+      </c>
+      <c r="V18" s="36">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="W18" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="X18" s="160"/>
+      <c r="Y18" s="164" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z18" s="162"/>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="12"/>
+      <c r="AC18" s="13">
+        <f>0.515*0.415*0.265*U18</f>
+        <v>0.33982275000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A19" s="122"/>
+      <c r="B19" s="46">
+        <v>16501</v>
+      </c>
+      <c r="C19" s="154"/>
+      <c r="D19" s="36">
+        <v>533181</v>
+      </c>
+      <c r="E19" s="154"/>
+      <c r="F19" s="157"/>
+      <c r="G19" s="154"/>
+      <c r="H19" s="154"/>
+      <c r="I19" s="157"/>
+      <c r="J19" s="157"/>
+      <c r="K19" s="157"/>
+      <c r="L19" s="102"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="102"/>
+      <c r="O19" s="5">
+        <v>1</v>
+      </c>
+      <c r="P19" s="102"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="102"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="8">
+        <v>16</v>
+      </c>
+      <c r="U19" s="9">
+        <v>6</v>
+      </c>
+      <c r="V19" s="36">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="W19" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="X19" s="160"/>
+      <c r="Y19" s="165"/>
+      <c r="Z19" s="162"/>
+      <c r="AA19" s="12"/>
+      <c r="AB19" s="12"/>
+      <c r="AC19" s="13">
+        <f>0.515*0.415*0.265*U19</f>
+        <v>0.33982275000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A20" s="122"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="154"/>
+      <c r="D20" s="36">
+        <v>533182</v>
+      </c>
+      <c r="E20" s="154"/>
+      <c r="F20" s="157"/>
+      <c r="G20" s="154"/>
+      <c r="H20" s="154"/>
+      <c r="I20" s="157"/>
+      <c r="J20" s="157"/>
+      <c r="K20" s="157"/>
+      <c r="L20" s="102"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="8">
+        <v>16</v>
+      </c>
+      <c r="U20" s="9">
+        <v>6</v>
+      </c>
+      <c r="V20" s="36">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="W20" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="X20" s="160"/>
+      <c r="Y20" s="165"/>
+      <c r="Z20" s="162"/>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="12"/>
+      <c r="AC20" s="13">
+        <f>0.515*0.415*0.265*U20</f>
+        <v>0.33982275000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A21" s="122"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="154"/>
+      <c r="D21" s="36">
+        <v>533183</v>
+      </c>
+      <c r="E21" s="154"/>
+      <c r="F21" s="157"/>
+      <c r="G21" s="154"/>
+      <c r="H21" s="154"/>
+      <c r="I21" s="157"/>
+      <c r="J21" s="157"/>
+      <c r="K21" s="157"/>
+      <c r="L21" s="102"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5">
+        <v>1</v>
+      </c>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="8">
+        <v>16</v>
+      </c>
+      <c r="U21" s="9">
+        <v>6</v>
+      </c>
+      <c r="V21" s="36">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="W21" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="X21" s="160"/>
+      <c r="Y21" s="165"/>
+      <c r="Z21" s="162"/>
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="12"/>
+      <c r="AC21" s="13">
+        <f>0.515*0.415*0.265*U21</f>
+        <v>0.33982275000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A22" s="122"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="155"/>
+      <c r="D22" s="36">
+        <v>533184</v>
+      </c>
+      <c r="E22" s="155"/>
+      <c r="F22" s="158"/>
+      <c r="G22" s="155"/>
+      <c r="H22" s="155"/>
+      <c r="I22" s="158"/>
+      <c r="J22" s="158"/>
+      <c r="K22" s="158"/>
+      <c r="L22" s="102"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="6">
+        <v>1</v>
+      </c>
+      <c r="S22" s="6"/>
+      <c r="T22" s="8">
+        <v>16</v>
+      </c>
+      <c r="U22" s="9">
+        <v>6</v>
+      </c>
+      <c r="V22" s="36">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="W22" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="X22" s="160"/>
+      <c r="Y22" s="165"/>
+      <c r="Z22" s="163"/>
+      <c r="AA22" s="12"/>
+      <c r="AB22" s="12"/>
+      <c r="AC22" s="13">
+        <f>0.515*0.415*0.265*U22</f>
+        <v>0.33982275000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A23" s="122"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="16"/>
+      <c r="Y23" s="37"/>
+      <c r="Z23" s="12"/>
+      <c r="AA23" s="18">
+        <f>SUM(AA16:AA22)</f>
+        <v>0</v>
+      </c>
+      <c r="AB23" s="18">
+        <f>SUM(AB16:AB22)</f>
+        <v>0</v>
+      </c>
+      <c r="AC23" s="19">
+        <f>SUM(AC16:AC22)</f>
+        <v>12.534711999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A24" s="122"/>
+      <c r="B24" s="185"/>
+      <c r="C24" s="186"/>
+      <c r="D24" s="186"/>
+      <c r="E24" s="186"/>
+      <c r="F24" s="186"/>
+      <c r="G24" s="186"/>
+      <c r="H24" s="186"/>
+      <c r="I24" s="186"/>
+      <c r="J24" s="186"/>
+      <c r="K24" s="186"/>
+      <c r="L24" s="186"/>
+      <c r="M24" s="186"/>
+      <c r="N24" s="186"/>
+      <c r="O24" s="186"/>
+      <c r="P24" s="186"/>
+      <c r="Q24" s="186"/>
+      <c r="R24" s="186"/>
+      <c r="S24" s="186"/>
+      <c r="T24" s="187"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15">
+        <f>SUM(V16:V22)</f>
+        <v>3500</v>
+      </c>
+      <c r="W24" s="26"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="27"/>
+      <c r="Z24" s="28"/>
+      <c r="AA24" s="29"/>
+      <c r="AB24" s="29"/>
+      <c r="AC24" s="30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="I27" s="113"/>
+      <c r="J27" s="113"/>
+      <c r="K27" s="113"/>
+      <c r="L27" s="113"/>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="L29" s="113"/>
+      <c r="M29" s="113"/>
+      <c r="N29" s="113"/>
+      <c r="O29" s="113"/>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="L30" s="113"/>
+      <c r="M30" s="113"/>
+      <c r="N30" s="113"/>
+      <c r="O30" s="113"/>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF31" t="s">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="53">
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="Z16:Z22"/>
+    <mergeCell ref="K18:K22"/>
+    <mergeCell ref="Y18:Y22"/>
+    <mergeCell ref="B24:T24"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="AC14:AC15"/>
+    <mergeCell ref="C16:C22"/>
+    <mergeCell ref="E16:E22"/>
+    <mergeCell ref="F16:F22"/>
+    <mergeCell ref="G16:G22"/>
+    <mergeCell ref="H16:H22"/>
+    <mergeCell ref="I16:I22"/>
+    <mergeCell ref="J16:J22"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="X16:X22"/>
+    <mergeCell ref="W14:W15"/>
+    <mergeCell ref="X14:X15"/>
+    <mergeCell ref="Y14:Y15"/>
+    <mergeCell ref="Z14:Z15"/>
+    <mergeCell ref="AA14:AA15"/>
+    <mergeCell ref="AB14:AB15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="V14:V15"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:U3"/>
+    <mergeCell ref="A14:A24"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="136" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4FF10CC-5D7B-4775-B3C9-33C53A94DCE9}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C29" sqref="B29:C30"/>
     </sheetView>
   </sheetViews>
@@ -6651,7 +8850,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B1" t="s">
         <v>190</v>
@@ -6664,7 +8863,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="122" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -6677,11 +8876,11 @@
         <v>161</v>
       </c>
       <c r="E2" s="82" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="92"/>
+      <c r="A3" s="122"/>
       <c r="B3" t="s">
         <v>189</v>
       </c>
@@ -6692,11 +8891,11 @@
         <v>161</v>
       </c>
       <c r="E3" s="82" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="92"/>
+      <c r="A4" s="122"/>
       <c r="B4" t="s">
         <v>189</v>
       </c>
@@ -6707,12 +8906,12 @@
         <v>164</v>
       </c>
       <c r="E4" s="82" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B9" t="s">
         <v>190</v>
@@ -6725,7 +8924,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="92" t="s">
+      <c r="A10" s="122" t="s">
         <v>0</v>
       </c>
       <c r="B10" t="s">
@@ -6738,11 +8937,11 @@
         <v>161</v>
       </c>
       <c r="E10" s="84" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="92"/>
+      <c r="A11" s="122"/>
       <c r="B11" t="s">
         <v>189</v>
       </c>
@@ -6753,11 +8952,11 @@
         <v>161</v>
       </c>
       <c r="E11" s="84" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="92"/>
+      <c r="A12" s="122"/>
       <c r="B12" t="s">
         <v>189</v>
       </c>
@@ -6768,12 +8967,12 @@
         <v>164</v>
       </c>
       <c r="E12" s="84" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B16" t="s">
         <v>190</v>
@@ -6786,7 +8985,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="92" t="s">
+      <c r="A17" s="122" t="s">
         <v>0</v>
       </c>
       <c r="B17" t="s">
@@ -6799,11 +8998,11 @@
         <v>161</v>
       </c>
       <c r="E17" s="82" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="92"/>
+      <c r="A18" s="122"/>
       <c r="B18" t="s">
         <v>189</v>
       </c>
@@ -6814,11 +9013,11 @@
         <v>161</v>
       </c>
       <c r="E18" s="82" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="92"/>
+      <c r="A19" s="122"/>
       <c r="B19" t="s">
         <v>189</v>
       </c>
@@ -6829,12 +9028,12 @@
         <v>164</v>
       </c>
       <c r="E19" s="84" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B22" t="s">
         <v>190</v>
@@ -6847,7 +9046,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="92" t="s">
+      <c r="A23" s="122" t="s">
         <v>0</v>
       </c>
       <c r="B23" t="s">
@@ -6860,11 +9059,11 @@
         <v>161</v>
       </c>
       <c r="E23" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="92"/>
+      <c r="A24" s="122"/>
       <c r="B24" t="s">
         <v>189</v>
       </c>
@@ -6875,11 +9074,11 @@
         <v>161</v>
       </c>
       <c r="E24" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="92"/>
+      <c r="A25" s="122"/>
       <c r="B25" t="s">
         <v>189</v>
       </c>
@@ -6890,12 +9089,12 @@
         <v>164</v>
       </c>
       <c r="E25" s="84" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B27" t="s">
         <v>190</v>
@@ -6908,7 +9107,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="92" t="s">
+      <c r="A28" s="122" t="s">
         <v>0</v>
       </c>
       <c r="B28" t="s">
@@ -6922,7 +9121,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="92"/>
+      <c r="A29" s="122"/>
       <c r="B29" s="82" t="s">
         <v>189</v>
       </c>
@@ -6934,7 +9133,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="92"/>
+      <c r="A30" s="122"/>
       <c r="B30" s="82" t="s">
         <v>189</v>
       </c>

--- a/tests/ExcelProcesser.Tests/resources/testData.xlsx
+++ b/tests/ExcelProcesser.Tests/resources/testData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92D32C6-A49A-447F-9FC6-EBC212B5B519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB7092B-8B38-458B-AC8C-D2C2216C141F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matrix" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="268">
   <si>
     <t>Input</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1145,6 +1145,22 @@
   </si>
   <si>
     <t>MultipleContentsTableHeader</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mxEOF</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mxEOF_STRAT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mxEOF_END</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mxEOF_R2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3209,24 +3225,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J123"/>
+  <dimension ref="A1:K123"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="J102" sqref="J102"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="5" width="12.77734375" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3234,12 +3251,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -3255,12 +3272,31 @@
       </c>
       <c r="H6" s="113"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>265</v>
+      </c>
+      <c r="J9" t="s">
+        <v>267</v>
+      </c>
+      <c r="K9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
@@ -3271,12 +3307,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>0</v>
       </c>
@@ -3832,6 +3868,9 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A107:A109"/>
+    <mergeCell ref="A121:A123"/>
+    <mergeCell ref="D6:E6"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="A101:A103"/>
     <mergeCell ref="A115:A117"/>
@@ -3846,9 +3885,6 @@
     <mergeCell ref="A37:A39"/>
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="A53:A56"/>
-    <mergeCell ref="A107:A109"/>
-    <mergeCell ref="A121:A123"/>
-    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7569,8 +7605,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/tests/ExcelProcesser.Tests/resources/testData.xlsx
+++ b/tests/ExcelProcesser.Tests/resources/testData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB7092B-8B38-458B-AC8C-D2C2216C141F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B404FBCB-EAAE-4E3A-9893-95F430B4B543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="271">
   <si>
     <t>Input</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -220,9 +220,6 @@
   <si>
     <t>cm_skip_1</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>cm_skip_2</t>
   </si>
   <si>
     <t>cm_skip_3</t>
@@ -1161,6 +1158,22 @@
   </si>
   <si>
     <t>mxEOF_R2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cm_skip_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mxEmptyRow</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mxEmptyRow_Starter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mxEmptyRow_End</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1373,7 +1386,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1494,6 +1507,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2008,7 +2027,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="208">
+  <cellXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
@@ -2597,6 +2616,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3225,10 +3253,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K123"/>
+  <dimension ref="A1:K140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="B103" sqref="A103:XFD103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3253,7 +3281,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -3261,20 +3289,20 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D6" s="113" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E6" s="113"/>
       <c r="G6" s="113" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H6" s="113"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -3282,18 +3310,18 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
+        <v>264</v>
+      </c>
+      <c r="J9" t="s">
+        <v>266</v>
+      </c>
+      <c r="K9" t="s">
         <v>265</v>
-      </c>
-      <c r="J9" t="s">
-        <v>267</v>
-      </c>
-      <c r="K9" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -3301,10 +3329,10 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
         <v>50</v>
-      </c>
-      <c r="C12" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -3388,7 +3416,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -3396,13 +3424,13 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" t="s">
         <v>70</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>71</v>
-      </c>
-      <c r="D32" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -3505,7 +3533,7 @@
         <v>27</v>
       </c>
       <c r="C53" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D53" s="34" t="s">
         <v>28</v>
@@ -3514,7 +3542,7 @@
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="112"/>
       <c r="B54" s="35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C54" s="31" t="s">
         <v>29</v>
@@ -3526,16 +3554,16 @@
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="112"/>
       <c r="B55" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" s="35" t="s">
         <v>115</v>
-      </c>
-      <c r="C55" s="35" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="112"/>
       <c r="B56" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -3571,7 +3599,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -3579,28 +3607,28 @@
         <v>0</v>
       </c>
       <c r="B65" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" t="s">
+        <v>119</v>
+      </c>
+      <c r="C66" t="s">
         <v>120</v>
       </c>
-      <c r="C66" t="s">
-        <v>121</v>
-      </c>
       <c r="D66" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="C67" t="s">
+        <v>121</v>
+      </c>
+      <c r="D67" t="s">
         <v>122</v>
-      </c>
-      <c r="D67" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -3608,7 +3636,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -3616,40 +3644,40 @@
         <v>0</v>
       </c>
       <c r="B72" t="s">
+        <v>128</v>
+      </c>
+      <c r="C72" t="s">
         <v>129</v>
       </c>
-      <c r="C72" t="s">
-        <v>130</v>
-      </c>
       <c r="D72" t="s">
+        <v>132</v>
+      </c>
+      <c r="E72" t="s">
         <v>133</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>134</v>
-      </c>
-      <c r="F72" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="C73" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D73" t="s">
+        <v>136</v>
+      </c>
+      <c r="E73" t="s">
+        <v>135</v>
+      </c>
+      <c r="F73" t="s">
         <v>137</v>
-      </c>
-      <c r="E73" t="s">
-        <v>136</v>
-      </c>
-      <c r="F73" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="C74" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -3658,7 +3686,7 @@
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="33"/>
       <c r="C76" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -3671,16 +3699,16 @@
         <v>0</v>
       </c>
       <c r="B80" t="s">
+        <v>51</v>
+      </c>
+      <c r="C80" t="s">
         <v>52</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>53</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>54</v>
-      </c>
-      <c r="E80" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -3699,30 +3727,30 @@
         <v>0</v>
       </c>
       <c r="B87" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="112"/>
       <c r="B88" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="112"/>
       <c r="B89" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="112"/>
       <c r="B90" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -3733,147 +3761,232 @@
         <v>44</v>
       </c>
       <c r="D95" t="s">
+        <v>267</v>
+      </c>
+      <c r="E95" t="s">
         <v>45</v>
       </c>
-      <c r="E95" t="s">
+      <c r="H95" t="s">
         <v>46</v>
-      </c>
-      <c r="H95" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="112"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="112"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="209" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>269</v>
+      </c>
+      <c r="D101" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="209"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="209"/>
+      <c r="B103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="209"/>
+      <c r="D104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="209"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="210"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="210"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="210"/>
+      <c r="B108" t="s">
+        <v>269</v>
+      </c>
+      <c r="D108" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="210"/>
+      <c r="B109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="210"/>
+      <c r="B110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="210"/>
+      <c r="D111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="210"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="208"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="208"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="208"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="208"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="112" t="s">
+        <v>0</v>
+      </c>
+      <c r="B118" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="112" t="s">
+      <c r="D118" t="s">
+        <v>252</v>
+      </c>
+      <c r="E118" t="s">
+        <v>253</v>
+      </c>
+      <c r="G118" t="s">
+        <v>254</v>
+      </c>
+      <c r="J118" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="112"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="112"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B101" t="s">
-        <v>252</v>
-      </c>
-      <c r="D101" t="s">
-        <v>253</v>
-      </c>
-      <c r="E101" t="s">
-        <v>254</v>
-      </c>
-      <c r="G101" t="s">
-        <v>255</v>
-      </c>
-      <c r="J101" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="112"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="112"/>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
+      <c r="B124" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="112" t="s">
+      <c r="C124" t="s">
+        <v>78</v>
+      </c>
+      <c r="D124" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="112"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="112"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B107" t="s">
-        <v>78</v>
-      </c>
-      <c r="C107" t="s">
-        <v>79</v>
-      </c>
-      <c r="D107" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="112"/>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="112"/>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
+      <c r="B132" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="112" t="s">
+      <c r="D132" t="s">
+        <v>61</v>
+      </c>
+      <c r="E132" t="s">
+        <v>62</v>
+      </c>
+      <c r="H132" t="s">
+        <v>63</v>
+      </c>
+      <c r="I132" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" s="112"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="112"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B138" t="s">
+        <v>60</v>
+      </c>
+      <c r="D138" t="s">
         <v>61</v>
       </c>
-      <c r="D115" t="s">
+      <c r="E138" t="s">
         <v>62</v>
       </c>
-      <c r="E115" t="s">
+      <c r="H138" t="s">
         <v>63</v>
       </c>
-      <c r="H115" t="s">
-        <v>64</v>
-      </c>
-      <c r="I115" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="112"/>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="112"/>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="B121" t="s">
-        <v>61</v>
-      </c>
-      <c r="D121" t="s">
-        <v>62</v>
-      </c>
-      <c r="E121" t="s">
-        <v>63</v>
-      </c>
-      <c r="H121" t="s">
-        <v>64</v>
-      </c>
-      <c r="I121" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" s="112"/>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="112"/>
+      <c r="I138" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" s="112"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" s="112"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A107:A109"/>
-    <mergeCell ref="A121:A123"/>
+  <mergeCells count="18">
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A101:A105"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="A124:A126"/>
+    <mergeCell ref="A138:A140"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="A115:A117"/>
+    <mergeCell ref="A118:A120"/>
+    <mergeCell ref="A132:A134"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A42:A44"/>
@@ -3883,8 +3996,6 @@
     <mergeCell ref="A95:A97"/>
     <mergeCell ref="A59:A61"/>
     <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A53:A56"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3905,7 +4016,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3961,7 +4072,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -3969,7 +4080,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="177" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" s="178"/>
       <c r="D2" s="178"/>
@@ -4010,7 +4121,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -4018,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="177" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="178"/>
       <c r="D8" s="178"/>
@@ -4182,13 +4293,13 @@
         <v>0</v>
       </c>
       <c r="B22" s="188" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="170" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="170" t="s">
+      <c r="D22" s="151" t="s">
         <v>112</v>
-      </c>
-      <c r="D22" s="151" t="s">
-        <v>113</v>
       </c>
       <c r="E22" s="56"/>
       <c r="F22" s="57"/>
@@ -4445,12 +4556,12 @@
       <c r="AA32" s="29"/>
       <c r="AB32" s="29"/>
       <c r="AC32" s="30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
@@ -4458,34 +4569,34 @@
         <v>0</v>
       </c>
       <c r="B39" s="188" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C39" s="130" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" s="190" t="s">
         <v>81</v>
       </c>
-      <c r="D39" s="190" t="s">
+      <c r="E39" s="130" t="s">
         <v>82</v>
       </c>
-      <c r="E39" s="130" t="s">
+      <c r="F39" s="130" t="s">
         <v>83</v>
       </c>
-      <c r="F39" s="130" t="s">
+      <c r="G39" s="128" t="s">
         <v>84</v>
       </c>
-      <c r="G39" s="128" t="s">
+      <c r="H39" s="130" t="s">
         <v>85</v>
       </c>
-      <c r="H39" s="130" t="s">
+      <c r="I39" s="128" t="s">
         <v>86</v>
       </c>
-      <c r="I39" s="128" t="s">
+      <c r="J39" s="130" t="s">
         <v>87</v>
       </c>
-      <c r="J39" s="130" t="s">
+      <c r="K39" s="130" t="s">
         <v>88</v>
-      </c>
-      <c r="K39" s="130" t="s">
-        <v>89</v>
       </c>
       <c r="L39" s="56"/>
       <c r="M39" s="57"/>
@@ -4496,34 +4607,34 @@
       <c r="R39" s="57"/>
       <c r="S39" s="58"/>
       <c r="T39" s="130" t="s">
+        <v>89</v>
+      </c>
+      <c r="U39" s="130" t="s">
         <v>90</v>
       </c>
-      <c r="U39" s="130" t="s">
+      <c r="V39" s="170" t="s">
+        <v>111</v>
+      </c>
+      <c r="W39" s="168" t="s">
         <v>91</v>
       </c>
-      <c r="V39" s="170" t="s">
+      <c r="X39" s="172" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y39" s="174" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z39" s="126" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA39" s="166" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB39" s="166" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC39" s="151" t="s">
         <v>112</v>
-      </c>
-      <c r="W39" s="168" t="s">
-        <v>92</v>
-      </c>
-      <c r="X39" s="172" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y39" s="174" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z39" s="126" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA39" s="166" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB39" s="166" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC39" s="151" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
@@ -4582,23 +4693,23 @@
         <v>532325</v>
       </c>
       <c r="E41" s="153" t="s">
+        <v>97</v>
+      </c>
+      <c r="F41" s="156" t="s">
         <v>98</v>
       </c>
-      <c r="F41" s="156" t="s">
-        <v>99</v>
-      </c>
       <c r="G41" s="153" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H41" s="153"/>
       <c r="I41" s="156" t="s">
+        <v>99</v>
+      </c>
+      <c r="J41" s="156" t="s">
         <v>100</v>
       </c>
-      <c r="J41" s="156" t="s">
-        <v>101</v>
-      </c>
       <c r="K41" s="156" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L41" s="4">
         <v>1</v>
@@ -4635,13 +4746,13 @@
         <v>2040</v>
       </c>
       <c r="W41" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="X41" s="159" t="s">
         <v>102</v>
       </c>
-      <c r="X41" s="159" t="s">
+      <c r="Y41" s="11" t="s">
         <v>103</v>
-      </c>
-      <c r="Y41" s="11" t="s">
-        <v>104</v>
       </c>
       <c r="Z41" s="161">
         <v>43171</v>
@@ -4702,11 +4813,11 @@
         <v>980</v>
       </c>
       <c r="W42" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="X42" s="160"/>
       <c r="Y42" s="53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Z42" s="162"/>
       <c r="AA42" s="54"/>
@@ -4730,7 +4841,7 @@
       <c r="I43" s="157"/>
       <c r="J43" s="157"/>
       <c r="K43" s="157" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L43" s="4"/>
       <c r="M43" s="5"/>
@@ -4753,11 +4864,11 @@
         <v>96</v>
       </c>
       <c r="W43" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X43" s="160"/>
       <c r="Y43" s="164" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z43" s="162"/>
       <c r="AA43" s="12"/>
@@ -4804,7 +4915,7 @@
         <v>96</v>
       </c>
       <c r="W44" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X44" s="160"/>
       <c r="Y44" s="165"/>
@@ -4851,7 +4962,7 @@
         <v>96</v>
       </c>
       <c r="W45" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X45" s="160"/>
       <c r="Y45" s="165"/>
@@ -4898,7 +5009,7 @@
         <v>96</v>
       </c>
       <c r="W46" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X46" s="160"/>
       <c r="Y46" s="165"/>
@@ -4945,7 +5056,7 @@
         <v>96</v>
       </c>
       <c r="W47" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X47" s="160"/>
       <c r="Y47" s="165"/>
@@ -5009,12 +5120,12 @@
       <c r="AA49" s="29"/>
       <c r="AB49" s="29"/>
       <c r="AC49" s="30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B50" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C50" s="21"/>
       <c r="D50" s="21"/>
@@ -5039,7 +5150,7 @@
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.25">
@@ -5047,64 +5158,64 @@
         <v>0</v>
       </c>
       <c r="B63" s="188" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C63" s="130" t="s">
+        <v>80</v>
+      </c>
+      <c r="D63" s="190" t="s">
         <v>81</v>
       </c>
-      <c r="D63" s="190" t="s">
+      <c r="E63" s="130" t="s">
         <v>82</v>
       </c>
-      <c r="E63" s="130" t="s">
+      <c r="F63" s="130" t="s">
         <v>83</v>
       </c>
-      <c r="F63" s="130" t="s">
+      <c r="G63" s="128" t="s">
         <v>84</v>
       </c>
-      <c r="G63" s="128" t="s">
+      <c r="H63" s="130" t="s">
         <v>85</v>
       </c>
-      <c r="H63" s="130" t="s">
+      <c r="I63" s="128" t="s">
         <v>86</v>
       </c>
-      <c r="I63" s="128" t="s">
+      <c r="J63" s="130" t="s">
         <v>87</v>
       </c>
-      <c r="J63" s="130" t="s">
+      <c r="K63" s="130" t="s">
         <v>88</v>
       </c>
-      <c r="K63" s="130" t="s">
+      <c r="L63" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="L63" s="130" t="s">
+      <c r="M63" s="130" t="s">
         <v>90</v>
       </c>
-      <c r="M63" s="130" t="s">
+      <c r="N63" s="170" t="s">
+        <v>111</v>
+      </c>
+      <c r="O63" s="168" t="s">
         <v>91</v>
       </c>
-      <c r="N63" s="170" t="s">
+      <c r="P63" s="172" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q63" s="174" t="s">
+        <v>93</v>
+      </c>
+      <c r="R63" s="126" t="s">
+        <v>94</v>
+      </c>
+      <c r="S63" s="166" t="s">
+        <v>95</v>
+      </c>
+      <c r="T63" s="166" t="s">
+        <v>96</v>
+      </c>
+      <c r="U63" s="151" t="s">
         <v>112</v>
-      </c>
-      <c r="O63" s="168" t="s">
-        <v>92</v>
-      </c>
-      <c r="P63" s="172" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q63" s="174" t="s">
-        <v>94</v>
-      </c>
-      <c r="R63" s="126" t="s">
-        <v>95</v>
-      </c>
-      <c r="S63" s="166" t="s">
-        <v>96</v>
-      </c>
-      <c r="T63" s="166" t="s">
-        <v>97</v>
-      </c>
-      <c r="U63" s="151" t="s">
-        <v>113</v>
       </c>
       <c r="V63" s="56"/>
       <c r="W63" s="57"/>
@@ -5171,23 +5282,23 @@
         <v>532325</v>
       </c>
       <c r="E65" s="153" t="s">
+        <v>97</v>
+      </c>
+      <c r="F65" s="156" t="s">
         <v>98</v>
       </c>
-      <c r="F65" s="156" t="s">
-        <v>99</v>
-      </c>
       <c r="G65" s="153" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H65" s="153"/>
       <c r="I65" s="156" t="s">
+        <v>99</v>
+      </c>
+      <c r="J65" s="156" t="s">
         <v>100</v>
       </c>
-      <c r="J65" s="156" t="s">
-        <v>101</v>
-      </c>
       <c r="K65" s="156" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L65" s="8">
         <v>12</v>
@@ -5200,13 +5311,13 @@
         <v>2040</v>
       </c>
       <c r="O65" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="P65" s="159" t="s">
         <v>102</v>
       </c>
-      <c r="P65" s="159" t="s">
+      <c r="Q65" s="11" t="s">
         <v>103</v>
-      </c>
-      <c r="Q65" s="11" t="s">
-        <v>104</v>
       </c>
       <c r="R65" s="161">
         <v>43171</v>
@@ -5267,11 +5378,11 @@
         <v>980</v>
       </c>
       <c r="O66" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P66" s="160"/>
       <c r="Q66" s="53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="R66" s="162"/>
       <c r="S66" s="54"/>
@@ -5319,7 +5430,7 @@
       <c r="I67" s="157"/>
       <c r="J67" s="157"/>
       <c r="K67" s="157" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L67" s="8">
         <v>16</v>
@@ -5332,11 +5443,11 @@
         <v>96</v>
       </c>
       <c r="O67" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P67" s="160"/>
       <c r="Q67" s="164" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R67" s="162"/>
       <c r="S67" s="12"/>
@@ -5383,7 +5494,7 @@
         <v>96</v>
       </c>
       <c r="O68" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P68" s="160"/>
       <c r="Q68" s="165"/>
@@ -5430,7 +5541,7 @@
         <v>96</v>
       </c>
       <c r="O69" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P69" s="160"/>
       <c r="Q69" s="165"/>
@@ -5477,7 +5588,7 @@
         <v>96</v>
       </c>
       <c r="O70" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P70" s="160"/>
       <c r="Q70" s="165"/>
@@ -5524,7 +5635,7 @@
         <v>96</v>
       </c>
       <c r="O71" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P71" s="160"/>
       <c r="Q71" s="165"/>
@@ -5593,7 +5704,7 @@
       <c r="AA73" s="29"/>
       <c r="AB73" s="29"/>
       <c r="AC73" s="30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="74" spans="1:29" x14ac:dyDescent="0.25">
@@ -5601,7 +5712,7 @@
     </row>
     <row r="77" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="78" spans="1:29" x14ac:dyDescent="0.25">
@@ -5609,16 +5720,16 @@
         <v>0</v>
       </c>
       <c r="B78" s="184" t="s">
+        <v>139</v>
+      </c>
+      <c r="C78" s="184" t="s">
         <v>140</v>
       </c>
-      <c r="C78" s="184" t="s">
+      <c r="D78" s="184" t="s">
         <v>141</v>
       </c>
-      <c r="D78" s="184" t="s">
+      <c r="E78" s="38" t="s">
         <v>142</v>
-      </c>
-      <c r="E78" s="38" t="s">
-        <v>143</v>
       </c>
       <c r="F78" s="39">
         <v>34</v>
@@ -5645,7 +5756,7 @@
       <c r="C79" s="184"/>
       <c r="D79" s="184"/>
       <c r="E79" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F79" s="40">
         <v>2</v>
@@ -5672,7 +5783,7 @@
       <c r="C80" s="181"/>
       <c r="D80" s="181"/>
       <c r="E80" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F80" s="40">
         <v>22.5</v>
@@ -5696,16 +5807,16 @@
     <row r="81" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A81" s="122"/>
       <c r="B81" s="180" t="s">
+        <v>145</v>
+      </c>
+      <c r="C81" s="42" t="s">
         <v>146</v>
-      </c>
-      <c r="C81" s="42" t="s">
-        <v>147</v>
       </c>
       <c r="D81" s="180">
         <v>2129</v>
       </c>
       <c r="E81" s="42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F81" s="43">
         <f>2*148</f>
@@ -5736,11 +5847,11 @@
       <c r="A82" s="122"/>
       <c r="B82" s="181"/>
       <c r="C82" s="43" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D82" s="181"/>
       <c r="E82" s="42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F82" s="43">
         <f>2*90</f>
@@ -5770,16 +5881,16 @@
     <row r="83" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A83" s="122"/>
       <c r="B83" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="C83" s="42" t="s">
         <v>150</v>
-      </c>
-      <c r="C83" s="42" t="s">
-        <v>151</v>
       </c>
       <c r="D83" s="42">
         <v>2137</v>
       </c>
       <c r="E83" s="42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F83" s="43">
         <f>2*30</f>
@@ -5809,16 +5920,16 @@
     <row r="84" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A84" s="122"/>
       <c r="B84" s="180" t="s">
+        <v>151</v>
+      </c>
+      <c r="C84" s="43" t="s">
         <v>152</v>
-      </c>
-      <c r="C84" s="43" t="s">
-        <v>153</v>
       </c>
       <c r="D84" s="182">
         <v>2129</v>
       </c>
       <c r="E84" s="42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F84" s="43">
         <f>2*130</f>
@@ -5849,11 +5960,11 @@
       <c r="A85" s="122"/>
       <c r="B85" s="181"/>
       <c r="C85" s="43" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D85" s="183"/>
       <c r="E85" s="42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F85" s="43">
         <f>2*130</f>
@@ -5876,15 +5987,15 @@
         <v>1000</v>
       </c>
       <c r="K85" s="43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B88" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
@@ -5925,7 +6036,7 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B93" s="78">
         <v>35</v>
@@ -5965,7 +6076,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B98" s="113">
         <v>35</v>
@@ -6005,10 +6116,10 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C103" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -6042,10 +6153,10 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B109" s="81" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C109" s="39">
         <v>34</v>
@@ -6071,7 +6182,7 @@
         <v>0</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C110" s="40">
         <v>2</v>
@@ -6095,7 +6206,7 @@
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="122"/>
       <c r="B111" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C111" s="40">
         <v>22.5</v>
@@ -6121,16 +6232,16 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B127" t="s">
+        <v>189</v>
+      </c>
+      <c r="C127" t="s">
+        <v>187</v>
+      </c>
+      <c r="D127" t="s">
         <v>190</v>
-      </c>
-      <c r="C127" t="s">
-        <v>188</v>
-      </c>
-      <c r="D127" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -6138,57 +6249,57 @@
         <v>0</v>
       </c>
       <c r="B128" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C128" t="s">
+        <v>159</v>
+      </c>
+      <c r="D128" t="s">
         <v>160</v>
-      </c>
-      <c r="D128" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="122"/>
       <c r="B129" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C129" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D129" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="122"/>
       <c r="B130" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C130" t="s">
+        <v>162</v>
+      </c>
+      <c r="D130" t="s">
         <v>163</v>
-      </c>
-      <c r="D130" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B133" t="s">
+        <v>191</v>
+      </c>
+      <c r="C133" t="s">
+        <v>187</v>
+      </c>
+      <c r="D133" t="s">
+        <v>190</v>
+      </c>
+      <c r="E133" t="s">
         <v>192</v>
       </c>
-      <c r="C133" t="s">
-        <v>188</v>
-      </c>
-      <c r="D133" t="s">
-        <v>191</v>
-      </c>
-      <c r="E133" t="s">
+      <c r="F133" t="s">
         <v>193</v>
-      </c>
-      <c r="F133" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
@@ -6196,13 +6307,13 @@
         <v>0</v>
       </c>
       <c r="B134" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C134" t="s">
+        <v>159</v>
+      </c>
+      <c r="D134" t="s">
         <v>160</v>
-      </c>
-      <c r="D134" t="s">
-        <v>161</v>
       </c>
       <c r="E134">
         <v>50</v>
@@ -6214,13 +6325,13 @@
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="122"/>
       <c r="B135" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C135" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D135" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E135">
         <v>50</v>
@@ -6232,13 +6343,13 @@
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="122"/>
       <c r="B136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C136" t="s">
+        <v>162</v>
+      </c>
+      <c r="D136" t="s">
         <v>163</v>
-      </c>
-      <c r="D136" t="s">
-        <v>164</v>
       </c>
       <c r="E136">
         <v>50</v>
@@ -6249,13 +6360,13 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B138" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C138" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D138">
         <v>35</v>
@@ -6276,10 +6387,10 @@
         <v>40</v>
       </c>
       <c r="J138" t="s">
+        <v>192</v>
+      </c>
+      <c r="K138" t="s">
         <v>193</v>
-      </c>
-      <c r="K138" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
@@ -6287,10 +6398,10 @@
         <v>0</v>
       </c>
       <c r="B139" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C139" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D139">
         <v>1</v>
@@ -6320,10 +6431,10 @@
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="122"/>
       <c r="B140" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C140" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D140">
         <v>1</v>
@@ -6353,10 +6464,10 @@
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="122"/>
       <c r="B141" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C141" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D141">
         <v>1</v>
@@ -6385,7 +6496,7 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="145" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -6393,10 +6504,10 @@
         <v>0</v>
       </c>
       <c r="B145" s="125" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C145" s="124" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D145" s="124"/>
       <c r="E145" s="124"/>
@@ -6405,10 +6516,10 @@
       <c r="A146" s="122"/>
       <c r="B146" s="125"/>
       <c r="C146" s="123" t="s">
+        <v>176</v>
+      </c>
+      <c r="D146" s="123" t="s">
         <v>177</v>
-      </c>
-      <c r="D146" s="123" t="s">
-        <v>178</v>
       </c>
       <c r="E146" s="123"/>
     </row>
@@ -6423,13 +6534,13 @@
       <c r="A148" s="77"/>
       <c r="B148" s="125"/>
       <c r="C148" s="123" t="s">
+        <v>197</v>
+      </c>
+      <c r="D148" s="123" t="s">
         <v>198</v>
       </c>
-      <c r="D148" s="123" t="s">
+      <c r="E148" s="123" t="s">
         <v>199</v>
-      </c>
-      <c r="E148" s="123" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
@@ -6452,7 +6563,7 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
@@ -6460,13 +6571,13 @@
         <v>0</v>
       </c>
       <c r="B154" s="123" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C154" s="123" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D154" s="113" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E154" s="113"/>
       <c r="F154" s="113"/>
@@ -6506,7 +6617,7 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
@@ -6514,13 +6625,13 @@
         <v>0</v>
       </c>
       <c r="B160" s="123" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C160" s="123" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D160" s="113" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E160" s="113"/>
       <c r="F160" s="113"/>
@@ -6528,10 +6639,10 @@
       <c r="H160" s="113"/>
       <c r="I160" s="113"/>
       <c r="J160" s="123" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K160" s="123" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="161" spans="1:21" x14ac:dyDescent="0.25">
@@ -6564,28 +6675,28 @@
     </row>
     <row r="167" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B167" s="123" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C167" s="123" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E167" s="78"/>
       <c r="F167" s="78"/>
       <c r="G167" s="78" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H167" s="78"/>
       <c r="I167" s="78"/>
       <c r="J167" s="123" t="s">
+        <v>192</v>
+      </c>
+      <c r="K167" s="123" t="s">
         <v>193</v>
-      </c>
-      <c r="K167" s="123" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="168" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B168" s="123"/>
       <c r="C168" s="123"/>
@@ -6615,10 +6726,10 @@
         <v>0</v>
       </c>
       <c r="B169" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C169" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D169">
         <v>1</v>
@@ -6648,10 +6759,10 @@
     <row r="170" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A170" s="122"/>
       <c r="B170" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C170" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D170">
         <v>1</v>
@@ -6681,10 +6792,10 @@
     <row r="171" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A171" s="122"/>
       <c r="B171" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C171" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D171">
         <v>1</v>
@@ -6714,26 +6825,26 @@
     <row r="172" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="173" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B173" s="136" t="s">
+        <v>164</v>
+      </c>
+      <c r="C173" s="138" t="s">
         <v>165</v>
       </c>
-      <c r="C173" s="138" t="s">
+      <c r="D173" s="140" t="s">
         <v>166</v>
       </c>
-      <c r="D173" s="140" t="s">
+      <c r="E173" s="142" t="s">
         <v>167</v>
       </c>
-      <c r="E173" s="142" t="s">
+      <c r="F173" s="142" t="s">
         <v>168</v>
-      </c>
-      <c r="F173" s="142" t="s">
-        <v>169</v>
       </c>
       <c r="G173" s="144"/>
       <c r="H173" s="142" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I173" s="145">
         <v>19</v>
@@ -6752,22 +6863,22 @@
       </c>
       <c r="N173" s="145"/>
       <c r="O173" s="142" t="s">
+        <v>170</v>
+      </c>
+      <c r="P173" s="142" t="s">
         <v>171</v>
       </c>
-      <c r="P173" s="142" t="s">
+      <c r="Q173" s="142" t="s">
         <v>172</v>
       </c>
-      <c r="Q173" s="142" t="s">
+      <c r="R173" s="142" t="s">
         <v>173</v>
       </c>
-      <c r="R173" s="142" t="s">
+      <c r="S173" s="142" t="s">
         <v>174</v>
       </c>
-      <c r="S173" s="142" t="s">
+      <c r="T173" s="147" t="s">
         <v>175</v>
-      </c>
-      <c r="T173" s="147" t="s">
-        <v>176</v>
       </c>
       <c r="U173" s="148"/>
     </row>
@@ -6781,7 +6892,7 @@
       <c r="E174" s="143"/>
       <c r="F174" s="60"/>
       <c r="G174" s="60" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H174" s="143"/>
       <c r="I174" s="143"/>
@@ -6801,20 +6912,20 @@
     <row r="175" spans="1:21" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A175" s="122"/>
       <c r="B175" s="61" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C175" s="62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D175" s="62"/>
       <c r="E175" s="63" t="s">
+        <v>179</v>
+      </c>
+      <c r="F175" s="64" t="s">
         <v>180</v>
       </c>
-      <c r="F175" s="64" t="s">
+      <c r="G175" s="64" t="s">
         <v>181</v>
-      </c>
-      <c r="G175" s="64" t="s">
-        <v>182</v>
       </c>
       <c r="H175" s="64"/>
       <c r="I175" s="64">
@@ -6854,20 +6965,20 @@
     <row r="176" spans="1:21" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A176" s="122"/>
       <c r="B176" s="61" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C176" s="62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D176" s="62"/>
       <c r="E176" s="63" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F176" s="64" t="s">
+        <v>180</v>
+      </c>
+      <c r="G176" s="64" t="s">
         <v>181</v>
-      </c>
-      <c r="G176" s="64" t="s">
-        <v>182</v>
       </c>
       <c r="H176" s="64"/>
       <c r="I176" s="64">
@@ -6907,20 +7018,20 @@
     <row r="177" spans="1:21" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A177" s="59"/>
       <c r="B177" s="61" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C177" s="62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D177" s="62"/>
       <c r="E177" s="63" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F177" s="64" t="s">
+        <v>180</v>
+      </c>
+      <c r="G177" s="64" t="s">
         <v>181</v>
-      </c>
-      <c r="G177" s="64" t="s">
-        <v>182</v>
       </c>
       <c r="H177" s="64"/>
       <c r="I177" s="64">
@@ -6960,20 +7071,20 @@
     <row r="178" spans="1:21" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A178" s="59"/>
       <c r="B178" s="61" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C178" s="62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D178" s="62"/>
       <c r="E178" s="63" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F178" s="64" t="s">
+        <v>180</v>
+      </c>
+      <c r="G178" s="64" t="s">
         <v>181</v>
-      </c>
-      <c r="G178" s="64" t="s">
-        <v>182</v>
       </c>
       <c r="H178" s="64"/>
       <c r="I178" s="64">
@@ -7013,7 +7124,7 @@
     <row r="179" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A179" s="59"/>
       <c r="B179" s="70" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C179" s="71"/>
       <c r="D179" s="71"/>
@@ -7052,7 +7163,7 @@
     </row>
     <row r="212" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D212" s="96" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E212" s="39">
         <v>34</v>
@@ -7075,7 +7186,7 @@
     </row>
     <row r="213" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D213" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E213" s="40">
         <v>2</v>
@@ -7098,7 +7209,7 @@
     </row>
     <row r="214" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D214" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E214" s="40">
         <v>22.5</v>
@@ -7121,7 +7232,7 @@
     </row>
     <row r="215" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D215" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E215" s="43">
         <f>2*148</f>
@@ -7150,7 +7261,7 @@
     </row>
     <row r="216" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D216" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E216" s="43">
         <f>2*90</f>
@@ -7179,7 +7290,7 @@
     </row>
     <row r="217" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D217" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E217" s="43">
         <f>2*30</f>
@@ -7208,7 +7319,7 @@
     </row>
     <row r="218" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D218" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E218" s="43">
         <f>2*130</f>
@@ -7237,7 +7348,7 @@
     </row>
     <row r="219" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D219" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E219" s="43">
         <f>2*130</f>
@@ -7260,19 +7371,19 @@
         <v>1000</v>
       </c>
       <c r="J219" s="43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="223" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B223" s="101"/>
       <c r="C223" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D223" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E223" s="114" t="s">
         <v>237</v>
-      </c>
-      <c r="D223" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E223" s="114" t="s">
-        <v>238</v>
       </c>
       <c r="F223" s="114"/>
       <c r="G223" s="114"/>
@@ -7284,7 +7395,7 @@
       <c r="B224" s="101"/>
       <c r="C224" s="103"/>
       <c r="D224" s="40" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E224" s="40">
         <v>39</v>
@@ -7310,7 +7421,7 @@
         <v>68637</v>
       </c>
       <c r="C225" s="117" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D225" s="104">
         <v>8891042</v>
@@ -7343,10 +7454,10 @@
         <v>68634</v>
       </c>
       <c r="C227" s="119" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D227" s="105" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E227" s="40">
         <v>35</v>
@@ -7620,7 +7731,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -7628,25 +7739,25 @@
         <v>0</v>
       </c>
       <c r="B2" s="91" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C2" s="91"/>
       <c r="D2" s="92" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E2" s="93" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F2" s="90"/>
       <c r="G2" s="94"/>
       <c r="H2" s="197" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I2" s="197"/>
       <c r="J2" s="197"/>
       <c r="K2" s="197"/>
       <c r="L2" s="196" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -7654,14 +7765,14 @@
       <c r="B3" s="90"/>
       <c r="C3" s="99"/>
       <c r="D3" s="92" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G3" s="95"/>
       <c r="H3" s="196" t="s">
+        <v>176</v>
+      </c>
+      <c r="I3" s="200" t="s">
         <v>177</v>
-      </c>
-      <c r="I3" s="200" t="s">
-        <v>178</v>
       </c>
       <c r="J3" s="200"/>
       <c r="K3" s="200"/>
@@ -7690,13 +7801,13 @@
       <c r="F5" s="90"/>
       <c r="G5" s="94"/>
       <c r="H5" s="196" t="s">
+        <v>197</v>
+      </c>
+      <c r="I5" s="196" t="s">
         <v>198</v>
       </c>
-      <c r="I5" s="196" t="s">
+      <c r="J5" s="198" t="s">
         <v>199</v>
-      </c>
-      <c r="J5" s="198" t="s">
-        <v>200</v>
       </c>
       <c r="K5" s="198"/>
       <c r="L5" s="196"/>
@@ -7704,7 +7815,7 @@
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="77"/>
       <c r="E6" s="199" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F6" s="199"/>
       <c r="G6" s="94"/>
@@ -7716,7 +7827,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7724,23 +7835,23 @@
         <v>0</v>
       </c>
       <c r="B9" s="192" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C9" s="193"/>
       <c r="D9" s="130" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E9" s="190" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F9" s="130" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G9" s="174" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H9" s="166" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -7756,16 +7867,16 @@
     <row r="11" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="122"/>
       <c r="D11" s="156" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E11" s="36">
         <v>532325</v>
       </c>
       <c r="F11" s="156" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H11" s="12"/>
     </row>
@@ -7779,7 +7890,7 @@
       </c>
       <c r="F12" s="157"/>
       <c r="G12" s="53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H12" s="54"/>
     </row>
@@ -7792,10 +7903,10 @@
         <v>533180</v>
       </c>
       <c r="F13" s="157" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G13" s="164" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H13" s="12"/>
     </row>
@@ -7850,178 +7961,178 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C22" t="s">
+        <v>256</v>
+      </c>
+      <c r="D22" t="s">
         <v>257</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>258</v>
-      </c>
-      <c r="E22" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
+        <v>214</v>
+      </c>
+      <c r="C23" t="s">
         <v>215</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>216</v>
       </c>
-      <c r="D23" t="s">
-        <v>217</v>
-      </c>
       <c r="E23" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>214</v>
+      </c>
+      <c r="C24" t="s">
         <v>215</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>216</v>
       </c>
-      <c r="D24" t="s">
-        <v>217</v>
-      </c>
       <c r="E24" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
+        <v>214</v>
+      </c>
+      <c r="C25" t="s">
         <v>215</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>216</v>
       </c>
-      <c r="D25" t="s">
-        <v>217</v>
-      </c>
       <c r="E25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
+        <v>214</v>
+      </c>
+      <c r="C26" t="s">
         <v>215</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>216</v>
       </c>
-      <c r="D26" t="s">
-        <v>217</v>
-      </c>
       <c r="E26" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
+        <v>214</v>
+      </c>
+      <c r="C27" t="s">
         <v>215</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>216</v>
       </c>
-      <c r="D27" t="s">
-        <v>217</v>
-      </c>
       <c r="E27" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
+        <v>214</v>
+      </c>
+      <c r="C28" t="s">
         <v>215</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>216</v>
       </c>
-      <c r="D28" t="s">
-        <v>217</v>
-      </c>
       <c r="E28" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
+        <v>214</v>
+      </c>
+      <c r="C29" t="s">
         <v>215</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>216</v>
       </c>
-      <c r="D29" t="s">
-        <v>217</v>
-      </c>
       <c r="E29" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
+        <v>214</v>
+      </c>
+      <c r="C30" t="s">
         <v>215</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>216</v>
       </c>
-      <c r="D30" t="s">
-        <v>217</v>
-      </c>
       <c r="E30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
+        <v>214</v>
+      </c>
+      <c r="C31" t="s">
         <v>215</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>216</v>
       </c>
-      <c r="D31" t="s">
-        <v>217</v>
-      </c>
       <c r="E31" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
+        <v>214</v>
+      </c>
+      <c r="C32" t="s">
         <v>215</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>216</v>
       </c>
-      <c r="D32" t="s">
-        <v>217</v>
-      </c>
       <c r="E32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
+        <v>214</v>
+      </c>
+      <c r="C33" t="s">
         <v>215</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>216</v>
       </c>
-      <c r="D33" t="s">
-        <v>217</v>
-      </c>
       <c r="E33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="80" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
@@ -8122,7 +8233,7 @@
   <sheetData>
     <row r="1" spans="1:29" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8130,26 +8241,26 @@
         <v>0</v>
       </c>
       <c r="B2" s="202" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C2" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" s="203" t="s">
         <v>166</v>
       </c>
-      <c r="D2" s="203" t="s">
+      <c r="E2" s="203" t="s">
         <v>167</v>
       </c>
-      <c r="E2" s="203" t="s">
+      <c r="F2" s="201" t="s">
         <v>168</v>
-      </c>
-      <c r="F2" s="201" t="s">
-        <v>169</v>
       </c>
       <c r="G2" s="138"/>
       <c r="H2" s="203" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I2" s="205" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J2" s="206"/>
       <c r="K2" s="206"/>
@@ -8157,22 +8268,22 @@
       <c r="M2" s="207"/>
       <c r="N2" s="100"/>
       <c r="O2" s="203" t="s">
+        <v>170</v>
+      </c>
+      <c r="P2" s="203" t="s">
         <v>171</v>
       </c>
-      <c r="P2" s="203" t="s">
+      <c r="Q2" s="203" t="s">
         <v>172</v>
       </c>
-      <c r="Q2" s="203" t="s">
+      <c r="R2" s="203" t="s">
         <v>173</v>
       </c>
-      <c r="R2" s="203" t="s">
+      <c r="S2" s="203" t="s">
         <v>174</v>
       </c>
-      <c r="S2" s="203" t="s">
+      <c r="T2" s="147" t="s">
         <v>175</v>
-      </c>
-      <c r="T2" s="147" t="s">
-        <v>176</v>
       </c>
       <c r="U2" s="148"/>
     </row>
@@ -8184,7 +8295,7 @@
       <c r="E3" s="204"/>
       <c r="F3" s="98"/>
       <c r="G3" s="98" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H3" s="204"/>
       <c r="I3" s="97">
@@ -8222,7 +8333,7 @@
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
@@ -8230,34 +8341,34 @@
         <v>0</v>
       </c>
       <c r="B14" s="107" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C14" s="130" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="190" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="190" t="s">
+      <c r="E14" s="130" t="s">
         <v>82</v>
       </c>
-      <c r="E14" s="130" t="s">
+      <c r="F14" s="130" t="s">
         <v>83</v>
       </c>
-      <c r="F14" s="130" t="s">
+      <c r="G14" s="128" t="s">
         <v>84</v>
       </c>
-      <c r="G14" s="128" t="s">
+      <c r="H14" s="130" t="s">
         <v>85</v>
       </c>
-      <c r="H14" s="130" t="s">
+      <c r="I14" s="128" t="s">
         <v>86</v>
       </c>
-      <c r="I14" s="128" t="s">
+      <c r="J14" s="130" t="s">
         <v>87</v>
       </c>
-      <c r="J14" s="130" t="s">
+      <c r="K14" s="130" t="s">
         <v>88</v>
-      </c>
-      <c r="K14" s="130" t="s">
-        <v>89</v>
       </c>
       <c r="L14" s="56"/>
       <c r="M14" s="57"/>
@@ -8268,34 +8379,34 @@
       <c r="R14" s="57"/>
       <c r="S14" s="58"/>
       <c r="T14" s="130" t="s">
+        <v>89</v>
+      </c>
+      <c r="U14" s="130" t="s">
         <v>90</v>
       </c>
-      <c r="U14" s="130" t="s">
+      <c r="V14" s="170" t="s">
+        <v>111</v>
+      </c>
+      <c r="W14" s="168" t="s">
         <v>91</v>
       </c>
-      <c r="V14" s="170" t="s">
+      <c r="X14" s="172" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y14" s="174" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z14" s="126" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA14" s="166" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB14" s="166" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC14" s="151" t="s">
         <v>112</v>
-      </c>
-      <c r="W14" s="168" t="s">
-        <v>92</v>
-      </c>
-      <c r="X14" s="172" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y14" s="174" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z14" s="126" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA14" s="166" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB14" s="166" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC14" s="151" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
@@ -8354,23 +8465,23 @@
         <v>532325</v>
       </c>
       <c r="E16" s="153" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="156" t="s">
         <v>98</v>
       </c>
-      <c r="F16" s="156" t="s">
-        <v>99</v>
-      </c>
       <c r="G16" s="153" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H16" s="153"/>
       <c r="I16" s="156" t="s">
+        <v>99</v>
+      </c>
+      <c r="J16" s="156" t="s">
         <v>100</v>
       </c>
-      <c r="J16" s="156" t="s">
-        <v>101</v>
-      </c>
       <c r="K16" s="156" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L16" s="102">
         <v>1</v>
@@ -8407,13 +8518,13 @@
         <v>2040</v>
       </c>
       <c r="W16" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="X16" s="159" t="s">
         <v>102</v>
       </c>
-      <c r="X16" s="159" t="s">
+      <c r="Y16" s="11" t="s">
         <v>103</v>
-      </c>
-      <c r="Y16" s="11" t="s">
-        <v>104</v>
       </c>
       <c r="Z16" s="161">
         <v>43171</v>
@@ -8474,11 +8585,11 @@
         <v>980</v>
       </c>
       <c r="W17" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="X17" s="160"/>
       <c r="Y17" s="53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Z17" s="162"/>
       <c r="AA17" s="54"/>
@@ -8502,7 +8613,7 @@
       <c r="I18" s="157"/>
       <c r="J18" s="157"/>
       <c r="K18" s="157" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L18" s="102"/>
       <c r="M18" s="5"/>
@@ -8525,11 +8636,11 @@
         <v>96</v>
       </c>
       <c r="W18" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X18" s="160"/>
       <c r="Y18" s="164" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z18" s="162"/>
       <c r="AA18" s="12"/>
@@ -8576,7 +8687,7 @@
         <v>96</v>
       </c>
       <c r="W19" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X19" s="160"/>
       <c r="Y19" s="165"/>
@@ -8623,7 +8734,7 @@
         <v>96</v>
       </c>
       <c r="W20" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X20" s="160"/>
       <c r="Y20" s="165"/>
@@ -8670,7 +8781,7 @@
         <v>96</v>
       </c>
       <c r="W21" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X21" s="160"/>
       <c r="Y21" s="165"/>
@@ -8717,7 +8828,7 @@
         <v>96</v>
       </c>
       <c r="W22" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X22" s="160"/>
       <c r="Y22" s="165"/>
@@ -8781,7 +8892,7 @@
       <c r="AA24" s="29"/>
       <c r="AB24" s="29"/>
       <c r="AC24" s="30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
@@ -8804,7 +8915,7 @@
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="AF31" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -8886,16 +8997,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" t="s">
         <v>190</v>
-      </c>
-      <c r="C1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D1" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -8903,60 +9014,60 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C2" s="83" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="82" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="82" t="s">
-        <v>161</v>
-      </c>
       <c r="E2" s="82" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="122"/>
       <c r="B3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C3" s="82" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D3" s="82" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E3" s="82" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="122"/>
       <c r="B4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C4" s="82" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="82" t="s">
         <v>163</v>
       </c>
-      <c r="D4" s="82" t="s">
-        <v>164</v>
-      </c>
       <c r="E4" s="82" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C9" t="s">
+        <v>187</v>
+      </c>
+      <c r="D9" t="s">
         <v>190</v>
-      </c>
-      <c r="C9" t="s">
-        <v>188</v>
-      </c>
-      <c r="D9" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -8964,60 +9075,60 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C10" s="83" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" s="82" t="s">
         <v>160</v>
       </c>
-      <c r="D10" s="82" t="s">
-        <v>161</v>
-      </c>
       <c r="E10" s="84" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="122"/>
       <c r="B11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C11" s="82" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D11" s="82" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E11" s="84" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="122"/>
       <c r="B12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C12" s="82" t="s">
+        <v>162</v>
+      </c>
+      <c r="D12" s="83" t="s">
         <v>163</v>
       </c>
-      <c r="D12" s="83" t="s">
-        <v>164</v>
-      </c>
       <c r="E12" s="84" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B16" t="s">
+        <v>189</v>
+      </c>
+      <c r="C16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D16" t="s">
         <v>190</v>
-      </c>
-      <c r="C16" t="s">
-        <v>188</v>
-      </c>
-      <c r="D16" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -9025,60 +9136,60 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C17" s="83" t="s">
+        <v>159</v>
+      </c>
+      <c r="D17" s="82" t="s">
         <v>160</v>
       </c>
-      <c r="D17" s="82" t="s">
-        <v>161</v>
-      </c>
       <c r="E17" s="82" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="122"/>
       <c r="B18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C18" s="82" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D18" s="82" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E18" s="82" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="122"/>
       <c r="B19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C19" s="84" t="s">
+        <v>162</v>
+      </c>
+      <c r="D19" s="85" t="s">
         <v>163</v>
       </c>
-      <c r="D19" s="85" t="s">
-        <v>164</v>
-      </c>
       <c r="E19" s="84" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B22" t="s">
+        <v>189</v>
+      </c>
+      <c r="C22" s="82" t="s">
+        <v>187</v>
+      </c>
+      <c r="D22" s="82" t="s">
         <v>190</v>
-      </c>
-      <c r="C22" s="82" t="s">
-        <v>188</v>
-      </c>
-      <c r="D22" s="82" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -9086,60 +9197,60 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C23" s="82" t="s">
+        <v>159</v>
+      </c>
+      <c r="D23" s="82" t="s">
         <v>160</v>
       </c>
-      <c r="D23" s="82" t="s">
-        <v>161</v>
-      </c>
       <c r="E23" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="122"/>
       <c r="B24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C24" s="86" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D24" s="86" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="122"/>
       <c r="B25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C25" s="84" t="s">
+        <v>162</v>
+      </c>
+      <c r="D25" s="85" t="s">
         <v>163</v>
       </c>
-      <c r="D25" s="85" t="s">
-        <v>164</v>
-      </c>
       <c r="E25" s="84" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B27" t="s">
+        <v>189</v>
+      </c>
+      <c r="C27" t="s">
+        <v>187</v>
+      </c>
+      <c r="D27" t="s">
         <v>190</v>
-      </c>
-      <c r="C27" t="s">
-        <v>188</v>
-      </c>
-      <c r="D27" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -9147,37 +9258,37 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C28" t="s">
+        <v>159</v>
+      </c>
+      <c r="D28" t="s">
         <v>160</v>
-      </c>
-      <c r="D28" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="122"/>
       <c r="B29" s="82" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C29" s="88" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D29" s="86" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="122"/>
       <c r="B30" s="82" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C30" s="82" t="s">
+        <v>162</v>
+      </c>
+      <c r="D30" s="89" t="s">
         <v>163</v>
-      </c>
-      <c r="D30" s="89" t="s">
-        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/tests/ExcelProcesser.Tests/resources/testData.xlsx
+++ b/tests/ExcelProcesser.Tests/resources/testData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B404FBCB-EAAE-4E3A-9893-95F430B4B543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5449E2D1-E24D-4E35-9228-305A44895EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2330,12 +2330,225 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="3">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="3" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="4">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="4" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="3" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="3" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="23" fillId="14" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="23" fillId="14" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2360,215 +2573,26 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="7" fontId="23" fillId="14" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="7" fontId="23" fillId="14" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="3" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="3" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="4">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="4" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="3">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="3" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2582,49 +2606,25 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="40" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3256,7 +3256,7 @@
   <dimension ref="A1:K140"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="B103" sqref="A103:XFD103"/>
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3291,14 +3291,14 @@
       <c r="C6" t="s">
         <v>155</v>
       </c>
-      <c r="D6" s="113" t="s">
+      <c r="D6" s="116" t="s">
         <v>74</v>
       </c>
-      <c r="E6" s="113"/>
-      <c r="G6" s="113" t="s">
+      <c r="E6" s="116"/>
+      <c r="G6" s="116" t="s">
         <v>75</v>
       </c>
-      <c r="H6" s="113"/>
+      <c r="H6" s="116"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -3376,7 +3376,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="112" t="s">
+      <c r="A22" s="114" t="s">
         <v>0</v>
       </c>
       <c r="B22" t="s">
@@ -3384,7 +3384,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="112"/>
+      <c r="A23" s="114"/>
       <c r="B23" t="s">
         <v>8</v>
       </c>
@@ -3395,7 +3395,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="112" t="s">
+      <c r="A27" s="114" t="s">
         <v>0</v>
       </c>
       <c r="B27" t="s">
@@ -3403,13 +3403,13 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="112"/>
+      <c r="A28" s="114"/>
       <c r="B28" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="112"/>
+      <c r="A29" s="114"/>
       <c r="B29" t="s">
         <v>16</v>
       </c>
@@ -3420,7 +3420,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="112" t="s">
+      <c r="A32" s="114" t="s">
         <v>0</v>
       </c>
       <c r="B32" t="s">
@@ -3434,10 +3434,10 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="112"/>
+      <c r="A33" s="114"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="112"/>
+      <c r="A34" s="114"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -3445,7 +3445,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="112" t="s">
+      <c r="A37" s="114" t="s">
         <v>0</v>
       </c>
       <c r="B37" t="s">
@@ -3456,13 +3456,13 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="112"/>
+      <c r="A38" s="114"/>
       <c r="C38" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="112"/>
+      <c r="A39" s="114"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
@@ -3470,7 +3470,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="112" t="s">
+      <c r="A42" s="114" t="s">
         <v>0</v>
       </c>
       <c r="B42" t="s">
@@ -3481,13 +3481,13 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="112"/>
+      <c r="A43" s="114"/>
       <c r="B43" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="112"/>
+      <c r="A44" s="114"/>
       <c r="B44" t="s">
         <v>20</v>
       </c>
@@ -3498,7 +3498,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="112" t="s">
+      <c r="A48" s="114" t="s">
         <v>0</v>
       </c>
       <c r="B48" t="s">
@@ -3509,13 +3509,13 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="112"/>
+      <c r="A49" s="114"/>
       <c r="B49" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="112"/>
+      <c r="A50" s="114"/>
       <c r="B50" t="s">
         <v>25</v>
       </c>
@@ -3526,7 +3526,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="112" t="s">
+      <c r="A53" s="114" t="s">
         <v>0</v>
       </c>
       <c r="B53" s="31" t="s">
@@ -3540,7 +3540,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="112"/>
+      <c r="A54" s="114"/>
       <c r="B54" s="35" t="s">
         <v>113</v>
       </c>
@@ -3552,7 +3552,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="112"/>
+      <c r="A55" s="114"/>
       <c r="B55" s="35" t="s">
         <v>114</v>
       </c>
@@ -3561,7 +3561,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="112"/>
+      <c r="A56" s="114"/>
       <c r="B56" s="32" t="s">
         <v>116</v>
       </c>
@@ -3572,7 +3572,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="112" t="s">
+      <c r="A59" s="114" t="s">
         <v>0</v>
       </c>
       <c r="B59" t="s">
@@ -3583,13 +3583,13 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="112"/>
+      <c r="A60" s="114"/>
       <c r="C60" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="112"/>
+      <c r="A61" s="114"/>
       <c r="C61" t="s">
         <v>37</v>
       </c>
@@ -3695,7 +3695,7 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="112" t="s">
+      <c r="A80" s="114" t="s">
         <v>0</v>
       </c>
       <c r="B80" t="s">
@@ -3712,10 +3712,10 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="112"/>
+      <c r="A81" s="114"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="112"/>
+      <c r="A82" s="114"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
@@ -3723,7 +3723,7 @@
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="112" t="s">
+      <c r="A87" s="114" t="s">
         <v>0</v>
       </c>
       <c r="B87" t="s">
@@ -3731,19 +3731,19 @@
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="112"/>
+      <c r="A88" s="114"/>
       <c r="B88" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="112"/>
+      <c r="A89" s="114"/>
       <c r="B89" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="112"/>
+      <c r="A90" s="114"/>
       <c r="B90" t="s">
         <v>58</v>
       </c>
@@ -3754,7 +3754,7 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="112" t="s">
+      <c r="A95" s="114" t="s">
         <v>0</v>
       </c>
       <c r="B95" t="s">
@@ -3771,10 +3771,10 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="112"/>
+      <c r="A96" s="114"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="112"/>
+      <c r="A97" s="114"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
@@ -3782,7 +3782,7 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="209" t="s">
+      <c r="A101" s="115" t="s">
         <v>0</v>
       </c>
       <c r="B101" t="s">
@@ -3793,31 +3793,31 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="209"/>
+      <c r="A102" s="115"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="209"/>
+      <c r="A103" s="115"/>
       <c r="B103">
         <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="209"/>
+      <c r="A104" s="115"/>
       <c r="D104">
         <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="209"/>
+      <c r="A105" s="115"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="210"/>
+      <c r="A106" s="113"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="210"/>
+      <c r="A107" s="113"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="210"/>
+      <c r="A108" s="113"/>
       <c r="B108" t="s">
         <v>269</v>
       </c>
@@ -3826,37 +3826,37 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="210"/>
+      <c r="A109" s="113"/>
       <c r="B109">
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="210"/>
+      <c r="A110" s="113"/>
       <c r="B110">
         <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="210"/>
+      <c r="A111" s="113"/>
       <c r="D111">
         <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="210"/>
+      <c r="A112" s="113"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="208"/>
+      <c r="A113" s="112"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="208"/>
+      <c r="A114" s="112"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="208"/>
+      <c r="A115" s="112"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="208"/>
+      <c r="A116" s="112"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
@@ -3864,7 +3864,7 @@
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="112" t="s">
+      <c r="A118" s="114" t="s">
         <v>0</v>
       </c>
       <c r="B118" t="s">
@@ -3884,10 +3884,10 @@
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="112"/>
+      <c r="A119" s="114"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="112"/>
+      <c r="A120" s="114"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
@@ -3895,7 +3895,7 @@
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="112" t="s">
+      <c r="A124" s="114" t="s">
         <v>0</v>
       </c>
       <c r="B124" t="s">
@@ -3909,10 +3909,10 @@
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="112"/>
+      <c r="A125" s="114"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="112"/>
+      <c r="A126" s="114"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
@@ -3920,7 +3920,7 @@
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" s="112" t="s">
+      <c r="A132" s="114" t="s">
         <v>0</v>
       </c>
       <c r="B132" t="s">
@@ -3940,10 +3940,10 @@
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133" s="112"/>
+      <c r="A133" s="114"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" s="112"/>
+      <c r="A134" s="114"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
@@ -3951,7 +3951,7 @@
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A138" s="112" t="s">
+      <c r="A138" s="114" t="s">
         <v>0</v>
       </c>
       <c r="B138" t="s">
@@ -3971,18 +3971,13 @@
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" s="112"/>
+      <c r="A139" s="114"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A140" s="112"/>
+      <c r="A140" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A101:A105"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="A124:A126"/>
-    <mergeCell ref="A138:A140"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="A118:A120"/>
@@ -3996,6 +3991,11 @@
     <mergeCell ref="A95:A97"/>
     <mergeCell ref="A59:A61"/>
     <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A101:A105"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="A124:A126"/>
+    <mergeCell ref="A138:A140"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4020,7 +4020,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="114" t="s">
         <v>0</v>
       </c>
       <c r="B2">
@@ -4028,16 +4028,16 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="112"/>
+      <c r="A3" s="114"/>
       <c r="B3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="112"/>
+      <c r="A4" s="114"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="112"/>
+      <c r="A5" s="114"/>
       <c r="B5">
         <f>SUM(B2:B3)</f>
         <v>3</v>
@@ -4076,23 +4076,23 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="177" t="s">
+      <c r="B2" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
-      <c r="G2" s="178"/>
-      <c r="H2" s="178"/>
-      <c r="I2" s="179"/>
-      <c r="J2" s="176"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="128"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="122"/>
+      <c r="A3" s="117"/>
       <c r="B3" s="3">
         <v>28</v>
       </c>
@@ -4117,7 +4117,7 @@
       <c r="I3" s="3">
         <v>35</v>
       </c>
-      <c r="J3" s="176"/>
+      <c r="J3" s="128"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -4125,22 +4125,22 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="122" t="s">
+      <c r="A8" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="177" t="s">
+      <c r="B8" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="178"/>
-      <c r="D8" s="178"/>
-      <c r="E8" s="178"/>
-      <c r="F8" s="178"/>
-      <c r="G8" s="178"/>
-      <c r="H8" s="178"/>
-      <c r="I8" s="179"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="120"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="122"/>
+      <c r="A9" s="117"/>
       <c r="B9" s="3">
         <v>28</v>
       </c>
@@ -4167,7 +4167,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="122"/>
+      <c r="A10" s="117"/>
       <c r="B10" s="4">
         <v>1</v>
       </c>
@@ -4194,7 +4194,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="122"/>
+      <c r="A11" s="117"/>
       <c r="B11" s="4">
         <v>1</v>
       </c>
@@ -4221,7 +4221,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="122"/>
+      <c r="A12" s="117"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4">
@@ -4234,7 +4234,7 @@
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="122"/>
+      <c r="A13" s="117"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="4"/>
@@ -4247,7 +4247,7 @@
       <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="122"/>
+      <c r="A14" s="117"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -4260,7 +4260,7 @@
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="122"/>
+      <c r="A15" s="117"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -4273,7 +4273,7 @@
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="122"/>
+      <c r="A16" s="117"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -4289,16 +4289,16 @@
       <c r="A20" s="1"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A22" s="122" t="s">
+      <c r="A22" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="188" t="s">
+      <c r="B22" s="126" t="s">
         <v>110</v>
       </c>
-      <c r="C22" s="170" t="s">
+      <c r="C22" s="137" t="s">
         <v>111</v>
       </c>
-      <c r="D22" s="151" t="s">
+      <c r="D22" s="143" t="s">
         <v>112</v>
       </c>
       <c r="E22" s="56"/>
@@ -4311,10 +4311,10 @@
       <c r="L22" s="58"/>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A23" s="122"/>
-      <c r="B23" s="189"/>
-      <c r="C23" s="171"/>
-      <c r="D23" s="152"/>
+      <c r="A23" s="117"/>
+      <c r="B23" s="127"/>
+      <c r="C23" s="138"/>
+      <c r="D23" s="144"/>
       <c r="E23" s="3">
         <v>28</v>
       </c>
@@ -4341,7 +4341,7 @@
       </c>
     </row>
     <row r="24" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="122"/>
+      <c r="A24" s="117"/>
       <c r="C24" s="36">
         <v>2040</v>
       </c>
@@ -4374,7 +4374,7 @@
       </c>
     </row>
     <row r="25" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="122"/>
+      <c r="A25" s="117"/>
       <c r="B25" s="47"/>
       <c r="C25" s="48">
         <v>980</v>
@@ -4408,7 +4408,7 @@
       </c>
     </row>
     <row r="26" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="122"/>
+      <c r="A26" s="117"/>
       <c r="B26" s="46"/>
       <c r="C26" s="36">
         <v>96</v>
@@ -4428,7 +4428,7 @@
       <c r="L26" s="5"/>
     </row>
     <row r="27" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="122"/>
+      <c r="A27" s="117"/>
       <c r="B27" s="46">
         <v>16501</v>
       </c>
@@ -4450,7 +4450,7 @@
       <c r="L27" s="5"/>
     </row>
     <row r="28" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="122"/>
+      <c r="A28" s="117"/>
       <c r="B28" s="46"/>
       <c r="C28" s="36">
         <v>96</v>
@@ -4470,7 +4470,7 @@
       <c r="L28" s="6"/>
     </row>
     <row r="29" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="122"/>
+      <c r="A29" s="117"/>
       <c r="B29" s="46"/>
       <c r="C29" s="36">
         <v>96</v>
@@ -4490,7 +4490,7 @@
       <c r="L29" s="6"/>
     </row>
     <row r="30" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="122"/>
+      <c r="A30" s="117"/>
       <c r="B30" s="46"/>
       <c r="C30" s="36">
         <v>96</v>
@@ -4510,7 +4510,7 @@
       <c r="L30" s="6"/>
     </row>
     <row r="31" spans="1:29" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A31" s="122"/>
+      <c r="A31" s="117"/>
       <c r="C31">
         <f>SUM(C24:C30)</f>
         <v>3500</v>
@@ -4527,26 +4527,26 @@
       </c>
     </row>
     <row r="32" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A32" s="122"/>
-      <c r="B32" s="185"/>
-      <c r="C32" s="186"/>
-      <c r="D32" s="186"/>
-      <c r="E32" s="186"/>
-      <c r="F32" s="186"/>
-      <c r="G32" s="186"/>
-      <c r="H32" s="186"/>
-      <c r="I32" s="186"/>
-      <c r="J32" s="186"/>
-      <c r="K32" s="186"/>
-      <c r="L32" s="186"/>
-      <c r="M32" s="186"/>
-      <c r="N32" s="186"/>
-      <c r="O32" s="186"/>
-      <c r="P32" s="186"/>
-      <c r="Q32" s="186"/>
-      <c r="R32" s="186"/>
-      <c r="S32" s="186"/>
-      <c r="T32" s="187"/>
+      <c r="A32" s="117"/>
+      <c r="B32" s="134"/>
+      <c r="C32" s="135"/>
+      <c r="D32" s="135"/>
+      <c r="E32" s="135"/>
+      <c r="F32" s="135"/>
+      <c r="G32" s="135"/>
+      <c r="H32" s="135"/>
+      <c r="I32" s="135"/>
+      <c r="J32" s="135"/>
+      <c r="K32" s="135"/>
+      <c r="L32" s="135"/>
+      <c r="M32" s="135"/>
+      <c r="N32" s="135"/>
+      <c r="O32" s="135"/>
+      <c r="P32" s="135"/>
+      <c r="Q32" s="135"/>
+      <c r="R32" s="135"/>
+      <c r="S32" s="135"/>
+      <c r="T32" s="136"/>
       <c r="U32" s="15"/>
       <c r="V32" s="15"/>
       <c r="W32" s="26"/>
@@ -4565,37 +4565,37 @@
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A39" s="122" t="s">
+      <c r="A39" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="188" t="s">
+      <c r="B39" s="126" t="s">
         <v>110</v>
       </c>
-      <c r="C39" s="130" t="s">
+      <c r="C39" s="124" t="s">
         <v>80</v>
       </c>
-      <c r="D39" s="190" t="s">
+      <c r="D39" s="122" t="s">
         <v>81</v>
       </c>
-      <c r="E39" s="130" t="s">
+      <c r="E39" s="124" t="s">
         <v>82</v>
       </c>
-      <c r="F39" s="130" t="s">
+      <c r="F39" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="G39" s="128" t="s">
+      <c r="G39" s="147" t="s">
         <v>84</v>
       </c>
-      <c r="H39" s="130" t="s">
+      <c r="H39" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="I39" s="128" t="s">
+      <c r="I39" s="147" t="s">
         <v>86</v>
       </c>
-      <c r="J39" s="130" t="s">
+      <c r="J39" s="124" t="s">
         <v>87</v>
       </c>
-      <c r="K39" s="130" t="s">
+      <c r="K39" s="124" t="s">
         <v>88</v>
       </c>
       <c r="L39" s="56"/>
@@ -4606,49 +4606,49 @@
       <c r="Q39" s="57"/>
       <c r="R39" s="57"/>
       <c r="S39" s="58"/>
-      <c r="T39" s="130" t="s">
+      <c r="T39" s="124" t="s">
         <v>89</v>
       </c>
-      <c r="U39" s="130" t="s">
+      <c r="U39" s="124" t="s">
         <v>90</v>
       </c>
-      <c r="V39" s="170" t="s">
+      <c r="V39" s="137" t="s">
         <v>111</v>
       </c>
-      <c r="W39" s="168" t="s">
+      <c r="W39" s="162" t="s">
         <v>91</v>
       </c>
-      <c r="X39" s="172" t="s">
+      <c r="X39" s="139" t="s">
         <v>92</v>
       </c>
-      <c r="Y39" s="174" t="s">
+      <c r="Y39" s="141" t="s">
         <v>93</v>
       </c>
-      <c r="Z39" s="126" t="s">
+      <c r="Z39" s="164" t="s">
         <v>94</v>
       </c>
-      <c r="AA39" s="166" t="s">
+      <c r="AA39" s="145" t="s">
         <v>95</v>
       </c>
-      <c r="AB39" s="166" t="s">
+      <c r="AB39" s="145" t="s">
         <v>96</v>
       </c>
-      <c r="AC39" s="151" t="s">
+      <c r="AC39" s="143" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A40" s="122"/>
-      <c r="B40" s="189"/>
-      <c r="C40" s="131"/>
-      <c r="D40" s="191"/>
-      <c r="E40" s="131"/>
-      <c r="F40" s="131"/>
-      <c r="G40" s="129"/>
-      <c r="H40" s="131"/>
-      <c r="I40" s="129"/>
-      <c r="J40" s="131"/>
-      <c r="K40" s="131"/>
+      <c r="A40" s="117"/>
+      <c r="B40" s="127"/>
+      <c r="C40" s="125"/>
+      <c r="D40" s="123"/>
+      <c r="E40" s="125"/>
+      <c r="F40" s="125"/>
+      <c r="G40" s="148"/>
+      <c r="H40" s="125"/>
+      <c r="I40" s="148"/>
+      <c r="J40" s="125"/>
+      <c r="K40" s="125"/>
       <c r="L40" s="3">
         <v>28</v>
       </c>
@@ -4673,42 +4673,42 @@
       <c r="S40" s="3">
         <v>35</v>
       </c>
-      <c r="T40" s="131"/>
-      <c r="U40" s="131"/>
-      <c r="V40" s="171"/>
-      <c r="W40" s="169"/>
-      <c r="X40" s="173"/>
-      <c r="Y40" s="175"/>
-      <c r="Z40" s="127"/>
-      <c r="AA40" s="167"/>
-      <c r="AB40" s="167"/>
-      <c r="AC40" s="152"/>
+      <c r="T40" s="125"/>
+      <c r="U40" s="125"/>
+      <c r="V40" s="138"/>
+      <c r="W40" s="163"/>
+      <c r="X40" s="140"/>
+      <c r="Y40" s="142"/>
+      <c r="Z40" s="165"/>
+      <c r="AA40" s="146"/>
+      <c r="AB40" s="146"/>
+      <c r="AC40" s="144"/>
     </row>
     <row r="41" spans="1:29" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A41" s="122"/>
-      <c r="C41" s="153">
+      <c r="A41" s="117"/>
+      <c r="C41" s="149">
         <v>91338035</v>
       </c>
       <c r="D41" s="7">
         <v>532325</v>
       </c>
-      <c r="E41" s="153" t="s">
+      <c r="E41" s="149" t="s">
         <v>97</v>
       </c>
-      <c r="F41" s="156" t="s">
+      <c r="F41" s="152" t="s">
         <v>98</v>
       </c>
-      <c r="G41" s="153" t="s">
+      <c r="G41" s="149" t="s">
         <v>98</v>
       </c>
-      <c r="H41" s="153"/>
-      <c r="I41" s="156" t="s">
+      <c r="H41" s="149"/>
+      <c r="I41" s="152" t="s">
         <v>99</v>
       </c>
-      <c r="J41" s="156" t="s">
+      <c r="J41" s="152" t="s">
         <v>100</v>
       </c>
-      <c r="K41" s="156" t="s">
+      <c r="K41" s="152" t="s">
         <v>125</v>
       </c>
       <c r="L41" s="4">
@@ -4748,13 +4748,13 @@
       <c r="W41" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="X41" s="159" t="s">
+      <c r="X41" s="155" t="s">
         <v>102</v>
       </c>
       <c r="Y41" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="Z41" s="161">
+      <c r="Z41" s="157">
         <v>43171</v>
       </c>
       <c r="AA41" s="12"/>
@@ -4765,19 +4765,19 @@
       </c>
     </row>
     <row r="42" spans="1:29" s="45" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A42" s="122"/>
+      <c r="A42" s="117"/>
       <c r="B42" s="47"/>
-      <c r="C42" s="154"/>
+      <c r="C42" s="150"/>
       <c r="D42" s="48">
         <v>532326</v>
       </c>
-      <c r="E42" s="154"/>
-      <c r="F42" s="157"/>
-      <c r="G42" s="154"/>
-      <c r="H42" s="154"/>
-      <c r="I42" s="157"/>
-      <c r="J42" s="157"/>
-      <c r="K42" s="157"/>
+      <c r="E42" s="150"/>
+      <c r="F42" s="153"/>
+      <c r="G42" s="150"/>
+      <c r="H42" s="150"/>
+      <c r="I42" s="153"/>
+      <c r="J42" s="153"/>
+      <c r="K42" s="153"/>
       <c r="L42" s="49">
         <v>1</v>
       </c>
@@ -4815,11 +4815,11 @@
       <c r="W42" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="X42" s="160"/>
+      <c r="X42" s="156"/>
       <c r="Y42" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="Z42" s="162"/>
+      <c r="Z42" s="158"/>
       <c r="AA42" s="54"/>
       <c r="AB42" s="54"/>
       <c r="AC42" s="55">
@@ -4828,19 +4828,19 @@
       </c>
     </row>
     <row r="43" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A43" s="122"/>
+      <c r="A43" s="117"/>
       <c r="B43" s="46"/>
-      <c r="C43" s="154"/>
+      <c r="C43" s="150"/>
       <c r="D43" s="7">
         <v>533180</v>
       </c>
-      <c r="E43" s="154"/>
-      <c r="F43" s="157"/>
-      <c r="G43" s="154"/>
-      <c r="H43" s="154"/>
-      <c r="I43" s="157"/>
-      <c r="J43" s="157"/>
-      <c r="K43" s="157" t="s">
+      <c r="E43" s="150"/>
+      <c r="F43" s="153"/>
+      <c r="G43" s="150"/>
+      <c r="H43" s="150"/>
+      <c r="I43" s="153"/>
+      <c r="J43" s="153"/>
+      <c r="K43" s="153" t="s">
         <v>126</v>
       </c>
       <c r="L43" s="4"/>
@@ -4866,11 +4866,11 @@
       <c r="W43" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="X43" s="160"/>
-      <c r="Y43" s="164" t="s">
+      <c r="X43" s="156"/>
+      <c r="Y43" s="160" t="s">
         <v>107</v>
       </c>
-      <c r="Z43" s="162"/>
+      <c r="Z43" s="158"/>
       <c r="AA43" s="12"/>
       <c r="AB43" s="12"/>
       <c r="AC43" s="13">
@@ -4879,21 +4879,21 @@
       </c>
     </row>
     <row r="44" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A44" s="122"/>
+      <c r="A44" s="117"/>
       <c r="B44" s="46">
         <v>16501</v>
       </c>
-      <c r="C44" s="154"/>
+      <c r="C44" s="150"/>
       <c r="D44" s="7">
         <v>533181</v>
       </c>
-      <c r="E44" s="154"/>
-      <c r="F44" s="157"/>
-      <c r="G44" s="154"/>
-      <c r="H44" s="154"/>
-      <c r="I44" s="157"/>
-      <c r="J44" s="157"/>
-      <c r="K44" s="157"/>
+      <c r="E44" s="150"/>
+      <c r="F44" s="153"/>
+      <c r="G44" s="150"/>
+      <c r="H44" s="150"/>
+      <c r="I44" s="153"/>
+      <c r="J44" s="153"/>
+      <c r="K44" s="153"/>
       <c r="L44" s="4"/>
       <c r="M44" s="5"/>
       <c r="N44" s="4"/>
@@ -4917,9 +4917,9 @@
       <c r="W44" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="X44" s="160"/>
-      <c r="Y44" s="165"/>
-      <c r="Z44" s="162"/>
+      <c r="X44" s="156"/>
+      <c r="Y44" s="161"/>
+      <c r="Z44" s="158"/>
       <c r="AA44" s="12"/>
       <c r="AB44" s="12"/>
       <c r="AC44" s="13">
@@ -4928,19 +4928,19 @@
       </c>
     </row>
     <row r="45" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A45" s="122"/>
+      <c r="A45" s="117"/>
       <c r="B45" s="46"/>
-      <c r="C45" s="154"/>
+      <c r="C45" s="150"/>
       <c r="D45" s="7">
         <v>533182</v>
       </c>
-      <c r="E45" s="154"/>
-      <c r="F45" s="157"/>
-      <c r="G45" s="154"/>
-      <c r="H45" s="154"/>
-      <c r="I45" s="157"/>
-      <c r="J45" s="157"/>
-      <c r="K45" s="157"/>
+      <c r="E45" s="150"/>
+      <c r="F45" s="153"/>
+      <c r="G45" s="150"/>
+      <c r="H45" s="150"/>
+      <c r="I45" s="153"/>
+      <c r="J45" s="153"/>
+      <c r="K45" s="153"/>
       <c r="L45" s="4"/>
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
@@ -4964,9 +4964,9 @@
       <c r="W45" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="X45" s="160"/>
-      <c r="Y45" s="165"/>
-      <c r="Z45" s="162"/>
+      <c r="X45" s="156"/>
+      <c r="Y45" s="161"/>
+      <c r="Z45" s="158"/>
       <c r="AA45" s="12"/>
       <c r="AB45" s="12"/>
       <c r="AC45" s="13">
@@ -4975,19 +4975,19 @@
       </c>
     </row>
     <row r="46" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A46" s="122"/>
+      <c r="A46" s="117"/>
       <c r="B46" s="46"/>
-      <c r="C46" s="154"/>
+      <c r="C46" s="150"/>
       <c r="D46" s="36">
         <v>533183</v>
       </c>
-      <c r="E46" s="154"/>
-      <c r="F46" s="157"/>
-      <c r="G46" s="154"/>
-      <c r="H46" s="154"/>
-      <c r="I46" s="157"/>
-      <c r="J46" s="157"/>
-      <c r="K46" s="157"/>
+      <c r="E46" s="150"/>
+      <c r="F46" s="153"/>
+      <c r="G46" s="150"/>
+      <c r="H46" s="150"/>
+      <c r="I46" s="153"/>
+      <c r="J46" s="153"/>
+      <c r="K46" s="153"/>
       <c r="L46" s="4"/>
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
@@ -5011,9 +5011,9 @@
       <c r="W46" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="X46" s="160"/>
-      <c r="Y46" s="165"/>
-      <c r="Z46" s="162"/>
+      <c r="X46" s="156"/>
+      <c r="Y46" s="161"/>
+      <c r="Z46" s="158"/>
       <c r="AA46" s="12"/>
       <c r="AB46" s="12"/>
       <c r="AC46" s="13">
@@ -5022,19 +5022,19 @@
       </c>
     </row>
     <row r="47" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A47" s="122"/>
+      <c r="A47" s="117"/>
       <c r="B47" s="46"/>
-      <c r="C47" s="155"/>
+      <c r="C47" s="151"/>
       <c r="D47" s="36">
         <v>533184</v>
       </c>
-      <c r="E47" s="155"/>
-      <c r="F47" s="158"/>
-      <c r="G47" s="155"/>
-      <c r="H47" s="155"/>
-      <c r="I47" s="158"/>
-      <c r="J47" s="158"/>
-      <c r="K47" s="158"/>
+      <c r="E47" s="151"/>
+      <c r="F47" s="154"/>
+      <c r="G47" s="151"/>
+      <c r="H47" s="151"/>
+      <c r="I47" s="154"/>
+      <c r="J47" s="154"/>
+      <c r="K47" s="154"/>
       <c r="L47" s="4"/>
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
@@ -5058,9 +5058,9 @@
       <c r="W47" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="X47" s="160"/>
-      <c r="Y47" s="165"/>
-      <c r="Z47" s="163"/>
+      <c r="X47" s="156"/>
+      <c r="Y47" s="161"/>
+      <c r="Z47" s="159"/>
       <c r="AA47" s="12"/>
       <c r="AB47" s="12"/>
       <c r="AC47" s="13">
@@ -5069,7 +5069,7 @@
       </c>
     </row>
     <row r="48" spans="1:29" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A48" s="122"/>
+      <c r="A48" s="117"/>
       <c r="W48" s="14"/>
       <c r="X48" s="16"/>
       <c r="Y48" s="17"/>
@@ -5088,26 +5088,26 @@
       </c>
     </row>
     <row r="49" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A49" s="122"/>
-      <c r="B49" s="185"/>
-      <c r="C49" s="186"/>
-      <c r="D49" s="186"/>
-      <c r="E49" s="186"/>
-      <c r="F49" s="186"/>
-      <c r="G49" s="186"/>
-      <c r="H49" s="186"/>
-      <c r="I49" s="186"/>
-      <c r="J49" s="186"/>
-      <c r="K49" s="186"/>
-      <c r="L49" s="186"/>
-      <c r="M49" s="186"/>
-      <c r="N49" s="186"/>
-      <c r="O49" s="186"/>
-      <c r="P49" s="186"/>
-      <c r="Q49" s="186"/>
-      <c r="R49" s="186"/>
-      <c r="S49" s="186"/>
-      <c r="T49" s="187"/>
+      <c r="A49" s="117"/>
+      <c r="B49" s="134"/>
+      <c r="C49" s="135"/>
+      <c r="D49" s="135"/>
+      <c r="E49" s="135"/>
+      <c r="F49" s="135"/>
+      <c r="G49" s="135"/>
+      <c r="H49" s="135"/>
+      <c r="I49" s="135"/>
+      <c r="J49" s="135"/>
+      <c r="K49" s="135"/>
+      <c r="L49" s="135"/>
+      <c r="M49" s="135"/>
+      <c r="N49" s="135"/>
+      <c r="O49" s="135"/>
+      <c r="P49" s="135"/>
+      <c r="Q49" s="135"/>
+      <c r="R49" s="135"/>
+      <c r="S49" s="135"/>
+      <c r="T49" s="136"/>
       <c r="U49" s="15"/>
       <c r="V49" s="15">
         <f>SUM(V41:V47)</f>
@@ -5154,67 +5154,67 @@
       </c>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A63" s="122" t="s">
+      <c r="A63" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B63" s="188" t="s">
+      <c r="B63" s="126" t="s">
         <v>158</v>
       </c>
-      <c r="C63" s="130" t="s">
+      <c r="C63" s="124" t="s">
         <v>80</v>
       </c>
-      <c r="D63" s="190" t="s">
+      <c r="D63" s="122" t="s">
         <v>81</v>
       </c>
-      <c r="E63" s="130" t="s">
+      <c r="E63" s="124" t="s">
         <v>82</v>
       </c>
-      <c r="F63" s="130" t="s">
+      <c r="F63" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="G63" s="128" t="s">
+      <c r="G63" s="147" t="s">
         <v>84</v>
       </c>
-      <c r="H63" s="130" t="s">
+      <c r="H63" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="I63" s="128" t="s">
+      <c r="I63" s="147" t="s">
         <v>86</v>
       </c>
-      <c r="J63" s="130" t="s">
+      <c r="J63" s="124" t="s">
         <v>87</v>
       </c>
-      <c r="K63" s="130" t="s">
+      <c r="K63" s="124" t="s">
         <v>88</v>
       </c>
-      <c r="L63" s="130" t="s">
+      <c r="L63" s="124" t="s">
         <v>89</v>
       </c>
-      <c r="M63" s="130" t="s">
+      <c r="M63" s="124" t="s">
         <v>90</v>
       </c>
-      <c r="N63" s="170" t="s">
+      <c r="N63" s="137" t="s">
         <v>111</v>
       </c>
-      <c r="O63" s="168" t="s">
+      <c r="O63" s="162" t="s">
         <v>91</v>
       </c>
-      <c r="P63" s="172" t="s">
+      <c r="P63" s="139" t="s">
         <v>92</v>
       </c>
-      <c r="Q63" s="174" t="s">
+      <c r="Q63" s="141" t="s">
         <v>93</v>
       </c>
-      <c r="R63" s="126" t="s">
+      <c r="R63" s="164" t="s">
         <v>94</v>
       </c>
-      <c r="S63" s="166" t="s">
+      <c r="S63" s="145" t="s">
         <v>95</v>
       </c>
-      <c r="T63" s="166" t="s">
+      <c r="T63" s="145" t="s">
         <v>96</v>
       </c>
-      <c r="U63" s="151" t="s">
+      <c r="U63" s="143" t="s">
         <v>112</v>
       </c>
       <c r="V63" s="56"/>
@@ -5227,27 +5227,27 @@
       <c r="AC63" s="58"/>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A64" s="122"/>
-      <c r="B64" s="189"/>
-      <c r="C64" s="131"/>
-      <c r="D64" s="191"/>
-      <c r="E64" s="131"/>
-      <c r="F64" s="131"/>
-      <c r="G64" s="129"/>
-      <c r="H64" s="131"/>
-      <c r="I64" s="129"/>
-      <c r="J64" s="131"/>
-      <c r="K64" s="131"/>
-      <c r="L64" s="131"/>
-      <c r="M64" s="131"/>
-      <c r="N64" s="171"/>
-      <c r="O64" s="169"/>
-      <c r="P64" s="173"/>
-      <c r="Q64" s="175"/>
-      <c r="R64" s="127"/>
-      <c r="S64" s="167"/>
-      <c r="T64" s="167"/>
-      <c r="U64" s="152"/>
+      <c r="A64" s="117"/>
+      <c r="B64" s="127"/>
+      <c r="C64" s="125"/>
+      <c r="D64" s="123"/>
+      <c r="E64" s="125"/>
+      <c r="F64" s="125"/>
+      <c r="G64" s="148"/>
+      <c r="H64" s="125"/>
+      <c r="I64" s="148"/>
+      <c r="J64" s="125"/>
+      <c r="K64" s="125"/>
+      <c r="L64" s="125"/>
+      <c r="M64" s="125"/>
+      <c r="N64" s="138"/>
+      <c r="O64" s="163"/>
+      <c r="P64" s="140"/>
+      <c r="Q64" s="142"/>
+      <c r="R64" s="165"/>
+      <c r="S64" s="146"/>
+      <c r="T64" s="146"/>
+      <c r="U64" s="144"/>
       <c r="V64" s="3">
         <v>28</v>
       </c>
@@ -5274,30 +5274,30 @@
       </c>
     </row>
     <row r="65" spans="1:29" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A65" s="122"/>
-      <c r="C65" s="153">
+      <c r="A65" s="117"/>
+      <c r="C65" s="149">
         <v>91338035</v>
       </c>
       <c r="D65" s="36">
         <v>532325</v>
       </c>
-      <c r="E65" s="153" t="s">
+      <c r="E65" s="149" t="s">
         <v>97</v>
       </c>
-      <c r="F65" s="156" t="s">
+      <c r="F65" s="152" t="s">
         <v>98</v>
       </c>
-      <c r="G65" s="153" t="s">
+      <c r="G65" s="149" t="s">
         <v>98</v>
       </c>
-      <c r="H65" s="153"/>
-      <c r="I65" s="156" t="s">
+      <c r="H65" s="149"/>
+      <c r="I65" s="152" t="s">
         <v>99</v>
       </c>
-      <c r="J65" s="156" t="s">
+      <c r="J65" s="152" t="s">
         <v>100</v>
       </c>
-      <c r="K65" s="156" t="s">
+      <c r="K65" s="152" t="s">
         <v>125</v>
       </c>
       <c r="L65" s="8">
@@ -5313,13 +5313,13 @@
       <c r="O65" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="P65" s="159" t="s">
+      <c r="P65" s="155" t="s">
         <v>102</v>
       </c>
       <c r="Q65" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="R65" s="161">
+      <c r="R65" s="157">
         <v>43171</v>
       </c>
       <c r="S65" s="12"/>
@@ -5354,19 +5354,19 @@
       </c>
     </row>
     <row r="66" spans="1:29" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A66" s="122"/>
+      <c r="A66" s="117"/>
       <c r="B66" s="47"/>
-      <c r="C66" s="154"/>
+      <c r="C66" s="150"/>
       <c r="D66" s="48">
         <v>532326</v>
       </c>
-      <c r="E66" s="154"/>
-      <c r="F66" s="157"/>
-      <c r="G66" s="154"/>
-      <c r="H66" s="154"/>
-      <c r="I66" s="157"/>
-      <c r="J66" s="157"/>
-      <c r="K66" s="157"/>
+      <c r="E66" s="150"/>
+      <c r="F66" s="153"/>
+      <c r="G66" s="150"/>
+      <c r="H66" s="150"/>
+      <c r="I66" s="153"/>
+      <c r="J66" s="153"/>
+      <c r="K66" s="153"/>
       <c r="L66" s="50">
         <v>10</v>
       </c>
@@ -5380,11 +5380,11 @@
       <c r="O66" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="P66" s="160"/>
+      <c r="P66" s="156"/>
       <c r="Q66" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="R66" s="162"/>
+      <c r="R66" s="158"/>
       <c r="S66" s="54"/>
       <c r="T66" s="54"/>
       <c r="U66" s="55">
@@ -5417,19 +5417,19 @@
       </c>
     </row>
     <row r="67" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A67" s="122"/>
+      <c r="A67" s="117"/>
       <c r="B67" s="46"/>
-      <c r="C67" s="154"/>
+      <c r="C67" s="150"/>
       <c r="D67" s="36">
         <v>533180</v>
       </c>
-      <c r="E67" s="154"/>
-      <c r="F67" s="157"/>
-      <c r="G67" s="154"/>
-      <c r="H67" s="154"/>
-      <c r="I67" s="157"/>
-      <c r="J67" s="157"/>
-      <c r="K67" s="157" t="s">
+      <c r="E67" s="150"/>
+      <c r="F67" s="153"/>
+      <c r="G67" s="150"/>
+      <c r="H67" s="150"/>
+      <c r="I67" s="153"/>
+      <c r="J67" s="153"/>
+      <c r="K67" s="153" t="s">
         <v>126</v>
       </c>
       <c r="L67" s="8">
@@ -5445,11 +5445,11 @@
       <c r="O67" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="P67" s="160"/>
-      <c r="Q67" s="164" t="s">
+      <c r="P67" s="156"/>
+      <c r="Q67" s="160" t="s">
         <v>107</v>
       </c>
-      <c r="R67" s="162"/>
+      <c r="R67" s="158"/>
       <c r="S67" s="12"/>
       <c r="T67" s="12"/>
       <c r="U67" s="13">
@@ -5468,21 +5468,21 @@
       <c r="AC67" s="5"/>
     </row>
     <row r="68" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A68" s="122"/>
+      <c r="A68" s="117"/>
       <c r="B68" s="46">
         <v>16501</v>
       </c>
-      <c r="C68" s="154"/>
+      <c r="C68" s="150"/>
       <c r="D68" s="36">
         <v>533181</v>
       </c>
-      <c r="E68" s="154"/>
-      <c r="F68" s="157"/>
-      <c r="G68" s="154"/>
-      <c r="H68" s="154"/>
-      <c r="I68" s="157"/>
-      <c r="J68" s="157"/>
-      <c r="K68" s="157"/>
+      <c r="E68" s="150"/>
+      <c r="F68" s="153"/>
+      <c r="G68" s="150"/>
+      <c r="H68" s="150"/>
+      <c r="I68" s="153"/>
+      <c r="J68" s="153"/>
+      <c r="K68" s="153"/>
       <c r="L68" s="8">
         <v>16</v>
       </c>
@@ -5496,9 +5496,9 @@
       <c r="O68" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="P68" s="160"/>
-      <c r="Q68" s="165"/>
-      <c r="R68" s="162"/>
+      <c r="P68" s="156"/>
+      <c r="Q68" s="161"/>
+      <c r="R68" s="158"/>
       <c r="S68" s="12"/>
       <c r="T68" s="12"/>
       <c r="U68" s="13">
@@ -5517,19 +5517,19 @@
       <c r="AC68" s="5"/>
     </row>
     <row r="69" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A69" s="122"/>
+      <c r="A69" s="117"/>
       <c r="B69" s="46"/>
-      <c r="C69" s="154"/>
+      <c r="C69" s="150"/>
       <c r="D69" s="36">
         <v>533182</v>
       </c>
-      <c r="E69" s="154"/>
-      <c r="F69" s="157"/>
-      <c r="G69" s="154"/>
-      <c r="H69" s="154"/>
-      <c r="I69" s="157"/>
-      <c r="J69" s="157"/>
-      <c r="K69" s="157"/>
+      <c r="E69" s="150"/>
+      <c r="F69" s="153"/>
+      <c r="G69" s="150"/>
+      <c r="H69" s="150"/>
+      <c r="I69" s="153"/>
+      <c r="J69" s="153"/>
+      <c r="K69" s="153"/>
       <c r="L69" s="8">
         <v>16</v>
       </c>
@@ -5543,9 +5543,9 @@
       <c r="O69" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="P69" s="160"/>
-      <c r="Q69" s="165"/>
-      <c r="R69" s="162"/>
+      <c r="P69" s="156"/>
+      <c r="Q69" s="161"/>
+      <c r="R69" s="158"/>
       <c r="S69" s="12"/>
       <c r="T69" s="12"/>
       <c r="U69" s="13">
@@ -5564,19 +5564,19 @@
       <c r="AC69" s="6"/>
     </row>
     <row r="70" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A70" s="122"/>
+      <c r="A70" s="117"/>
       <c r="B70" s="46"/>
-      <c r="C70" s="154"/>
+      <c r="C70" s="150"/>
       <c r="D70" s="36">
         <v>533183</v>
       </c>
-      <c r="E70" s="154"/>
-      <c r="F70" s="157"/>
-      <c r="G70" s="154"/>
-      <c r="H70" s="154"/>
-      <c r="I70" s="157"/>
-      <c r="J70" s="157"/>
-      <c r="K70" s="157"/>
+      <c r="E70" s="150"/>
+      <c r="F70" s="153"/>
+      <c r="G70" s="150"/>
+      <c r="H70" s="150"/>
+      <c r="I70" s="153"/>
+      <c r="J70" s="153"/>
+      <c r="K70" s="153"/>
       <c r="L70" s="8">
         <v>16</v>
       </c>
@@ -5590,9 +5590,9 @@
       <c r="O70" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="P70" s="160"/>
-      <c r="Q70" s="165"/>
-      <c r="R70" s="162"/>
+      <c r="P70" s="156"/>
+      <c r="Q70" s="161"/>
+      <c r="R70" s="158"/>
       <c r="S70" s="12"/>
       <c r="T70" s="12"/>
       <c r="U70" s="13">
@@ -5611,19 +5611,19 @@
       <c r="AC70" s="6"/>
     </row>
     <row r="71" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A71" s="122"/>
+      <c r="A71" s="117"/>
       <c r="B71" s="46"/>
-      <c r="C71" s="155"/>
+      <c r="C71" s="151"/>
       <c r="D71" s="36">
         <v>533184</v>
       </c>
-      <c r="E71" s="155"/>
-      <c r="F71" s="158"/>
-      <c r="G71" s="155"/>
-      <c r="H71" s="155"/>
-      <c r="I71" s="158"/>
-      <c r="J71" s="158"/>
-      <c r="K71" s="158"/>
+      <c r="E71" s="151"/>
+      <c r="F71" s="154"/>
+      <c r="G71" s="151"/>
+      <c r="H71" s="151"/>
+      <c r="I71" s="154"/>
+      <c r="J71" s="154"/>
+      <c r="K71" s="154"/>
       <c r="L71" s="8">
         <v>16</v>
       </c>
@@ -5637,9 +5637,9 @@
       <c r="O71" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="P71" s="160"/>
-      <c r="Q71" s="165"/>
-      <c r="R71" s="163"/>
+      <c r="P71" s="156"/>
+      <c r="Q71" s="161"/>
+      <c r="R71" s="159"/>
       <c r="S71" s="12"/>
       <c r="T71" s="12"/>
       <c r="U71" s="13">
@@ -5658,7 +5658,7 @@
       <c r="AC71" s="6"/>
     </row>
     <row r="72" spans="1:29" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A72" s="122"/>
+      <c r="A72" s="117"/>
       <c r="S72" s="18">
         <f>SUM(S65:S71)</f>
         <v>0</v>
@@ -5673,7 +5673,7 @@
       </c>
     </row>
     <row r="73" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A73" s="122"/>
+      <c r="A73" s="117"/>
       <c r="B73" s="46"/>
       <c r="C73" s="46"/>
       <c r="D73" s="46"/>
@@ -5716,16 +5716,16 @@
       </c>
     </row>
     <row r="78" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A78" s="122" t="s">
+      <c r="A78" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B78" s="184" t="s">
+      <c r="B78" s="133" t="s">
         <v>139</v>
       </c>
-      <c r="C78" s="184" t="s">
+      <c r="C78" s="133" t="s">
         <v>140</v>
       </c>
-      <c r="D78" s="184" t="s">
+      <c r="D78" s="133" t="s">
         <v>141</v>
       </c>
       <c r="E78" s="38" t="s">
@@ -5751,10 +5751,10 @@
       </c>
     </row>
     <row r="79" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A79" s="122"/>
-      <c r="B79" s="184"/>
-      <c r="C79" s="184"/>
-      <c r="D79" s="184"/>
+      <c r="A79" s="117"/>
+      <c r="B79" s="133"/>
+      <c r="C79" s="133"/>
+      <c r="D79" s="133"/>
       <c r="E79" s="4" t="s">
         <v>143</v>
       </c>
@@ -5778,10 +5778,10 @@
       </c>
     </row>
     <row r="80" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A80" s="122"/>
-      <c r="B80" s="181"/>
-      <c r="C80" s="181"/>
-      <c r="D80" s="181"/>
+      <c r="A80" s="117"/>
+      <c r="B80" s="130"/>
+      <c r="C80" s="130"/>
+      <c r="D80" s="130"/>
       <c r="E80" s="4" t="s">
         <v>144</v>
       </c>
@@ -5805,14 +5805,14 @@
       </c>
     </row>
     <row r="81" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A81" s="122"/>
-      <c r="B81" s="180" t="s">
+      <c r="A81" s="117"/>
+      <c r="B81" s="129" t="s">
         <v>145</v>
       </c>
       <c r="C81" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="D81" s="180">
+      <c r="D81" s="129">
         <v>2129</v>
       </c>
       <c r="E81" s="42" t="s">
@@ -5844,12 +5844,12 @@
       </c>
     </row>
     <row r="82" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A82" s="122"/>
-      <c r="B82" s="181"/>
+      <c r="A82" s="117"/>
+      <c r="B82" s="130"/>
       <c r="C82" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="D82" s="181"/>
+      <c r="D82" s="130"/>
       <c r="E82" s="42" t="s">
         <v>147</v>
       </c>
@@ -5879,7 +5879,7 @@
       </c>
     </row>
     <row r="83" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A83" s="122"/>
+      <c r="A83" s="117"/>
       <c r="B83" s="44" t="s">
         <v>149</v>
       </c>
@@ -5918,14 +5918,14 @@
       </c>
     </row>
     <row r="84" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A84" s="122"/>
-      <c r="B84" s="180" t="s">
+      <c r="A84" s="117"/>
+      <c r="B84" s="129" t="s">
         <v>151</v>
       </c>
       <c r="C84" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="D84" s="182">
+      <c r="D84" s="131">
         <v>2129</v>
       </c>
       <c r="E84" s="42" t="s">
@@ -5957,12 +5957,12 @@
       </c>
     </row>
     <row r="85" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A85" s="122"/>
-      <c r="B85" s="181"/>
+      <c r="A85" s="117"/>
+      <c r="B85" s="130"/>
       <c r="C85" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="D85" s="183"/>
+      <c r="D85" s="132"/>
       <c r="E85" s="42" t="s">
         <v>147</v>
       </c>
@@ -5999,7 +5999,7 @@
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89" s="122" t="s">
+      <c r="A89" s="117" t="s">
         <v>0</v>
       </c>
       <c r="L89">
@@ -6015,7 +6015,7 @@
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90" s="122"/>
+      <c r="A90" s="117"/>
       <c r="L90">
         <v>2300</v>
       </c>
@@ -6025,7 +6025,7 @@
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91" s="122"/>
+      <c r="A91" s="117"/>
       <c r="L91">
         <v>1600</v>
       </c>
@@ -6058,7 +6058,7 @@
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94" s="122" t="s">
+      <c r="A94" s="117" t="s">
         <v>0</v>
       </c>
       <c r="B94" s="78"/>
@@ -6069,50 +6069,50 @@
       <c r="G94" s="78"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" s="122"/>
+      <c r="A95" s="117"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A96" s="122"/>
+      <c r="A96" s="117"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B98" s="113">
+      <c r="B98" s="116">
         <v>35</v>
       </c>
-      <c r="C98" s="113">
+      <c r="C98" s="116">
         <v>36</v>
       </c>
-      <c r="D98" s="113">
+      <c r="D98" s="116">
         <v>37</v>
       </c>
-      <c r="E98" s="113">
+      <c r="E98" s="116">
         <v>38</v>
       </c>
-      <c r="F98" s="113">
+      <c r="F98" s="116">
         <v>39</v>
       </c>
-      <c r="G98" s="113">
+      <c r="G98" s="116">
         <v>40</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="122" t="s">
+      <c r="A99" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B99" s="113"/>
-      <c r="C99" s="113"/>
-      <c r="D99" s="113"/>
-      <c r="E99" s="113"/>
-      <c r="F99" s="113"/>
-      <c r="G99" s="113"/>
+      <c r="B99" s="116"/>
+      <c r="C99" s="116"/>
+      <c r="D99" s="116"/>
+      <c r="E99" s="116"/>
+      <c r="F99" s="116"/>
+      <c r="G99" s="116"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="122"/>
+      <c r="A100" s="117"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="122"/>
+      <c r="A101" s="117"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
@@ -6123,7 +6123,7 @@
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="122" t="s">
+      <c r="A104" s="117" t="s">
         <v>0</v>
       </c>
       <c r="B104" s="78">
@@ -6146,10 +6146,10 @@
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="122"/>
+      <c r="A105" s="117"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="122"/>
+      <c r="A106" s="117"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
@@ -6178,7 +6178,7 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="122" t="s">
+      <c r="A110" s="117" t="s">
         <v>0</v>
       </c>
       <c r="B110" s="4" t="s">
@@ -6204,7 +6204,7 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="122"/>
+      <c r="A111" s="117"/>
       <c r="B111" s="4" t="s">
         <v>144</v>
       </c>
@@ -6228,7 +6228,7 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="122"/>
+      <c r="A112" s="117"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
@@ -6245,7 +6245,7 @@
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="122" t="s">
+      <c r="A128" s="117" t="s">
         <v>0</v>
       </c>
       <c r="B128" t="s">
@@ -6259,7 +6259,7 @@
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="122"/>
+      <c r="A129" s="117"/>
       <c r="B129" t="s">
         <v>188</v>
       </c>
@@ -6271,7 +6271,7 @@
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="122"/>
+      <c r="A130" s="117"/>
       <c r="B130" t="s">
         <v>188</v>
       </c>
@@ -6303,7 +6303,7 @@
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="122" t="s">
+      <c r="A134" s="117" t="s">
         <v>0</v>
       </c>
       <c r="B134" t="s">
@@ -6323,7 +6323,7 @@
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="122"/>
+      <c r="A135" s="117"/>
       <c r="B135" t="s">
         <v>188</v>
       </c>
@@ -6341,7 +6341,7 @@
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="122"/>
+      <c r="A136" s="117"/>
       <c r="B136" t="s">
         <v>188</v>
       </c>
@@ -6394,7 +6394,7 @@
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="122" t="s">
+      <c r="A139" s="117" t="s">
         <v>0</v>
       </c>
       <c r="B139" t="s">
@@ -6429,7 +6429,7 @@
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" s="122"/>
+      <c r="A140" s="117"/>
       <c r="B140" t="s">
         <v>188</v>
       </c>
@@ -6462,7 +6462,7 @@
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" s="122"/>
+      <c r="A141" s="117"/>
       <c r="B141" t="s">
         <v>188</v>
       </c>
@@ -6500,54 +6500,54 @@
       </c>
     </row>
     <row r="145" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="122" t="s">
+      <c r="A145" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B145" s="125" t="s">
+      <c r="B145" s="194" t="s">
         <v>200</v>
       </c>
-      <c r="C145" s="124" t="s">
+      <c r="C145" s="193" t="s">
         <v>206</v>
       </c>
-      <c r="D145" s="124"/>
-      <c r="E145" s="124"/>
+      <c r="D145" s="193"/>
+      <c r="E145" s="193"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A146" s="122"/>
-      <c r="B146" s="125"/>
-      <c r="C146" s="123" t="s">
+      <c r="A146" s="117"/>
+      <c r="B146" s="194"/>
+      <c r="C146" s="121" t="s">
         <v>176</v>
       </c>
-      <c r="D146" s="123" t="s">
+      <c r="D146" s="121" t="s">
         <v>177</v>
       </c>
-      <c r="E146" s="123"/>
+      <c r="E146" s="121"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147" s="122"/>
-      <c r="B147" s="125"/>
-      <c r="C147" s="123"/>
-      <c r="D147" s="123"/>
-      <c r="E147" s="123"/>
+      <c r="A147" s="117"/>
+      <c r="B147" s="194"/>
+      <c r="C147" s="121"/>
+      <c r="D147" s="121"/>
+      <c r="E147" s="121"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="77"/>
-      <c r="B148" s="125"/>
-      <c r="C148" s="123" t="s">
+      <c r="B148" s="194"/>
+      <c r="C148" s="121" t="s">
         <v>197</v>
       </c>
-      <c r="D148" s="123" t="s">
+      <c r="D148" s="121" t="s">
         <v>198</v>
       </c>
-      <c r="E148" s="123" t="s">
+      <c r="E148" s="121" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="77"/>
-      <c r="C149" s="123"/>
-      <c r="D149" s="123"/>
-      <c r="E149" s="123"/>
+      <c r="C149" s="121"/>
+      <c r="D149" s="121"/>
+      <c r="E149" s="121"/>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="79"/>
@@ -6567,30 +6567,30 @@
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A154" s="122" t="s">
+      <c r="A154" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B154" s="123" t="s">
+      <c r="B154" s="121" t="s">
         <v>207</v>
       </c>
-      <c r="C154" s="123" t="s">
+      <c r="C154" s="121" t="s">
         <v>187</v>
       </c>
-      <c r="D154" s="113" t="s">
+      <c r="D154" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="E154" s="113"/>
-      <c r="F154" s="113"/>
-      <c r="G154" s="113"/>
-      <c r="H154" s="113"/>
-      <c r="I154" s="113"/>
-      <c r="J154" s="123"/>
-      <c r="K154" s="123"/>
+      <c r="E154" s="116"/>
+      <c r="F154" s="116"/>
+      <c r="G154" s="116"/>
+      <c r="H154" s="116"/>
+      <c r="I154" s="116"/>
+      <c r="J154" s="121"/>
+      <c r="K154" s="121"/>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A155" s="122"/>
-      <c r="B155" s="123"/>
-      <c r="C155" s="123"/>
+      <c r="A155" s="117"/>
+      <c r="B155" s="121"/>
+      <c r="C155" s="121"/>
       <c r="D155">
         <v>35</v>
       </c>
@@ -6609,11 +6609,11 @@
       <c r="I155">
         <v>40</v>
       </c>
-      <c r="J155" s="123"/>
-      <c r="K155" s="123"/>
+      <c r="J155" s="121"/>
+      <c r="K155" s="121"/>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A156" s="122"/>
+      <c r="A156" s="117"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
@@ -6621,34 +6621,34 @@
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A160" s="122" t="s">
+      <c r="A160" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B160" s="123" t="s">
+      <c r="B160" s="121" t="s">
         <v>222</v>
       </c>
-      <c r="C160" s="123" t="s">
+      <c r="C160" s="121" t="s">
         <v>187</v>
       </c>
-      <c r="D160" s="113" t="s">
+      <c r="D160" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="E160" s="113"/>
-      <c r="F160" s="113"/>
-      <c r="G160" s="113"/>
-      <c r="H160" s="113"/>
-      <c r="I160" s="113"/>
-      <c r="J160" s="123" t="s">
+      <c r="E160" s="116"/>
+      <c r="F160" s="116"/>
+      <c r="G160" s="116"/>
+      <c r="H160" s="116"/>
+      <c r="I160" s="116"/>
+      <c r="J160" s="121" t="s">
         <v>168</v>
       </c>
-      <c r="K160" s="123" t="s">
+      <c r="K160" s="121" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="161" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A161" s="122"/>
-      <c r="B161" s="123"/>
-      <c r="C161" s="123"/>
+      <c r="A161" s="117"/>
+      <c r="B161" s="121"/>
+      <c r="C161" s="121"/>
       <c r="D161">
         <v>35</v>
       </c>
@@ -6667,17 +6667,17 @@
       <c r="I161">
         <v>40</v>
       </c>
-      <c r="J161" s="123"/>
-      <c r="K161" s="123"/>
+      <c r="J161" s="121"/>
+      <c r="K161" s="121"/>
     </row>
     <row r="162" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A162" s="122"/>
+      <c r="A162" s="117"/>
     </row>
     <row r="167" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B167" s="123" t="s">
+      <c r="B167" s="121" t="s">
         <v>196</v>
       </c>
-      <c r="C167" s="123" t="s">
+      <c r="C167" s="121" t="s">
         <v>187</v>
       </c>
       <c r="E167" s="78"/>
@@ -6687,10 +6687,10 @@
       </c>
       <c r="H167" s="78"/>
       <c r="I167" s="78"/>
-      <c r="J167" s="123" t="s">
+      <c r="J167" s="121" t="s">
         <v>192</v>
       </c>
-      <c r="K167" s="123" t="s">
+      <c r="K167" s="121" t="s">
         <v>193</v>
       </c>
     </row>
@@ -6698,8 +6698,8 @@
       <c r="A168" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B168" s="123"/>
-      <c r="C168" s="123"/>
+      <c r="B168" s="121"/>
+      <c r="C168" s="121"/>
       <c r="D168">
         <v>35</v>
       </c>
@@ -6718,11 +6718,11 @@
       <c r="I168">
         <v>40</v>
       </c>
-      <c r="J168" s="123"/>
-      <c r="K168" s="123"/>
+      <c r="J168" s="121"/>
+      <c r="K168" s="121"/>
     </row>
     <row r="169" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A169" s="122" t="s">
+      <c r="A169" s="117" t="s">
         <v>0</v>
       </c>
       <c r="B169" t="s">
@@ -6757,7 +6757,7 @@
       </c>
     </row>
     <row r="170" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A170" s="122"/>
+      <c r="A170" s="117"/>
       <c r="B170" t="s">
         <v>188</v>
       </c>
@@ -6790,7 +6790,7 @@
       </c>
     </row>
     <row r="171" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A171" s="122"/>
+      <c r="A171" s="117"/>
       <c r="B171" t="s">
         <v>188</v>
       </c>
@@ -6827,90 +6827,90 @@
       <c r="A173" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B173" s="136" t="s">
+      <c r="B173" s="170" t="s">
         <v>164</v>
       </c>
-      <c r="C173" s="138" t="s">
+      <c r="C173" s="172" t="s">
         <v>165</v>
       </c>
-      <c r="D173" s="140" t="s">
+      <c r="D173" s="174" t="s">
         <v>166</v>
       </c>
-      <c r="E173" s="142" t="s">
+      <c r="E173" s="176" t="s">
         <v>167</v>
       </c>
-      <c r="F173" s="142" t="s">
+      <c r="F173" s="176" t="s">
         <v>168</v>
       </c>
-      <c r="G173" s="144"/>
-      <c r="H173" s="142" t="s">
+      <c r="G173" s="178"/>
+      <c r="H173" s="176" t="s">
         <v>169</v>
       </c>
-      <c r="I173" s="145">
+      <c r="I173" s="179">
         <v>19</v>
       </c>
-      <c r="J173" s="145">
+      <c r="J173" s="179">
         <v>20</v>
       </c>
-      <c r="K173" s="145">
+      <c r="K173" s="179">
         <v>21</v>
       </c>
-      <c r="L173" s="145">
+      <c r="L173" s="179">
         <v>22</v>
       </c>
-      <c r="M173" s="145">
+      <c r="M173" s="179">
         <v>23</v>
       </c>
-      <c r="N173" s="145"/>
-      <c r="O173" s="142" t="s">
+      <c r="N173" s="179"/>
+      <c r="O173" s="176" t="s">
         <v>170</v>
       </c>
-      <c r="P173" s="142" t="s">
+      <c r="P173" s="176" t="s">
         <v>171</v>
       </c>
-      <c r="Q173" s="142" t="s">
+      <c r="Q173" s="176" t="s">
         <v>172</v>
       </c>
-      <c r="R173" s="142" t="s">
+      <c r="R173" s="176" t="s">
         <v>173</v>
       </c>
-      <c r="S173" s="142" t="s">
+      <c r="S173" s="176" t="s">
         <v>174</v>
       </c>
-      <c r="T173" s="147" t="s">
+      <c r="T173" s="181" t="s">
         <v>175</v>
       </c>
-      <c r="U173" s="148"/>
+      <c r="U173" s="182"/>
     </row>
     <row r="174" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A174" s="122" t="s">
+      <c r="A174" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B174" s="137"/>
-      <c r="C174" s="139"/>
-      <c r="D174" s="141"/>
-      <c r="E174" s="143"/>
+      <c r="B174" s="171"/>
+      <c r="C174" s="173"/>
+      <c r="D174" s="175"/>
+      <c r="E174" s="177"/>
       <c r="F174" s="60"/>
       <c r="G174" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="H174" s="143"/>
-      <c r="I174" s="143"/>
-      <c r="J174" s="143"/>
-      <c r="K174" s="143"/>
-      <c r="L174" s="143"/>
-      <c r="M174" s="143"/>
-      <c r="N174" s="143"/>
-      <c r="O174" s="146"/>
-      <c r="P174" s="143"/>
-      <c r="Q174" s="143"/>
-      <c r="R174" s="143"/>
-      <c r="S174" s="143"/>
-      <c r="T174" s="149"/>
-      <c r="U174" s="150"/>
+      <c r="H174" s="177"/>
+      <c r="I174" s="177"/>
+      <c r="J174" s="177"/>
+      <c r="K174" s="177"/>
+      <c r="L174" s="177"/>
+      <c r="M174" s="177"/>
+      <c r="N174" s="177"/>
+      <c r="O174" s="180"/>
+      <c r="P174" s="177"/>
+      <c r="Q174" s="177"/>
+      <c r="R174" s="177"/>
+      <c r="S174" s="177"/>
+      <c r="T174" s="183"/>
+      <c r="U174" s="184"/>
     </row>
     <row r="175" spans="1:21" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A175" s="122"/>
+      <c r="A175" s="117"/>
       <c r="B175" s="61" t="s">
         <v>178</v>
       </c>
@@ -6959,11 +6959,11 @@
         <f t="shared" ref="S175:S178" si="4">R175*Q175</f>
         <v>0</v>
       </c>
-      <c r="T175" s="132"/>
-      <c r="U175" s="133"/>
+      <c r="T175" s="166"/>
+      <c r="U175" s="167"/>
     </row>
     <row r="176" spans="1:21" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A176" s="122"/>
+      <c r="A176" s="117"/>
       <c r="B176" s="61" t="s">
         <v>178</v>
       </c>
@@ -7152,8 +7152,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T179" s="134"/>
-      <c r="U179" s="135"/>
+      <c r="T179" s="168"/>
+      <c r="U179" s="169"/>
     </row>
     <row r="180" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A180" s="59"/>
@@ -7382,14 +7382,14 @@
       <c r="D223" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E223" s="114" t="s">
+      <c r="E223" s="185" t="s">
         <v>237</v>
       </c>
-      <c r="F223" s="114"/>
-      <c r="G223" s="114"/>
-      <c r="H223" s="114"/>
-      <c r="I223" s="114"/>
-      <c r="J223" s="114"/>
+      <c r="F223" s="185"/>
+      <c r="G223" s="185"/>
+      <c r="H223" s="185"/>
+      <c r="I223" s="185"/>
+      <c r="J223" s="185"/>
     </row>
     <row r="224" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B224" s="101"/>
@@ -7417,10 +7417,10 @@
       </c>
     </row>
     <row r="225" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B225" s="115">
+      <c r="B225" s="186">
         <v>68637</v>
       </c>
-      <c r="C225" s="117" t="s">
+      <c r="C225" s="188" t="s">
         <v>239</v>
       </c>
       <c r="D225" s="104">
@@ -7446,14 +7446,14 @@
       </c>
     </row>
     <row r="226" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B226" s="116"/>
-      <c r="C226" s="118"/>
+      <c r="B226" s="187"/>
+      <c r="C226" s="189"/>
     </row>
     <row r="227" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B227" s="114">
+      <c r="B227" s="185">
         <v>68634</v>
       </c>
-      <c r="C227" s="119" t="s">
+      <c r="C227" s="190" t="s">
         <v>240</v>
       </c>
       <c r="D227" s="105" t="s">
@@ -7479,8 +7479,8 @@
       </c>
     </row>
     <row r="228" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B228" s="114"/>
-      <c r="C228" s="120"/>
+      <c r="B228" s="185"/>
+      <c r="C228" s="191"/>
       <c r="D228" s="106">
         <v>5896652</v>
       </c>
@@ -7504,8 +7504,8 @@
       </c>
     </row>
     <row r="229" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B229" s="114"/>
-      <c r="C229" s="121"/>
+      <c r="B229" s="185"/>
+      <c r="C229" s="192"/>
       <c r="D229" s="106">
         <v>5891652</v>
       </c>
@@ -7553,6 +7553,132 @@
     </row>
   </sheetData>
   <mergeCells count="150">
+    <mergeCell ref="E223:J223"/>
+    <mergeCell ref="B225:B226"/>
+    <mergeCell ref="C225:C226"/>
+    <mergeCell ref="B227:B229"/>
+    <mergeCell ref="C227:C229"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="A154:A156"/>
+    <mergeCell ref="D146:E147"/>
+    <mergeCell ref="C145:E145"/>
+    <mergeCell ref="A145:A147"/>
+    <mergeCell ref="B145:B148"/>
+    <mergeCell ref="C148:C149"/>
+    <mergeCell ref="D148:D149"/>
+    <mergeCell ref="E148:E149"/>
+    <mergeCell ref="A169:A171"/>
+    <mergeCell ref="B167:B168"/>
+    <mergeCell ref="C167:C168"/>
+    <mergeCell ref="J167:J168"/>
+    <mergeCell ref="K167:K168"/>
+    <mergeCell ref="B154:B155"/>
+    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="J154:J155"/>
+    <mergeCell ref="K154:K155"/>
+    <mergeCell ref="D154:I154"/>
+    <mergeCell ref="A160:A162"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="D160:I160"/>
+    <mergeCell ref="J160:J161"/>
+    <mergeCell ref="K160:K161"/>
+    <mergeCell ref="R63:R64"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="T175:U175"/>
+    <mergeCell ref="T179:U179"/>
+    <mergeCell ref="A174:A176"/>
+    <mergeCell ref="B173:B174"/>
+    <mergeCell ref="C173:C174"/>
+    <mergeCell ref="D173:D174"/>
+    <mergeCell ref="E173:E174"/>
+    <mergeCell ref="F173:G173"/>
+    <mergeCell ref="H173:H174"/>
+    <mergeCell ref="I173:I174"/>
+    <mergeCell ref="J173:J174"/>
+    <mergeCell ref="K173:K174"/>
+    <mergeCell ref="L173:L174"/>
+    <mergeCell ref="M173:M174"/>
+    <mergeCell ref="N173:N174"/>
+    <mergeCell ref="O173:O174"/>
+    <mergeCell ref="P173:P174"/>
+    <mergeCell ref="Q173:Q174"/>
+    <mergeCell ref="R173:R174"/>
+    <mergeCell ref="S173:S174"/>
+    <mergeCell ref="T173:U174"/>
+    <mergeCell ref="U63:U64"/>
+    <mergeCell ref="C65:C71"/>
+    <mergeCell ref="E65:E71"/>
+    <mergeCell ref="F65:F71"/>
+    <mergeCell ref="G65:G71"/>
+    <mergeCell ref="H65:H71"/>
+    <mergeCell ref="I65:I71"/>
+    <mergeCell ref="J65:J71"/>
+    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="P65:P71"/>
+    <mergeCell ref="R65:R71"/>
+    <mergeCell ref="K67:K71"/>
+    <mergeCell ref="Q67:Q71"/>
+    <mergeCell ref="S63:S64"/>
+    <mergeCell ref="O63:O64"/>
+    <mergeCell ref="N63:N64"/>
+    <mergeCell ref="M63:M64"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="AB39:AB40"/>
+    <mergeCell ref="AC39:AC40"/>
+    <mergeCell ref="C41:C47"/>
+    <mergeCell ref="E41:E47"/>
+    <mergeCell ref="F41:F47"/>
+    <mergeCell ref="G41:G47"/>
+    <mergeCell ref="H41:H47"/>
+    <mergeCell ref="I41:I47"/>
+    <mergeCell ref="J41:J47"/>
+    <mergeCell ref="X41:X47"/>
+    <mergeCell ref="Z41:Z47"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="K43:K47"/>
+    <mergeCell ref="AA39:AA40"/>
+    <mergeCell ref="Y43:Y47"/>
+    <mergeCell ref="V39:V40"/>
+    <mergeCell ref="W39:W40"/>
+    <mergeCell ref="X39:X40"/>
+    <mergeCell ref="Y39:Y40"/>
+    <mergeCell ref="Z39:Z40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="T39:T40"/>
+    <mergeCell ref="U39:U40"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="A134:A136"/>
+    <mergeCell ref="A22:A32"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="A78:A85"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="D78:D80"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="B49:T49"/>
+    <mergeCell ref="A39:A49"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="P63:P64"/>
+    <mergeCell ref="Q63:Q64"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="T63:T64"/>
+    <mergeCell ref="B32:T32"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B8:I8"/>
     <mergeCell ref="A8:A16"/>
@@ -7577,132 +7703,6 @@
     <mergeCell ref="D98:D99"/>
     <mergeCell ref="E98:E99"/>
     <mergeCell ref="F98:F99"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="A134:A136"/>
-    <mergeCell ref="A22:A32"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="A78:A85"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="D78:D80"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="B49:T49"/>
-    <mergeCell ref="A39:A49"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="P63:P64"/>
-    <mergeCell ref="Q63:Q64"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="T63:T64"/>
-    <mergeCell ref="B32:T32"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="AB39:AB40"/>
-    <mergeCell ref="AC39:AC40"/>
-    <mergeCell ref="C41:C47"/>
-    <mergeCell ref="E41:E47"/>
-    <mergeCell ref="F41:F47"/>
-    <mergeCell ref="G41:G47"/>
-    <mergeCell ref="H41:H47"/>
-    <mergeCell ref="I41:I47"/>
-    <mergeCell ref="J41:J47"/>
-    <mergeCell ref="X41:X47"/>
-    <mergeCell ref="Z41:Z47"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="K43:K47"/>
-    <mergeCell ref="AA39:AA40"/>
-    <mergeCell ref="Y43:Y47"/>
-    <mergeCell ref="V39:V40"/>
-    <mergeCell ref="W39:W40"/>
-    <mergeCell ref="X39:X40"/>
-    <mergeCell ref="Y39:Y40"/>
-    <mergeCell ref="Z39:Z40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="T39:T40"/>
-    <mergeCell ref="U39:U40"/>
-    <mergeCell ref="U63:U64"/>
-    <mergeCell ref="C65:C71"/>
-    <mergeCell ref="E65:E71"/>
-    <mergeCell ref="F65:F71"/>
-    <mergeCell ref="G65:G71"/>
-    <mergeCell ref="H65:H71"/>
-    <mergeCell ref="I65:I71"/>
-    <mergeCell ref="J65:J71"/>
-    <mergeCell ref="K65:K66"/>
-    <mergeCell ref="P65:P71"/>
-    <mergeCell ref="R65:R71"/>
-    <mergeCell ref="K67:K71"/>
-    <mergeCell ref="Q67:Q71"/>
-    <mergeCell ref="S63:S64"/>
-    <mergeCell ref="O63:O64"/>
-    <mergeCell ref="N63:N64"/>
-    <mergeCell ref="M63:M64"/>
-    <mergeCell ref="L63:L64"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="J63:J64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="R63:R64"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="T175:U175"/>
-    <mergeCell ref="T179:U179"/>
-    <mergeCell ref="A174:A176"/>
-    <mergeCell ref="B173:B174"/>
-    <mergeCell ref="C173:C174"/>
-    <mergeCell ref="D173:D174"/>
-    <mergeCell ref="E173:E174"/>
-    <mergeCell ref="F173:G173"/>
-    <mergeCell ref="H173:H174"/>
-    <mergeCell ref="I173:I174"/>
-    <mergeCell ref="J173:J174"/>
-    <mergeCell ref="K173:K174"/>
-    <mergeCell ref="L173:L174"/>
-    <mergeCell ref="M173:M174"/>
-    <mergeCell ref="N173:N174"/>
-    <mergeCell ref="O173:O174"/>
-    <mergeCell ref="P173:P174"/>
-    <mergeCell ref="Q173:Q174"/>
-    <mergeCell ref="R173:R174"/>
-    <mergeCell ref="S173:S174"/>
-    <mergeCell ref="T173:U174"/>
-    <mergeCell ref="K167:K168"/>
-    <mergeCell ref="B154:B155"/>
-    <mergeCell ref="C154:C155"/>
-    <mergeCell ref="J154:J155"/>
-    <mergeCell ref="K154:K155"/>
-    <mergeCell ref="D154:I154"/>
-    <mergeCell ref="A160:A162"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="C160:C161"/>
-    <mergeCell ref="D160:I160"/>
-    <mergeCell ref="J160:J161"/>
-    <mergeCell ref="K160:K161"/>
-    <mergeCell ref="E223:J223"/>
-    <mergeCell ref="B225:B226"/>
-    <mergeCell ref="C225:C226"/>
-    <mergeCell ref="B227:B229"/>
-    <mergeCell ref="C227:C229"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="A154:A156"/>
-    <mergeCell ref="D146:E147"/>
-    <mergeCell ref="C145:E145"/>
-    <mergeCell ref="A145:A147"/>
-    <mergeCell ref="B145:B148"/>
-    <mergeCell ref="C148:C149"/>
-    <mergeCell ref="D148:D149"/>
-    <mergeCell ref="E148:E149"/>
-    <mergeCell ref="A169:A171"/>
-    <mergeCell ref="B167:B168"/>
-    <mergeCell ref="C167:C168"/>
-    <mergeCell ref="J167:J168"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7735,7 +7735,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="117" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="91" t="s">
@@ -7750,47 +7750,47 @@
       </c>
       <c r="F2" s="90"/>
       <c r="G2" s="94"/>
-      <c r="H2" s="197" t="s">
+      <c r="H2" s="196" t="s">
         <v>224</v>
       </c>
-      <c r="I2" s="197"/>
-      <c r="J2" s="197"/>
-      <c r="K2" s="197"/>
-      <c r="L2" s="196" t="s">
+      <c r="I2" s="196"/>
+      <c r="J2" s="196"/>
+      <c r="K2" s="196"/>
+      <c r="L2" s="195" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="122"/>
+      <c r="A3" s="117"/>
       <c r="B3" s="90"/>
       <c r="C3" s="99"/>
       <c r="D3" s="92" t="s">
         <v>226</v>
       </c>
       <c r="G3" s="95"/>
-      <c r="H3" s="196" t="s">
+      <c r="H3" s="195" t="s">
         <v>176</v>
       </c>
-      <c r="I3" s="200" t="s">
+      <c r="I3" s="199" t="s">
         <v>177</v>
       </c>
-      <c r="J3" s="200"/>
-      <c r="K3" s="200"/>
-      <c r="L3" s="196"/>
+      <c r="J3" s="199"/>
+      <c r="K3" s="199"/>
+      <c r="L3" s="195"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="122"/>
+      <c r="A4" s="117"/>
       <c r="B4" s="90"/>
       <c r="C4" s="99"/>
       <c r="D4" s="90"/>
       <c r="E4" s="90"/>
       <c r="F4" s="90"/>
       <c r="G4" s="94"/>
-      <c r="H4" s="196"/>
-      <c r="I4" s="200"/>
-      <c r="J4" s="200"/>
-      <c r="K4" s="200"/>
-      <c r="L4" s="196"/>
+      <c r="H4" s="195"/>
+      <c r="I4" s="199"/>
+      <c r="J4" s="199"/>
+      <c r="K4" s="199"/>
+      <c r="L4" s="195"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="77"/>
@@ -7800,30 +7800,30 @@
       <c r="E5" s="90"/>
       <c r="F5" s="90"/>
       <c r="G5" s="94"/>
-      <c r="H5" s="196" t="s">
+      <c r="H5" s="195" t="s">
         <v>197</v>
       </c>
-      <c r="I5" s="196" t="s">
+      <c r="I5" s="195" t="s">
         <v>198</v>
       </c>
-      <c r="J5" s="198" t="s">
+      <c r="J5" s="197" t="s">
         <v>199</v>
       </c>
-      <c r="K5" s="198"/>
-      <c r="L5" s="196"/>
+      <c r="K5" s="197"/>
+      <c r="L5" s="195"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="77"/>
-      <c r="E6" s="199" t="s">
+      <c r="E6" s="198" t="s">
         <v>228</v>
       </c>
-      <c r="F6" s="199"/>
+      <c r="F6" s="198"/>
       <c r="G6" s="94"/>
-      <c r="H6" s="196"/>
-      <c r="I6" s="196"/>
-      <c r="J6" s="198"/>
-      <c r="K6" s="198"/>
-      <c r="L6" s="196"/>
+      <c r="H6" s="195"/>
+      <c r="I6" s="195"/>
+      <c r="J6" s="197"/>
+      <c r="K6" s="197"/>
+      <c r="L6" s="195"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -7831,48 +7831,48 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="122" t="s">
+      <c r="A9" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="192" t="s">
+      <c r="B9" s="200" t="s">
         <v>243</v>
       </c>
-      <c r="C9" s="193"/>
-      <c r="D9" s="130" t="s">
+      <c r="C9" s="201"/>
+      <c r="D9" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="190" t="s">
+      <c r="E9" s="122" t="s">
         <v>81</v>
       </c>
-      <c r="F9" s="130" t="s">
+      <c r="F9" s="124" t="s">
         <v>88</v>
       </c>
-      <c r="G9" s="174" t="s">
+      <c r="G9" s="141" t="s">
         <v>93</v>
       </c>
-      <c r="H9" s="166" t="s">
+      <c r="H9" s="145" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="122"/>
-      <c r="B10" s="194"/>
-      <c r="C10" s="195"/>
-      <c r="D10" s="131"/>
-      <c r="E10" s="191"/>
-      <c r="F10" s="131"/>
-      <c r="G10" s="175"/>
-      <c r="H10" s="167"/>
+      <c r="A10" s="117"/>
+      <c r="B10" s="202"/>
+      <c r="C10" s="203"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="142"/>
+      <c r="H10" s="146"/>
     </row>
     <row r="11" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="122"/>
-      <c r="D11" s="156" t="s">
+      <c r="A11" s="117"/>
+      <c r="D11" s="152" t="s">
         <v>98</v>
       </c>
       <c r="E11" s="36">
         <v>532325</v>
       </c>
-      <c r="F11" s="156" t="s">
+      <c r="F11" s="152" t="s">
         <v>125</v>
       </c>
       <c r="G11" s="11" t="s">
@@ -7881,82 +7881,82 @@
       <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="122"/>
+      <c r="A12" s="117"/>
       <c r="B12" s="47"/>
       <c r="C12" s="109"/>
-      <c r="D12" s="157"/>
+      <c r="D12" s="153"/>
       <c r="E12" s="48">
         <v>532326</v>
       </c>
-      <c r="F12" s="157"/>
+      <c r="F12" s="153"/>
       <c r="G12" s="53" t="s">
         <v>105</v>
       </c>
       <c r="H12" s="54"/>
     </row>
     <row r="13" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="122"/>
+      <c r="A13" s="117"/>
       <c r="B13" s="95"/>
       <c r="C13" s="110"/>
-      <c r="D13" s="157"/>
+      <c r="D13" s="153"/>
       <c r="E13" s="36">
         <v>533180</v>
       </c>
-      <c r="F13" s="157" t="s">
+      <c r="F13" s="153" t="s">
         <v>126</v>
       </c>
-      <c r="G13" s="164" t="s">
+      <c r="G13" s="160" t="s">
         <v>107</v>
       </c>
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="122"/>
+      <c r="A14" s="117"/>
       <c r="C14" s="110"/>
-      <c r="D14" s="157"/>
+      <c r="D14" s="153"/>
       <c r="E14" s="36">
         <v>533181</v>
       </c>
-      <c r="F14" s="157"/>
-      <c r="G14" s="165"/>
+      <c r="F14" s="153"/>
+      <c r="G14" s="161"/>
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="122"/>
+      <c r="A15" s="117"/>
       <c r="B15" s="46"/>
       <c r="C15" s="110"/>
-      <c r="D15" s="157"/>
+      <c r="D15" s="153"/>
       <c r="E15" s="36">
         <v>533182</v>
       </c>
-      <c r="F15" s="157"/>
-      <c r="G15" s="165"/>
+      <c r="F15" s="153"/>
+      <c r="G15" s="161"/>
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="122"/>
+      <c r="A16" s="117"/>
       <c r="B16" s="46"/>
       <c r="C16" s="110"/>
-      <c r="D16" s="157"/>
+      <c r="D16" s="153"/>
       <c r="E16" s="36">
         <v>533183</v>
       </c>
-      <c r="F16" s="157"/>
-      <c r="G16" s="165"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="161"/>
       <c r="H16" s="12"/>
     </row>
     <row r="17" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="122"/>
+      <c r="A17" s="117"/>
       <c r="B17" s="46">
         <v>16501</v>
       </c>
       <c r="C17" s="111"/>
-      <c r="D17" s="158"/>
+      <c r="D17" s="154"/>
       <c r="E17" s="36">
         <v>533184</v>
       </c>
-      <c r="F17" s="158"/>
-      <c r="G17" s="165"/>
+      <c r="F17" s="154"/>
+      <c r="G17" s="161"/>
       <c r="H17" s="12"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -8182,15 +8182,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="L2:L6"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="J5:K6"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="I3:K4"/>
     <mergeCell ref="F13:F17"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
@@ -8202,6 +8193,15 @@
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="D11:D17"/>
     <mergeCell ref="F11:F12"/>
+    <mergeCell ref="L2:L6"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="J5:K6"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="I3:K4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8237,67 +8237,67 @@
       </c>
     </row>
     <row r="2" spans="1:29" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="202" t="s">
+      <c r="B2" s="210" t="s">
         <v>242</v>
       </c>
-      <c r="C2" s="140" t="s">
+      <c r="C2" s="174" t="s">
         <v>165</v>
       </c>
-      <c r="D2" s="203" t="s">
+      <c r="D2" s="204" t="s">
         <v>166</v>
       </c>
-      <c r="E2" s="203" t="s">
+      <c r="E2" s="204" t="s">
         <v>167</v>
       </c>
-      <c r="F2" s="201" t="s">
+      <c r="F2" s="209" t="s">
         <v>168</v>
       </c>
-      <c r="G2" s="138"/>
-      <c r="H2" s="203" t="s">
+      <c r="G2" s="172"/>
+      <c r="H2" s="204" t="s">
         <v>169</v>
       </c>
-      <c r="I2" s="205" t="s">
+      <c r="I2" s="206" t="s">
         <v>230</v>
       </c>
-      <c r="J2" s="206"/>
-      <c r="K2" s="206"/>
-      <c r="L2" s="206"/>
-      <c r="M2" s="207"/>
+      <c r="J2" s="207"/>
+      <c r="K2" s="207"/>
+      <c r="L2" s="207"/>
+      <c r="M2" s="208"/>
       <c r="N2" s="100"/>
-      <c r="O2" s="203" t="s">
+      <c r="O2" s="204" t="s">
         <v>170</v>
       </c>
-      <c r="P2" s="203" t="s">
+      <c r="P2" s="204" t="s">
         <v>171</v>
       </c>
-      <c r="Q2" s="203" t="s">
+      <c r="Q2" s="204" t="s">
         <v>172</v>
       </c>
-      <c r="R2" s="203" t="s">
+      <c r="R2" s="204" t="s">
         <v>173</v>
       </c>
-      <c r="S2" s="203" t="s">
+      <c r="S2" s="204" t="s">
         <v>174</v>
       </c>
-      <c r="T2" s="147" t="s">
+      <c r="T2" s="181" t="s">
         <v>175</v>
       </c>
-      <c r="U2" s="148"/>
+      <c r="U2" s="182"/>
     </row>
     <row r="3" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="122"/>
-      <c r="B3" s="202"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
+      <c r="A3" s="117"/>
+      <c r="B3" s="210"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="205"/>
+      <c r="E3" s="205"/>
       <c r="F3" s="98"/>
       <c r="G3" s="98" t="s">
         <v>177</v>
       </c>
-      <c r="H3" s="204"/>
+      <c r="H3" s="205"/>
       <c r="I3" s="97">
         <v>19</v>
       </c>
@@ -8314,16 +8314,16 @@
         <v>23</v>
       </c>
       <c r="N3" s="97"/>
-      <c r="O3" s="204"/>
-      <c r="P3" s="204"/>
-      <c r="Q3" s="204"/>
-      <c r="R3" s="204"/>
-      <c r="S3" s="204"/>
-      <c r="T3" s="149"/>
-      <c r="U3" s="150"/>
+      <c r="O3" s="205"/>
+      <c r="P3" s="205"/>
+      <c r="Q3" s="205"/>
+      <c r="R3" s="205"/>
+      <c r="S3" s="205"/>
+      <c r="T3" s="183"/>
+      <c r="U3" s="184"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="122"/>
+      <c r="A4" s="117"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="77"/>
@@ -8337,37 +8337,37 @@
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" s="122" t="s">
+      <c r="A14" s="117" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="107" t="s">
         <v>241</v>
       </c>
-      <c r="C14" s="130" t="s">
+      <c r="C14" s="124" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="190" t="s">
+      <c r="D14" s="122" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="130" t="s">
+      <c r="E14" s="124" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="130" t="s">
+      <c r="F14" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="G14" s="128" t="s">
+      <c r="G14" s="147" t="s">
         <v>84</v>
       </c>
-      <c r="H14" s="130" t="s">
+      <c r="H14" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="I14" s="128" t="s">
+      <c r="I14" s="147" t="s">
         <v>86</v>
       </c>
-      <c r="J14" s="130" t="s">
+      <c r="J14" s="124" t="s">
         <v>87</v>
       </c>
-      <c r="K14" s="130" t="s">
+      <c r="K14" s="124" t="s">
         <v>88</v>
       </c>
       <c r="L14" s="56"/>
@@ -8378,49 +8378,49 @@
       <c r="Q14" s="57"/>
       <c r="R14" s="57"/>
       <c r="S14" s="58"/>
-      <c r="T14" s="130" t="s">
+      <c r="T14" s="124" t="s">
         <v>89</v>
       </c>
-      <c r="U14" s="130" t="s">
+      <c r="U14" s="124" t="s">
         <v>90</v>
       </c>
-      <c r="V14" s="170" t="s">
+      <c r="V14" s="137" t="s">
         <v>111</v>
       </c>
-      <c r="W14" s="168" t="s">
+      <c r="W14" s="162" t="s">
         <v>91</v>
       </c>
-      <c r="X14" s="172" t="s">
+      <c r="X14" s="139" t="s">
         <v>92</v>
       </c>
-      <c r="Y14" s="174" t="s">
+      <c r="Y14" s="141" t="s">
         <v>93</v>
       </c>
-      <c r="Z14" s="126" t="s">
+      <c r="Z14" s="164" t="s">
         <v>94</v>
       </c>
-      <c r="AA14" s="166" t="s">
+      <c r="AA14" s="145" t="s">
         <v>95</v>
       </c>
-      <c r="AB14" s="166" t="s">
+      <c r="AB14" s="145" t="s">
         <v>96</v>
       </c>
-      <c r="AC14" s="151" t="s">
+      <c r="AC14" s="143" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="122"/>
+      <c r="A15" s="117"/>
       <c r="B15" s="108"/>
-      <c r="C15" s="131"/>
-      <c r="D15" s="191"/>
-      <c r="E15" s="131"/>
-      <c r="F15" s="131"/>
-      <c r="G15" s="129"/>
-      <c r="H15" s="131"/>
-      <c r="I15" s="129"/>
-      <c r="J15" s="131"/>
-      <c r="K15" s="131"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="125"/>
+      <c r="F15" s="125"/>
+      <c r="G15" s="148"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="148"/>
+      <c r="J15" s="125"/>
+      <c r="K15" s="125"/>
       <c r="L15" s="3">
         <v>28</v>
       </c>
@@ -8445,42 +8445,42 @@
       <c r="S15" s="3">
         <v>35</v>
       </c>
-      <c r="T15" s="131"/>
-      <c r="U15" s="131"/>
-      <c r="V15" s="171"/>
-      <c r="W15" s="169"/>
-      <c r="X15" s="173"/>
-      <c r="Y15" s="175"/>
-      <c r="Z15" s="127"/>
-      <c r="AA15" s="167"/>
-      <c r="AB15" s="167"/>
-      <c r="AC15" s="152"/>
+      <c r="T15" s="125"/>
+      <c r="U15" s="125"/>
+      <c r="V15" s="138"/>
+      <c r="W15" s="163"/>
+      <c r="X15" s="140"/>
+      <c r="Y15" s="142"/>
+      <c r="Z15" s="165"/>
+      <c r="AA15" s="146"/>
+      <c r="AB15" s="146"/>
+      <c r="AC15" s="144"/>
     </row>
     <row r="16" spans="1:29" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="122"/>
-      <c r="C16" s="153">
+      <c r="A16" s="117"/>
+      <c r="C16" s="149">
         <v>91338035</v>
       </c>
       <c r="D16" s="36">
         <v>532325</v>
       </c>
-      <c r="E16" s="153" t="s">
+      <c r="E16" s="149" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="156" t="s">
+      <c r="F16" s="152" t="s">
         <v>98</v>
       </c>
-      <c r="G16" s="153" t="s">
+      <c r="G16" s="149" t="s">
         <v>98</v>
       </c>
-      <c r="H16" s="153"/>
-      <c r="I16" s="156" t="s">
+      <c r="H16" s="149"/>
+      <c r="I16" s="152" t="s">
         <v>99</v>
       </c>
-      <c r="J16" s="156" t="s">
+      <c r="J16" s="152" t="s">
         <v>100</v>
       </c>
-      <c r="K16" s="156" t="s">
+      <c r="K16" s="152" t="s">
         <v>125</v>
       </c>
       <c r="L16" s="102">
@@ -8520,13 +8520,13 @@
       <c r="W16" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="X16" s="159" t="s">
+      <c r="X16" s="155" t="s">
         <v>102</v>
       </c>
       <c r="Y16" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="Z16" s="161">
+      <c r="Z16" s="157">
         <v>43171</v>
       </c>
       <c r="AA16" s="12"/>
@@ -8537,19 +8537,19 @@
       </c>
     </row>
     <row r="17" spans="1:32" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="122"/>
+      <c r="A17" s="117"/>
       <c r="B17" s="47"/>
-      <c r="C17" s="154"/>
+      <c r="C17" s="150"/>
       <c r="D17" s="48">
         <v>532326</v>
       </c>
-      <c r="E17" s="154"/>
-      <c r="F17" s="157"/>
-      <c r="G17" s="154"/>
-      <c r="H17" s="154"/>
-      <c r="I17" s="157"/>
-      <c r="J17" s="157"/>
-      <c r="K17" s="157"/>
+      <c r="E17" s="150"/>
+      <c r="F17" s="153"/>
+      <c r="G17" s="150"/>
+      <c r="H17" s="150"/>
+      <c r="I17" s="153"/>
+      <c r="J17" s="153"/>
+      <c r="K17" s="153"/>
       <c r="L17" s="49">
         <v>1</v>
       </c>
@@ -8587,11 +8587,11 @@
       <c r="W17" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="X17" s="160"/>
+      <c r="X17" s="156"/>
       <c r="Y17" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="Z17" s="162"/>
+      <c r="Z17" s="158"/>
       <c r="AA17" s="54"/>
       <c r="AB17" s="54"/>
       <c r="AC17" s="55">
@@ -8600,19 +8600,19 @@
       </c>
     </row>
     <row r="18" spans="1:32" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="122"/>
+      <c r="A18" s="117"/>
       <c r="B18" s="46"/>
-      <c r="C18" s="154"/>
+      <c r="C18" s="150"/>
       <c r="D18" s="36">
         <v>533180</v>
       </c>
-      <c r="E18" s="154"/>
-      <c r="F18" s="157"/>
-      <c r="G18" s="154"/>
-      <c r="H18" s="154"/>
-      <c r="I18" s="157"/>
-      <c r="J18" s="157"/>
-      <c r="K18" s="157" t="s">
+      <c r="E18" s="150"/>
+      <c r="F18" s="153"/>
+      <c r="G18" s="150"/>
+      <c r="H18" s="150"/>
+      <c r="I18" s="153"/>
+      <c r="J18" s="153"/>
+      <c r="K18" s="153" t="s">
         <v>126</v>
       </c>
       <c r="L18" s="102"/>
@@ -8638,11 +8638,11 @@
       <c r="W18" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="X18" s="160"/>
-      <c r="Y18" s="164" t="s">
+      <c r="X18" s="156"/>
+      <c r="Y18" s="160" t="s">
         <v>107</v>
       </c>
-      <c r="Z18" s="162"/>
+      <c r="Z18" s="158"/>
       <c r="AA18" s="12"/>
       <c r="AB18" s="12"/>
       <c r="AC18" s="13">
@@ -8651,21 +8651,21 @@
       </c>
     </row>
     <row r="19" spans="1:32" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="122"/>
+      <c r="A19" s="117"/>
       <c r="B19" s="46">
         <v>16501</v>
       </c>
-      <c r="C19" s="154"/>
+      <c r="C19" s="150"/>
       <c r="D19" s="36">
         <v>533181</v>
       </c>
-      <c r="E19" s="154"/>
-      <c r="F19" s="157"/>
-      <c r="G19" s="154"/>
-      <c r="H19" s="154"/>
-      <c r="I19" s="157"/>
-      <c r="J19" s="157"/>
-      <c r="K19" s="157"/>
+      <c r="E19" s="150"/>
+      <c r="F19" s="153"/>
+      <c r="G19" s="150"/>
+      <c r="H19" s="150"/>
+      <c r="I19" s="153"/>
+      <c r="J19" s="153"/>
+      <c r="K19" s="153"/>
       <c r="L19" s="102"/>
       <c r="M19" s="5"/>
       <c r="N19" s="102"/>
@@ -8689,9 +8689,9 @@
       <c r="W19" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="X19" s="160"/>
-      <c r="Y19" s="165"/>
-      <c r="Z19" s="162"/>
+      <c r="X19" s="156"/>
+      <c r="Y19" s="161"/>
+      <c r="Z19" s="158"/>
       <c r="AA19" s="12"/>
       <c r="AB19" s="12"/>
       <c r="AC19" s="13">
@@ -8700,19 +8700,19 @@
       </c>
     </row>
     <row r="20" spans="1:32" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="122"/>
+      <c r="A20" s="117"/>
       <c r="B20" s="46"/>
-      <c r="C20" s="154"/>
+      <c r="C20" s="150"/>
       <c r="D20" s="36">
         <v>533182</v>
       </c>
-      <c r="E20" s="154"/>
-      <c r="F20" s="157"/>
-      <c r="G20" s="154"/>
-      <c r="H20" s="154"/>
-      <c r="I20" s="157"/>
-      <c r="J20" s="157"/>
-      <c r="K20" s="157"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="153"/>
+      <c r="G20" s="150"/>
+      <c r="H20" s="150"/>
+      <c r="I20" s="153"/>
+      <c r="J20" s="153"/>
+      <c r="K20" s="153"/>
       <c r="L20" s="102"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
@@ -8736,9 +8736,9 @@
       <c r="W20" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="X20" s="160"/>
-      <c r="Y20" s="165"/>
-      <c r="Z20" s="162"/>
+      <c r="X20" s="156"/>
+      <c r="Y20" s="161"/>
+      <c r="Z20" s="158"/>
       <c r="AA20" s="12"/>
       <c r="AB20" s="12"/>
       <c r="AC20" s="13">
@@ -8747,19 +8747,19 @@
       </c>
     </row>
     <row r="21" spans="1:32" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="122"/>
+      <c r="A21" s="117"/>
       <c r="B21" s="46"/>
-      <c r="C21" s="154"/>
+      <c r="C21" s="150"/>
       <c r="D21" s="36">
         <v>533183</v>
       </c>
-      <c r="E21" s="154"/>
-      <c r="F21" s="157"/>
-      <c r="G21" s="154"/>
-      <c r="H21" s="154"/>
-      <c r="I21" s="157"/>
-      <c r="J21" s="157"/>
-      <c r="K21" s="157"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="153"/>
+      <c r="G21" s="150"/>
+      <c r="H21" s="150"/>
+      <c r="I21" s="153"/>
+      <c r="J21" s="153"/>
+      <c r="K21" s="153"/>
       <c r="L21" s="102"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
@@ -8783,9 +8783,9 @@
       <c r="W21" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="X21" s="160"/>
-      <c r="Y21" s="165"/>
-      <c r="Z21" s="162"/>
+      <c r="X21" s="156"/>
+      <c r="Y21" s="161"/>
+      <c r="Z21" s="158"/>
       <c r="AA21" s="12"/>
       <c r="AB21" s="12"/>
       <c r="AC21" s="13">
@@ -8794,19 +8794,19 @@
       </c>
     </row>
     <row r="22" spans="1:32" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="122"/>
+      <c r="A22" s="117"/>
       <c r="B22" s="46"/>
-      <c r="C22" s="155"/>
+      <c r="C22" s="151"/>
       <c r="D22" s="36">
         <v>533184</v>
       </c>
-      <c r="E22" s="155"/>
-      <c r="F22" s="158"/>
-      <c r="G22" s="155"/>
-      <c r="H22" s="155"/>
-      <c r="I22" s="158"/>
-      <c r="J22" s="158"/>
-      <c r="K22" s="158"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="154"/>
+      <c r="G22" s="151"/>
+      <c r="H22" s="151"/>
+      <c r="I22" s="154"/>
+      <c r="J22" s="154"/>
+      <c r="K22" s="154"/>
       <c r="L22" s="102"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
@@ -8830,9 +8830,9 @@
       <c r="W22" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="X22" s="160"/>
-      <c r="Y22" s="165"/>
-      <c r="Z22" s="163"/>
+      <c r="X22" s="156"/>
+      <c r="Y22" s="161"/>
+      <c r="Z22" s="159"/>
       <c r="AA22" s="12"/>
       <c r="AB22" s="12"/>
       <c r="AC22" s="13">
@@ -8841,7 +8841,7 @@
       </c>
     </row>
     <row r="23" spans="1:32" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A23" s="122"/>
+      <c r="A23" s="117"/>
       <c r="W23" s="14"/>
       <c r="X23" s="16"/>
       <c r="Y23" s="37"/>
@@ -8860,26 +8860,26 @@
       </c>
     </row>
     <row r="24" spans="1:32" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="122"/>
-      <c r="B24" s="185"/>
-      <c r="C24" s="186"/>
-      <c r="D24" s="186"/>
-      <c r="E24" s="186"/>
-      <c r="F24" s="186"/>
-      <c r="G24" s="186"/>
-      <c r="H24" s="186"/>
-      <c r="I24" s="186"/>
-      <c r="J24" s="186"/>
-      <c r="K24" s="186"/>
-      <c r="L24" s="186"/>
-      <c r="M24" s="186"/>
-      <c r="N24" s="186"/>
-      <c r="O24" s="186"/>
-      <c r="P24" s="186"/>
-      <c r="Q24" s="186"/>
-      <c r="R24" s="186"/>
-      <c r="S24" s="186"/>
-      <c r="T24" s="187"/>
+      <c r="A24" s="117"/>
+      <c r="B24" s="134"/>
+      <c r="C24" s="135"/>
+      <c r="D24" s="135"/>
+      <c r="E24" s="135"/>
+      <c r="F24" s="135"/>
+      <c r="G24" s="135"/>
+      <c r="H24" s="135"/>
+      <c r="I24" s="135"/>
+      <c r="J24" s="135"/>
+      <c r="K24" s="135"/>
+      <c r="L24" s="135"/>
+      <c r="M24" s="135"/>
+      <c r="N24" s="135"/>
+      <c r="O24" s="135"/>
+      <c r="P24" s="135"/>
+      <c r="Q24" s="135"/>
+      <c r="R24" s="135"/>
+      <c r="S24" s="135"/>
+      <c r="T24" s="136"/>
       <c r="U24" s="15"/>
       <c r="V24" s="15">
         <f>SUM(V16:V22)</f>
@@ -8896,22 +8896,22 @@
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="I27" s="113"/>
-      <c r="J27" s="113"/>
-      <c r="K27" s="113"/>
-      <c r="L27" s="113"/>
+      <c r="I27" s="116"/>
+      <c r="J27" s="116"/>
+      <c r="K27" s="116"/>
+      <c r="L27" s="116"/>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="L29" s="113"/>
-      <c r="M29" s="113"/>
-      <c r="N29" s="113"/>
-      <c r="O29" s="113"/>
+      <c r="L29" s="116"/>
+      <c r="M29" s="116"/>
+      <c r="N29" s="116"/>
+      <c r="O29" s="116"/>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="L30" s="113"/>
-      <c r="M30" s="113"/>
-      <c r="N30" s="113"/>
-      <c r="O30" s="113"/>
+      <c r="L30" s="116"/>
+      <c r="M30" s="116"/>
+      <c r="N30" s="116"/>
+      <c r="O30" s="116"/>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="AF31" t="s">
@@ -8920,16 +8920,33 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="Z16:Z22"/>
-    <mergeCell ref="K18:K22"/>
-    <mergeCell ref="Y18:Y22"/>
-    <mergeCell ref="B24:T24"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="V14:V15"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:U3"/>
+    <mergeCell ref="A14:A24"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="U14:U15"/>
     <mergeCell ref="AC14:AC15"/>
     <mergeCell ref="C16:C22"/>
     <mergeCell ref="E16:E22"/>
@@ -8946,33 +8963,16 @@
     <mergeCell ref="Z14:Z15"/>
     <mergeCell ref="AA14:AA15"/>
     <mergeCell ref="AB14:AB15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="U14:U15"/>
-    <mergeCell ref="V14:V15"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:U3"/>
-    <mergeCell ref="A14:A24"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="K18:K22"/>
+    <mergeCell ref="Y18:Y22"/>
+    <mergeCell ref="B24:T24"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="Z16:Z22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9010,7 +9010,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="117" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -9027,7 +9027,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="122"/>
+      <c r="A3" s="117"/>
       <c r="B3" t="s">
         <v>188</v>
       </c>
@@ -9042,7 +9042,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="122"/>
+      <c r="A4" s="117"/>
       <c r="B4" t="s">
         <v>188</v>
       </c>
@@ -9071,7 +9071,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="122" t="s">
+      <c r="A10" s="117" t="s">
         <v>0</v>
       </c>
       <c r="B10" t="s">
@@ -9088,7 +9088,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="122"/>
+      <c r="A11" s="117"/>
       <c r="B11" t="s">
         <v>188</v>
       </c>
@@ -9103,7 +9103,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="122"/>
+      <c r="A12" s="117"/>
       <c r="B12" t="s">
         <v>188</v>
       </c>
@@ -9132,7 +9132,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="122" t="s">
+      <c r="A17" s="117" t="s">
         <v>0</v>
       </c>
       <c r="B17" t="s">
@@ -9149,7 +9149,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="122"/>
+      <c r="A18" s="117"/>
       <c r="B18" t="s">
         <v>188</v>
       </c>
@@ -9164,7 +9164,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="122"/>
+      <c r="A19" s="117"/>
       <c r="B19" t="s">
         <v>188</v>
       </c>
@@ -9193,7 +9193,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="122" t="s">
+      <c r="A23" s="117" t="s">
         <v>0</v>
       </c>
       <c r="B23" t="s">
@@ -9210,7 +9210,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="122"/>
+      <c r="A24" s="117"/>
       <c r="B24" t="s">
         <v>188</v>
       </c>
@@ -9225,7 +9225,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="122"/>
+      <c r="A25" s="117"/>
       <c r="B25" t="s">
         <v>188</v>
       </c>
@@ -9254,7 +9254,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="122" t="s">
+      <c r="A28" s="117" t="s">
         <v>0</v>
       </c>
       <c r="B28" t="s">
@@ -9268,7 +9268,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="122"/>
+      <c r="A29" s="117"/>
       <c r="B29" s="82" t="s">
         <v>188</v>
       </c>
@@ -9280,7 +9280,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="122"/>
+      <c r="A30" s="117"/>
       <c r="B30" s="82" t="s">
         <v>188</v>
       </c>

--- a/tests/ExcelProcesser.Tests/resources/testData.xlsx
+++ b/tests/ExcelProcesser.Tests/resources/testData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5449E2D1-E24D-4E35-9228-305A44895EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52F97DF-02FB-4BBC-9FAD-40A9588BA269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="279">
   <si>
     <t>Input</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1174,6 +1174,37 @@
   </si>
   <si>
     <t>mxEmptyRow_End</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mxUntil not including self</t>
+  </si>
+  <si>
+    <t>MXUntil_No_Self_1A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>U_1A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>U_1B</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>U_1C</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>U_1D</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>U_1E</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>U_1F</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1386,7 +1417,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1513,6 +1544,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2027,7 +2064,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="211">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
@@ -2339,12 +2376,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2627,6 +2664,9 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" xfId="6" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" xfId="8" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="6" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="20% - Accent1" xfId="6" builtinId="30"/>
@@ -3253,16 +3293,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K140"/>
+  <dimension ref="A1:K146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C55" sqref="B55:C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="5" width="12.77734375" customWidth="1"/>
+    <col min="2" max="3" width="12.77734375" customWidth="1"/>
+    <col min="4" max="4" width="23.77734375" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" customWidth="1"/>
     <col min="10" max="10" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3291,14 +3333,14 @@
       <c r="C6" t="s">
         <v>155</v>
       </c>
-      <c r="D6" s="116" t="s">
+      <c r="D6" s="115" t="s">
         <v>74</v>
       </c>
-      <c r="E6" s="116"/>
-      <c r="G6" s="116" t="s">
+      <c r="E6" s="115"/>
+      <c r="G6" s="115" t="s">
         <v>75</v>
       </c>
-      <c r="H6" s="116"/>
+      <c r="H6" s="115"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -3508,390 +3550,404 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="114"/>
       <c r="B49" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="114"/>
       <c r="B50" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="D53" s="34" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="211" t="s">
+        <v>272</v>
+      </c>
+      <c r="C53" s="211" t="s">
+        <v>273</v>
+      </c>
+      <c r="E53" s="31"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="114"/>
-      <c r="B54" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="C54" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="D54" s="31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="212" t="s">
+        <v>274</v>
+      </c>
+      <c r="C54" s="212" t="s">
+        <v>275</v>
+      </c>
+      <c r="D54" s="31"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="114"/>
-      <c r="B55" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="C55" s="35" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="213" t="s">
+        <v>272</v>
+      </c>
+      <c r="C55" s="213" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="114"/>
-      <c r="B56" s="32" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="213" t="s">
+        <v>277</v>
+      </c>
+      <c r="C56" s="213" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C59" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D59" s="34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="114"/>
+      <c r="B60" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C60" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D60" s="31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="114"/>
+      <c r="B61" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="C61" s="35" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="114"/>
+      <c r="B62" s="32" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" t="s">
         <v>33</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C65" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="114"/>
-      <c r="C60" t="s">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="114"/>
+      <c r="C66" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="114"/>
-      <c r="C61" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="114"/>
+      <c r="C67" t="s">
         <v>37</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D67" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B71" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
-      <c r="B66" t="s">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="2"/>
+      <c r="B72" t="s">
         <v>119</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C72" t="s">
         <v>120</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D72" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
-      <c r="C67" t="s">
-        <v>121</v>
-      </c>
-      <c r="D67" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="33"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B72" t="s">
-        <v>128</v>
-      </c>
-      <c r="C72" t="s">
-        <v>129</v>
-      </c>
-      <c r="D72" t="s">
-        <v>132</v>
-      </c>
-      <c r="E72" t="s">
-        <v>133</v>
-      </c>
-      <c r="F72" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="C73" t="s">
+        <v>121</v>
+      </c>
+      <c r="D73" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="33"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>128</v>
+      </c>
+      <c r="C78" t="s">
+        <v>129</v>
+      </c>
+      <c r="D78" t="s">
+        <v>132</v>
+      </c>
+      <c r="E78" t="s">
+        <v>133</v>
+      </c>
+      <c r="F78" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="2"/>
+      <c r="C79" t="s">
         <v>130</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D79" t="s">
         <v>136</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E79" t="s">
         <v>135</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F79" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="2"/>
-      <c r="C74" t="s">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="2"/>
+      <c r="C80" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="33"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="33"/>
-      <c r="C76" t="s">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="33"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="33"/>
+      <c r="C82" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="114" t="s">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B86" t="s">
         <v>51</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C86" t="s">
         <v>52</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D86" t="s">
         <v>53</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E86" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="114"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="114"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="114"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="114"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="114" t="s">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B93" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="114"/>
-      <c r="B88" t="s">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="114"/>
+      <c r="B94" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="114"/>
-      <c r="B89" t="s">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="114"/>
+      <c r="B95" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="114"/>
-      <c r="B90" t="s">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="114"/>
+      <c r="B96" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="114" t="s">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B101" t="s">
         <v>44</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D101" t="s">
         <v>267</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E101" t="s">
         <v>45</v>
       </c>
-      <c r="H95" t="s">
+      <c r="H101" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="114"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="114"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="114"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="114"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="115" t="s">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B107" t="s">
         <v>269</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D107" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="115"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="115"/>
-      <c r="B103">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="116"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="116"/>
+      <c r="B109">
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="115"/>
-      <c r="D104">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="116"/>
+      <c r="D110">
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="115"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="113"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="113"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="113"/>
-      <c r="B108" t="s">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="116"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="113"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="113"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="113"/>
+      <c r="B114" t="s">
         <v>269</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D114" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="113"/>
-      <c r="B109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="113"/>
-      <c r="B110">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="113"/>
+      <c r="B115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="113"/>
+      <c r="B116">
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="113"/>
-      <c r="D111">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="113"/>
+      <c r="D117">
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="113"/>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="112"/>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="112"/>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="112"/>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="112"/>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="114" t="s">
-        <v>0</v>
-      </c>
-      <c r="B118" t="s">
-        <v>251</v>
-      </c>
-      <c r="D118" t="s">
-        <v>252</v>
-      </c>
-      <c r="E118" t="s">
-        <v>253</v>
-      </c>
-      <c r="G118" t="s">
-        <v>254</v>
-      </c>
-      <c r="J118" t="s">
-        <v>255</v>
-      </c>
+      <c r="A118" s="113"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="114"/>
+      <c r="A119" s="112"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="114"/>
+      <c r="A120" s="112"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="112"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="112"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>76</v>
+        <v>250</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
@@ -3899,13 +3955,19 @@
         <v>0</v>
       </c>
       <c r="B124" t="s">
-        <v>77</v>
-      </c>
-      <c r="C124" t="s">
-        <v>78</v>
+        <v>251</v>
       </c>
       <c r="D124" t="s">
-        <v>124</v>
+        <v>252</v>
+      </c>
+      <c r="E124" t="s">
+        <v>253</v>
+      </c>
+      <c r="G124" t="s">
+        <v>254</v>
+      </c>
+      <c r="J124" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
@@ -3914,40 +3976,34 @@
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="114"/>
     </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="B130" t="s">
+        <v>77</v>
+      </c>
+      <c r="C130" t="s">
+        <v>78</v>
+      </c>
+      <c r="D130" t="s">
+        <v>124</v>
+      </c>
+    </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="A131" s="114"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" s="114" t="s">
-        <v>0</v>
-      </c>
-      <c r="B132" t="s">
-        <v>60</v>
-      </c>
-      <c r="D132" t="s">
-        <v>61</v>
-      </c>
-      <c r="E132" t="s">
-        <v>62</v>
-      </c>
-      <c r="H132" t="s">
-        <v>63</v>
-      </c>
-      <c r="I132" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133" s="114"/>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" s="114"/>
+      <c r="A132" s="114"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>154</v>
+        <v>59</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
@@ -3976,26 +4032,58 @@
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="114"/>
     </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="B144" t="s">
+        <v>60</v>
+      </c>
+      <c r="D144" t="s">
+        <v>61</v>
+      </c>
+      <c r="E144" t="s">
+        <v>62</v>
+      </c>
+      <c r="H144" t="s">
+        <v>63</v>
+      </c>
+      <c r="I144" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="114"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="114"/>
+    </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A107:A111"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="A130:A132"/>
+    <mergeCell ref="A144:A146"/>
+    <mergeCell ref="A53:A56"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A118:A120"/>
-    <mergeCell ref="A132:A134"/>
+    <mergeCell ref="A124:A126"/>
+    <mergeCell ref="A138:A140"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A42:A44"/>
     <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A80:A82"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="A95:A97"/>
-    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="A93:A96"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="A65:A67"/>
     <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A101:A105"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="A124:A126"/>
-    <mergeCell ref="A138:A140"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6078,22 +6166,22 @@
       <c r="A98" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B98" s="116">
+      <c r="B98" s="115">
         <v>35</v>
       </c>
-      <c r="C98" s="116">
+      <c r="C98" s="115">
         <v>36</v>
       </c>
-      <c r="D98" s="116">
+      <c r="D98" s="115">
         <v>37</v>
       </c>
-      <c r="E98" s="116">
+      <c r="E98" s="115">
         <v>38</v>
       </c>
-      <c r="F98" s="116">
+      <c r="F98" s="115">
         <v>39</v>
       </c>
-      <c r="G98" s="116">
+      <c r="G98" s="115">
         <v>40</v>
       </c>
     </row>
@@ -6101,12 +6189,12 @@
       <c r="A99" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B99" s="116"/>
-      <c r="C99" s="116"/>
-      <c r="D99" s="116"/>
-      <c r="E99" s="116"/>
-      <c r="F99" s="116"/>
-      <c r="G99" s="116"/>
+      <c r="B99" s="115"/>
+      <c r="C99" s="115"/>
+      <c r="D99" s="115"/>
+      <c r="E99" s="115"/>
+      <c r="F99" s="115"/>
+      <c r="G99" s="115"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="117"/>
@@ -6576,14 +6664,14 @@
       <c r="C154" s="121" t="s">
         <v>187</v>
       </c>
-      <c r="D154" s="116" t="s">
+      <c r="D154" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="E154" s="116"/>
-      <c r="F154" s="116"/>
-      <c r="G154" s="116"/>
-      <c r="H154" s="116"/>
-      <c r="I154" s="116"/>
+      <c r="E154" s="115"/>
+      <c r="F154" s="115"/>
+      <c r="G154" s="115"/>
+      <c r="H154" s="115"/>
+      <c r="I154" s="115"/>
       <c r="J154" s="121"/>
       <c r="K154" s="121"/>
     </row>
@@ -6630,14 +6718,14 @@
       <c r="C160" s="121" t="s">
         <v>187</v>
       </c>
-      <c r="D160" s="116" t="s">
+      <c r="D160" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="E160" s="116"/>
-      <c r="F160" s="116"/>
-      <c r="G160" s="116"/>
-      <c r="H160" s="116"/>
-      <c r="I160" s="116"/>
+      <c r="E160" s="115"/>
+      <c r="F160" s="115"/>
+      <c r="G160" s="115"/>
+      <c r="H160" s="115"/>
+      <c r="I160" s="115"/>
       <c r="J160" s="121" t="s">
         <v>168</v>
       </c>
@@ -8896,22 +8984,22 @@
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="I27" s="116"/>
-      <c r="J27" s="116"/>
-      <c r="K27" s="116"/>
-      <c r="L27" s="116"/>
+      <c r="I27" s="115"/>
+      <c r="J27" s="115"/>
+      <c r="K27" s="115"/>
+      <c r="L27" s="115"/>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="L29" s="116"/>
-      <c r="M29" s="116"/>
-      <c r="N29" s="116"/>
-      <c r="O29" s="116"/>
+      <c r="L29" s="115"/>
+      <c r="M29" s="115"/>
+      <c r="N29" s="115"/>
+      <c r="O29" s="115"/>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="L30" s="116"/>
-      <c r="M30" s="116"/>
-      <c r="N30" s="116"/>
-      <c r="O30" s="116"/>
+      <c r="L30" s="115"/>
+      <c r="M30" s="115"/>
+      <c r="N30" s="115"/>
+      <c r="O30" s="115"/>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="AF31" t="s">
